--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>66.2</v>
+        <v>64.95</v>
       </c>
       <c r="F2" s="39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -1629,7 +1629,7 @@
         <v>19484</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>3598</v>
+        <v>3530</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1126</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="V3" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399396</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412100</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>94.41</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1</v>
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>65.68000000000001</v>
+        <v>63.34</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>1.32</v>
+        <v>0.18</v>
       </c>
       <c r="G6" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -1949,7 +1949,7 @@
         <v>11456</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>13532</v>
+        <v>13050</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2064</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="V6" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397621</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409778</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>85.13</v>
+        <v>85.05</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>1.05</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>111.65</v>
+        <v>111.21</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.7837</v>
@@ -2267,7 +2267,7 @@
         <v>118293</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>6427</v>
+        <v>6402</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>543</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.68</v>
+        <v>8.58</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2439,7 +2439,7 @@
         <v>4993</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13436</v>
+        <v>13281</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>606</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>998.79</v>
+        <v>997.12</v>
       </c>
       <c r="J14" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2593,7 +2593,7 @@
       <c r="K14" s="14" t="n"/>
       <c r="L14" s="14" t="n"/>
       <c r="M14" s="13" t="n">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="N14" s="13" t="n">
         <v>56</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>9.300000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.13</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2893,7 +2893,7 @@
         <v>333</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>6502</v>
+        <v>6493</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>721</v>
@@ -2960,7 +2960,7 @@
         <v>0.7973</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>80.8</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="J19" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="N19" s="13" t="n">
         <v>33</v>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="E20" s="39" t="n">
-        <v>77.37</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="F20" s="39" t="n">
         <v>0.05</v>
@@ -3061,7 +3061,7 @@
         <v>282</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>3995</v>
+        <v>3975</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>103</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>87.02</v>
+        <v>84.75</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>2045</v>
+        <v>1993.01</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>27.1886</v>
@@ -3375,7 +3375,7 @@
         <v>8495</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>2964</v>
+        <v>2889</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>555</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="V24" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401589</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411849</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>65.13</v>
+        <v>64</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.64</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>84.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.92</v>
@@ -3617,7 +3617,7 @@
         <v>73513</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3443</v>
+        <v>3431</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>494</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>94.12</v>
+        <v>92.5</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3703,7 +3703,7 @@
         <v>9137</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9325</v>
+        <v>9164</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1471</v>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>63.64</v>
+        <v>62.36</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3767,7 +3767,7 @@
         <v/>
       </c>
       <c r="H29" s="39" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="I29" s="39" t="n">
         <v>73.90000000000001</v>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>83.29000000000001</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.76</v>
@@ -3848,7 +3848,7 @@
         <v>8.83</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>100.26</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="J30" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -3857,10 +3857,10 @@
       <c r="K30" s="14" t="n"/>
       <c r="L30" s="14" t="n"/>
       <c r="M30" s="13" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="N30" s="13" t="n">
-        <v>14255</v>
+        <v>14216</v>
       </c>
       <c r="O30" s="13" t="n"/>
       <c r="P30" s="13" t="n"/>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>1.04</v>
@@ -3987,10 +3987,10 @@
       </c>
       <c r="D32" s="13" t="n"/>
       <c r="E32" s="39" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>12</v>
+        <v>18.4</v>
       </c>
       <c r="G32" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>98.15000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.82</v>
@@ -4078,7 +4078,7 @@
         <v>9.77</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>99.33</v>
+        <v>99.38</v>
       </c>
       <c r="J33" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -4087,10 +4087,10 @@
       <c r="K33" s="14" t="n"/>
       <c r="L33" s="14" t="n"/>
       <c r="M33" s="13" t="n">
-        <v>34.35</v>
+        <v>35.14</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O33" s="13" t="n"/>
       <c r="P33" s="13" t="n"/>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>7.71</v>
+        <v>7.47</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -4153,7 +4153,7 @@
         <v/>
       </c>
       <c r="H34" s="39" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="I34" s="39" t="n">
         <v>9.029999999999999</v>
@@ -4171,7 +4171,7 @@
         <v>6292</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1195</v>
+        <v>1158</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D36" s="13" t="n"/>
       <c r="E36" s="39" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F36" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -4307,7 +4307,7 @@
         <v/>
       </c>
       <c r="H36" s="39" t="n">
-        <v>6.35</v>
+        <v>6.39</v>
       </c>
       <c r="I36" s="39" t="n">
         <v>151.26</v>
@@ -4325,7 +4325,7 @@
         <v>132</v>
       </c>
       <c r="O36" s="13" t="n">
-        <v>32879</v>
+        <v>42012</v>
       </c>
       <c r="P36" s="13" t="n">
         <v>2228</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="V36" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397059</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412154</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
         <v/>
       </c>
       <c r="H37" s="39" t="n">
-        <v>4.56</v>
+        <v>4.05</v>
       </c>
       <c r="I37" s="39" t="n">
         <v>111.74</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>77</v>
+        <v>79.8</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.82</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>71.02</v>
+        <v>67.03</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.8</v>
@@ -4553,7 +4553,7 @@
         <v/>
       </c>
       <c r="H39" s="39" t="n">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
       <c r="I39" s="39" t="n">
         <v>95.94</v>
@@ -4575,7 +4575,7 @@
         <v>12045</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>60</v>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="E40" s="39" t="n">
-        <v>20000</v>
+        <v>19873.75</v>
       </c>
       <c r="F40" s="39" t="n">
         <v>36.21</v>
@@ -4661,7 +4661,7 @@
         <v>93</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>11724</v>
+        <v>11650</v>
       </c>
       <c r="P40" s="13" t="n">
         <v>378</v>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.065</v>
@@ -4725,7 +4725,7 @@
         <v/>
       </c>
       <c r="H41" s="39" t="n">
-        <v>0.8928</v>
+        <v>0.8828</v>
       </c>
       <c r="I41" s="39" t="n">
         <v>7.74</v>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D42" s="13" t="n"/>
       <c r="E42" s="39" t="n">
-        <v>102</v>
+        <v>100.96</v>
       </c>
       <c r="F42" s="39" t="n">
         <v>1.03</v>
@@ -4799,7 +4799,7 @@
         <v/>
       </c>
       <c r="H42" s="39" t="n">
-        <v>10.3</v>
+        <v>11.33</v>
       </c>
       <c r="I42" s="39" t="n">
         <v>101.07</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="V42" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=400597</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412867</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>103.5</v>
+        <v>102.85</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v/>
       </c>
       <c r="H44" s="39" t="n">
-        <v>8.91</v>
+        <v>9.01</v>
       </c>
       <c r="I44" s="39" t="n">
         <v>113.47</v>
@@ -4981,7 +4981,7 @@
         <v>1427</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>14042</v>
+        <v>13953</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1250</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="V44" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397981</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409834</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>123.3</v>
+        <v>122.79</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.5039</v>
@@ -5067,7 +5067,7 @@
         <v>3955</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7949</v>
+        <v>7917</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1243</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="V45" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401361</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412289</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>64.45</v>
+        <v>62.8</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="V46" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398944</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411599</t>
         </is>
       </c>
     </row>
@@ -5198,14 +5198,14 @@
         <v>0</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>15.0515</v>
+        <v>13.8089</v>
       </c>
       <c r="G47" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H47" s="39" t="n">
-        <v>83.76990000000001</v>
+        <v>97.5788</v>
       </c>
       <c r="I47" s="39" t="n">
         <v>10268.52</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>60.16</v>
+        <v>59.99</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5305,7 +5305,7 @@
         <v>1595</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3288520</v>
+        <v>3279225</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>634391</v>
@@ -5369,7 +5369,7 @@
         <v/>
       </c>
       <c r="H49" s="39" t="n">
-        <v>10.3925</v>
+        <v>10.4361</v>
       </c>
       <c r="I49" s="39" t="n">
         <v>109.14</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>92.98999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.65</v>
@@ -5477,7 +5477,7 @@
         <v>110494</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3080</v>
+        <v>3110</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>308</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>56.65</v>
+        <v>54</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.47</v>
@@ -5541,7 +5541,7 @@
         <v/>
       </c>
       <c r="H51" s="39" t="n">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="I51" s="39" t="n">
         <v>99.81</v>
@@ -5563,7 +5563,7 @@
         <v>156823</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>10099</v>
+        <v>9627</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1176</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>102.99</v>
+        <v>103</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.75</v>
@@ -5627,7 +5627,7 @@
         <v/>
       </c>
       <c r="H52" s="39" t="n">
-        <v>7.45</v>
+        <v>7.53</v>
       </c>
       <c r="I52" s="39" t="n">
         <v>121.4</v>
@@ -5649,7 +5649,7 @@
         <v>145</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>16414</v>
+        <v>16415</v>
       </c>
       <c r="P52" s="13" t="n">
         <v>1307</v>
@@ -5692,7 +5692,11 @@
           <t>FII</t>
         </is>
       </c>
-      <c r="C53" s="13" t="inlineStr"/>
+      <c r="C53" s="13" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
           <t>Graphen Investimentos</t>
@@ -5714,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>84.14</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="J53" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -5723,7 +5727,7 @@
       <c r="K53" s="14" t="n"/>
       <c r="L53" s="14" t="n"/>
       <c r="M53" s="13" t="n">
-        <v>8.99</v>
+        <v>8.84</v>
       </c>
       <c r="N53" s="13" t="n">
         <v>11</v>
@@ -5857,7 +5861,7 @@
       </c>
       <c r="D55" s="13" t="n"/>
       <c r="E55" s="39" t="n">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="F55" s="39" t="inlineStr">
         <is>
@@ -5869,7 +5873,7 @@
         <v/>
       </c>
       <c r="H55" s="39" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I55" s="39" t="n">
         <v>1093.91</v>
@@ -5886,8 +5890,12 @@
       <c r="N55" s="13" t="n">
         <v>242</v>
       </c>
-      <c r="O55" s="13" t="n"/>
-      <c r="P55" s="13" t="n"/>
+      <c r="O55" s="13" t="n">
+        <v>8139</v>
+      </c>
+      <c r="P55" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="Q55" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
         <v/>
@@ -5911,7 +5919,7 @@
       </c>
       <c r="V55" s="38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=232253</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6017,7 @@
       </c>
       <c r="D57" s="13" t="n"/>
       <c r="E57" s="39" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57" s="39" t="n">
         <v>1.093</v>
@@ -6019,7 +6027,7 @@
         <v/>
       </c>
       <c r="H57" s="39" t="n">
-        <v>12.78</v>
+        <v>12.8901</v>
       </c>
       <c r="I57" s="39" t="n">
         <v>157.99</v>
@@ -6037,7 +6045,7 @@
         <v>228</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="P57" s="13" t="n">
         <v>62</v>
@@ -6163,7 +6171,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>89.59</v>
+        <v>87.55</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6195,7 +6203,7 @@
         <v>42591</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1511</v>
+        <v>1476</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>152</v>
@@ -6259,7 +6267,7 @@
         <v/>
       </c>
       <c r="H60" s="39" t="n">
-        <v>11.03</v>
+        <v>9.98</v>
       </c>
       <c r="I60" s="39" t="n">
         <v>95.27</v>
@@ -6327,7 +6335,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>94.2</v>
+        <v>94.08</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6359,7 +6367,7 @@
         <v>205790</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>73</v>
@@ -6413,7 +6421,7 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>83.42</v>
+        <v>83.37</v>
       </c>
       <c r="F62" s="39" t="n">
         <v>0.875</v>
@@ -6508,7 +6516,7 @@
         <v>9.99</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>137.65</v>
+        <v>137.67</v>
       </c>
       <c r="J63" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -6586,7 +6594,7 @@
         <v>1.42</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>104.29</v>
+        <v>103.97</v>
       </c>
       <c r="J64" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -6595,7 +6603,7 @@
       <c r="K64" s="14" t="n"/>
       <c r="L64" s="14" t="n"/>
       <c r="M64" s="13" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="N64" s="13" t="n">
         <v>91</v>
@@ -6971,10 +6979,10 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>103.9</v>
+        <v>103.2</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="G69" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7049,7 +7057,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7077,7 +7085,7 @@
         <v>11934</v>
       </c>
       <c r="O70" s="13" t="n">
-        <v>3514</v>
+        <v>3345</v>
       </c>
       <c r="P70" s="13" t="n">
         <v>10</v>
@@ -7131,7 +7139,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>46.24</v>
+        <v>46.08</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>1.12</v>
@@ -7151,7 +7159,7 @@
         <v/>
       </c>
       <c r="K71" s="14" t="n">
-        <v>0.473</v>
+        <v>0.373</v>
       </c>
       <c r="L71" s="14" t="n">
         <v>0</v>
@@ -7163,7 +7171,7 @@
         <v>3655</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3951</v>
+        <v>3937</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>334</v>
@@ -7223,7 +7231,7 @@
         <v/>
       </c>
       <c r="H72" s="39" t="n">
-        <v>2.69</v>
+        <v>3.54</v>
       </c>
       <c r="I72" s="39" t="n">
         <v>100.72</v>
@@ -7287,7 +7295,7 @@
       </c>
       <c r="D73" s="13" t="n"/>
       <c r="E73" s="39" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="39" t="n">
         <v>0.5014999999999999</v>
@@ -7365,7 +7373,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>53.2</v>
+        <v>54.97</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.5991</v>
@@ -7375,7 +7383,7 @@
         <v/>
       </c>
       <c r="H74" s="39" t="n">
-        <v>6.0315</v>
+        <v>6.2088</v>
       </c>
       <c r="I74" s="39" t="n">
         <v>78.8</v>
@@ -7397,7 +7405,7 @@
         <v>4957</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7485</v>
+        <v>7734</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>982</v>
@@ -7425,7 +7433,7 @@
       </c>
       <c r="V74" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401615</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411852</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7609,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>69.5</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7633,7 +7641,7 @@
         <v>1204</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>7945</v>
+        <v>7887</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>284</v>
@@ -7771,7 +7779,7 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>29.99</v>
+        <v>30</v>
       </c>
       <c r="F79" s="39" t="n">
         <v>0.1699</v>
@@ -7831,7 +7839,7 @@
       </c>
       <c r="V79" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404817</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411603</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7865,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>60.9</v>
+        <v>57.33</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.6</v>
@@ -7867,7 +7875,7 @@
         <v/>
       </c>
       <c r="H80" s="39" t="n">
-        <v>7.4</v>
+        <v>7.06</v>
       </c>
       <c r="I80" s="39" t="n">
         <v>77.28</v>
@@ -7935,7 +7943,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>79.22</v>
+        <v>78</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.58</v>
@@ -7945,7 +7953,7 @@
         <v/>
       </c>
       <c r="H81" s="39" t="n">
-        <v>11.65</v>
+        <v>11.3</v>
       </c>
       <c r="I81" s="39" t="n">
         <v>88.76000000000001</v>
@@ -8013,10 +8021,10 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>63.83</v>
+        <v>64.34</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G82" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8163,7 +8171,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>11.78</v>
+        <v>11.64</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8195,7 +8203,7 @@
         <v>3229</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8249,7 +8257,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>88.47</v>
+        <v>88.08</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>1.1</v>
@@ -8259,7 +8267,7 @@
         <v/>
       </c>
       <c r="H85" s="39" t="n">
-        <v>12.57</v>
+        <v>12.55</v>
       </c>
       <c r="I85" s="39" t="n">
         <v>93.86</v>
@@ -8397,7 +8405,7 @@
       </c>
       <c r="D87" s="13" t="n"/>
       <c r="E87" s="39" t="n">
-        <v>77.02</v>
+        <v>76.39</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.95</v>
@@ -8425,7 +8433,7 @@
         <v>11488</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2794</v>
+        <v>2771</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>237</v>
@@ -8479,7 +8487,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>40.2</v>
+        <v>39.65</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4037</v>
@@ -8511,10 +8519,10 @@
         <v>4078</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3257</v>
+        <v>3213</v>
       </c>
       <c r="P88" s="13" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q88" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -8561,7 +8569,7 @@
       </c>
       <c r="D89" s="13" t="n"/>
       <c r="E89" s="39" t="n">
-        <v>75.16</v>
+        <v>78</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.83</v>
@@ -8571,7 +8579,7 @@
         <v/>
       </c>
       <c r="H89" s="39" t="n">
-        <v>7.53</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I89" s="39" t="n">
         <v>93.11</v>
@@ -8639,7 +8647,7 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>69.83</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="F90" s="39" t="n">
         <v>0.724</v>
@@ -8671,7 +8679,7 @@
         <v>13267</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2945</v>
+        <v>2853</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>381</v>
@@ -8725,7 +8733,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>63.5</v>
+        <v>62.6</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8803,7 +8811,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>0.4016</v>
@@ -8823,7 +8831,7 @@
         <v/>
       </c>
       <c r="K92" s="14" t="n">
-        <v>0.6509999999999999</v>
+        <v>0</v>
       </c>
       <c r="L92" s="14" t="n">
         <v>0</v>
@@ -8835,10 +8843,10 @@
         <v>604</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>881</v>
+        <v>2520</v>
       </c>
       <c r="P92" s="13" t="n">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="Q92" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -8885,7 +8893,7 @@
       </c>
       <c r="D93" s="13" t="n"/>
       <c r="E93" s="39" t="n">
-        <v>8.27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1168</v>
@@ -9039,10 +9047,10 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>13.16</v>
+        <v>14.3</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>0.0712</v>
+        <v>0.1533</v>
       </c>
       <c r="G95" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -9052,26 +9060,26 @@
         <v>0.3127</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>13.27</v>
+        <v>13.19</v>
       </c>
       <c r="J95" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
       <c r="K95" s="14" t="n">
-        <v>0.153</v>
+        <v>0.147</v>
       </c>
       <c r="L95" s="14" t="n">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="M95" s="13" t="n">
-        <v>0.93</v>
+        <v>1.56</v>
       </c>
       <c r="N95" s="13" t="n">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1488</v>
+        <v>1627</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>72</v>
@@ -9125,7 +9133,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>88.02</v>
+        <v>87.37</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>1.05</v>
@@ -9135,7 +9143,7 @@
         <v/>
       </c>
       <c r="H96" s="39" t="n">
-        <v>13.46</v>
+        <v>13.31</v>
       </c>
       <c r="I96" s="39" t="n">
         <v>101.69</v>
@@ -9213,7 +9221,7 @@
         <v/>
       </c>
       <c r="H97" s="39" t="n">
-        <v>0.0975</v>
+        <v>0.0956</v>
       </c>
       <c r="I97" s="39" t="n">
         <v>0.66</v>
@@ -9533,7 +9541,7 @@
       </c>
       <c r="D101" s="13" t="n"/>
       <c r="E101" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>1.05</v>
@@ -9543,7 +9551,7 @@
         <v/>
       </c>
       <c r="H101" s="39" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I101" s="39" t="n">
         <v>97.11</v>
@@ -9561,7 +9569,7 @@
         <v>137</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2756</v>
+        <v>2728</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>96</v>
@@ -9615,7 +9623,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>94.87</v>
+        <v>100.5</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.74</v>
@@ -9625,7 +9633,7 @@
         <v/>
       </c>
       <c r="H102" s="39" t="n">
-        <v>7.29</v>
+        <v>7.32</v>
       </c>
       <c r="I102" s="39" t="n">
         <v>132.36</v>
@@ -9647,7 +9655,7 @@
         <v>362</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>8778</v>
+        <v>9299</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>844</v>
@@ -9675,7 +9683,7 @@
       </c>
       <c r="V102" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=391486</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409673</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9709,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>70.12</v>
+        <v>69.14</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.8</v>
@@ -9779,10 +9787,10 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F104" s="39" t="n">
-        <v>1.8249</v>
+        <v>1.703</v>
       </c>
       <c r="G104" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -9811,7 +9819,7 @@
         <v>545</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>127950</v>
+        <v>133979</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>13821</v>
@@ -9839,7 +9847,7 @@
       </c>
       <c r="V104" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408124</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412288</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9873,7 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>19.92</v>
+        <v>20</v>
       </c>
       <c r="F105" s="39" t="n">
         <v>0.1162</v>
@@ -9878,7 +9886,7 @@
         <v>1.5648</v>
       </c>
       <c r="I105" s="39" t="n">
-        <v>61.1</v>
+        <v>61.3</v>
       </c>
       <c r="J105" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -9891,13 +9899,13 @@
         <v>0.346</v>
       </c>
       <c r="M105" s="13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N105" s="13" t="n">
         <v>6060</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>433</v>
@@ -9925,7 +9933,7 @@
       </c>
       <c r="V105" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399326</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411605</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9955,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10037,7 +10045,7 @@
         <v/>
       </c>
       <c r="H107" s="39" t="n">
-        <v>100.16</v>
+        <v>100.54</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>1444.43</v>
@@ -10109,7 +10117,7 @@
       </c>
       <c r="D108" s="13" t="n"/>
       <c r="E108" s="39" t="n">
-        <v>9.390000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10271,7 +10279,7 @@
         <v/>
       </c>
       <c r="H110" s="39" t="n">
-        <v>5.2011</v>
+        <v>5.8955</v>
       </c>
       <c r="I110" s="39" t="n">
         <v>137.07</v>
@@ -10427,7 +10435,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>239.93</v>
+        <v>237.98</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>2.03</v>
@@ -10459,7 +10467,7 @@
         <v>2563</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>76</v>
@@ -10509,7 +10517,7 @@
       </c>
       <c r="D113" s="13" t="n"/>
       <c r="E113" s="39" t="n">
-        <v>93.79000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F113" s="39" t="n">
         <v>0.75</v>
@@ -10537,7 +10545,7 @@
         <v>1152</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>9463</v>
+        <v>9293</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>578</v>
@@ -10665,7 +10673,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>144.17</v>
+        <v>142.7</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.5978</v>
@@ -10675,7 +10683,7 @@
         <v/>
       </c>
       <c r="H115" s="39" t="n">
-        <v>17.9013</v>
+        <v>18.2621</v>
       </c>
       <c r="I115" s="39" t="n">
         <v>217.63</v>
@@ -10697,7 +10705,7 @@
         <v>4783</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2436</v>
+        <v>2411</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>302</v>
@@ -10725,7 +10733,7 @@
       </c>
       <c r="V115" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401599</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411595</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10831,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>714</v>
+        <v>714.5</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10855,7 +10863,7 @@
         <v>2806</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -10909,7 +10917,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>94.22</v>
+        <v>93.97</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.92</v>
@@ -10919,7 +10927,7 @@
         <v/>
       </c>
       <c r="H118" s="39" t="n">
-        <v>10</v>
+        <v>10.14</v>
       </c>
       <c r="I118" s="39" t="n">
         <v>99.48</v>
@@ -10941,7 +10949,7 @@
         <v>895</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>30376</v>
+        <v>30295</v>
       </c>
       <c r="P118" s="13" t="n">
         <v>2076</v>
@@ -11077,7 +11085,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>112.85</v>
+        <v>113.89</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.7803</v>
@@ -11109,7 +11117,7 @@
         <v>3830</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>12633</v>
+        <v>12750</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1189</v>
@@ -11137,7 +11145,7 @@
       </c>
       <c r="V120" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401608</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411600</t>
         </is>
       </c>
     </row>
@@ -11293,7 +11301,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>46.03</v>
+        <v>45.8</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.42</v>
@@ -11325,7 +11333,7 @@
         <v>15678</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>214</v>
@@ -11379,10 +11387,10 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>442.5</v>
+        <v>447.99</v>
       </c>
       <c r="F124" s="39" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="G124" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -11411,7 +11419,7 @@
         <v>16981</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>58</v>
@@ -11465,7 +11473,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>144.07</v>
+        <v>139.02</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11497,7 +11505,7 @@
         <v>8110</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1890</v>
+        <v>1824</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>245</v>
@@ -11639,7 +11647,7 @@
         <v/>
       </c>
       <c r="H127" s="39" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="I127" s="39" t="n">
         <v>115.41</v>
@@ -11728,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="39" t="n">
-        <v>74.69</v>
+        <v>74.87</v>
       </c>
       <c r="J128" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -11793,7 +11801,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -11877,7 +11885,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>95.61</v>
+        <v>95.48</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.162</v>
@@ -11887,7 +11895,7 @@
         <v/>
       </c>
       <c r="H130" s="39" t="n">
-        <v>14.5763</v>
+        <v>14.292</v>
       </c>
       <c r="I130" s="39" t="n">
         <v>98.42</v>
@@ -11929,7 +11937,7 @@
       </c>
       <c r="V130" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=400593</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412046</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11963,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>128.52</v>
+        <v>125.54</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>1.02</v>
@@ -11965,7 +11973,7 @@
         <v/>
       </c>
       <c r="H131" s="39" t="n">
-        <v>10.22</v>
+        <v>10.29</v>
       </c>
       <c r="I131" s="39" t="n">
         <v>160.25</v>
@@ -11987,7 +11995,7 @@
         <v>17204</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>10157</v>
+        <v>9921</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>852</v>
@@ -12041,7 +12049,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1560.06</v>
+        <v>1594.93</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>20</v>
@@ -12073,7 +12081,7 @@
         <v>806</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2352</v>
+        <v>2405</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>190</v>
@@ -12291,7 +12299,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>138.04</v>
+        <v>140</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>1.65</v>
@@ -12323,7 +12331,7 @@
         <v>911</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2253</v>
+        <v>2285</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>445</v>
@@ -12387,7 +12395,7 @@
         <v/>
       </c>
       <c r="H136" s="39" t="n">
-        <v>7.89</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I136" s="39" t="n">
         <v>170.64</v>
@@ -12397,7 +12405,7 @@
         <v/>
       </c>
       <c r="K136" s="14" t="n">
-        <v>0.173</v>
+        <v>0.146</v>
       </c>
       <c r="L136" s="14" t="n">
         <v>0</v>
@@ -12462,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="39" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="G137" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -12547,7 +12555,7 @@
         <v/>
       </c>
       <c r="H138" s="39" t="n">
-        <v>135.9323</v>
+        <v>222.0555</v>
       </c>
       <c r="I138" s="39" t="n">
         <v>2817.2</v>
@@ -12711,10 +12719,10 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>99.88</v>
+        <v>99.11</v>
       </c>
       <c r="F140" s="39" t="n">
-        <v>0.145</v>
+        <v>1.24</v>
       </c>
       <c r="G140" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -12743,7 +12751,7 @@
         <v>3930</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4846</v>
+        <v>4809</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>840</v>
@@ -12797,10 +12805,10 @@
         </is>
       </c>
       <c r="E141" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F141" s="39" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="G141" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -12829,7 +12837,7 @@
         <v>21737</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4736</v>
+        <v>4603</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>459</v>
@@ -12857,7 +12865,7 @@
       </c>
       <c r="V141" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=395995</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411582</t>
         </is>
       </c>
     </row>
@@ -12883,7 +12891,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>8.76</v>
+        <v>8.67</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -12893,7 +12901,7 @@
         <v/>
       </c>
       <c r="H142" s="39" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="I142" s="39" t="n">
         <v>9.83</v>
@@ -12935,7 +12943,7 @@
       </c>
       <c r="V142" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=396275</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409690</t>
         </is>
       </c>
     </row>
@@ -12961,7 +12969,7 @@
         </is>
       </c>
       <c r="E143" s="39" t="n">
-        <v>68.97</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F143" s="39" t="n">
         <v>0.72</v>
@@ -12971,7 +12979,7 @@
         <v/>
       </c>
       <c r="H143" s="39" t="n">
-        <v>9.029999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I143" s="39" t="n">
         <v>81.38</v>
@@ -13039,7 +13047,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>91.20999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13049,7 +13057,7 @@
         <v/>
       </c>
       <c r="H144" s="39" t="n">
-        <v>15.31</v>
+        <v>14.11</v>
       </c>
       <c r="I144" s="39" t="n">
         <v>94.37</v>
@@ -13152,7 +13160,7 @@
         <v>6180</v>
       </c>
       <c r="P145" s="13" t="n">
-        <v>662</v>
+        <v>721</v>
       </c>
       <c r="Q145" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -13203,7 +13211,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>100.01</v>
+        <v>100.81</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>0.95</v>
@@ -13235,7 +13243,7 @@
         <v>102314</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>111</v>
@@ -13505,7 +13513,7 @@
       </c>
       <c r="V149" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=400329</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412890</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13535,7 @@
       </c>
       <c r="D150" s="13" t="n"/>
       <c r="E150" s="39" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F150" s="39" t="n">
         <v>0.7</v>
@@ -13540,7 +13548,7 @@
         <v>8.4</v>
       </c>
       <c r="I150" s="39" t="n">
-        <v>94.48</v>
+        <v>93.92</v>
       </c>
       <c r="J150" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -13549,13 +13557,13 @@
       <c r="K150" s="14" t="n"/>
       <c r="L150" s="14" t="n"/>
       <c r="M150" s="13" t="n">
-        <v>4.11</v>
+        <v>4.32</v>
       </c>
       <c r="N150" s="13" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>3943</v>
+        <v>3925</v>
       </c>
       <c r="P150" s="13" t="n">
         <v>307</v>
@@ -13609,7 +13617,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>73.47</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13641,7 +13649,7 @@
         <v>26273</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>9803</v>
+        <v>9779</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1276</v>
@@ -13929,7 +13937,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>79.77</v>
+        <v>77.91</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.57</v>
@@ -13961,7 +13969,7 @@
         <v>157</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>18861</v>
+        <v>18421</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1632</v>
@@ -14015,10 +14023,10 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>88.31</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F156" s="39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G156" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -14102,7 +14110,7 @@
         <v>6.1076</v>
       </c>
       <c r="I157" s="39" t="n">
-        <v>102.01</v>
+        <v>101.94</v>
       </c>
       <c r="J157" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -14111,10 +14119,10 @@
       <c r="K157" s="14" t="n"/>
       <c r="L157" s="14" t="n"/>
       <c r="M157" s="13" t="n">
-        <v>4.02</v>
+        <v>3.77</v>
       </c>
       <c r="N157" s="13" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O157" s="13" t="n">
         <v>7374</v>
@@ -14145,7 +14153,7 @@
       </c>
       <c r="V157" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397629</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411265</t>
         </is>
       </c>
     </row>
@@ -14171,7 +14179,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>90.98999999999999</v>
+        <v>91.39</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6889</v>
@@ -14203,7 +14211,7 @@
         <v>1342</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8359</v>
+        <v>8395</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>881</v>
@@ -14333,7 +14341,7 @@
       </c>
       <c r="D160" s="13" t="n"/>
       <c r="E160" s="39" t="n">
-        <v>82.51000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14483,7 +14491,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>230.9</v>
+        <v>230.99</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>3.4899</v>
@@ -14493,7 +14501,7 @@
         <v/>
       </c>
       <c r="H162" s="39" t="n">
-        <v>19.9577</v>
+        <v>19.9373</v>
       </c>
       <c r="I162" s="39" t="n">
         <v>307.96</v>
@@ -14515,7 +14523,7 @@
         <v>3066</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8378</v>
+        <v>8381</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1178</v>
@@ -14543,7 +14551,7 @@
       </c>
       <c r="V162" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=403473</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411060</t>
         </is>
       </c>
     </row>
@@ -14563,13 +14571,9 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="D163" s="13" t="inlineStr">
-        <is>
-          <t>Hectare Capital</t>
-        </is>
-      </c>
+      <c r="D163" s="13" t="n"/>
       <c r="E163" s="39" t="n">
-        <v>61</v>
+        <v>61.01</v>
       </c>
       <c r="F163" s="39" t="inlineStr">
         <is>
@@ -14649,7 +14653,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>98.59</v>
+        <v>93.08</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>1.1</v>
@@ -14659,7 +14663,7 @@
         <v/>
       </c>
       <c r="H164" s="39" t="n">
-        <v>14.57</v>
+        <v>15.57</v>
       </c>
       <c r="I164" s="39" t="n">
         <v>121.38</v>
@@ -14877,7 +14881,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>65.13</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.62</v>
@@ -14929,7 +14933,7 @@
       </c>
       <c r="V167" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399848</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412864</t>
         </is>
       </c>
     </row>
@@ -14955,7 +14959,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>182.5</v>
+        <v>179.45</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -14987,7 +14991,7 @@
         <v>91110</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3567</v>
+        <v>3507</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>301</v>
@@ -15041,7 +15045,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>100.2</v>
+        <v>98.83</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15119,7 +15123,7 @@
         </is>
       </c>
       <c r="E170" s="39" t="n">
-        <v>68.8</v>
+        <v>67.42</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15193,10 +15197,10 @@
       </c>
       <c r="D171" s="13" t="n"/>
       <c r="E171" s="39" t="n">
-        <v>102.35</v>
+        <v>101.26</v>
       </c>
       <c r="F171" s="39" t="n">
-        <v>1.1</v>
+        <v>0.6525</v>
       </c>
       <c r="G171" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -15349,7 +15353,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>162.02</v>
+        <v>160.19</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>2.2</v>
@@ -15369,7 +15373,7 @@
         <v/>
       </c>
       <c r="K173" s="14" t="n">
-        <v>0.073</v>
+        <v>0.068</v>
       </c>
       <c r="L173" s="14" t="n">
         <v>0</v>
@@ -15381,7 +15385,7 @@
         <v>334810</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3318</v>
+        <v>3280</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>226</v>
@@ -15435,7 +15439,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>248.21</v>
+        <v>248.28</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15455,7 +15459,7 @@
         <v/>
       </c>
       <c r="K174" s="14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L174" s="14" t="n">
         <v>0</v>
@@ -15467,7 +15471,7 @@
         <v>8942</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>34341</v>
+        <v>34351</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2459</v>
@@ -15521,7 +15525,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>111.19</v>
+        <v>108.98</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>1.1</v>
@@ -15553,7 +15557,7 @@
         <v>138126</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>6637</v>
+        <v>6505</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>528</v>
@@ -15683,7 +15687,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>116.51</v>
+        <v>115.9</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>2</v>
@@ -15715,7 +15719,7 @@
         <v>189702</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4053</v>
+        <v>4032</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>376</v>
@@ -15769,7 +15773,7 @@
         </is>
       </c>
       <c r="E178" s="39" t="n">
-        <v>85</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15801,7 +15805,7 @@
         <v>4182</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>8216</v>
+        <v>8279</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>858</v>
@@ -15933,7 +15937,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>25.12</v>
+        <v>24.6</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -15961,7 +15965,7 @@
         <v>8437</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2157</v>
+        <v>2112</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>525</v>
@@ -16015,10 +16019,10 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>69.98999999999999</v>
+        <v>60</v>
       </c>
       <c r="F181" s="39" t="n">
-        <v>1.5226</v>
+        <v>0.44</v>
       </c>
       <c r="G181" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -16093,7 +16097,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>71.20999999999999</v>
+        <v>72</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.32</v>
@@ -16125,7 +16129,7 @@
         <v>386</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>140</v>
@@ -16179,7 +16183,7 @@
         </is>
       </c>
       <c r="E183" s="39" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F183" s="39" t="n">
         <v>6.8</v>
@@ -16257,7 +16261,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>75.91</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.95</v>
@@ -16335,10 +16339,10 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>77.41</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="F185" s="39" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G185" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -16348,7 +16352,7 @@
         <v>12.25</v>
       </c>
       <c r="I185" s="39" t="n">
-        <v>91.34</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="J185" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -16357,10 +16361,10 @@
       <c r="K185" s="14" t="n"/>
       <c r="L185" s="14" t="n"/>
       <c r="M185" s="13" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N185" s="13" t="n">
-        <v>8070</v>
+        <v>8233</v>
       </c>
       <c r="O185" s="13" t="n"/>
       <c r="P185" s="13" t="n"/>
@@ -16387,7 +16391,7 @@
       </c>
       <c r="V185" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399336</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411589</t>
         </is>
       </c>
     </row>
@@ -16413,7 +16417,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>80.48999999999999</v>
+        <v>80.17</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.7</v>
@@ -16426,7 +16430,7 @@
         <v>8.06</v>
       </c>
       <c r="I186" s="39" t="n">
-        <v>104.94</v>
+        <v>104.88</v>
       </c>
       <c r="J186" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -16439,13 +16443,13 @@
         <v>0</v>
       </c>
       <c r="M186" s="13" t="n">
-        <v>4</v>
+        <v>5.01</v>
       </c>
       <c r="N186" s="13" t="n">
-        <v>24106</v>
+        <v>24279</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2676</v>
+        <v>2669</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>240</v>
@@ -16473,7 +16477,7 @@
       </c>
       <c r="V186" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399329</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411592</t>
         </is>
       </c>
     </row>
@@ -16499,7 +16503,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>78.53</v>
+        <v>77.47</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.7</v>
@@ -16531,7 +16535,7 @@
         <v>146902</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8057</v>
+        <v>7948</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>584</v>
@@ -16559,7 +16563,7 @@
       </c>
       <c r="V187" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399338</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411515</t>
         </is>
       </c>
     </row>
@@ -16594,7 +16598,7 @@
         <v>7.21</v>
       </c>
       <c r="I188" s="39" t="n">
-        <v>96.04000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J188" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -16603,13 +16607,13 @@
       <c r="K188" s="14" t="n"/>
       <c r="L188" s="14" t="n"/>
       <c r="M188" s="13" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="N188" s="13" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8898</v>
+        <v>8865</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>705</v>
@@ -16637,7 +16641,7 @@
       </c>
       <c r="V188" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399331</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411586</t>
         </is>
       </c>
     </row>
@@ -16663,10 +16667,10 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>113.06</v>
+        <v>107</v>
       </c>
       <c r="F189" s="39" t="n">
-        <v>1.2635</v>
+        <v>0.7391</v>
       </c>
       <c r="G189" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -16695,7 +16699,7 @@
         <v>25639</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4504</v>
+        <v>4262</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>186</v>
@@ -16745,7 +16749,7 @@
       </c>
       <c r="D190" s="13" t="n"/>
       <c r="E190" s="39" t="n">
-        <v>79.95</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.78</v>
@@ -16773,7 +16777,7 @@
         <v>197</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1326</v>
+        <v>1227</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16827,7 +16831,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>104.98</v>
+        <v>103.41</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.06</v>
@@ -16840,7 +16844,7 @@
         <v>10.28</v>
       </c>
       <c r="I191" s="39" t="n">
-        <v>146.75</v>
+        <v>146.77</v>
       </c>
       <c r="J191" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -16853,13 +16857,13 @@
         <v>0</v>
       </c>
       <c r="M191" s="13" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="N191" s="13" t="n">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -16991,7 +16995,7 @@
       </c>
       <c r="D193" s="13" t="n"/>
       <c r="E193" s="39" t="n">
-        <v>77.17</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -17001,7 +17005,7 @@
         <v/>
       </c>
       <c r="H193" s="39" t="n">
-        <v>14.2468</v>
+        <v>13.6468</v>
       </c>
       <c r="I193" s="39" t="n">
         <v>93.92</v>
@@ -17079,7 +17083,7 @@
         <v/>
       </c>
       <c r="H194" s="39" t="n">
-        <v>3.2731</v>
+        <v>2.7731</v>
       </c>
       <c r="I194" s="39" t="n">
         <v>14.78</v>
@@ -17143,10 +17147,10 @@
       </c>
       <c r="D195" s="13" t="n"/>
       <c r="E195" s="39" t="n">
-        <v>54.99</v>
+        <v>53</v>
       </c>
       <c r="F195" s="39" t="n">
-        <v>0.2935</v>
+        <v>0.1139</v>
       </c>
       <c r="G195" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -17221,7 +17225,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>91.48999999999999</v>
+        <v>89.22</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.8963</v>
@@ -17231,7 +17235,7 @@
         <v/>
       </c>
       <c r="H196" s="39" t="n">
-        <v>13.2156</v>
+        <v>13.0788</v>
       </c>
       <c r="I196" s="39" t="n">
         <v>92.8</v>
@@ -17299,7 +17303,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>92.5</v>
+        <v>90.52</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>0.9287</v>
@@ -17309,7 +17313,7 @@
         <v/>
       </c>
       <c r="H197" s="39" t="n">
-        <v>15.2755</v>
+        <v>14.8926</v>
       </c>
       <c r="I197" s="39" t="n">
         <v>97.31999999999999</v>
@@ -17377,7 +17381,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>77.51000000000001</v>
+        <v>77.69</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.68</v>
@@ -17390,7 +17394,7 @@
         <v>10.85</v>
       </c>
       <c r="I198" s="39" t="n">
-        <v>80.09</v>
+        <v>79.61</v>
       </c>
       <c r="J198" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -17399,10 +17403,10 @@
       <c r="K198" s="14" t="n"/>
       <c r="L198" s="14" t="n"/>
       <c r="M198" s="13" t="n">
-        <v>1.2</v>
+        <v>2.38</v>
       </c>
       <c r="N198" s="13" t="n">
-        <v>2559</v>
+        <v>2534</v>
       </c>
       <c r="O198" s="13" t="n"/>
       <c r="P198" s="13" t="n"/>
@@ -17455,7 +17459,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>76.47</v>
+        <v>75.5</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.58</v>
@@ -17468,7 +17472,7 @@
         <v>6.87</v>
       </c>
       <c r="I199" s="39" t="n">
-        <v>78.95999999999999</v>
+        <v>76.06</v>
       </c>
       <c r="J199" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -17477,10 +17481,10 @@
       <c r="K199" s="14" t="n"/>
       <c r="L199" s="14" t="n"/>
       <c r="M199" s="13" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="N199" s="13" t="n">
-        <v>8940</v>
+        <v>9134</v>
       </c>
       <c r="O199" s="13" t="n"/>
       <c r="P199" s="13" t="n"/>
@@ -17539,7 +17543,7 @@
         <v/>
       </c>
       <c r="H200" s="39" t="n">
-        <v>2.23</v>
+        <v>2.64</v>
       </c>
       <c r="I200" s="39" t="n">
         <v>117.05</v>
@@ -17585,7 +17589,7 @@
       </c>
       <c r="V200" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399341</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412103</t>
         </is>
       </c>
     </row>
@@ -17620,7 +17624,7 @@
         <v>7.09</v>
       </c>
       <c r="I201" s="39" t="n">
-        <v>84.5</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="J201" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -17629,7 +17633,7 @@
       <c r="K201" s="14" t="n"/>
       <c r="L201" s="14" t="n"/>
       <c r="M201" s="13" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="N201" s="13" t="n">
         <v>363</v>
@@ -17837,7 +17841,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>59.05</v>
+        <v>59</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.67</v>
@@ -17869,7 +17873,7 @@
         <v>4315</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>5972</v>
+        <v>5967</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1255</v>
@@ -17923,7 +17927,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>101.68</v>
+        <v>102.09</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.41</v>
@@ -17975,7 +17979,7 @@
       </c>
       <c r="V205" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399306</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412819</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18083,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>0.521</v>
@@ -18089,7 +18093,7 @@
         <v/>
       </c>
       <c r="H207" s="39" t="n">
-        <v>7.3992</v>
+        <v>6.4814</v>
       </c>
       <c r="I207" s="39" t="n">
         <v>89.88</v>
@@ -18111,7 +18115,7 @@
         <v>4272</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6815</v>
+        <v>6731</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>680</v>
@@ -18161,7 +18165,7 @@
       </c>
       <c r="D208" s="13" t="n"/>
       <c r="E208" s="39" t="n">
-        <v>78.95999999999999</v>
+        <v>77.11</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18239,7 +18243,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.49</v>
@@ -18271,7 +18275,7 @@
         <v>84893</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11222</v>
+        <v>10854</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1186</v>
@@ -18299,7 +18303,7 @@
       </c>
       <c r="V209" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=400345</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412954</t>
         </is>
       </c>
     </row>
@@ -18403,7 +18407,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>90</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>0.61</v>
@@ -18455,7 +18459,7 @@
       </c>
       <c r="V211" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399831</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410978</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18485,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>960</v>
+        <v>965.08</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>0.5552</v>
@@ -18559,7 +18563,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>74.55</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18637,7 +18641,7 @@
         </is>
       </c>
       <c r="E214" s="39" t="n">
-        <v>8.039999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F214" s="39" t="n">
         <v>0.1679</v>
@@ -18715,7 +18719,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.09</v>
@@ -18789,7 +18793,7 @@
       </c>
       <c r="D216" s="13" t="n"/>
       <c r="E216" s="39" t="n">
-        <v>84.86</v>
+        <v>85</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.4</v>
@@ -18867,7 +18871,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.64</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.2</v>
@@ -18919,7 +18923,7 @@
       </c>
       <c r="V217" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399327</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410986</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18949,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>94.54000000000001</v>
+        <v>94.91</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>0.95</v>
@@ -18997,7 +19001,7 @@
       </c>
       <c r="V218" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399320</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411511</t>
         </is>
       </c>
     </row>
@@ -19023,7 +19027,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>0.9399999999999999</v>
@@ -19075,7 +19079,7 @@
       </c>
       <c r="V219" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399325</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410984</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19179,7 @@
         </is>
       </c>
       <c r="E221" s="39" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="F221" s="39" t="n">
         <v>0.0377</v>
@@ -19253,7 +19257,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>137.01</v>
+        <v>135.3</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>1</v>
@@ -19285,7 +19289,7 @@
         <v>242192</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>4123</v>
+        <v>4072</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>326</v>
@@ -19339,7 +19343,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>86.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>0.9399999999999999</v>
@@ -19391,7 +19395,7 @@
       </c>
       <c r="V223" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399330</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410997</t>
         </is>
       </c>
     </row>
@@ -19417,10 +19421,10 @@
         </is>
       </c>
       <c r="E224" s="39" t="n">
-        <v>105</v>
+        <v>102.29</v>
       </c>
       <c r="F224" s="39" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="G224" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -19449,7 +19453,7 @@
         <v>367</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>4080</v>
+        <v>3975</v>
       </c>
       <c r="P224" s="13" t="n">
         <v>251</v>
@@ -19587,10 +19591,10 @@
         <v/>
       </c>
       <c r="H226" s="39" t="n">
-        <v>10.58</v>
+        <v>6.66</v>
       </c>
       <c r="I226" s="39" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="J226" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -19599,7 +19603,7 @@
       <c r="K226" s="14" t="n"/>
       <c r="L226" s="14" t="n"/>
       <c r="M226" s="13" t="n">
-        <v>106.27</v>
+        <v>105.97</v>
       </c>
       <c r="N226" s="13" t="n">
         <v>7</v>
@@ -19655,7 +19659,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>73</v>
+        <v>73.45</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19687,7 +19691,7 @@
         <v>370</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>14464</v>
+        <v>14553</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>2</v>
@@ -19741,7 +19745,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>80.25</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.62</v>
@@ -19754,7 +19758,7 @@
         <v>7.36</v>
       </c>
       <c r="I228" s="39" t="n">
-        <v>102.79</v>
+        <v>102.78</v>
       </c>
       <c r="J228" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -19770,10 +19774,10 @@
         <v>0.86</v>
       </c>
       <c r="N228" s="13" t="n">
-        <v>15282</v>
+        <v>15435</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2697</v>
+        <v>2596</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>374</v>
@@ -19823,10 +19827,10 @@
       </c>
       <c r="D229" s="13" t="n"/>
       <c r="E229" s="39" t="n">
-        <v>10.1</v>
+        <v>10.15</v>
       </c>
       <c r="F229" s="39" t="n">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="G229" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -20141,7 +20145,7 @@
         <v/>
       </c>
       <c r="H233" s="39" t="n">
-        <v>113.858</v>
+        <v>114.1159</v>
       </c>
       <c r="I233" s="39" t="n">
         <v>569.17</v>
@@ -20359,7 +20363,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>75</v>
+        <v>73.5</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.52</v>
@@ -20372,26 +20376,26 @@
         <v>6.6</v>
       </c>
       <c r="I236" s="39" t="n">
-        <v>127.78</v>
+        <v>118.26</v>
       </c>
       <c r="J236" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
       <c r="K236" s="14" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="L236" s="14" t="n">
-        <v>0.008</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="M236" s="13" t="n">
-        <v>0.66</v>
+        <v>3.8</v>
       </c>
       <c r="N236" s="13" t="n">
-        <v>4058</v>
+        <v>4302</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3050</v>
+        <v>3627</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>548</v>
@@ -20445,7 +20449,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>97.22</v>
+        <v>93.95</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.75</v>
@@ -20477,7 +20481,7 @@
         <v>65588</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2885</v>
+        <v>2788</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>285</v>
@@ -20603,7 +20607,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>102.15</v>
+        <v>101.1</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20635,7 +20639,7 @@
         <v>110158</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>4232</v>
+        <v>4188</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>579</v>
@@ -20685,7 +20689,7 @@
       </c>
       <c r="D240" s="13" t="n"/>
       <c r="E240" s="39" t="n">
-        <v>9.550000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20759,7 +20763,7 @@
       </c>
       <c r="D241" s="13" t="n"/>
       <c r="E241" s="39" t="n">
-        <v>86.58</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="F241" s="39" t="n">
         <v>1</v>
@@ -20837,7 +20841,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.67</v>
@@ -20847,7 +20851,7 @@
         <v/>
       </c>
       <c r="H242" s="39" t="n">
-        <v>7.6411</v>
+        <v>7.2831</v>
       </c>
       <c r="I242" s="39" t="n">
         <v>123.08</v>
@@ -20869,7 +20873,7 @@
         <v>4132</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>881</v>
+        <v>935</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>147</v>
@@ -20897,7 +20901,7 @@
       </c>
       <c r="V242" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=401604</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411597</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20927,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>87.59</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>1.15</v>
@@ -20933,7 +20937,7 @@
         <v/>
       </c>
       <c r="H243" s="39" t="n">
-        <v>12.85</v>
+        <v>12.8</v>
       </c>
       <c r="I243" s="39" t="n">
         <v>92.5</v>
@@ -21001,7 +21005,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.65</v>
+        <v>8.77</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21011,7 +21015,7 @@
         <v/>
       </c>
       <c r="H244" s="39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I244" s="39" t="n">
         <v>9.51</v>
@@ -21075,7 +21079,7 @@
       </c>
       <c r="D245" s="13" t="n"/>
       <c r="E245" s="39" t="n">
-        <v>109.66</v>
+        <v>110.01</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21153,7 +21157,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>54.8</v>
+        <v>58</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.65</v>
@@ -21305,7 +21309,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>94.36</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.12</v>
@@ -21333,7 +21337,7 @@
         <v>28379</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21387,7 +21391,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>78.5</v>
+        <v>79.47</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.8796</v>
@@ -21397,7 +21401,7 @@
         <v/>
       </c>
       <c r="H249" s="39" t="n">
-        <v>13.1796</v>
+        <v>12.1796</v>
       </c>
       <c r="I249" s="39" t="n">
         <v>89.58</v>
@@ -21465,7 +21469,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>54.73</v>
+        <v>53</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.5114</v>
@@ -21475,7 +21479,7 @@
         <v/>
       </c>
       <c r="H250" s="39" t="n">
-        <v>6.1214</v>
+        <v>6.6614</v>
       </c>
       <c r="I250" s="39" t="n">
         <v>71.7</v>
@@ -21543,7 +21547,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>61.06</v>
+        <v>60</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.65</v>
@@ -21575,7 +21579,7 @@
         <v>2511</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>7223</v>
+        <v>7098</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>914</v>
@@ -21775,7 +21779,7 @@
         </is>
       </c>
       <c r="E254" s="39" t="n">
-        <v>41.35</v>
+        <v>39.79</v>
       </c>
       <c r="F254" s="39" t="n">
         <v>0.35</v>
@@ -21785,7 +21789,7 @@
         <v/>
       </c>
       <c r="H254" s="39" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="I254" s="39" t="n">
         <v>61.48</v>
@@ -21859,7 +21863,7 @@
         <v/>
       </c>
       <c r="H255" s="39" t="n">
-        <v>10.182</v>
+        <v>11.782</v>
       </c>
       <c r="I255" s="39" t="n">
         <v>119.6</v>
@@ -22235,7 +22239,7 @@
       </c>
       <c r="D260" s="13" t="n"/>
       <c r="E260" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F260" s="39" t="n">
         <v>1.1</v>
@@ -22313,7 +22317,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>63.9</v>
+        <v>61.18</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.54</v>
@@ -22323,7 +22327,7 @@
         <v/>
       </c>
       <c r="H261" s="39" t="n">
-        <v>7.9965</v>
+        <v>7.2965</v>
       </c>
       <c r="I261" s="39" t="n">
         <v>82.83</v>
@@ -22623,7 +22627,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.07</v>
+        <v>10.09</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.1</v>
@@ -22651,7 +22655,7 @@
         <v>739809</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>9023</v>
+        <v>9041</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22705,7 +22709,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>71.11</v>
+        <v>70.55</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22715,7 +22719,7 @@
         <v/>
       </c>
       <c r="H266" s="39" t="n">
-        <v>10.02</v>
+        <v>9.27</v>
       </c>
       <c r="I266" s="39" t="n">
         <v>89.58</v>
@@ -22783,7 +22787,7 @@
         </is>
       </c>
       <c r="E267" s="39" t="n">
-        <v>88.29000000000001</v>
+        <v>83.61</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1.05</v>
@@ -22793,7 +22797,7 @@
         <v/>
       </c>
       <c r="H267" s="39" t="n">
-        <v>15.7817</v>
+        <v>15.4717</v>
       </c>
       <c r="I267" s="39" t="n">
         <v>89.59999999999999</v>
@@ -22857,7 +22861,7 @@
       </c>
       <c r="D268" s="13" t="n"/>
       <c r="E268" s="39" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.12</v>
@@ -22867,7 +22871,7 @@
         <v/>
       </c>
       <c r="H268" s="39" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I268" s="39" t="n">
         <v>12.15</v>
@@ -22935,7 +22939,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>98.94</v>
+        <v>98.5</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>1.3</v>
@@ -22967,7 +22971,7 @@
         <v>3914</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2773</v>
+        <v>2761</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>458</v>
@@ -23021,7 +23025,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.09</v>
@@ -23053,7 +23057,7 @@
         <v>1695</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>2474</v>
+        <v>2639</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>242</v>
@@ -23185,10 +23189,10 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>166.98</v>
+        <v>161.7</v>
       </c>
       <c r="F272" s="39" t="n">
-        <v>1.51</v>
+        <v>1.5546</v>
       </c>
       <c r="G272" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -23217,7 +23221,7 @@
         <v>6692</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8986</v>
+        <v>8702</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1053</v>
@@ -23245,7 +23249,7 @@
       </c>
       <c r="V272" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=403477</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411593</t>
         </is>
       </c>
     </row>
@@ -23271,7 +23275,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>10.22</v>
+        <v>10.5</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0835</v>
@@ -23303,7 +23307,7 @@
         <v>2251</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>13823</v>
+        <v>14202</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>1995</v>
@@ -23439,7 +23443,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>173.99</v>
+        <v>174.8</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>0.98</v>
@@ -23449,10 +23453,10 @@
         <v/>
       </c>
       <c r="H275" s="39" t="n">
-        <v>11.04</v>
+        <v>11.12</v>
       </c>
       <c r="I275" s="39" t="n">
-        <v>201.44</v>
+        <v>201.49</v>
       </c>
       <c r="J275" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -23465,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="M275" s="13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N275" s="13" t="n">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>25948</v>
+        <v>26068</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1760</v>
@@ -23603,7 +23607,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>61.72</v>
+        <v>62.21</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23681,7 +23685,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>97.15000000000001</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23733,7 +23737,7 @@
       </c>
       <c r="V278" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399305</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412815</t>
         </is>
       </c>
     </row>
@@ -23759,7 +23763,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>40</v>
+        <v>39.41</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23791,7 +23795,7 @@
         <v>5299</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>162</v>
@@ -23845,7 +23849,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>77.76000000000001</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>1</v>
@@ -23877,7 +23881,7 @@
         <v>5595</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>2934</v>
+        <v>2922</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>278</v>
@@ -23931,7 +23935,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>13.32</v>
+        <v>13.51</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24023,7 +24027,7 @@
         <v/>
       </c>
       <c r="H282" s="39" t="n">
-        <v>12.5473</v>
+        <v>6.473</v>
       </c>
       <c r="I282" s="39" t="n">
         <v>148.6</v>
@@ -24095,10 +24099,10 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>67.65000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="F283" s="39" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="G283" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -24127,7 +24131,7 @@
         <v>8405</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>17364</v>
+        <v>17287</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1086</v>
@@ -24181,7 +24185,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>63.78</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.58</v>
@@ -24213,7 +24217,7 @@
         <v>23983</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>258</v>
@@ -24421,7 +24425,7 @@
       </c>
       <c r="D287" s="13" t="n"/>
       <c r="E287" s="39" t="n">
-        <v>52.5</v>
+        <v>50.05</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.389</v>
@@ -24499,7 +24503,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>83.01000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24551,7 +24555,7 @@
       </c>
       <c r="V288" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398928</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411598</t>
         </is>
       </c>
     </row>
@@ -24577,7 +24581,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>71.67</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.75</v>
@@ -24609,7 +24613,7 @@
         <v>3258</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>161</v>
@@ -24663,10 +24667,10 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>24.48</v>
+        <v>23.87</v>
       </c>
       <c r="F290" s="39" t="n">
-        <v>0.187</v>
+        <v>0.1091</v>
       </c>
       <c r="G290" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -24969,10 +24973,10 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>88.79000000000001</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="F294" s="39" t="n">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="G294" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -25047,7 +25051,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>53.49</v>
+        <v>53.19</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25079,7 +25083,7 @@
         <v>462</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11890</v>
+        <v>11823</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1066</v>
@@ -25133,7 +25137,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>2030</v>
+        <v>2010.01</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>16.7987</v>
@@ -25165,7 +25169,7 @@
         <v>4030</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1866</v>
+        <v>1848</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>229</v>
@@ -25219,7 +25223,7 @@
         </is>
       </c>
       <c r="E297" s="39" t="n">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="F297" s="39" t="n">
         <v>0.1717</v>
@@ -25247,7 +25251,7 @@
         <v>763</v>
       </c>
       <c r="O297" s="13" t="n">
-        <v>10201</v>
+        <v>12449</v>
       </c>
       <c r="P297" s="13" t="n">
         <v>0</v>
@@ -25301,7 +25305,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>131.96</v>
+        <v>131.9</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25333,7 +25337,7 @@
         <v>1027</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>365</v>
@@ -25541,10 +25545,10 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>87.5</v>
+        <v>87.56</v>
       </c>
       <c r="F301" s="39" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="G301" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -25573,7 +25577,7 @@
         <v>83814</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>8001</v>
+        <v>8006</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>785</v>
@@ -25627,10 +25631,10 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>42.4</v>
+        <v>41.82</v>
       </c>
       <c r="F302" s="39" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G302" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -25659,7 +25663,7 @@
         <v>24653</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2523</v>
+        <v>2488</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>321</v>
@@ -25713,7 +25717,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>79.95</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.9</v>
@@ -26023,7 +26027,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26101,7 +26105,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>119.12</v>
+        <v>118.09</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26133,7 +26137,7 @@
         <v>12646</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>3428</v>
+        <v>3399</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>342</v>
@@ -26161,7 +26165,7 @@
       </c>
       <c r="V308" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399396</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412100</t>
         </is>
       </c>
     </row>
@@ -26187,7 +26191,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>50.19</v>
+        <v>47.81</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.51</v>
@@ -26351,7 +26355,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>82.20999999999999</v>
+        <v>82.61</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.08</v>
@@ -26429,7 +26433,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>96.84</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26442,7 +26446,7 @@
         <v>15.9</v>
       </c>
       <c r="I312" s="39" t="n">
-        <v>94.12</v>
+        <v>94.7</v>
       </c>
       <c r="J312" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -26451,10 +26455,10 @@
       <c r="K312" s="14" t="n"/>
       <c r="L312" s="14" t="n"/>
       <c r="M312" s="13" t="n">
-        <v>3.89</v>
+        <v>6.57</v>
       </c>
       <c r="N312" s="13" t="n">
-        <v>3476</v>
+        <v>3713</v>
       </c>
       <c r="O312" s="13" t="n"/>
       <c r="P312" s="13" t="n"/>
@@ -26507,7 +26511,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>61.97</v>
+        <v>59.8</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.24</v>
@@ -26585,7 +26589,7 @@
         </is>
       </c>
       <c r="E314" s="39" t="n">
-        <v>94.98999999999999</v>
+        <v>94.11</v>
       </c>
       <c r="F314" s="39" t="n">
         <v>0.88</v>
@@ -26617,7 +26621,7 @@
         <v>178</v>
       </c>
       <c r="O314" s="13" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P314" s="13" t="n">
         <v>15</v>
@@ -26667,7 +26671,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>586.99</v>
+        <v>555.0599999999999</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26677,7 +26681,7 @@
         <v/>
       </c>
       <c r="H315" s="39" t="n">
-        <v>128.75</v>
+        <v>127.5</v>
       </c>
       <c r="I315" s="39" t="n">
         <v>770.49</v>
@@ -26695,7 +26699,7 @@
         <v>3646</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>3230</v>
+        <v>3055</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>727</v>
@@ -26749,7 +26753,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>34.99</v>
+        <v>34.07</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.3</v>
@@ -26781,7 +26785,7 @@
         <v>9811</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2351</v>
+        <v>2289</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>326</v>
@@ -26835,7 +26839,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>68.23</v>
+        <v>65.36</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -26845,7 +26849,7 @@
         <v/>
       </c>
       <c r="H317" s="39" t="n">
-        <v>7.43</v>
+        <v>7.46</v>
       </c>
       <c r="I317" s="39" t="n">
         <v>81.84999999999999</v>
@@ -26987,7 +26991,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>71.56999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.65</v>
@@ -26997,7 +27001,7 @@
         <v/>
       </c>
       <c r="H319" s="39" t="n">
-        <v>7.716</v>
+        <v>7.766</v>
       </c>
       <c r="I319" s="39" t="n">
         <v>107.26</v>
@@ -27019,7 +27023,7 @@
         <v>9896</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>175</v>
@@ -27083,7 +27087,7 @@
         <v/>
       </c>
       <c r="H320" s="39" t="n">
-        <v>675.2148999999999</v>
+        <v>488.7914</v>
       </c>
       <c r="I320" s="39" t="n">
         <v>46972.16</v>
@@ -27151,7 +27155,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>48.11</v>
+        <v>46.25</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27161,7 +27165,7 @@
         <v/>
       </c>
       <c r="H321" s="39" t="n">
-        <v>4.9</v>
+        <v>4.71</v>
       </c>
       <c r="I321" s="39" t="n">
         <v>81.7</v>
@@ -27183,7 +27187,7 @@
         <v>95074</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>8370</v>
+        <v>8046</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>1033</v>
@@ -27237,7 +27241,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>83.95</v>
+        <v>83.3</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>0.904</v>
@@ -27247,7 +27251,7 @@
         <v/>
       </c>
       <c r="H322" s="39" t="n">
-        <v>12.17</v>
+        <v>12.02</v>
       </c>
       <c r="I322" s="39" t="n">
         <v>94.06999999999999</v>
@@ -27315,7 +27319,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>55.01</v>
+        <v>56</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.48</v>
@@ -27347,7 +27351,7 @@
         <v>1227</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>8518</v>
+        <v>8672</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>732</v>
@@ -27473,7 +27477,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>86.88</v>
+        <v>85.04000000000001</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.5</v>
@@ -27551,7 +27555,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>94.65000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.1</v>
@@ -27707,7 +27711,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>92.05</v>
+        <v>91.31</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>1.07</v>
@@ -27739,7 +27743,7 @@
         <v>45704</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>7721</v>
+        <v>7659</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1051</v>
@@ -27789,10 +27793,10 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>9.890000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="F329" s="39" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G329" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -27867,7 +27871,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -27951,7 +27955,7 @@
         </is>
       </c>
       <c r="E331" s="39" t="n">
-        <v>91.93000000000001</v>
+        <v>89</v>
       </c>
       <c r="F331" s="39" t="n">
         <v>1.2312</v>
@@ -28029,7 +28033,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>118.33</v>
+        <v>113.79</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.73</v>
@@ -28039,7 +28043,7 @@
         <v/>
       </c>
       <c r="H332" s="39" t="n">
-        <v>8.15</v>
+        <v>8.33</v>
       </c>
       <c r="I332" s="39" t="n">
         <v>207.34</v>
@@ -28061,7 +28065,7 @@
         <v>30564</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>10601</v>
+        <v>10194</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>875</v>
@@ -28089,7 +28093,7 @@
       </c>
       <c r="V332" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399416</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412086</t>
         </is>
       </c>
     </row>
@@ -28193,7 +28197,7 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="F334" s="39" t="n">
         <v>0.36</v>
@@ -28343,7 +28347,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>87.92</v>
+        <v>84</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>0.9238</v>
@@ -28353,7 +28357,7 @@
         <v/>
       </c>
       <c r="H336" s="39" t="n">
-        <v>12.5086</v>
+        <v>12.4486</v>
       </c>
       <c r="I336" s="39" t="n">
         <v>95.33</v>
@@ -28395,7 +28399,7 @@
       </c>
       <c r="V336" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399019</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411633</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28425,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>52.39</v>
+        <v>50.96</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.5021</v>
@@ -28431,7 +28435,7 @@
         <v/>
       </c>
       <c r="H337" s="39" t="n">
-        <v>6.0421</v>
+        <v>6.0601</v>
       </c>
       <c r="I337" s="39" t="n">
         <v>93.68000000000001</v>
@@ -28453,7 +28457,7 @@
         <v>78094</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5722</v>
+        <v>5566</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>636</v>
@@ -28481,7 +28485,7 @@
       </c>
       <c r="V337" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398972</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411576</t>
         </is>
       </c>
     </row>
@@ -28503,7 +28507,7 @@
       </c>
       <c r="D338" s="13" t="n"/>
       <c r="E338" s="39" t="n">
-        <v>64.36</v>
+        <v>64.5</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.6</v>
@@ -28581,7 +28585,7 @@
         </is>
       </c>
       <c r="E339" s="39" t="n">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F339" s="39" t="n">
         <v>2.78</v>
@@ -28659,7 +28663,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>72.34999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.8</v>
@@ -28691,7 +28695,7 @@
         <v>7635</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>1382</v>
+        <v>1343</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>177</v>
@@ -28719,7 +28723,7 @@
       </c>
       <c r="V340" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398973</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411577</t>
         </is>
       </c>
     </row>
@@ -28745,7 +28749,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>68.15000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.71</v>
@@ -28899,7 +28903,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>50.2</v>
+        <v>50.15</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -28931,7 +28935,7 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="P343" s="13" t="n">
         <v>137</v>
@@ -28985,7 +28989,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -29063,7 +29067,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>47.45</v>
+        <v>46.49</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29095,7 +29099,7 @@
         <v>12047</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2315</v>
+        <v>2269</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>276</v>
@@ -29223,7 +29227,7 @@
       </c>
       <c r="D347" s="13" t="n"/>
       <c r="E347" s="39" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.35</v>
@@ -29275,7 +29279,7 @@
       </c>
       <c r="V347" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=400365</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412822</t>
         </is>
       </c>
     </row>
@@ -29301,7 +29305,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>86.01000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>0.9</v>
@@ -29457,7 +29461,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>71.2</v>
+        <v>70.2</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29535,7 +29539,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>101.4</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.4</v>
@@ -29613,10 +29617,10 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>86.5</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="F352" s="39" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G352" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -29853,7 +29857,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>90.8</v>
+        <v>89.27</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.05</v>
@@ -30093,7 +30097,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>58.82</v>
+        <v>56.68</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.64</v>
@@ -30125,7 +30129,7 @@
         <v>33195</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2380</v>
+        <v>2294</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>251</v>
@@ -30255,7 +30259,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.037</v>
@@ -30265,7 +30269,7 @@
         <v/>
       </c>
       <c r="H360" s="39" t="n">
-        <v>0.2373</v>
+        <v>0.2281</v>
       </c>
       <c r="I360" s="39" t="n">
         <v>11.71</v>
@@ -30287,7 +30291,7 @@
         <v>5007</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4436</v>
+        <v>4471</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>792</v>
@@ -30341,7 +30345,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>90.65000000000001</v>
+        <v>88.69</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.82</v>
@@ -30373,7 +30377,7 @@
         <v>66604</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>218</v>
@@ -30401,7 +30405,7 @@
       </c>
       <c r="V361" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399397</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412095</t>
         </is>
       </c>
     </row>
@@ -30501,7 +30505,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>60.96</v>
+        <v>59.98</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6776</v>
@@ -30511,7 +30515,7 @@
         <v/>
       </c>
       <c r="H363" s="39" t="n">
-        <v>7.8207</v>
+        <v>7.8832</v>
       </c>
       <c r="I363" s="39" t="n">
         <v>93.76000000000001</v>
@@ -30533,7 +30537,7 @@
         <v>4758</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2301</v>
+        <v>2264</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>331</v>
@@ -30755,7 +30759,7 @@
         <v/>
       </c>
       <c r="H366" s="39" t="n">
-        <v>79.9491</v>
+        <v>83.1739</v>
       </c>
       <c r="I366" s="39" t="n">
         <v>1295.09</v>
@@ -30919,7 +30923,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.35</v>
@@ -30951,7 +30955,7 @@
         <v>2631</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>12440</v>
+        <v>12352</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1017</v>
@@ -31149,7 +31153,7 @@
       </c>
       <c r="D371" s="13" t="n"/>
       <c r="E371" s="39" t="n">
-        <v>97.98</v>
+        <v>90</v>
       </c>
       <c r="F371" s="39" t="inlineStr">
         <is>
@@ -31229,7 +31233,7 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>97.97</v>
+        <v>98</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1</v>
@@ -31383,7 +31387,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>87.95</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.8</v>
@@ -31542,7 +31546,7 @@
         <v>0</v>
       </c>
       <c r="F376" s="39" t="n">
-        <v>15.9798</v>
+        <v>2.4056</v>
       </c>
       <c r="G376" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -31691,7 +31695,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>39.79</v>
+        <v>39.88</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31704,7 +31708,7 @@
         <v>4.86</v>
       </c>
       <c r="I378" s="39" t="n">
-        <v>55.74</v>
+        <v>55.78</v>
       </c>
       <c r="J378" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -31717,13 +31721,13 @@
         <v>0</v>
       </c>
       <c r="M378" s="13" t="n">
-        <v>5.99</v>
+        <v>6.06</v>
       </c>
       <c r="N378" s="13" t="n">
-        <v>32238</v>
+        <v>32144</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>5004</v>
+        <v>5015</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1101</v>
@@ -31855,7 +31859,7 @@
       </c>
       <c r="D380" s="13" t="n"/>
       <c r="E380" s="39" t="n">
-        <v>86</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>0.614</v>
@@ -31865,7 +31869,7 @@
         <v/>
       </c>
       <c r="H380" s="39" t="n">
-        <v>2.8729</v>
+        <v>3.7729</v>
       </c>
       <c r="I380" s="39" t="n">
         <v>94.38</v>
@@ -31929,7 +31933,7 @@
       </c>
       <c r="D381" s="13" t="n"/>
       <c r="E381" s="39" t="n">
-        <v>7.5</v>
+        <v>7.03</v>
       </c>
       <c r="F381" s="39" t="n">
         <v>0.2</v>
@@ -31939,7 +31943,7 @@
         <v/>
       </c>
       <c r="H381" s="39" t="n">
-        <v>0.298</v>
+        <v>0.2</v>
       </c>
       <c r="I381" s="39" t="n">
         <v>0.74</v>
@@ -32010,7 +32014,7 @@
         <v>8.52</v>
       </c>
       <c r="F382" s="39" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="G382" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -32020,7 +32024,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="I382" s="39" t="n">
-        <v>148.32</v>
+        <v>148.31</v>
       </c>
       <c r="J382" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -32033,13 +32037,13 @@
         <v>0.02</v>
       </c>
       <c r="M382" s="13" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="N382" s="13" t="n">
         <v>55</v>
       </c>
       <c r="O382" s="13" t="n">
-        <v>382769</v>
+        <v>382797</v>
       </c>
       <c r="P382" s="13" t="n">
         <v>338</v>
@@ -32265,7 +32269,7 @@
         <v/>
       </c>
       <c r="H385" s="39" t="n">
-        <v>19.42</v>
+        <v>19.12</v>
       </c>
       <c r="I385" s="39" t="n">
         <v>129.47</v>
@@ -32481,7 +32485,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>69.95999999999999</v>
+        <v>67.12</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.51</v>
@@ -32513,7 +32517,7 @@
         <v>9713</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>9128</v>
+        <v>8757</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>845</v>
@@ -32541,7 +32545,7 @@
       </c>
       <c r="V388" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399212</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410863</t>
         </is>
       </c>
     </row>
@@ -32645,7 +32649,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>117.54</v>
+        <v>115.95</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.3</v>
@@ -32677,7 +32681,7 @@
         <v>89031</v>
       </c>
       <c r="O390" s="13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P390" s="13" t="n">
         <v>1</v>
@@ -32705,7 +32709,7 @@
       </c>
       <c r="V390" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=396841</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411100</t>
         </is>
       </c>
     </row>
@@ -32887,7 +32891,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>5.84</v>
+        <v>5.06</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.04</v>
@@ -32897,7 +32901,7 @@
         <v/>
       </c>
       <c r="H393" s="39" t="n">
-        <v>0.9865</v>
+        <v>0.9565</v>
       </c>
       <c r="I393" s="39" t="n">
         <v>14.02</v>
@@ -33139,7 +33143,7 @@
         <v/>
       </c>
       <c r="H396" s="39" t="n">
-        <v>4.5475</v>
+        <v>4.5775</v>
       </c>
       <c r="I396" s="39" t="n">
         <v>196.89</v>
@@ -33215,7 +33219,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>124.88</v>
+        <v>116</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.95</v>
@@ -33247,7 +33251,7 @@
         <v>194</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>3637</v>
+        <v>3379</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>444</v>
@@ -33301,7 +33305,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>104.1</v>
+        <v>103.78</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>1.2</v>
@@ -33333,7 +33337,7 @@
         <v>76381</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>2935</v>
+        <v>2926</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>289</v>
@@ -33361,7 +33365,7 @@
       </c>
       <c r="V398" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397535</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409827</t>
         </is>
       </c>
     </row>
@@ -33383,7 +33387,7 @@
       </c>
       <c r="D399" s="13" t="n"/>
       <c r="E399" s="39" t="n">
-        <v>114</v>
+        <v>100.01</v>
       </c>
       <c r="F399" s="39" t="n">
         <v>1.07</v>
@@ -33411,7 +33415,7 @@
         <v>42</v>
       </c>
       <c r="O399" s="13" t="n">
-        <v>2994</v>
+        <v>2627</v>
       </c>
       <c r="P399" s="13" t="n">
         <v>218</v>
@@ -33615,7 +33619,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>99.51000000000001</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.21</v>
@@ -33693,7 +33697,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>88.58</v>
+        <v>88.2</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>1</v>
@@ -33745,7 +33749,7 @@
       </c>
       <c r="V403" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397939</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=410976</t>
         </is>
       </c>
     </row>
@@ -33771,7 +33775,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.125</v>
@@ -33784,7 +33788,7 @@
         <v>1.015</v>
       </c>
       <c r="I404" s="39" t="n">
-        <v>9.449999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J404" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -33793,10 +33797,10 @@
       <c r="K404" s="14" t="n"/>
       <c r="L404" s="14" t="n"/>
       <c r="M404" s="13" t="n">
-        <v>7.77</v>
+        <v>6.55</v>
       </c>
       <c r="N404" s="13" t="n">
-        <v>5932</v>
+        <v>6565</v>
       </c>
       <c r="O404" s="13" t="n"/>
       <c r="P404" s="13" t="n"/>
@@ -33823,7 +33827,7 @@
       </c>
       <c r="V404" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398982</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411575</t>
         </is>
       </c>
     </row>
@@ -33849,7 +33853,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>70.25</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -33877,7 +33881,7 @@
         <v>2788</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2272</v>
+        <v>2240</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>216</v>
@@ -33905,7 +33909,7 @@
       </c>
       <c r="V405" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398980</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412107</t>
         </is>
       </c>
     </row>
@@ -34010,7 +34014,7 @@
         <v>233.49</v>
       </c>
       <c r="F407" s="39" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="G407" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -34093,10 +34097,10 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>9.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="F408" s="39" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G408" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -34171,7 +34175,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>83.84999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>0.82</v>
@@ -34181,7 +34185,7 @@
         <v/>
       </c>
       <c r="H409" s="39" t="n">
-        <v>12.72</v>
+        <v>12.24</v>
       </c>
       <c r="I409" s="39" t="n">
         <v>90.44</v>
@@ -34249,7 +34253,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.65</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.11</v>
@@ -34259,7 +34263,7 @@
         <v/>
       </c>
       <c r="H410" s="39" t="n">
-        <v>1.479</v>
+        <v>1.499</v>
       </c>
       <c r="I410" s="39" t="n">
         <v>9.640000000000001</v>
@@ -34403,7 +34407,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.84</v>
+        <v>6.79</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34416,7 +34420,7 @@
         <v>0.742</v>
       </c>
       <c r="I412" s="33" t="n">
-        <v>8.85</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J412" s="35">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -34425,10 +34429,10 @@
       <c r="K412" s="36" t="n"/>
       <c r="L412" s="36" t="n"/>
       <c r="M412" s="32" t="n">
-        <v>6.94</v>
+        <v>6.11</v>
       </c>
       <c r="N412" s="32" t="n">
-        <v>6807</v>
+        <v>6929</v>
       </c>
       <c r="O412" s="32" t="n"/>
       <c r="P412" s="32" t="n"/>
@@ -34455,7 +34459,7 @@
       </c>
       <c r="V412" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398985</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411570</t>
         </is>
       </c>
     </row>
@@ -34481,7 +34485,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>94.63</v>
+        <v>92.97</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.7</v>
@@ -34494,7 +34498,7 @@
         <v>8.48</v>
       </c>
       <c r="I413" s="39" t="n">
-        <v>112.27</v>
+        <v>112.05</v>
       </c>
       <c r="J413" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -34507,13 +34511,13 @@
         <v>0</v>
       </c>
       <c r="M413" s="13" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="N413" s="13" t="n">
-        <v>156920</v>
+        <v>157293</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2430</v>
+        <v>2394</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>239</v>
@@ -34541,7 +34545,7 @@
       </c>
       <c r="V413" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398987</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411568</t>
         </is>
       </c>
     </row>
@@ -34567,7 +34571,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>44.16</v>
+        <v>42.6</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.34</v>
@@ -34580,7 +34584,7 @@
         <v>4.05</v>
       </c>
       <c r="I414" s="39" t="n">
-        <v>54.75</v>
+        <v>54.8</v>
       </c>
       <c r="J414" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -34593,13 +34597,13 @@
         <v>0</v>
       </c>
       <c r="M414" s="13" t="n">
-        <v>3.76</v>
+        <v>3.61</v>
       </c>
       <c r="N414" s="13" t="n">
-        <v>125317</v>
+        <v>124619</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>11571</v>
+        <v>11160</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1065</v>
@@ -34627,7 +34631,7 @@
       </c>
       <c r="V414" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398989</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411566</t>
         </is>
       </c>
     </row>
@@ -34653,7 +34657,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>103.63</v>
+        <v>102.18</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.85</v>
@@ -34666,7 +34670,7 @@
         <v>8.81</v>
       </c>
       <c r="I415" s="39" t="n">
-        <v>123.83</v>
+        <v>124.34</v>
       </c>
       <c r="J415" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -34679,13 +34683,13 @@
         <v>0.012</v>
       </c>
       <c r="M415" s="13" t="n">
-        <v>3.36</v>
+        <v>3.6</v>
       </c>
       <c r="N415" s="13" t="n">
-        <v>235826</v>
+        <v>238692</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3278</v>
+        <v>3232</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>286</v>
@@ -34713,7 +34717,7 @@
       </c>
       <c r="V415" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398992</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411564</t>
         </is>
       </c>
     </row>
@@ -34739,7 +34743,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>6.74</v>
+        <v>6.57</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34752,7 +34756,7 @@
         <v>0.864</v>
       </c>
       <c r="I416" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="J416" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -34765,13 +34769,13 @@
         <v>0</v>
       </c>
       <c r="M416" s="13" t="n">
-        <v>8.67</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="N416" s="13" t="n">
-        <v>11389</v>
+        <v>13081</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2619</v>
+        <v>2558</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>295</v>
@@ -34799,7 +34803,7 @@
       </c>
       <c r="V416" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398993</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411561</t>
         </is>
       </c>
     </row>
@@ -35055,7 +35059,7 @@
         </is>
       </c>
       <c r="E420" s="39" t="n">
-        <v>98</v>
+        <v>97.09</v>
       </c>
       <c r="F420" s="39" t="n">
         <v>0.61</v>
@@ -35087,7 +35091,7 @@
         <v>3354</v>
       </c>
       <c r="O420" s="13" t="n">
-        <v>16671</v>
+        <v>16517</v>
       </c>
       <c r="P420" s="13" t="n">
         <v>1301</v>
@@ -35115,7 +35119,7 @@
       </c>
       <c r="V420" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=391048</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409796</t>
         </is>
       </c>
     </row>
@@ -35141,7 +35145,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>85.34999999999999</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>1.11</v>
@@ -35193,7 +35197,7 @@
       </c>
       <c r="V421" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404587</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411769</t>
         </is>
       </c>
     </row>
@@ -35222,7 +35226,7 @@
         <v>0</v>
       </c>
       <c r="F422" s="39" t="n">
-        <v>0.3029</v>
+        <v>0.2618</v>
       </c>
       <c r="G422" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -35301,7 +35305,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.9</v>
@@ -35353,7 +35357,7 @@
       </c>
       <c r="V423" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397911</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411562</t>
         </is>
       </c>
     </row>
@@ -35379,7 +35383,7 @@
         </is>
       </c>
       <c r="E424" s="39" t="n">
-        <v>46.25</v>
+        <v>44</v>
       </c>
       <c r="F424" s="39" t="n">
         <v>0.32</v>
@@ -35457,10 +35461,10 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>64</v>
+        <v>63.11</v>
       </c>
       <c r="F425" s="39" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G425" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -35489,7 +35493,7 @@
         <v>2645</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1763</v>
+        <v>1739</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35517,7 +35521,7 @@
       </c>
       <c r="V425" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=386431</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411448</t>
         </is>
       </c>
     </row>
@@ -35543,7 +35547,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -35624,7 +35628,7 @@
         <v>90</v>
       </c>
       <c r="F427" s="39" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="G427" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -36091,7 +36095,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36329,7 +36333,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.41</v>
+        <v>8.52</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.09</v>
@@ -36407,7 +36411,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>73</v>
+        <v>66.69</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.6</v>
@@ -36439,7 +36443,7 @@
         <v>1816</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1969</v>
+        <v>1799</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>142</v>
@@ -36489,7 +36493,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>95.97</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>0.95</v>
@@ -36499,7 +36503,7 @@
         <v/>
       </c>
       <c r="H438" s="39" t="n">
-        <v>2.85</v>
+        <v>3.95</v>
       </c>
       <c r="I438" s="39" t="n">
         <v>101.67</v>
@@ -36729,7 +36733,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>76.42</v>
+        <v>78.48</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>0.72</v>
@@ -36807,7 +36811,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>15.81</v>
+        <v>15.2</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.23</v>
@@ -36839,7 +36843,7 @@
         <v>27574</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1705</v>
+        <v>1639</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -36893,7 +36897,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>108.99</v>
+        <v>107.01</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.7</v>
@@ -36925,7 +36929,7 @@
         <v>1264</v>
       </c>
       <c r="O443" s="13" t="n">
-        <v>20403</v>
+        <v>20033</v>
       </c>
       <c r="P443" s="13" t="n">
         <v>399</v>
@@ -36975,7 +36979,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>31.51</v>
+        <v>35</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37005,7 +37009,7 @@
         <v>1264</v>
       </c>
       <c r="O444" s="13" t="n">
-        <v>5899</v>
+        <v>6552</v>
       </c>
       <c r="P444" s="13" t="n">
         <v>399</v>
@@ -37059,7 +37063,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>72.01000000000001</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37069,7 +37073,7 @@
         <v/>
       </c>
       <c r="H445" s="39" t="n">
-        <v>7.49</v>
+        <v>6.86</v>
       </c>
       <c r="I445" s="39" t="n">
         <v>103.89</v>
@@ -37091,7 +37095,7 @@
         <v>46626</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1892</v>
+        <v>1879</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>180</v>
@@ -37145,7 +37149,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>91.38</v>
+        <v>90.5</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37177,7 +37181,7 @@
         <v>303179</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>1958</v>
+        <v>1939</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>184</v>
@@ -37205,7 +37209,7 @@
       </c>
       <c r="V446" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399000</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411631</t>
         </is>
       </c>
     </row>
@@ -37231,7 +37235,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>95.92</v>
+        <v>98</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.9</v>
@@ -37263,7 +37267,7 @@
         <v>293082</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>5004</v>
+        <v>5113</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>346</v>
@@ -37291,7 +37295,7 @@
       </c>
       <c r="V447" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398903</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411503</t>
         </is>
       </c>
     </row>
@@ -37317,7 +37321,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>32.46</v>
+        <v>31.31</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.3</v>
@@ -37349,7 +37353,7 @@
         <v>68393</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>3212</v>
+        <v>3099</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>510</v>
@@ -37377,7 +37381,7 @@
       </c>
       <c r="V448" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398999</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411630</t>
         </is>
       </c>
     </row>
@@ -37403,7 +37407,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>7.16</v>
+        <v>7.11</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.077</v>
@@ -37611,7 +37615,7 @@
       </c>
       <c r="V451" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397618</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411628</t>
         </is>
       </c>
     </row>
@@ -37717,11 +37721,11 @@
         <v/>
       </c>
       <c r="H453" s="39" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="I453" s="39" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>10,40</t>
         </is>
       </c>
       <c r="J453" s="41">
@@ -37734,7 +37738,7 @@
         <v>0</v>
       </c>
       <c r="N453" s="13" t="n">
-        <v>1144</v>
+        <v>1315</v>
       </c>
       <c r="O453" s="13" t="n"/>
       <c r="P453" s="13" t="n"/>
@@ -37783,7 +37787,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>78.36</v>
+        <v>77.94</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>0.9399999999999999</v>
@@ -37935,7 +37939,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>98.12</v>
+        <v>98.28</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.45</v>
@@ -37945,7 +37949,7 @@
         <v/>
       </c>
       <c r="H456" s="39" t="n">
-        <v>10.88</v>
+        <v>12.33</v>
       </c>
       <c r="I456" s="39" t="inlineStr">
         <is>
@@ -38011,7 +38015,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>9.19</v>
+        <v>9.06</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38021,7 +38025,7 @@
         <v/>
       </c>
       <c r="H457" s="39" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="I457" s="39" t="inlineStr">
         <is>
@@ -38087,7 +38091,7 @@
       </c>
       <c r="D458" s="13" t="n"/>
       <c r="E458" s="39" t="n">
-        <v>102.29</v>
+        <v>101.6</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>4.2</v>
@@ -38097,7 +38101,7 @@
         <v/>
       </c>
       <c r="H458" s="39" t="n">
-        <v>17.83</v>
+        <v>19.3</v>
       </c>
       <c r="I458" s="39" t="inlineStr">
         <is>
@@ -38239,7 +38243,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.14</v>
@@ -38249,7 +38253,7 @@
         <v/>
       </c>
       <c r="H460" s="39" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="I460" s="39" t="inlineStr">
         <is>
@@ -38293,7 +38297,7 @@
       </c>
       <c r="V460" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399668</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412044</t>
         </is>
       </c>
     </row>
@@ -38393,7 +38397,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>96.03</v>
+        <v>95</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.22</v>
@@ -38403,7 +38407,7 @@
         <v/>
       </c>
       <c r="H462" s="39" t="n">
-        <v>15.54</v>
+        <v>15.71</v>
       </c>
       <c r="I462" s="39" t="inlineStr">
         <is>
@@ -38469,10 +38473,10 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>26.51</v>
+        <v>26.87</v>
       </c>
       <c r="F463" s="39" t="n">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
       <c r="G463" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -38545,7 +38549,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>96.59</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.3</v>
@@ -38599,7 +38603,7 @@
       </c>
       <c r="V464" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399002</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412586</t>
         </is>
       </c>
     </row>
@@ -38621,7 +38625,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>104.97</v>
+        <v>106.18</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.4</v>
@@ -38675,7 +38679,7 @@
       </c>
       <c r="V465" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=399880</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411514</t>
         </is>
       </c>
     </row>
@@ -38849,7 +38853,7 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>91.79000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F468" s="39" t="n">
         <v>2.65</v>
@@ -38925,7 +38929,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>10.26</v>
+        <v>10.5</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.16</v>
@@ -38935,7 +38939,7 @@
         <v/>
       </c>
       <c r="H469" s="39" t="n">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="I469" s="39" t="inlineStr">
         <is>
@@ -38979,7 +38983,7 @@
       </c>
       <c r="V469" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=403420</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=412798</t>
         </is>
       </c>
     </row>
@@ -39001,7 +39005,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>94.8</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.1</v>
@@ -39055,7 +39059,7 @@
       </c>
       <c r="V470" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=398974</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411602</t>
         </is>
       </c>
     </row>
@@ -39077,10 +39081,10 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.58</v>
+        <v>10.28</v>
       </c>
       <c r="F471" s="39" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="G471" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -39153,7 +39157,7 @@
       </c>
       <c r="D472" s="13" t="n"/>
       <c r="E472" s="39" t="n">
-        <v>9.539999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.12</v>
@@ -39229,7 +39233,7 @@
       </c>
       <c r="D473" s="13" t="n"/>
       <c r="E473" s="39" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="F473" s="39" t="n">
         <v>1.2</v>
@@ -39259,7 +39263,7 @@
         <v>26819</v>
       </c>
       <c r="O473" s="13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P473" s="13" t="n">
         <v>1</v>
@@ -39309,7 +39313,7 @@
       </c>
       <c r="D474" s="13" t="n"/>
       <c r="E474" s="39" t="n">
-        <v>106.09</v>
+        <v>106.15</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.5</v>
@@ -39363,7 +39367,7 @@
       </c>
       <c r="V474" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=397937</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411661</t>
         </is>
       </c>
     </row>
@@ -39385,7 +39389,7 @@
       </c>
       <c r="D475" s="13" t="n"/>
       <c r="E475" s="39" t="n">
-        <v>9.949999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="F475" s="39" t="n">
         <v>0.15</v>
@@ -39395,7 +39399,7 @@
         <v/>
       </c>
       <c r="H475" s="39" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="I475" s="39" t="inlineStr">
         <is>
@@ -39454,42 +39458,24 @@
           <t>FIAGRO</t>
         </is>
       </c>
-      <c r="C476" s="13" t="inlineStr">
-        <is>
-          <t>Títulos e Valores Mobiliários</t>
-        </is>
-      </c>
+      <c r="C476" s="13" t="n"/>
       <c r="D476" s="13" t="n"/>
-      <c r="E476" s="39" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="F476" s="39" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="E476" s="39" t="n"/>
+      <c r="F476" s="39" t="n"/>
       <c r="G476" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
-      <c r="H476" s="39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I476" s="39" t="inlineStr">
-        <is>
-          <t>9,50</t>
-        </is>
-      </c>
+      <c r="H476" s="39" t="n"/>
+      <c r="I476" s="39" t="n"/>
       <c r="J476" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
       <c r="K476" s="14" t="n"/>
       <c r="L476" s="14" t="n"/>
-      <c r="M476" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N476" s="13" t="n">
-        <v>30471</v>
-      </c>
+      <c r="M476" s="13" t="n"/>
+      <c r="N476" s="13" t="n"/>
       <c r="O476" s="13" t="n"/>
       <c r="P476" s="13" t="n"/>
       <c r="Q476" s="30">
@@ -39515,7 +39501,7 @@
       </c>
       <c r="V476" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=402421</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>64.98999999999999</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
       <c r="H2" s="39" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="I2" s="39" t="n">
         <v>91.51000000000001</v>
@@ -1629,7 +1629,7 @@
         <v>19308</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4013</v>
+        <v>3967</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="V2" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408308</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423007</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>94.13</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1.05</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>62.38</v>
+        <v>61.54</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.18</v>
@@ -1927,7 +1927,7 @@
         <v/>
       </c>
       <c r="H6" s="39" t="n">
-        <v>9.4</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>94.22</v>
@@ -1949,7 +1949,7 @@
         <v>12407</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12756</v>
+        <v>12512</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2035,7 +2035,7 @@
         <v>2565</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>2186</v>
+        <v>2093</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>172</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>80.89</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>0.87</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>112.12</v>
+        <v>111.97</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.8056</v>
@@ -2271,7 +2271,7 @@
         <v>119345</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3562</v>
+        <v>3555</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.42</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2443,7 +2443,7 @@
         <v>5694</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13038</v>
+        <v>12542</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>997.12</v>
+        <v>989.92</v>
       </c>
       <c r="J14" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2597,7 +2597,7 @@
       <c r="K14" s="14" t="n"/>
       <c r="L14" s="14" t="n"/>
       <c r="M14" s="13" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="N14" s="13" t="n">
         <v>56</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>9.34</v>
+        <v>9.09</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.13</v>
@@ -2805,7 +2805,7 @@
         <v/>
       </c>
       <c r="H17" s="39" t="n">
-        <v>1.5322</v>
+        <v>1.4722</v>
       </c>
       <c r="I17" s="39" t="n">
         <v>8.85</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="V17" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406587</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422304</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="39" t="n">
-        <v>70.41</v>
+        <v>68.7</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2897,7 +2897,7 @@
         <v>339</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>6572</v>
+        <v>6432</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="V18" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409260</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423158</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
         <v>0.7973</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>80.68000000000001</v>
+        <v>80.77</v>
       </c>
       <c r="J19" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="N19" s="13" t="n">
         <v>33</v>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="E20" s="39" t="n">
-        <v>75.01000000000001</v>
+        <v>74.95</v>
       </c>
       <c r="F20" s="39" t="n">
         <v>0.05</v>
@@ -3043,7 +3043,7 @@
         <v/>
       </c>
       <c r="H20" s="39" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I20" s="39" t="n">
         <v>81.55</v>
@@ -3065,7 +3065,7 @@
         <v>281</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>3835</v>
+        <v>3831</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>104</v>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>84.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3279,7 +3279,7 @@
         <v/>
       </c>
       <c r="H23" s="39" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="I23" s="39" t="n">
         <v>95.2</v>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>2071.11</v>
+        <v>2040</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>26.8882</v>
@@ -3357,7 +3357,7 @@
         <v/>
       </c>
       <c r="H24" s="39" t="n">
-        <v>318.961</v>
+        <v>323.2305</v>
       </c>
       <c r="I24" s="39" t="n">
         <v>2825.95</v>
@@ -3379,7 +3379,7 @@
         <v>8335</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>2999</v>
+        <v>2954</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>65.22</v>
+        <v>66.48</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.77</v>
@@ -3443,7 +3443,7 @@
         <v/>
       </c>
       <c r="H25" s="39" t="n">
-        <v>8.92</v>
+        <v>8.91</v>
       </c>
       <c r="I25" s="39" t="n">
         <v>79.17</v>
@@ -3521,7 +3521,7 @@
         <v/>
       </c>
       <c r="H26" s="39" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="I26" s="39" t="n">
         <v>29.87</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>83.2</v>
+        <v>82.08</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3599,7 +3599,7 @@
         <v/>
       </c>
       <c r="H27" s="39" t="n">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="I27" s="39" t="n">
         <v>100.75</v>
@@ -3621,7 +3621,7 @@
         <v>74456</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3375</v>
+        <v>3340</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>94.45</v>
+        <v>93.48</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3685,7 +3685,7 @@
         <v/>
       </c>
       <c r="H28" s="39" t="n">
-        <v>12.7</v>
+        <v>12.77</v>
       </c>
       <c r="I28" s="39" t="n">
         <v>107.83</v>
@@ -3707,7 +3707,7 @@
         <v>9309</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9343</v>
+        <v>9200</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>62.28</v>
+        <v>63.12</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>82.87</v>
+        <v>82.63</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.76</v>
@@ -3849,7 +3849,7 @@
         <v/>
       </c>
       <c r="H30" s="39" t="n">
-        <v>8.83</v>
+        <v>8.93</v>
       </c>
       <c r="I30" s="39" t="n">
         <v>97.51000000000001</v>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>91.69</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v/>
       </c>
       <c r="H31" s="39" t="n">
-        <v>14.55</v>
+        <v>14.15</v>
       </c>
       <c r="I31" s="39" t="n">
         <v>100.38</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="V31" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408173</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422077</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D32" s="13" t="n"/>
       <c r="E32" s="39" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="39" t="n">
         <v>18.4</v>
@@ -4001,7 +4001,7 @@
         <v/>
       </c>
       <c r="H32" s="39" t="n">
-        <v>79.336</v>
+        <v>91.96599999999999</v>
       </c>
       <c r="I32" s="39" t="n">
         <v>971.25</v>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>102.98</v>
+        <v>100</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.8</v>
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="H33" s="39" t="n">
-        <v>9.77</v>
+        <v>9.85</v>
       </c>
       <c r="I33" s="39" t="n">
         <v>99.38</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="V33" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=402236</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422090</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>7.6</v>
+        <v>7.35</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.08</v>
@@ -4175,7 +4175,7 @@
         <v>6680</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>75.03</v>
+        <v>75.56</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>67.36</v>
+        <v>68.39</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.79</v>
@@ -4579,7 +4579,7 @@
         <v>12271</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="V39" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408553</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421185</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
         <v/>
       </c>
       <c r="H40" s="39" t="n">
-        <v>298.4186</v>
+        <v>343.2486</v>
       </c>
       <c r="I40" s="39" t="n">
         <v>33386.1</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>6.28</v>
+        <v>6.4</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.065</v>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="V41" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406591</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423005</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D42" s="13" t="n"/>
       <c r="E42" s="39" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="F42" s="39" t="n">
         <v>1.03</v>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>101.89</v>
+        <v>100.5</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>0.66</v>
@@ -4985,7 +4985,7 @@
         <v>1438</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>13758</v>
+        <v>13570</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>121.4</v>
+        <v>121.68</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.3288</v>
@@ -5049,7 +5049,7 @@
         <v/>
       </c>
       <c r="H45" s="39" t="n">
-        <v>17.071</v>
+        <v>17.1722</v>
       </c>
       <c r="I45" s="39" t="n">
         <v>91.39</v>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>61.82</v>
+        <v>60.3</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5135,7 +5135,7 @@
         <v/>
       </c>
       <c r="H46" s="39" t="n">
-        <v>8.029999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I46" s="39" t="n">
         <v>71.73999999999999</v>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>59.35</v>
+        <v>58.43</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5309,7 +5309,7 @@
         <v>1587</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3289606</v>
+        <v>3219219</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="V48" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408980</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423621</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>93.8</v>
+        <v>93.04000000000001</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.62</v>
@@ -5459,7 +5459,7 @@
         <v/>
       </c>
       <c r="H50" s="39" t="n">
-        <v>8.029999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="I50" s="39" t="n">
         <v>121.44</v>
@@ -5481,7 +5481,7 @@
         <v>112470</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3109</v>
+        <v>3152</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>54.25</v>
+        <v>55.21</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.47</v>
@@ -5567,7 +5567,7 @@
         <v>157924</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9690</v>
+        <v>9806</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="V51" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408978</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423617</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>98.51000000000001</v>
+        <v>103</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.64</v>
@@ -5653,7 +5653,7 @@
         <v>188</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>16609</v>
+        <v>17366</v>
       </c>
       <c r="P52" s="13" t="n">
         <v>1417</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>79.76000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="J53" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -5731,7 +5731,7 @@
       <c r="K53" s="14" t="n"/>
       <c r="L53" s="14" t="n"/>
       <c r="M53" s="13" t="n">
-        <v>8.84</v>
+        <v>2.01</v>
       </c>
       <c r="N53" s="13" t="n">
         <v>11</v>
@@ -5797,7 +5797,7 @@
         <v/>
       </c>
       <c r="H54" s="39" t="n">
-        <v>136.35</v>
+        <v>124.25</v>
       </c>
       <c r="I54" s="39" t="n">
         <v>1099.42</v>
@@ -5814,12 +5814,8 @@
       <c r="N54" s="13" t="n">
         <v>209</v>
       </c>
-      <c r="O54" s="13" t="n">
-        <v>688</v>
-      </c>
-      <c r="P54" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="O54" s="13" t="n"/>
+      <c r="P54" s="13" t="n"/>
       <c r="Q54" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
         <v/>
@@ -6019,7 +6015,7 @@
       </c>
       <c r="D57" s="13" t="n"/>
       <c r="E57" s="39" t="n">
-        <v>142</v>
+        <v>138.85</v>
       </c>
       <c r="F57" s="39" t="n">
         <v>1.093</v>
@@ -6047,7 +6043,7 @@
         <v>245</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>1302</v>
+        <v>1273</v>
       </c>
       <c r="P57" s="13" t="n">
         <v>69</v>
@@ -6177,7 +6173,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>87.34</v>
+        <v>86.94</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6209,7 +6205,7 @@
         <v>43979</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1477</v>
+        <v>1425</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6341,7 +6337,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>92.3</v>
+        <v>93.64</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6373,7 +6369,7 @@
         <v>209120</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>3899</v>
+        <v>3915</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6401,7 +6397,7 @@
       </c>
       <c r="V61" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407254</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423696</t>
         </is>
       </c>
     </row>
@@ -6427,10 +6423,10 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>85</v>
+        <v>84.12</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="G62" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -6487,7 +6483,7 @@
       </c>
       <c r="V62" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408968</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423044</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6515,7 @@
         <v/>
       </c>
       <c r="H63" s="39" t="n">
-        <v>9.99</v>
+        <v>10.07</v>
       </c>
       <c r="I63" s="39" t="n">
         <v>137.67</v>
@@ -6590,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G64" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -6671,7 +6667,7 @@
         <v/>
       </c>
       <c r="H65" s="39" t="n">
-        <v>5.6147</v>
+        <v>5.7147</v>
       </c>
       <c r="I65" s="39" t="n">
         <v>111.54</v>
@@ -6905,7 +6901,7 @@
         </is>
       </c>
       <c r="E68" s="39" t="n">
-        <v>18.49</v>
+        <v>17</v>
       </c>
       <c r="F68" s="39" t="inlineStr">
         <is>
@@ -6985,7 +6981,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>105.37</v>
+        <v>104.02</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.4</v>
@@ -6995,7 +6991,7 @@
         <v/>
       </c>
       <c r="H69" s="39" t="n">
-        <v>17.58</v>
+        <v>17.5</v>
       </c>
       <c r="I69" s="39" t="n">
         <v>103.8</v>
@@ -7063,7 +7059,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7141,7 +7137,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>43.52</v>
+        <v>42.04</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7151,7 +7147,7 @@
         <v/>
       </c>
       <c r="H71" s="39" t="n">
-        <v>6.68</v>
+        <v>6.31</v>
       </c>
       <c r="I71" s="39" t="n">
         <v>73.87</v>
@@ -7173,7 +7169,7 @@
         <v>3756</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3706</v>
+        <v>3577</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7223,7 +7219,7 @@
       </c>
       <c r="D72" s="13" t="n"/>
       <c r="E72" s="39" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F72" s="39" t="n">
         <v>0.85</v>
@@ -7275,7 +7271,7 @@
       </c>
       <c r="V72" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404121</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422061</t>
         </is>
       </c>
     </row>
@@ -7297,10 +7293,10 @@
       </c>
       <c r="D73" s="13" t="n"/>
       <c r="E73" s="39" t="n">
-        <v>82</v>
+        <v>85.64</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>0.5014999999999999</v>
+        <v>1.3715</v>
       </c>
       <c r="G73" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7375,7 +7371,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>54.3</v>
+        <v>54.36</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.651</v>
@@ -7407,7 +7403,7 @@
         <v>4928</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7646</v>
+        <v>7659</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7611,7 +7607,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>68.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7643,7 +7639,7 @@
         <v>1201</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>10274</v>
+        <v>10052</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7781,10 +7777,10 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>31.87</v>
+        <v>29.63</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>0.1699</v>
+        <v>0.1297</v>
       </c>
       <c r="G79" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7813,7 +7809,7 @@
         <v>1851</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1349</v>
+        <v>1271</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7867,7 +7863,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>58.6</v>
+        <v>60</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.37</v>
@@ -7919,7 +7915,7 @@
       </c>
       <c r="V80" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405255</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423440</t>
         </is>
       </c>
     </row>
@@ -7945,7 +7941,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>78.20999999999999</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.75</v>
@@ -7997,7 +7993,7 @@
       </c>
       <c r="V81" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406196</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422005</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8019,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>64</v>
+        <v>63.94</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.61</v>
@@ -8033,7 +8029,7 @@
         <v/>
       </c>
       <c r="H82" s="39" t="n">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="I82" s="39" t="n">
         <v>81.8</v>
@@ -8177,7 +8173,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8209,7 +8205,7 @@
         <v>3181</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8263,7 +8259,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>89.78</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>1.1</v>
@@ -8315,7 +8311,7 @@
       </c>
       <c r="V85" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405256</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423001</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="G86" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8411,7 +8407,7 @@
       </c>
       <c r="D87" s="13" t="n"/>
       <c r="E87" s="39" t="n">
-        <v>77.29000000000001</v>
+        <v>76.37</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.75</v>
@@ -8439,7 +8435,7 @@
         <v>11491</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2803</v>
+        <v>2770</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8467,7 +8463,7 @@
       </c>
       <c r="V87" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407356</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421127</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8489,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>40.4</v>
+        <v>39.98</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4069</v>
@@ -8503,7 +8499,7 @@
         <v/>
       </c>
       <c r="H88" s="39" t="n">
-        <v>4.5735</v>
+        <v>4.6154</v>
       </c>
       <c r="I88" s="39" t="n">
         <v>65.61</v>
@@ -8525,7 +8521,7 @@
         <v>4078</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3274</v>
+        <v>3241</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8575,7 +8571,7 @@
       </c>
       <c r="D89" s="13" t="n"/>
       <c r="E89" s="39" t="n">
-        <v>75.79000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.83</v>
@@ -8653,17 +8649,17 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>70</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>0.7311</v>
+        <v>0.7302999999999999</v>
       </c>
       <c r="G90" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H90" s="39" t="n">
-        <v>8.5456</v>
+        <v>9.1319</v>
       </c>
       <c r="I90" s="39" t="n">
         <v>99.34</v>
@@ -8685,7 +8681,7 @@
         <v>13301</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2952</v>
+        <v>2890</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>392</v>
@@ -8739,7 +8735,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>62.45</v>
+        <v>61.35</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8749,7 +8745,7 @@
         <v/>
       </c>
       <c r="H91" s="39" t="n">
-        <v>6.61</v>
+        <v>6.66</v>
       </c>
       <c r="I91" s="39" t="n">
         <v>80.43000000000001</v>
@@ -8817,7 +8813,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>1.5122</v>
@@ -8827,7 +8823,7 @@
         <v/>
       </c>
       <c r="H92" s="39" t="n">
-        <v>6.4288</v>
+        <v>7.6034</v>
       </c>
       <c r="I92" s="39" t="n">
         <v>475.56</v>
@@ -8849,7 +8845,7 @@
         <v>609</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2588</v>
+        <v>2470</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -8899,7 +8895,7 @@
       </c>
       <c r="D93" s="13" t="n"/>
       <c r="E93" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.095</v>
@@ -8909,7 +8905,7 @@
         <v/>
       </c>
       <c r="H93" s="39" t="n">
-        <v>1.3268</v>
+        <v>1.3118</v>
       </c>
       <c r="I93" s="39" t="n">
         <v>9.550000000000001</v>
@@ -9053,7 +9049,7 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F95" s="39" t="n">
         <v>0.1533</v>
@@ -9063,7 +9059,7 @@
         <v/>
       </c>
       <c r="H95" s="39" t="n">
-        <v>0.3127</v>
+        <v>0.418</v>
       </c>
       <c r="I95" s="39" t="n">
         <v>13.19</v>
@@ -9085,7 +9081,7 @@
         <v>578</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1706</v>
+        <v>1649</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>87</v>
@@ -9139,7 +9135,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>86.5</v>
+        <v>87.05</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>1.1</v>
@@ -9547,7 +9543,7 @@
       </c>
       <c r="D101" s="13" t="n"/>
       <c r="E101" s="39" t="n">
-        <v>86.55</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.9</v>
@@ -9575,7 +9571,7 @@
         <v>145</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2472</v>
+        <v>2764</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>154</v>
@@ -9629,7 +9625,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.54</v>
@@ -9661,7 +9657,7 @@
         <v>357</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>8331</v>
+        <v>7960</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>875</v>
@@ -9715,7 +9711,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>69.58</v>
+        <v>69.37</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.7</v>
@@ -9803,7 +9799,7 @@
         <v/>
       </c>
       <c r="H104" s="39" t="n">
-        <v>19.7711</v>
+        <v>19.9813</v>
       </c>
       <c r="I104" s="39" t="n">
         <v>180.63</v>
@@ -9879,10 +9875,10 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>20.25</v>
+        <v>20.01</v>
       </c>
       <c r="F105" s="39" t="n">
-        <v>0.1162</v>
+        <v>0.13</v>
       </c>
       <c r="G105" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -9911,7 +9907,7 @@
         <v>6024</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>3067</v>
+        <v>3029</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -9961,7 +9957,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10044,14 +10040,14 @@
         <v>762.38</v>
       </c>
       <c r="F107" s="39" t="n">
-        <v>6.16</v>
+        <v>0.72</v>
       </c>
       <c r="G107" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H107" s="39" t="n">
-        <v>101.13</v>
+        <v>101.74</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>1439.17</v>
@@ -10123,7 +10119,7 @@
       </c>
       <c r="D108" s="13" t="n"/>
       <c r="E108" s="39" t="n">
-        <v>8.91</v>
+        <v>9</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10175,7 +10171,7 @@
       </c>
       <c r="V108" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404605</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421136</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10206,7 @@
         <v>827.5170000000001</v>
       </c>
       <c r="I109" s="39" t="n">
-        <v>68465.25</v>
+        <v>65128.34</v>
       </c>
       <c r="J109" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -10219,7 +10215,7 @@
       <c r="K109" s="14" t="n"/>
       <c r="L109" s="14" t="n"/>
       <c r="M109" s="13" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="N109" s="13" t="n">
         <v>10</v>
@@ -10275,7 +10271,7 @@
         </is>
       </c>
       <c r="E110" s="39" t="n">
-        <v>123.98</v>
+        <v>123.96</v>
       </c>
       <c r="F110" s="39" t="n">
         <v>0.6943</v>
@@ -10307,7 +10303,7 @@
         <v>330</v>
       </c>
       <c r="O110" s="13" t="n">
-        <v>18393</v>
+        <v>18390</v>
       </c>
       <c r="P110" s="13" t="n">
         <v>1033</v>
@@ -10441,7 +10437,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>242</v>
+        <v>236.75</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.87</v>
@@ -10451,7 +10447,7 @@
         <v/>
       </c>
       <c r="H112" s="39" t="n">
-        <v>21.74</v>
+        <v>21.83</v>
       </c>
       <c r="I112" s="39" t="n">
         <v>325.15</v>
@@ -10473,7 +10469,7 @@
         <v>2541</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>80</v>
@@ -10523,7 +10519,7 @@
       </c>
       <c r="D113" s="13" t="n"/>
       <c r="E113" s="39" t="n">
-        <v>93.98999999999999</v>
+        <v>93.88</v>
       </c>
       <c r="F113" s="39" t="n">
         <v>0.75</v>
@@ -10551,7 +10547,7 @@
         <v>1130</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>4916</v>
+        <v>4911</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>334</v>
@@ -10604,7 +10600,7 @@
         <v>103.05</v>
       </c>
       <c r="F114" s="39" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="G114" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -10679,7 +10675,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>148.8</v>
+        <v>148</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.6391</v>
@@ -10711,7 +10707,7 @@
         <v>4783</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2514</v>
+        <v>2440</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>321</v>
@@ -10841,7 +10837,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>714</v>
+        <v>712.01</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10873,7 +10869,7 @@
         <v>2781</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -10927,7 +10923,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>94.95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.9</v>
@@ -10959,7 +10955,7 @@
         <v>919</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>22755</v>
+        <v>22767</v>
       </c>
       <c r="P118" s="13" t="n">
         <v>1793</v>
@@ -11095,7 +11091,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>110.78</v>
+        <v>109.41</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.8038999999999999</v>
@@ -11127,7 +11123,7 @@
         <v>3794</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>12402</v>
+        <v>12223</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11315,7 +11311,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>46.9</v>
+        <v>46.27</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.39</v>
@@ -11325,7 +11321,7 @@
         <v/>
       </c>
       <c r="H123" s="39" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="I123" s="39" t="n">
         <v>76.31999999999999</v>
@@ -11347,7 +11343,7 @@
         <v>15645</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2049</v>
+        <v>1997</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11401,7 +11397,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>450.79</v>
+        <v>438</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.25</v>
@@ -11411,7 +11407,7 @@
         <v/>
       </c>
       <c r="H124" s="39" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="I124" s="39" t="n">
         <v>460.48</v>
@@ -11433,7 +11429,7 @@
         <v>17037</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11487,7 +11483,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>144.4</v>
+        <v>142.02</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11497,7 +11493,7 @@
         <v/>
       </c>
       <c r="H125" s="39" t="n">
-        <v>15.86</v>
+        <v>15.93</v>
       </c>
       <c r="I125" s="39" t="n">
         <v>186.29</v>
@@ -11519,7 +11515,7 @@
         <v>8066</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1898</v>
+        <v>1867</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -11547,7 +11543,7 @@
       </c>
       <c r="V125" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404143</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422198</t>
         </is>
       </c>
     </row>
@@ -11583,7 +11579,7 @@
         <v/>
       </c>
       <c r="H126" s="39" t="n">
-        <v>3.4967</v>
+        <v>3.5196</v>
       </c>
       <c r="I126" s="39" t="n">
         <v>40.55</v>
@@ -11711,7 +11707,7 @@
       </c>
       <c r="V127" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408241</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422844</t>
         </is>
       </c>
     </row>
@@ -11750,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="39" t="n">
-        <v>74.87</v>
+        <v>74.45</v>
       </c>
       <c r="J128" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -11762,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O128" s="13" t="n"/>
       <c r="P128" s="13" t="n"/>
@@ -11815,7 +11811,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -11899,7 +11895,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.1</v>
@@ -11977,7 +11973,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.8</v>
@@ -12009,7 +12005,7 @@
         <v>16968</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9801</v>
+        <v>9695</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12037,7 +12033,7 @@
       </c>
       <c r="V131" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405305</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422853</t>
         </is>
       </c>
     </row>
@@ -12063,7 +12059,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13</v>
@@ -12073,7 +12069,7 @@
         <v/>
       </c>
       <c r="H132" s="39" t="n">
-        <v>125.5619</v>
+        <v>138.5619</v>
       </c>
       <c r="I132" s="39" t="n">
         <v>1826.81</v>
@@ -12095,7 +12091,7 @@
         <v>804</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2147</v>
+        <v>2129</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12149,7 +12145,7 @@
         </is>
       </c>
       <c r="E133" s="39" t="n">
-        <v>55.25</v>
+        <v>55</v>
       </c>
       <c r="F133" s="39" t="n">
         <v>0.31</v>
@@ -12181,7 +12177,7 @@
         <v>288</v>
       </c>
       <c r="O133" s="13" t="n">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="P133" s="13" t="n">
         <v>155</v>
@@ -12313,7 +12309,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>136</v>
+        <v>135.99</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>1.65</v>
@@ -12323,7 +12319,7 @@
         <v/>
       </c>
       <c r="H135" s="39" t="n">
-        <v>19.22</v>
+        <v>19.29</v>
       </c>
       <c r="I135" s="39" t="n">
         <v>375.2</v>
@@ -12345,7 +12341,7 @@
         <v>963</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2219</v>
+        <v>2187</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12399,7 +12395,7 @@
         </is>
       </c>
       <c r="E136" s="39" t="n">
-        <v>64.98</v>
+        <v>68.62</v>
       </c>
       <c r="F136" s="39" t="n">
         <v>0.65</v>
@@ -12431,7 +12427,7 @@
         <v>67</v>
       </c>
       <c r="O136" s="13" t="n">
-        <v>7324</v>
+        <v>7734</v>
       </c>
       <c r="P136" s="13" t="n">
         <v>1096</v>
@@ -12459,7 +12455,7 @@
       </c>
       <c r="V136" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408229</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422850</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12558,7 @@
         <v>2870</v>
       </c>
       <c r="F138" s="39" t="n">
-        <v>37.6289</v>
+        <v>86.1232</v>
       </c>
       <c r="G138" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -12733,7 +12729,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>98.5</v>
+        <v>97.75</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>1.24</v>
@@ -12743,7 +12739,7 @@
         <v/>
       </c>
       <c r="H140" s="39" t="n">
-        <v>9.585000000000001</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="I140" s="39" t="n">
         <v>191.46</v>
@@ -12765,7 +12761,7 @@
         <v>3998</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4800</v>
+        <v>4777</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12793,7 +12789,7 @@
       </c>
       <c r="V140" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408557</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423009</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12815,7 @@
         </is>
       </c>
       <c r="E141" s="39" t="n">
-        <v>8.57</v>
+        <v>8.33</v>
       </c>
       <c r="F141" s="39" t="n">
         <v>0.081</v>
@@ -12851,7 +12847,7 @@
         <v>25166</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4711</v>
+        <v>4623</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -12879,7 +12875,7 @@
       </c>
       <c r="V141" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=411582</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422980</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12901,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>8.720000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -12957,7 +12953,7 @@
       </c>
       <c r="V142" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409690</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423019</t>
         </is>
       </c>
     </row>
@@ -12983,7 +12979,7 @@
         </is>
       </c>
       <c r="E143" s="39" t="n">
-        <v>68.28</v>
+        <v>68.5</v>
       </c>
       <c r="F143" s="39" t="n">
         <v>0.7</v>
@@ -13035,7 +13031,7 @@
       </c>
       <c r="V143" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406232</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421220</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13057,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>90.12</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13113,7 +13109,7 @@
       </c>
       <c r="V144" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406234</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421415</t>
         </is>
       </c>
     </row>
@@ -13149,7 +13145,7 @@
         <v/>
       </c>
       <c r="H145" s="39" t="n">
-        <v>166.8505</v>
+        <v>162.9284</v>
       </c>
       <c r="I145" s="39" t="n">
         <v>1772.41</v>
@@ -13225,7 +13221,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>102.39</v>
+        <v>104.45</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>0.95</v>
@@ -13235,7 +13231,7 @@
         <v/>
       </c>
       <c r="H146" s="39" t="n">
-        <v>11.28</v>
+        <v>11.38</v>
       </c>
       <c r="I146" s="39" t="n">
         <v>124.81</v>
@@ -13257,7 +13253,7 @@
         <v>102309</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13473,7 +13469,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13553,7 +13549,7 @@
       </c>
       <c r="D150" s="13" t="n"/>
       <c r="E150" s="39" t="n">
-        <v>98</v>
+        <v>95.8</v>
       </c>
       <c r="F150" s="39" t="n">
         <v>0.7</v>
@@ -13581,7 +13577,7 @@
         <v>136</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>4049</v>
+        <v>3958</v>
       </c>
       <c r="P150" s="13" t="n">
         <v>307</v>
@@ -13635,7 +13631,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>74.52</v>
+        <v>74.42</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13645,7 +13641,7 @@
         <v/>
       </c>
       <c r="H151" s="39" t="n">
-        <v>8.98</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I151" s="39" t="n">
         <v>94.73999999999999</v>
@@ -13667,7 +13663,7 @@
         <v>26661</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>9939</v>
+        <v>9817</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -13727,7 +13723,7 @@
         <v/>
       </c>
       <c r="H152" s="39" t="n">
-        <v>5.48</v>
+        <v>4.46</v>
       </c>
       <c r="I152" s="39" t="n">
         <v>107.75</v>
@@ -13955,7 +13951,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.47</v>
@@ -13965,7 +13961,7 @@
         <v/>
       </c>
       <c r="H155" s="39" t="n">
-        <v>6.54</v>
+        <v>6.47</v>
       </c>
       <c r="I155" s="39" t="n">
         <v>89.28</v>
@@ -13987,7 +13983,7 @@
         <v>185</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>17572</v>
+        <v>15673</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1619</v>
@@ -14041,7 +14037,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>89.28</v>
+        <v>87.81</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.18</v>
@@ -14051,7 +14047,7 @@
         <v/>
       </c>
       <c r="H156" s="39" t="n">
-        <v>13.95</v>
+        <v>13.85</v>
       </c>
       <c r="I156" s="39" t="n">
         <v>99.75</v>
@@ -14093,7 +14089,7 @@
       </c>
       <c r="V156" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404473</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423636</t>
         </is>
       </c>
     </row>
@@ -14125,7 +14121,7 @@
         <v/>
       </c>
       <c r="H157" s="39" t="n">
-        <v>6.1076</v>
+        <v>5.8492</v>
       </c>
       <c r="I157" s="39" t="n">
         <v>101.94</v>
@@ -14197,7 +14193,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>90.7</v>
+        <v>89.02</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6289</v>
@@ -14207,7 +14203,7 @@
         <v/>
       </c>
       <c r="H158" s="39" t="n">
-        <v>8.0548</v>
+        <v>7.8708</v>
       </c>
       <c r="I158" s="39" t="n">
         <v>113.19</v>
@@ -14229,7 +14225,7 @@
         <v>1265</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8332</v>
+        <v>8360</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>834</v>
@@ -14257,7 +14253,7 @@
       </c>
       <c r="V158" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405288</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421532</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14355,7 @@
       </c>
       <c r="D160" s="13" t="n"/>
       <c r="E160" s="39" t="n">
-        <v>82.94</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14369,7 +14365,7 @@
         <v/>
       </c>
       <c r="H160" s="39" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="I160" s="39" t="n">
         <v>101.43</v>
@@ -14411,7 +14407,7 @@
       </c>
       <c r="V160" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407340</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423638</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14509,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>244.94</v>
+        <v>239</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.5103</v>
@@ -14545,7 +14541,7 @@
         <v>3083</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8888</v>
+        <v>8671</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14679,7 +14675,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>88.20999999999999</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>1</v>
@@ -14753,7 +14749,7 @@
       </c>
       <c r="D165" s="13" t="n"/>
       <c r="E165" s="39" t="n">
-        <v>0</v>
+        <v>104.17</v>
       </c>
       <c r="F165" s="39" t="n">
         <v>1.95</v>
@@ -14907,7 +14903,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>64.31999999999999</v>
+        <v>65.16</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -14917,7 +14913,7 @@
         <v/>
       </c>
       <c r="H167" s="39" t="n">
-        <v>7.35</v>
+        <v>7.38</v>
       </c>
       <c r="I167" s="39" t="n">
         <v>79.48</v>
@@ -14985,7 +14981,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>183.3</v>
+        <v>177.66</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -14995,7 +14991,7 @@
         <v/>
       </c>
       <c r="H168" s="39" t="n">
-        <v>15.65</v>
+        <v>15.9</v>
       </c>
       <c r="I168" s="39" t="n">
         <v>221.39</v>
@@ -15017,7 +15013,7 @@
         <v>91264</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3590</v>
+        <v>3513</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15071,7 +15067,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>101.58</v>
+        <v>101.32</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15081,7 +15077,7 @@
         <v/>
       </c>
       <c r="H169" s="39" t="n">
-        <v>13.95</v>
+        <v>14.1</v>
       </c>
       <c r="I169" s="39" t="n">
         <v>100.64</v>
@@ -15149,7 +15145,7 @@
         </is>
       </c>
       <c r="E170" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15159,7 +15155,7 @@
         <v/>
       </c>
       <c r="H170" s="39" t="n">
-        <v>7.61</v>
+        <v>7.68</v>
       </c>
       <c r="I170" s="39" t="n">
         <v>84.56999999999999</v>
@@ -15223,7 +15219,7 @@
       </c>
       <c r="D171" s="13" t="n"/>
       <c r="E171" s="39" t="n">
-        <v>94.41</v>
+        <v>100</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>0.6525</v>
@@ -15233,7 +15229,7 @@
         <v/>
       </c>
       <c r="H171" s="39" t="n">
-        <v>12.5625</v>
+        <v>12.2167</v>
       </c>
       <c r="I171" s="39" t="n">
         <v>115.39</v>
@@ -15379,7 +15375,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>161.28</v>
+        <v>160.2</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15411,7 +15407,7 @@
         <v>338853</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3129</v>
+        <v>3108</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>224</v>
@@ -15465,7 +15461,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15475,7 +15471,7 @@
         <v/>
       </c>
       <c r="H174" s="39" t="n">
-        <v>17.85</v>
+        <v>18.1</v>
       </c>
       <c r="I174" s="39" t="n">
         <v>299.36</v>
@@ -15497,7 +15493,7 @@
         <v>9042</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>34317</v>
+        <v>34093</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2562</v>
@@ -15551,7 +15547,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>110.09</v>
+        <v>110.1</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15561,7 +15557,7 @@
         <v/>
       </c>
       <c r="H175" s="39" t="n">
-        <v>9.5</v>
+        <v>9.59</v>
       </c>
       <c r="I175" s="39" t="n">
         <v>156.98</v>
@@ -15583,7 +15579,7 @@
         <v>139177</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>6569</v>
+        <v>6556</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15713,7 +15709,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>115.41</v>
+        <v>115.51</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.82</v>
@@ -15723,7 +15719,7 @@
         <v/>
       </c>
       <c r="H177" s="39" t="n">
-        <v>11.34</v>
+        <v>11.43</v>
       </c>
       <c r="I177" s="39" t="n">
         <v>122.78</v>
@@ -15745,7 +15741,7 @@
         <v>194069</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4226</v>
+        <v>4236</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15799,7 +15795,7 @@
         </is>
       </c>
       <c r="E178" s="39" t="n">
-        <v>84</v>
+        <v>82.86</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15831,7 +15827,7 @@
         <v>4173</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -15963,7 +15959,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>24.15</v>
+        <v>23.6</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.11</v>
@@ -15973,7 +15969,7 @@
         <v/>
       </c>
       <c r="H180" s="39" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="I180" s="39" t="n">
         <v>90.52</v>
@@ -15991,7 +15987,7 @@
         <v>8098</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2064</v>
+        <v>2038</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16045,7 +16041,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>63.98</v>
+        <v>60.61</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.44</v>
@@ -16055,7 +16051,7 @@
         <v/>
       </c>
       <c r="H181" s="39" t="n">
-        <v>5.9321</v>
+        <v>5.9921</v>
       </c>
       <c r="I181" s="39" t="n">
         <v>92.58</v>
@@ -16097,7 +16093,7 @@
       </c>
       <c r="V181" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407342</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423642</t>
         </is>
       </c>
     </row>
@@ -16123,7 +16119,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>70.61</v>
+        <v>73</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.45</v>
@@ -16155,7 +16151,7 @@
         <v>387</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1613</v>
+        <v>1656</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>142</v>
@@ -16209,7 +16205,7 @@
         </is>
       </c>
       <c r="E183" s="39" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F183" s="39" t="n">
         <v>6.8</v>
@@ -16287,7 +16283,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.9</v>
@@ -16365,7 +16361,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>77.79000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.9</v>
@@ -16375,7 +16371,7 @@
         <v/>
       </c>
       <c r="H185" s="39" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="I185" s="39" t="n">
         <v>91.06999999999999</v>
@@ -16443,7 +16439,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>79.15000000000001</v>
+        <v>77.55</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.7</v>
@@ -16453,7 +16449,7 @@
         <v/>
       </c>
       <c r="H186" s="39" t="n">
-        <v>8.06</v>
+        <v>8.15</v>
       </c>
       <c r="I186" s="39" t="n">
         <v>104.88</v>
@@ -16475,7 +16471,7 @@
         <v>24279</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2056</v>
+        <v>2003</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16529,7 +16525,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>79.38</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.7</v>
@@ -16539,7 +16535,7 @@
         <v/>
       </c>
       <c r="H187" s="39" t="n">
-        <v>7.83</v>
+        <v>7.97</v>
       </c>
       <c r="I187" s="39" t="n">
         <v>96.40000000000001</v>
@@ -16561,7 +16557,7 @@
         <v>149241</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8297</v>
+        <v>8076</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16611,7 +16607,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>102.99</v>
+        <v>102.46</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16621,7 +16617,7 @@
         <v/>
       </c>
       <c r="H188" s="39" t="n">
-        <v>7.21</v>
+        <v>7.28</v>
       </c>
       <c r="I188" s="39" t="n">
         <v>96.40000000000001</v>
@@ -16639,7 +16635,7 @@
         <v>186</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8536</v>
+        <v>8492</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>690</v>
@@ -16693,7 +16689,7 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>105.61</v>
+        <v>107.78</v>
       </c>
       <c r="F189" s="39" t="n">
         <v>0.7391</v>
@@ -16703,7 +16699,7 @@
         <v/>
       </c>
       <c r="H189" s="39" t="n">
-        <v>5.9473</v>
+        <v>6.574</v>
       </c>
       <c r="I189" s="39" t="n">
         <v>138.75</v>
@@ -16712,8 +16708,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K189" s="14" t="n"/>
-      <c r="L189" s="14" t="n"/>
+      <c r="K189" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M189" s="13" t="n">
         <v>3.54</v>
       </c>
@@ -16721,10 +16721,10 @@
         <v>26023</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4561</v>
+        <v>4607</v>
       </c>
       <c r="P189" s="13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q189" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="V189" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404129</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421179</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="D190" s="13" t="n"/>
       <c r="E190" s="39" t="n">
-        <v>71.3</v>
+        <v>66</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.36</v>
@@ -16781,7 +16781,7 @@
         <v/>
       </c>
       <c r="H190" s="39" t="n">
-        <v>6.89</v>
+        <v>7.15</v>
       </c>
       <c r="I190" s="39" t="n">
         <v>101.47</v>
@@ -16799,7 +16799,7 @@
         <v>212</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1205</v>
+        <v>1149</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="V190" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405639</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421605</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>102.27</v>
+        <v>100</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.87</v>
@@ -16863,7 +16863,7 @@
         <v/>
       </c>
       <c r="H191" s="39" t="n">
-        <v>10.28</v>
+        <v>10.66</v>
       </c>
       <c r="I191" s="39" t="n">
         <v>146.77</v>
@@ -16885,7 +16885,7 @@
         <v>758</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -16942,14 +16942,14 @@
         <v>1137.61</v>
       </c>
       <c r="F192" s="39" t="n">
-        <v>7.3865</v>
+        <v>10.2223</v>
       </c>
       <c r="G192" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H192" s="39" t="n">
-        <v>61.2273</v>
+        <v>79.2765</v>
       </c>
       <c r="I192" s="39" t="n">
         <v>993.99</v>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="D193" s="13" t="n"/>
       <c r="E193" s="39" t="n">
-        <v>75.02</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>0.9</v>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="V193" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407311</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423659</t>
         </is>
       </c>
     </row>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="D195" s="13" t="n"/>
       <c r="E195" s="39" t="n">
-        <v>54.95</v>
+        <v>53.81</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.1139</v>
@@ -17179,7 +17179,7 @@
         <v/>
       </c>
       <c r="H195" s="39" t="n">
-        <v>9.6288</v>
+        <v>9.096</v>
       </c>
       <c r="I195" s="39" t="n">
         <v>55.43</v>
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>89.13</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.9479</v>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="V196" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405286</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421183</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>90.36</v>
+        <v>92.38</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>1.0152</v>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="V197" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405316</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421063</t>
         </is>
       </c>
     </row>
@@ -17403,7 +17403,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>75.95999999999999</v>
+        <v>75.95</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.85</v>
@@ -17413,7 +17413,7 @@
         <v/>
       </c>
       <c r="H198" s="39" t="n">
-        <v>10.85</v>
+        <v>10.78</v>
       </c>
       <c r="I198" s="39" t="n">
         <v>79.61</v>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="V198" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=402240</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422097</t>
         </is>
       </c>
     </row>
@@ -17481,7 +17481,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>74.2</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.66</v>
@@ -17491,7 +17491,7 @@
         <v/>
       </c>
       <c r="H199" s="39" t="n">
-        <v>6.87</v>
+        <v>6.9</v>
       </c>
       <c r="I199" s="39" t="n">
         <v>76.06</v>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="V199" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=402237</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422094</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
         <v/>
       </c>
       <c r="H201" s="39" t="n">
-        <v>7.09</v>
+        <v>7.04</v>
       </c>
       <c r="I201" s="39" t="n">
         <v>80.95999999999999</v>
@@ -17863,7 +17863,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>59.24</v>
+        <v>59.19</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.62</v>
@@ -17895,7 +17895,7 @@
         <v>4161</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>5988</v>
+        <v>5979</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="V204" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408563</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423177</t>
         </is>
       </c>
     </row>
@@ -17949,7 +17949,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>102.5</v>
+        <v>101.25</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.4</v>
@@ -17959,7 +17959,7 @@
         <v/>
       </c>
       <c r="H205" s="39" t="n">
-        <v>19.57</v>
+        <v>19.47</v>
       </c>
       <c r="I205" s="39" t="n">
         <v>97.84999999999999</v>
@@ -18105,7 +18105,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>80.05</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>0.521</v>
@@ -18115,7 +18115,7 @@
         <v/>
       </c>
       <c r="H207" s="39" t="n">
-        <v>6.4814</v>
+        <v>7.6214</v>
       </c>
       <c r="I207" s="39" t="n">
         <v>89.28</v>
@@ -18137,7 +18137,7 @@
         <v>4241</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6922</v>
+        <v>6917</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="D208" s="13" t="n"/>
       <c r="E208" s="39" t="n">
-        <v>79.94</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18197,7 +18197,7 @@
         <v/>
       </c>
       <c r="H208" s="39" t="n">
-        <v>11.13</v>
+        <v>11.16</v>
       </c>
       <c r="I208" s="39" t="n">
         <v>91.83</v>
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>66.05</v>
+        <v>63.73</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.49</v>
@@ -18275,7 +18275,7 @@
         <v/>
       </c>
       <c r="H209" s="39" t="n">
-        <v>5.919</v>
+        <v>5.849</v>
       </c>
       <c r="I209" s="39" t="n">
         <v>112.82</v>
@@ -18297,7 +18297,7 @@
         <v>87407</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11597</v>
+        <v>11193</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>91.95</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>1.08</v>
@@ -18439,7 +18439,7 @@
         <v/>
       </c>
       <c r="H211" s="39" t="n">
-        <v>6.75</v>
+        <v>10.79</v>
       </c>
       <c r="I211" s="39" t="n">
         <v>97.45999999999999</v>
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>3.0467</v>
@@ -18517,7 +18517,7 @@
         <v/>
       </c>
       <c r="H212" s="39" t="n">
-        <v>14.3669</v>
+        <v>12.3357</v>
       </c>
       <c r="I212" s="39" t="n">
         <v>928.11</v>
@@ -18585,7 +18585,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>78.12</v>
+        <v>77.81</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18595,7 +18595,7 @@
         <v/>
       </c>
       <c r="H213" s="39" t="n">
-        <v>8.390000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I213" s="39" t="n">
         <v>88.14</v>
@@ -18637,7 +18637,7 @@
       </c>
       <c r="V213" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408991</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423684</t>
         </is>
       </c>
     </row>
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="E214" s="39" t="n">
-        <v>9.390000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F214" s="39" t="n">
         <v>0.2798</v>
@@ -18673,7 +18673,7 @@
         <v/>
       </c>
       <c r="H214" s="39" t="n">
-        <v>2.8477</v>
+        <v>2.7637</v>
       </c>
       <c r="I214" s="39" t="n">
         <v>4</v>
@@ -18741,7 +18741,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>8.06</v>
+        <v>7.91</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.075</v>
@@ -18751,7 +18751,7 @@
         <v/>
       </c>
       <c r="H215" s="39" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I215" s="39" t="n">
         <v>8.5</v>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="D216" s="13" t="n"/>
       <c r="E216" s="39" t="n">
-        <v>87.73</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.25</v>
@@ -18825,7 +18825,7 @@
         <v/>
       </c>
       <c r="H216" s="39" t="n">
-        <v>14.6</v>
+        <v>15.8</v>
       </c>
       <c r="I216" s="39" t="n">
         <v>96.54000000000001</v>
@@ -18893,7 +18893,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>99.3</v>
+        <v>98.7</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.2</v>
@@ -18903,7 +18903,7 @@
         <v/>
       </c>
       <c r="H217" s="39" t="n">
-        <v>13.18</v>
+        <v>13.35</v>
       </c>
       <c r="I217" s="39" t="n">
         <v>100.74</v>
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>96.7</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>1.32</v>
@@ -18981,7 +18981,7 @@
         <v/>
       </c>
       <c r="H218" s="39" t="n">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="I218" s="39" t="n">
         <v>97.83</v>
@@ -19049,7 +19049,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>90</v>
+        <v>90.98</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>1</v>
@@ -19059,7 +19059,7 @@
         <v/>
       </c>
       <c r="H219" s="39" t="n">
-        <v>12.04</v>
+        <v>11.87</v>
       </c>
       <c r="I219" s="39" t="n">
         <v>93.78</v>
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="E221" s="39" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F221" s="39" t="n">
         <v>0.0377</v>
@@ -19279,7 +19279,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>136.94</v>
+        <v>136.4</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.91</v>
@@ -19289,7 +19289,7 @@
         <v/>
       </c>
       <c r="H222" s="39" t="n">
-        <v>10.6</v>
+        <v>10.74</v>
       </c>
       <c r="I222" s="39" t="n">
         <v>159.89</v>
@@ -19311,7 +19311,7 @@
         <v>244779</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>4121</v>
+        <v>4104</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>346</v>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="V222" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408985</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423670</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>86.28</v>
+        <v>85.59</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>1.04</v>
@@ -19375,7 +19375,7 @@
         <v/>
       </c>
       <c r="H223" s="39" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="I223" s="39" t="n">
         <v>88.06</v>
@@ -19453,7 +19453,7 @@
         <v/>
       </c>
       <c r="H224" s="39" t="n">
-        <v>9.1372</v>
+        <v>9.3172</v>
       </c>
       <c r="I224" s="39" t="n">
         <v>106.3</v>
@@ -19681,7 +19681,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>68.5</v>
+        <v>68.16</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19713,7 +19713,7 @@
         <v>379</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>15501</v>
+        <v>14709</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>76.37</v>
+        <v>75.05</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.62</v>
@@ -19799,7 +19799,7 @@
         <v>15435</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2567</v>
+        <v>2537</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -19827,7 +19827,7 @@
       </c>
       <c r="V228" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=403728</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422099</t>
         </is>
       </c>
     </row>
@@ -19849,7 +19849,7 @@
       </c>
       <c r="D229" s="13" t="n"/>
       <c r="E229" s="39" t="n">
-        <v>10.29</v>
+        <v>10.09</v>
       </c>
       <c r="F229" s="39" t="n">
         <v>0.13</v>
@@ -19859,7 +19859,7 @@
         <v/>
       </c>
       <c r="H229" s="39" t="n">
-        <v>1.2553</v>
+        <v>1.3903</v>
       </c>
       <c r="I229" s="39" t="n">
         <v>10.13</v>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="V229" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405295</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422096</t>
         </is>
       </c>
     </row>
@@ -20317,7 +20317,7 @@
         <v/>
       </c>
       <c r="H235" s="39" t="n">
-        <v>8.81</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I235" s="39" t="n">
         <v>114.35</v>
@@ -20385,7 +20385,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>71.84999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.55</v>
@@ -20395,7 +20395,7 @@
         <v/>
       </c>
       <c r="H236" s="39" t="n">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="I236" s="39" t="n">
         <v>118.26</v>
@@ -20417,7 +20417,7 @@
         <v>4302</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3545</v>
+        <v>3552</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>565</v>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="V236" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=402242</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422092</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>93.45</v>
+        <v>94.05</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.75</v>
@@ -20481,7 +20481,7 @@
         <v/>
       </c>
       <c r="H237" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I237" s="39" t="n">
         <v>115.49</v>
@@ -20503,7 +20503,7 @@
         <v>67265</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2736</v>
+        <v>2775</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="V237" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404763</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423632</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>100.58</v>
+        <v>99.19</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20643,7 +20643,7 @@
         <v/>
       </c>
       <c r="H239" s="39" t="n">
-        <v>9.039999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I239" s="39" t="n">
         <v>120.49</v>
@@ -20665,7 +20665,7 @@
         <v>110986</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3631</v>
+        <v>3553</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="V239" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408565</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423138</t>
         </is>
       </c>
     </row>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="D240" s="13" t="n"/>
       <c r="E240" s="39" t="n">
-        <v>9.9</v>
+        <v>9.77</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20725,7 +20725,7 @@
         <v/>
       </c>
       <c r="H240" s="39" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="I240" s="39" t="n">
         <v>9.66</v>
@@ -20767,7 +20767,7 @@
       </c>
       <c r="V240" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405291</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421074</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="D241" s="13" t="n"/>
       <c r="E241" s="39" t="n">
-        <v>80.22</v>
+        <v>80.11</v>
       </c>
       <c r="F241" s="39" t="n">
         <v>1</v>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="V241" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408561</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423112</t>
         </is>
       </c>
     </row>
@@ -20867,7 +20867,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>61.4</v>
+        <v>63.53</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.3161</v>
@@ -20899,7 +20899,7 @@
         <v>4195</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1159</v>
+        <v>1192</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -20953,7 +20953,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>83.68000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.95</v>
@@ -21005,7 +21005,7 @@
       </c>
       <c r="V243" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406936</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423338</t>
         </is>
       </c>
     </row>
@@ -21031,7 +21031,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.73</v>
+        <v>9</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="V244" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406635</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422272</t>
         </is>
       </c>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="D245" s="13" t="n"/>
       <c r="E245" s="39" t="n">
-        <v>110.47</v>
+        <v>110</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="V245" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405272</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422078</t>
         </is>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>57.39</v>
+        <v>55.1</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.58</v>
@@ -21193,7 +21193,7 @@
         <v/>
       </c>
       <c r="H246" s="39" t="n">
-        <v>7.94</v>
+        <v>7.68</v>
       </c>
       <c r="I246" s="39" t="n">
         <v>68.59</v>
@@ -21267,7 +21267,7 @@
         <v/>
       </c>
       <c r="H247" s="39" t="n">
-        <v>5.58</v>
+        <v>6.55</v>
       </c>
       <c r="I247" s="39" t="n">
         <v>100.61</v>
@@ -21335,7 +21335,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>93.98999999999999</v>
+        <v>94.98</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.1</v>
@@ -21345,7 +21345,7 @@
         <v/>
       </c>
       <c r="H248" s="39" t="n">
-        <v>13.38</v>
+        <v>13.31</v>
       </c>
       <c r="I248" s="39" t="n">
         <v>103.14</v>
@@ -21363,7 +21363,7 @@
         <v>28587</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21417,7 +21417,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>80.18000000000001</v>
+        <v>80.66</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.8586</v>
@@ -21469,7 +21469,7 @@
       </c>
       <c r="V249" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405479</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422109</t>
         </is>
       </c>
     </row>
@@ -21495,7 +21495,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>53.47</v>
+        <v>54.15</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.54</v>
@@ -21547,7 +21547,7 @@
       </c>
       <c r="V250" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405427</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423663</t>
         </is>
       </c>
     </row>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>59.7</v>
+        <v>59.74</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.8</v>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="V251" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405920</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423667</t>
         </is>
       </c>
     </row>
@@ -22273,10 +22273,10 @@
       </c>
       <c r="D260" s="13" t="n"/>
       <c r="E260" s="39" t="n">
-        <v>91.98999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="F260" s="39" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="G260" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -22325,7 +22325,7 @@
       </c>
       <c r="V260" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408564</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423142</t>
         </is>
       </c>
     </row>
@@ -22351,7 +22351,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>61.47</v>
+        <v>61.34</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.66</v>
@@ -22403,7 +22403,7 @@
       </c>
       <c r="V261" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408559</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423093</t>
         </is>
       </c>
     </row>
@@ -22665,7 +22665,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.19</v>
+        <v>10.23</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.11</v>
@@ -22675,7 +22675,7 @@
         <v/>
       </c>
       <c r="H265" s="39" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="I265" s="39" t="n">
         <v>10.11</v>
@@ -22693,7 +22693,7 @@
         <v>777034</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>9699</v>
+        <v>9689</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>71</v>
+        <v>71.5</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="E267" s="39" t="n">
-        <v>83.52</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1</v>
@@ -22899,7 +22899,7 @@
       </c>
       <c r="D268" s="13" t="n"/>
       <c r="E268" s="39" t="n">
-        <v>9.99</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.11</v>
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>100.07</v>
+        <v>100.4</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>0.93</v>
@@ -22987,7 +22987,7 @@
         <v/>
       </c>
       <c r="H269" s="39" t="n">
-        <v>11.63</v>
+        <v>11.76</v>
       </c>
       <c r="I269" s="39" t="n">
         <v>120.1</v>
@@ -23009,7 +23009,7 @@
         <v>3732</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23063,7 +23063,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>59.4</v>
+        <v>62.5</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.1</v>
@@ -23073,7 +23073,7 @@
         <v/>
       </c>
       <c r="H270" s="39" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I270" s="39" t="n">
         <v>68.79000000000001</v>
@@ -23095,7 +23095,7 @@
         <v>1656</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3316</v>
+        <v>3455</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>164.55</v>
+        <v>164.31</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5546</v>
@@ -23237,7 +23237,7 @@
         <v/>
       </c>
       <c r="H272" s="39" t="n">
-        <v>10.6926</v>
+        <v>10.6697</v>
       </c>
       <c r="I272" s="39" t="n">
         <v>199.02</v>
@@ -23259,7 +23259,7 @@
         <v>6635</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8851</v>
+        <v>8770</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>11.15</v>
+        <v>11.5</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0835</v>
@@ -23323,7 +23323,7 @@
         <v/>
       </c>
       <c r="H273" s="39" t="n">
-        <v>0.953</v>
+        <v>0.9593</v>
       </c>
       <c r="I273" s="39" t="n">
         <v>13.96</v>
@@ -23345,7 +23345,7 @@
         <v>2243</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>15074</v>
+        <v>15547</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23481,7 +23481,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>173.61</v>
+        <v>173.76</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>0.98</v>
@@ -23513,7 +23513,7 @@
         <v>3331</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>25885</v>
+        <v>25910</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1834</v>
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>61</v>
+        <v>61.98</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23723,7 +23723,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>97.5</v>
+        <v>95.7</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23801,7 +23801,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>38.9</v>
+        <v>38</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23833,7 +23833,7 @@
         <v>5225</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>86</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>75.94</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>1</v>
@@ -23919,7 +23919,7 @@
         <v>5683</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>1940</v>
+        <v>1901</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>152</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>13.29</v>
+        <v>12.98</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>67.45</v>
+        <v>66.77</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.22</v>
@@ -24147,7 +24147,7 @@
         <v/>
       </c>
       <c r="H283" s="39" t="n">
-        <v>4.48</v>
+        <v>4.4</v>
       </c>
       <c r="I283" s="39" t="n">
         <v>76.5</v>
@@ -24169,7 +24169,7 @@
         <v>8307</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>17287</v>
+        <v>17244</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24197,7 +24197,7 @@
       </c>
       <c r="V283" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404470</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423051</t>
         </is>
       </c>
     </row>
@@ -24223,7 +24223,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>63.21</v>
+        <v>61.5</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.58</v>
@@ -24233,7 +24233,7 @@
         <v/>
       </c>
       <c r="H284" s="39" t="n">
-        <v>6.96</v>
+        <v>6.98</v>
       </c>
       <c r="I284" s="39" t="n">
         <v>98.02</v>
@@ -24255,7 +24255,7 @@
         <v>24158</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2025</v>
+        <v>1953</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24283,7 +24283,7 @@
       </c>
       <c r="V284" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405970</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422088</t>
         </is>
       </c>
     </row>
@@ -24463,7 +24463,7 @@
       </c>
       <c r="D287" s="13" t="n"/>
       <c r="E287" s="39" t="n">
-        <v>51.29</v>
+        <v>48.5</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -24473,7 +24473,7 @@
         <v/>
       </c>
       <c r="H287" s="39" t="n">
-        <v>7.5994</v>
+        <v>7.4723</v>
       </c>
       <c r="I287" s="39" t="n">
         <v>76.08</v>
@@ -24541,7 +24541,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>84.15000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24619,7 +24619,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>71.5</v>
+        <v>70.62</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.75</v>
@@ -24629,7 +24629,7 @@
         <v/>
       </c>
       <c r="H289" s="39" t="n">
-        <v>9.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I289" s="39" t="n">
         <v>106.36</v>
@@ -24651,7 +24651,7 @@
         <v>3295</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -24679,7 +24679,7 @@
       </c>
       <c r="V289" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408566</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423169</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>24.32</v>
+        <v>22.98</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.1091</v>
@@ -24715,7 +24715,7 @@
         <v/>
       </c>
       <c r="H290" s="39" t="n">
-        <v>3.2203</v>
+        <v>2.1645</v>
       </c>
       <c r="I290" s="39" t="n">
         <v>32.26</v>
@@ -25011,7 +25011,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>87.52</v>
+        <v>86.45</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1.12</v>
@@ -25021,7 +25021,7 @@
         <v/>
       </c>
       <c r="H294" s="39" t="n">
-        <v>14.55</v>
+        <v>14.5</v>
       </c>
       <c r="I294" s="39" t="n">
         <v>97.51000000000001</v>
@@ -25089,7 +25089,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>52.31</v>
+        <v>52.16</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25099,7 +25099,7 @@
         <v/>
       </c>
       <c r="H295" s="39" t="n">
-        <v>5.04</v>
+        <v>5.08</v>
       </c>
       <c r="I295" s="39" t="n">
         <v>57.24</v>
@@ -25121,7 +25121,7 @@
         <v>465</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11632</v>
+        <v>11674</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25175,7 +25175,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>2053.07</v>
+        <v>2006</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>10.3778</v>
@@ -25185,7 +25185,7 @@
         <v/>
       </c>
       <c r="H296" s="39" t="n">
-        <v>183.8428</v>
+        <v>183.6739</v>
       </c>
       <c r="I296" s="39" t="n">
         <v>3125.39</v>
@@ -25207,7 +25207,7 @@
         <v>4005</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1893</v>
+        <v>1854</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>232</v>
@@ -25261,7 +25261,7 @@
         </is>
       </c>
       <c r="E297" s="39" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="F297" s="39" t="n">
         <v>0.1717</v>
@@ -25289,7 +25289,7 @@
         <v>763</v>
       </c>
       <c r="O297" s="13" t="n">
-        <v>12010</v>
+        <v>9872</v>
       </c>
       <c r="P297" s="13" t="n">
         <v>0</v>
@@ -25343,7 +25343,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>125.03</v>
+        <v>131.98</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25375,7 +25375,7 @@
         <v>1025</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>2183</v>
+        <v>2304</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25583,7 +25583,7 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>87.75</v>
+        <v>86.7</v>
       </c>
       <c r="F301" s="39" t="n">
         <v>0.61</v>
@@ -25593,7 +25593,7 @@
         <v/>
       </c>
       <c r="H301" s="39" t="n">
-        <v>6.81</v>
+        <v>6.86</v>
       </c>
       <c r="I301" s="39" t="n">
         <v>102.84</v>
@@ -25615,7 +25615,7 @@
         <v>88760</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>8071</v>
+        <v>7970</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="V301" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405261</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422878</t>
         </is>
       </c>
     </row>
@@ -25669,7 +25669,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>41.66</v>
+        <v>42.1</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.42</v>
@@ -25679,7 +25679,7 @@
         <v/>
       </c>
       <c r="H302" s="39" t="n">
-        <v>4.83</v>
+        <v>4.865</v>
       </c>
       <c r="I302" s="39" t="n">
         <v>55.83</v>
@@ -25701,7 +25701,7 @@
         <v>24367</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2479</v>
+        <v>2507</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25755,7 +25755,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>79.73</v>
+        <v>78.44</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.9</v>
@@ -25765,7 +25765,7 @@
         <v/>
       </c>
       <c r="H303" s="39" t="n">
-        <v>12.545</v>
+        <v>12.285</v>
       </c>
       <c r="I303" s="39" t="n">
         <v>91.48999999999999</v>
@@ -25839,7 +25839,7 @@
         <v/>
       </c>
       <c r="H304" s="39" t="n">
-        <v>4.69</v>
+        <v>4.03</v>
       </c>
       <c r="I304" s="39" t="n">
         <v>89.61</v>
@@ -26065,7 +26065,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26143,7 +26143,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>119.31</v>
+        <v>122.93</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26153,7 +26153,7 @@
         <v/>
       </c>
       <c r="H308" s="39" t="n">
-        <v>14.34</v>
+        <v>14.48</v>
       </c>
       <c r="I308" s="39" t="n">
         <v>144.32</v>
@@ -26175,7 +26175,7 @@
         <v>12791</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2551</v>
+        <v>2630</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26229,7 +26229,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>49.64</v>
+        <v>48.86</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.49</v>
@@ -26239,7 +26239,7 @@
         <v/>
       </c>
       <c r="H309" s="39" t="n">
-        <v>5.97</v>
+        <v>5.99</v>
       </c>
       <c r="I309" s="39" t="n">
         <v>62.42</v>
@@ -26281,7 +26281,7 @@
       </c>
       <c r="V309" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=419663</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=420958</t>
         </is>
       </c>
     </row>
@@ -26393,7 +26393,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1</v>
@@ -26403,7 +26403,7 @@
         <v/>
       </c>
       <c r="H311" s="39" t="n">
-        <v>14.15</v>
+        <v>14.1</v>
       </c>
       <c r="I311" s="39" t="n">
         <v>92.52</v>
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>95.5</v>
+        <v>95.05</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26481,7 +26481,7 @@
         <v/>
       </c>
       <c r="H312" s="39" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="I312" s="39" t="n">
         <v>94.7</v>
@@ -26549,7 +26549,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>60.49</v>
+        <v>61.77</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.24</v>
@@ -26559,7 +26559,7 @@
         <v/>
       </c>
       <c r="H313" s="39" t="n">
-        <v>0.24</v>
+        <v>0.6984</v>
       </c>
       <c r="I313" s="39" t="n">
         <v>95.18000000000001</v>
@@ -26627,7 +26627,7 @@
         </is>
       </c>
       <c r="E314" s="39" t="n">
-        <v>94.11</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="F314" s="39" t="n">
         <v>0.88</v>
@@ -26637,7 +26637,7 @@
         <v/>
       </c>
       <c r="H314" s="39" t="n">
-        <v>10.08</v>
+        <v>10.16</v>
       </c>
       <c r="I314" s="39" t="n">
         <v>99.34999999999999</v>
@@ -26659,7 +26659,7 @@
         <v>178</v>
       </c>
       <c r="O314" s="13" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P314" s="13" t="n">
         <v>34</v>
@@ -26709,7 +26709,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>506</v>
+        <v>518.1900000000001</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26737,7 +26737,7 @@
         <v>3646</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>2783</v>
+        <v>2816</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>712</v>
@@ -26791,7 +26791,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>33.72</v>
+        <v>33.95</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.32</v>
@@ -26801,7 +26801,7 @@
         <v/>
       </c>
       <c r="H316" s="39" t="n">
-        <v>4.69</v>
+        <v>3.64</v>
       </c>
       <c r="I316" s="39" t="n">
         <v>66.3</v>
@@ -26823,7 +26823,7 @@
         <v>9702</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>393</v>
@@ -26851,7 +26851,7 @@
       </c>
       <c r="V316" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408287</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423447</t>
         </is>
       </c>
     </row>
@@ -26877,7 +26877,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>63.26</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -27029,7 +27029,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>75.69</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.65</v>
@@ -27061,7 +27061,7 @@
         <v>10321</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1669</v>
+        <v>1646</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27089,7 +27089,7 @@
       </c>
       <c r="V319" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405278</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423314</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>45.17</v>
+        <v>45.31</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27225,7 +27225,7 @@
         <v>94556</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>7989</v>
+        <v>8035</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>907</v>
@@ -27279,7 +27279,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>84.7</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>0.95</v>
@@ -27331,7 +27331,7 @@
       </c>
       <c r="V322" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406084</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423017</t>
         </is>
       </c>
     </row>
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>52.02</v>
+        <v>56.99</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.43</v>
@@ -27367,7 +27367,7 @@
         <v/>
       </c>
       <c r="H323" s="39" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="I323" s="39" t="n">
         <v>94.08</v>
@@ -27389,7 +27389,7 @@
         <v>1232</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>8056</v>
+        <v>8212</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27519,7 +27519,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>81.83</v>
+        <v>80.92</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.05</v>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="V325" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406917</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422080</t>
         </is>
       </c>
     </row>
@@ -27597,7 +27597,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.15</v>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="V326" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408830</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423165</t>
         </is>
       </c>
     </row>
@@ -27685,7 +27685,7 @@
         <v/>
       </c>
       <c r="H327" s="39" t="n">
-        <v>268.8651</v>
+        <v>285.9496</v>
       </c>
       <c r="I327" s="39" t="n">
         <v>1095.85</v>
@@ -27753,7 +27753,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>92.3</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>0.95</v>
@@ -27763,7 +27763,7 @@
         <v/>
       </c>
       <c r="H328" s="39" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="I328" s="39" t="n">
         <v>106.6</v>
@@ -27785,7 +27785,7 @@
         <v>45953</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>8019</v>
+        <v>7927</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1113</v>
@@ -27839,7 +27839,7 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>9.85</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F329" s="39" t="n">
         <v>0.01</v>
@@ -27849,7 +27849,7 @@
         <v/>
       </c>
       <c r="H329" s="39" t="n">
-        <v>0.3372</v>
+        <v>0.2872</v>
       </c>
       <c r="I329" s="39" t="n">
         <v>17.11</v>
@@ -27917,7 +27917,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>113.3</v>
+        <v>113.31</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.73</v>
@@ -28107,7 +28107,7 @@
         <v>30253</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>10183</v>
+        <v>10221</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28239,7 +28239,7 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>27.03</v>
+        <v>26.89</v>
       </c>
       <c r="F334" s="39" t="n">
         <v>0.34</v>
@@ -28249,7 +28249,7 @@
         <v/>
       </c>
       <c r="H334" s="39" t="n">
-        <v>6.33</v>
+        <v>6.1</v>
       </c>
       <c r="I334" s="39" t="n">
         <v>28.25</v>
@@ -28393,7 +28393,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>83.7</v>
+        <v>85.45</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>0.99</v>
@@ -28471,7 +28471,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>51.53</v>
+        <v>51.84</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.54</v>
@@ -28503,7 +28503,7 @@
         <v>77186</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5647</v>
+        <v>5678</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28553,7 +28553,7 @@
       </c>
       <c r="D338" s="13" t="n"/>
       <c r="E338" s="39" t="n">
-        <v>62.4</v>
+        <v>63.52</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.6969</v>
@@ -28709,7 +28709,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>71.73</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -28741,7 +28741,7 @@
         <v>7634</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>1374</v>
+        <v>1348</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28795,7 +28795,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.7</v>
@@ -28805,7 +28805,7 @@
         <v/>
       </c>
       <c r="H341" s="39" t="n">
-        <v>8.289999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="I341" s="39" t="n">
         <v>77.48999999999999</v>
@@ -28869,7 +28869,7 @@
       </c>
       <c r="D342" s="13" t="n"/>
       <c r="E342" s="39" t="n">
-        <v>96</v>
+        <v>95.2</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>0.85</v>
@@ -28879,7 +28879,7 @@
         <v/>
       </c>
       <c r="H342" s="39" t="n">
-        <v>0.85</v>
+        <v>1.75</v>
       </c>
       <c r="I342" s="39" t="n">
         <v>96.76000000000001</v>
@@ -28947,7 +28947,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>48</v>
+        <v>47.99</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -28979,7 +28979,7 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2698</v>
+        <v>2694</v>
       </c>
       <c r="P343" s="13" t="n">
         <v>160</v>
@@ -29033,7 +29033,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>160</v>
+        <v>147.18</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.82</v>
@@ -29043,7 +29043,7 @@
         <v/>
       </c>
       <c r="H344" s="39" t="n">
-        <v>31.95</v>
+        <v>28.99</v>
       </c>
       <c r="I344" s="39" t="n">
         <v>192.72</v>
@@ -29111,7 +29111,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>46.94</v>
+        <v>46.48</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29121,7 +29121,7 @@
         <v/>
       </c>
       <c r="H345" s="39" t="n">
-        <v>4.91</v>
+        <v>4.99</v>
       </c>
       <c r="I345" s="39" t="n">
         <v>86.59</v>
@@ -29143,7 +29143,7 @@
         <v>11931</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2292</v>
+        <v>2269</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="D347" s="13" t="n"/>
       <c r="E347" s="39" t="n">
-        <v>91.7</v>
+        <v>96.89</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.2</v>
@@ -29281,7 +29281,7 @@
         <v/>
       </c>
       <c r="H347" s="39" t="n">
-        <v>12.468</v>
+        <v>13.668</v>
       </c>
       <c r="I347" s="39" t="n">
         <v>101.05</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>83.51000000000001</v>
+        <v>83.05</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>0.9</v>
@@ -29359,7 +29359,7 @@
         <v/>
       </c>
       <c r="H348" s="39" t="n">
-        <v>13.65</v>
+        <v>13.5</v>
       </c>
       <c r="I348" s="39" t="n">
         <v>90.70999999999999</v>
@@ -29437,7 +29437,7 @@
         <v/>
       </c>
       <c r="H349" s="39" t="n">
-        <v>35.031</v>
+        <v>43.4014</v>
       </c>
       <c r="I349" s="39" t="n">
         <v>1148.04</v>
@@ -29505,7 +29505,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>69.54000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29557,7 +29557,7 @@
       </c>
       <c r="V350" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406589</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421135</t>
         </is>
       </c>
     </row>
@@ -29583,7 +29583,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>97.7</v>
+        <v>97.36</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.2</v>
@@ -29661,7 +29661,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>88.12</v>
+        <v>82.7</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -29671,7 +29671,7 @@
         <v/>
       </c>
       <c r="H352" s="39" t="n">
-        <v>14.21</v>
+        <v>13.81</v>
       </c>
       <c r="I352" s="39" t="n">
         <v>96.5</v>
@@ -29905,7 +29905,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>90.48</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.07</v>
@@ -29915,7 +29915,7 @@
         <v/>
       </c>
       <c r="H355" s="39" t="n">
-        <v>12.19</v>
+        <v>12.41</v>
       </c>
       <c r="I355" s="39" t="n">
         <v>98.63</v>
@@ -30145,7 +30145,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>61.49</v>
+        <v>59.1</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.64</v>
@@ -30155,7 +30155,7 @@
         <v/>
       </c>
       <c r="H358" s="39" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="I358" s="39" t="n">
         <v>94.11</v>
@@ -30177,7 +30177,7 @@
         <v>34637</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2508</v>
+        <v>2436</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30307,7 +30307,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>5.26</v>
+        <v>5.17</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.047</v>
@@ -30339,7 +30339,7 @@
         <v>5086</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4536</v>
+        <v>4562</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>794</v>
@@ -30367,7 +30367,7 @@
       </c>
       <c r="V360" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408226</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422817</t>
         </is>
       </c>
     </row>
@@ -30393,7 +30393,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>88.29000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.83</v>
@@ -30403,7 +30403,7 @@
         <v/>
       </c>
       <c r="H361" s="39" t="n">
-        <v>9.369999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="I361" s="39" t="n">
         <v>97.56999999999999</v>
@@ -30425,7 +30425,7 @@
         <v>65802</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30478,14 +30478,14 @@
         <v>100</v>
       </c>
       <c r="F362" s="39" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="G362" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H362" s="39" t="n">
-        <v>12.48</v>
+        <v>13.54</v>
       </c>
       <c r="I362" s="39" t="n">
         <v>84</v>
@@ -30553,7 +30553,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>60.08</v>
+        <v>60.6</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6904</v>
@@ -30585,7 +30585,7 @@
         <v>4865</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2294</v>
+        <v>2316</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>338</v>
@@ -30883,7 +30883,7 @@
         </is>
       </c>
       <c r="E367" s="39" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F367" s="39" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>27</v>
       </c>
       <c r="O367" s="13" t="n">
-        <v>5007</v>
+        <v>4613</v>
       </c>
       <c r="P367" s="13" t="n">
         <v>221</v>
@@ -30971,7 +30971,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>651.14</v>
+        <v>652</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.4</v>
@@ -30981,7 +30981,7 @@
         <v/>
       </c>
       <c r="H368" s="39" t="n">
-        <v>43.24</v>
+        <v>42.49</v>
       </c>
       <c r="I368" s="39" t="n">
         <v>894.42</v>
@@ -31003,7 +31003,7 @@
         <v>2598</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>11468</v>
+        <v>11413</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1039</v>
@@ -31031,7 +31031,7 @@
       </c>
       <c r="V368" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408608</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423003</t>
         </is>
       </c>
     </row>
@@ -31063,7 +31063,7 @@
         <v/>
       </c>
       <c r="H369" s="39" t="n">
-        <v>5.41</v>
+        <v>6.21</v>
       </c>
       <c r="I369" s="39" t="n">
         <v>84.29000000000001</v>
@@ -31275,9 +31275,13 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D372" s="13" t="n"/>
+      <c r="D372" s="13" t="inlineStr">
+        <is>
+          <t>Suno Gestora</t>
+        </is>
+      </c>
       <c r="E372" s="39" t="n">
-        <v>95.5</v>
+        <v>97.69</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1</v>
@@ -31329,7 +31333,7 @@
       </c>
       <c r="V372" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405771</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423445</t>
         </is>
       </c>
     </row>
@@ -31431,7 +31435,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -31483,7 +31487,7 @@
       </c>
       <c r="V374" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404436</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422105</t>
         </is>
       </c>
     </row>
@@ -31515,7 +31519,7 @@
         <v/>
       </c>
       <c r="H375" s="39" t="n">
-        <v>94.6202</v>
+        <v>96.21040000000001</v>
       </c>
       <c r="I375" s="39" t="n">
         <v>916.1900000000001</v>
@@ -31597,7 +31601,7 @@
         <v/>
       </c>
       <c r="H376" s="39" t="n">
-        <v>55.2964</v>
+        <v>58.5601</v>
       </c>
       <c r="I376" s="39" t="n">
         <v>994.13</v>
@@ -31739,7 +31743,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>38.52</v>
+        <v>39.36</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31749,7 +31753,7 @@
         <v/>
       </c>
       <c r="H378" s="39" t="n">
-        <v>4.86</v>
+        <v>4.88</v>
       </c>
       <c r="I378" s="39" t="n">
         <v>55.78</v>
@@ -31771,7 +31775,7 @@
         <v>32144</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4841</v>
+        <v>4890</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -31799,7 +31803,7 @@
       </c>
       <c r="V378" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408567</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423172</t>
         </is>
       </c>
     </row>
@@ -31835,7 +31839,7 @@
         <v/>
       </c>
       <c r="H379" s="39" t="n">
-        <v>8.109999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I379" s="39" t="n">
         <v>116.26</v>
@@ -31903,7 +31907,7 @@
       </c>
       <c r="D380" s="13" t="n"/>
       <c r="E380" s="39" t="n">
-        <v>77.56</v>
+        <v>79.5</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>0.9</v>
@@ -32029,7 +32033,7 @@
       </c>
       <c r="V381" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404125</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423270</t>
         </is>
       </c>
     </row>
@@ -32065,7 +32069,7 @@
         <v/>
       </c>
       <c r="H382" s="39" t="n">
-        <v>9.289999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I382" s="39" t="n">
         <v>148.31</v>
@@ -32533,7 +32537,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>66.5</v>
+        <v>67.94</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.49</v>
@@ -32543,7 +32547,7 @@
         <v/>
       </c>
       <c r="H388" s="39" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="I388" s="39" t="n">
         <v>95.56</v>
@@ -32565,7 +32569,7 @@
         <v>10170</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>8691</v>
+        <v>8961</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>392</v>
@@ -32697,7 +32701,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>115.37</v>
+        <v>117.24</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.3</v>
@@ -32707,7 +32711,7 @@
         <v/>
       </c>
       <c r="H390" s="39" t="n">
-        <v>17.44</v>
+        <v>17.53</v>
       </c>
       <c r="I390" s="39" t="n">
         <v>132.16</v>
@@ -32729,7 +32733,7 @@
         <v>97653</v>
       </c>
       <c r="O390" s="13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P390" s="13" t="n">
         <v>2</v>
@@ -32864,7 +32868,7 @@
         <v>0</v>
       </c>
       <c r="F392" s="39" t="n">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="G392" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -32939,7 +32943,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>5.51</v>
+        <v>5.65</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -32991,7 +32995,7 @@
       </c>
       <c r="V393" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405489</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423278</t>
         </is>
       </c>
     </row>
@@ -33181,7 +33185,7 @@
         </is>
       </c>
       <c r="E396" s="39" t="n">
-        <v>119.5</v>
+        <v>111</v>
       </c>
       <c r="F396" s="39" t="n">
         <v>0.4</v>
@@ -33213,7 +33217,7 @@
         <v>716</v>
       </c>
       <c r="O396" s="13" t="n">
-        <v>7458</v>
+        <v>6990</v>
       </c>
       <c r="P396" s="13" t="n">
         <v>546</v>
@@ -33267,7 +33271,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>130.87</v>
+        <v>116</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.9</v>
@@ -33277,7 +33281,7 @@
         <v/>
       </c>
       <c r="H397" s="39" t="n">
-        <v>10.86</v>
+        <v>10.93</v>
       </c>
       <c r="I397" s="39" t="n">
         <v>115.2</v>
@@ -33299,7 +33303,7 @@
         <v>188</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>3814</v>
+        <v>3455</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>457</v>
@@ -33353,7 +33357,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>103.6</v>
+        <v>103.08</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.85</v>
@@ -33363,7 +33367,7 @@
         <v/>
       </c>
       <c r="H398" s="39" t="n">
-        <v>10.6</v>
+        <v>10.65</v>
       </c>
       <c r="I398" s="39" t="n">
         <v>104.28</v>
@@ -33385,7 +33389,7 @@
         <v>83057</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3434</v>
+        <v>3414</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33445,7 +33449,7 @@
         <v/>
       </c>
       <c r="H399" s="39" t="n">
-        <v>10.89</v>
+        <v>10.94</v>
       </c>
       <c r="I399" s="39" t="n">
         <v>99.18000000000001</v>
@@ -33491,7 +33495,7 @@
       </c>
       <c r="V399" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407259</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423427</t>
         </is>
       </c>
     </row>
@@ -33671,7 +33675,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>99.17</v>
+        <v>98</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.25</v>
@@ -33681,7 +33685,7 @@
         <v/>
       </c>
       <c r="H402" s="39" t="n">
-        <v>17.815</v>
+        <v>17.48</v>
       </c>
       <c r="I402" s="39" t="n">
         <v>99.06</v>
@@ -33749,7 +33753,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>88.15000000000001</v>
+        <v>89.14</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>1.08</v>
@@ -33759,7 +33763,7 @@
         <v/>
       </c>
       <c r="H403" s="39" t="n">
-        <v>11.36</v>
+        <v>11.23</v>
       </c>
       <c r="I403" s="39" t="n">
         <v>94.34999999999999</v>
@@ -33827,7 +33831,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.11</v>
@@ -33837,7 +33841,7 @@
         <v/>
       </c>
       <c r="H404" s="39" t="n">
-        <v>1.015</v>
+        <v>1.125</v>
       </c>
       <c r="I404" s="39" t="n">
         <v>9.470000000000001</v>
@@ -33905,7 +33909,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -33933,7 +33937,7 @@
         <v>3001</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2260</v>
+        <v>2223</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>125</v>
@@ -34073,7 +34077,7 @@
         <v/>
       </c>
       <c r="H407" s="39" t="n">
-        <v>33.7743</v>
+        <v>33.7343</v>
       </c>
       <c r="I407" s="39" t="n">
         <v>334.59</v>
@@ -34149,7 +34153,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>9.130000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.1</v>
@@ -34159,7 +34163,7 @@
         <v/>
       </c>
       <c r="H408" s="39" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="I408" s="39" t="n">
         <v>9.119999999999999</v>
@@ -34227,7 +34231,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>83.77</v>
+        <v>83.7</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>0.8</v>
@@ -34279,7 +34283,7 @@
       </c>
       <c r="V409" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404818</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=420987</t>
         </is>
       </c>
     </row>
@@ -34305,7 +34309,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.74</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.13</v>
@@ -34459,7 +34463,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34469,7 +34473,7 @@
         <v/>
       </c>
       <c r="H412" s="33" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="I412" s="33" t="n">
         <v>8.630000000000001</v>
@@ -34537,7 +34541,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>88.11</v>
+        <v>85.17</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.67</v>
@@ -34547,7 +34551,7 @@
         <v/>
       </c>
       <c r="H413" s="39" t="n">
-        <v>8.48</v>
+        <v>8.31</v>
       </c>
       <c r="I413" s="39" t="n">
         <v>112.05</v>
@@ -34569,7 +34573,7 @@
         <v>157293</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2268</v>
+        <v>2209</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34623,7 +34627,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>41.11</v>
+        <v>43.25</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.31</v>
@@ -34633,7 +34637,7 @@
         <v/>
       </c>
       <c r="H414" s="39" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="I414" s="39" t="n">
         <v>54.8</v>
@@ -34655,7 +34659,7 @@
         <v>124619</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>10476</v>
+        <v>10927</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34709,7 +34713,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>104.4</v>
+        <v>104.27</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.82</v>
@@ -34719,7 +34723,7 @@
         <v/>
       </c>
       <c r="H415" s="39" t="n">
-        <v>8.81</v>
+        <v>8.93</v>
       </c>
       <c r="I415" s="39" t="n">
         <v>124.34</v>
@@ -34741,7 +34745,7 @@
         <v>238692</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3136</v>
+        <v>3092</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>280</v>
@@ -34795,7 +34799,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>6.67</v>
+        <v>6.5</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34805,7 +34809,7 @@
         <v/>
       </c>
       <c r="H416" s="39" t="n">
-        <v>0.864</v>
+        <v>0.866</v>
       </c>
       <c r="I416" s="39" t="n">
         <v>9.19</v>
@@ -34827,7 +34831,7 @@
         <v>13081</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2580</v>
+        <v>2503</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -34887,7 +34891,7 @@
         <v/>
       </c>
       <c r="H417" s="39" t="n">
-        <v>11.7332</v>
+        <v>11.9125</v>
       </c>
       <c r="I417" s="39" t="n">
         <v>136.1</v>
@@ -35111,7 +35115,7 @@
         </is>
       </c>
       <c r="E420" s="39" t="n">
-        <v>95.11</v>
+        <v>92.52</v>
       </c>
       <c r="F420" s="39" t="n">
         <v>0.61</v>
@@ -35121,7 +35125,7 @@
         <v/>
       </c>
       <c r="H420" s="39" t="n">
-        <v>7.05</v>
+        <v>7.13</v>
       </c>
       <c r="I420" s="39" t="n">
         <v>111.33</v>
@@ -35143,7 +35147,7 @@
         <v>3167</v>
       </c>
       <c r="O420" s="13" t="n">
-        <v>16183</v>
+        <v>15895</v>
       </c>
       <c r="P420" s="13" t="n">
         <v>1340</v>
@@ -35171,7 +35175,7 @@
       </c>
       <c r="V420" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409796</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422865</t>
         </is>
       </c>
     </row>
@@ -35197,7 +35201,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>85.3</v>
+        <v>82.8</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>1.08</v>
@@ -35207,7 +35211,7 @@
         <v/>
       </c>
       <c r="H421" s="39" t="n">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="I421" s="39" t="n">
         <v>93.09999999999999</v>
@@ -35285,7 +35289,7 @@
         <v/>
       </c>
       <c r="H422" s="39" t="n">
-        <v>2.3722</v>
+        <v>2.5531</v>
       </c>
       <c r="I422" s="39" t="n">
         <v>21.43</v>
@@ -35357,7 +35361,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>87.13</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>1</v>
@@ -35367,7 +35371,7 @@
         <v/>
       </c>
       <c r="H423" s="39" t="n">
-        <v>13.06</v>
+        <v>12.76</v>
       </c>
       <c r="I423" s="39" t="n">
         <v>90.81</v>
@@ -35513,7 +35517,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>63.6</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.65</v>
@@ -35523,7 +35527,7 @@
         <v/>
       </c>
       <c r="H425" s="39" t="n">
-        <v>7.21</v>
+        <v>7.29</v>
       </c>
       <c r="I425" s="39" t="n">
         <v>99.43000000000001</v>
@@ -35545,7 +35549,7 @@
         <v>2710</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35599,7 +35603,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>8.289999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.11</v>
@@ -35651,7 +35655,7 @@
       </c>
       <c r="V426" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405488</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423274</t>
         </is>
       </c>
     </row>
@@ -35677,7 +35681,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>87.87</v>
+        <v>90.5</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -35687,7 +35691,7 @@
         <v/>
       </c>
       <c r="H427" s="39" t="n">
-        <v>10.01</v>
+        <v>10.06</v>
       </c>
       <c r="I427" s="39" t="n">
         <v>100.72</v>
@@ -35709,7 +35713,7 @@
         <v>6280</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36147,7 +36151,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36235,7 +36239,7 @@
         <v/>
       </c>
       <c r="H434" s="39" t="n">
-        <v>6.3623</v>
+        <v>5.5723</v>
       </c>
       <c r="I434" s="39" t="n">
         <v>98.03</v>
@@ -36385,7 +36389,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.59</v>
+        <v>8.33</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.1</v>
@@ -36395,7 +36399,7 @@
         <v/>
       </c>
       <c r="H436" s="39" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I436" s="39" t="n">
         <v>9.960000000000001</v>
@@ -36463,7 +36467,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>68.52</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.45</v>
@@ -36473,7 +36477,7 @@
         <v/>
       </c>
       <c r="H437" s="39" t="n">
-        <v>5.2</v>
+        <v>5.35</v>
       </c>
       <c r="I437" s="39" t="n">
         <v>87.83</v>
@@ -36495,7 +36499,7 @@
         <v>1835</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1848</v>
+        <v>1699</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>155</v>
@@ -36545,7 +36549,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>91.98999999999999</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>1.1</v>
@@ -36623,7 +36627,7 @@
         </is>
       </c>
       <c r="E439" s="39" t="n">
-        <v>30.5</v>
+        <v>30.01</v>
       </c>
       <c r="F439" s="39" t="n">
         <v>0.2</v>
@@ -36655,7 +36659,7 @@
         <v>203</v>
       </c>
       <c r="O439" s="13" t="n">
-        <v>2480</v>
+        <v>2440</v>
       </c>
       <c r="P439" s="13" t="n">
         <v>119</v>
@@ -36785,7 +36789,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>78.98</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>0.96</v>
@@ -36795,7 +36799,7 @@
         <v/>
       </c>
       <c r="H441" s="39" t="n">
-        <v>11.49</v>
+        <v>11.39</v>
       </c>
       <c r="I441" s="39" t="n">
         <v>90.70999999999999</v>
@@ -36863,7 +36867,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>14.87</v>
+        <v>14.35</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.12</v>
@@ -36873,7 +36877,7 @@
         <v/>
       </c>
       <c r="H442" s="39" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="I442" s="39" t="n">
         <v>43.81</v>
@@ -36895,7 +36899,7 @@
         <v>27576</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1614</v>
+        <v>1561</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -36949,7 +36953,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>105</v>
+        <v>106.99</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.25</v>
@@ -36959,7 +36963,7 @@
         <v/>
       </c>
       <c r="H443" s="39" t="n">
-        <v>9.65</v>
+        <v>10.75</v>
       </c>
       <c r="I443" s="39" t="n">
         <v>94.33</v>
@@ -36981,7 +36985,7 @@
         <v>1274</v>
       </c>
       <c r="O443" s="13" t="n">
-        <v>19495</v>
+        <v>19289</v>
       </c>
       <c r="P443" s="13" t="n">
         <v>1029</v>
@@ -37031,7 +37035,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>29.25</v>
+        <v>26.03</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37061,7 +37065,7 @@
         <v>1274</v>
       </c>
       <c r="O444" s="13" t="n">
-        <v>5431</v>
+        <v>4920</v>
       </c>
       <c r="P444" s="13" t="n">
         <v>1029</v>
@@ -37147,7 +37151,7 @@
         <v>46043</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1965</v>
+        <v>1951</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37201,7 +37205,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37211,7 +37215,7 @@
         <v/>
       </c>
       <c r="H446" s="39" t="n">
-        <v>8.5</v>
+        <v>8.58</v>
       </c>
       <c r="I446" s="39" t="n">
         <v>114.32</v>
@@ -37233,7 +37237,7 @@
         <v>306167</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37287,7 +37291,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>98</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.77</v>
@@ -37319,7 +37323,7 @@
         <v>300598</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>4889</v>
+        <v>4884</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37373,7 +37377,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>31.05</v>
+        <v>27.22</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.3</v>
@@ -37383,7 +37387,7 @@
         <v/>
       </c>
       <c r="H448" s="39" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="I448" s="39" t="n">
         <v>74.55</v>
@@ -37405,7 +37409,7 @@
         <v>67546</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>3109</v>
+        <v>2693</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>426</v>
@@ -37459,7 +37463,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>7.05</v>
+        <v>7.18</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.075</v>
@@ -37469,7 +37473,7 @@
         <v/>
       </c>
       <c r="H449" s="39" t="n">
-        <v>0.868</v>
+        <v>0.878</v>
       </c>
       <c r="I449" s="39" t="n">
         <v>8.140000000000001</v>
@@ -37533,7 +37537,7 @@
       </c>
       <c r="D450" s="13" t="n"/>
       <c r="E450" s="39" t="n">
-        <v>95.2</v>
+        <v>104</v>
       </c>
       <c r="F450" s="39" t="n">
         <v>0.3115</v>
@@ -37543,7 +37547,7 @@
         <v/>
       </c>
       <c r="H450" s="39" t="n">
-        <v>1.7541</v>
+        <v>1.9883</v>
       </c>
       <c r="I450" s="39" t="n">
         <v>103.59</v>
@@ -37561,7 +37565,7 @@
         <v>42</v>
       </c>
       <c r="O450" s="13" t="n">
-        <v>7947</v>
+        <v>8682</v>
       </c>
       <c r="P450" s="13" t="n">
         <v>859</v>
@@ -37589,7 +37593,7 @@
       </c>
       <c r="V450" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408170</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422997</t>
         </is>
       </c>
     </row>
@@ -37611,7 +37615,7 @@
       </c>
       <c r="D451" s="13" t="n"/>
       <c r="E451" s="39" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F451" s="39" t="n">
         <v>1</v>
@@ -37621,7 +37625,7 @@
         <v/>
       </c>
       <c r="H451" s="39" t="n">
-        <v>4.538</v>
+        <v>5.588</v>
       </c>
       <c r="I451" s="39" t="n">
         <v>127.55</v>
@@ -37689,7 +37693,7 @@
       </c>
       <c r="D452" s="13" t="n"/>
       <c r="E452" s="39" t="n">
-        <v>1135.97</v>
+        <v>1139.89</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -37699,7 +37703,7 @@
         <v/>
       </c>
       <c r="H452" s="39" t="n">
-        <v>8.118399999999999</v>
+        <v>3.305</v>
       </c>
       <c r="I452" s="39" t="n">
         <v>1182.07</v>
@@ -37763,7 +37767,7 @@
       </c>
       <c r="D453" s="13" t="n"/>
       <c r="E453" s="39" t="n">
-        <v>10.54</v>
+        <v>10.61</v>
       </c>
       <c r="F453" s="39" t="n">
         <v>0.16</v>
@@ -37839,7 +37843,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>78.22</v>
+        <v>78.58</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>0.87</v>
@@ -37849,7 +37853,7 @@
         <v/>
       </c>
       <c r="H454" s="39" t="n">
-        <v>8.84</v>
+        <v>9.31</v>
       </c>
       <c r="I454" s="39" t="inlineStr">
         <is>
@@ -37991,7 +37995,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.53</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.45</v>
@@ -38045,7 +38049,7 @@
       </c>
       <c r="V456" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=403614</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421190</t>
         </is>
       </c>
     </row>
@@ -38067,7 +38071,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>9.1</v>
+        <v>9.17</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38143,7 +38147,7 @@
       </c>
       <c r="D458" s="13" t="n"/>
       <c r="E458" s="39" t="n">
-        <v>101.48</v>
+        <v>101.79</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>1.47</v>
@@ -38295,7 +38299,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>9.94</v>
+        <v>9.9</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.14</v>
@@ -38371,7 +38375,7 @@
       </c>
       <c r="D461" s="13" t="n"/>
       <c r="E461" s="39" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F461" s="39" t="inlineStr">
         <is>
@@ -38449,7 +38453,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>95.88</v>
+        <v>94.75</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.22</v>
@@ -38503,7 +38507,7 @@
       </c>
       <c r="V462" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=406853</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423141</t>
         </is>
       </c>
     </row>
@@ -38525,7 +38529,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>31.98</v>
+        <v>30.5</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.45</v>
@@ -38535,7 +38539,7 @@
         <v/>
       </c>
       <c r="H463" s="39" t="n">
-        <v>5.02</v>
+        <v>5.49</v>
       </c>
       <c r="I463" s="39" t="inlineStr">
         <is>
@@ -38601,7 +38605,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>97.39</v>
+        <v>96.08</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.32</v>
@@ -38611,7 +38615,7 @@
         <v/>
       </c>
       <c r="H464" s="39" t="n">
-        <v>14.18</v>
+        <v>14.24</v>
       </c>
       <c r="I464" s="39" t="inlineStr">
         <is>
@@ -38677,7 +38681,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>106.89</v>
+        <v>106.3</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.3</v>
@@ -38687,7 +38691,7 @@
         <v/>
       </c>
       <c r="H465" s="39" t="n">
-        <v>15.89</v>
+        <v>15.88</v>
       </c>
       <c r="I465" s="39" t="inlineStr">
         <is>
@@ -38753,7 +38757,7 @@
       </c>
       <c r="D466" s="13" t="n"/>
       <c r="E466" s="39" t="n">
-        <v>105.62</v>
+        <v>105</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.19</v>
@@ -38763,7 +38767,7 @@
         <v/>
       </c>
       <c r="H466" s="39" t="n">
-        <v>15.67</v>
+        <v>17.16</v>
       </c>
       <c r="I466" s="39" t="inlineStr">
         <is>
@@ -38905,10 +38909,10 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>91.81</v>
+        <v>92</v>
       </c>
       <c r="F468" s="39" t="n">
-        <v>2.65</v>
+        <v>1.3</v>
       </c>
       <c r="G468" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -38959,7 +38963,7 @@
       </c>
       <c r="V468" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404431</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=422969</t>
         </is>
       </c>
     </row>
@@ -38981,7 +38985,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>10.5</v>
+        <v>10.71</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.17</v>
@@ -39057,7 +39061,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>96.98999999999999</v>
+        <v>99</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.1</v>
@@ -39067,7 +39071,7 @@
         <v/>
       </c>
       <c r="H470" s="39" t="n">
-        <v>6.29</v>
+        <v>7.39</v>
       </c>
       <c r="I470" s="39" t="inlineStr">
         <is>
@@ -39133,7 +39137,7 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.48</v>
+        <v>10.52</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.1</v>
@@ -39143,7 +39147,7 @@
         <v/>
       </c>
       <c r="H471" s="39" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="I471" s="39" t="inlineStr">
         <is>
@@ -39209,7 +39213,7 @@
       </c>
       <c r="D472" s="13" t="n"/>
       <c r="E472" s="39" t="n">
-        <v>9.73</v>
+        <v>9.59</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.12</v>
@@ -39219,7 +39223,7 @@
         <v/>
       </c>
       <c r="H472" s="39" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I472" s="39" t="inlineStr">
         <is>
@@ -39285,7 +39289,7 @@
       </c>
       <c r="D473" s="13" t="n"/>
       <c r="E473" s="39" t="n">
-        <v>100.55</v>
+        <v>100.6</v>
       </c>
       <c r="F473" s="39" t="n">
         <v>1.2</v>
@@ -39343,7 +39347,7 @@
       </c>
       <c r="V473" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=407118</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421525</t>
         </is>
       </c>
     </row>
@@ -39365,7 +39369,7 @@
       </c>
       <c r="D474" s="13" t="n"/>
       <c r="E474" s="39" t="n">
-        <v>106.99</v>
+        <v>105.85</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.5</v>
@@ -39375,7 +39379,7 @@
         <v/>
       </c>
       <c r="H474" s="39" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="I474" s="39" t="inlineStr">
         <is>
@@ -39441,7 +39445,7 @@
       </c>
       <c r="D475" s="13" t="n"/>
       <c r="E475" s="39" t="n">
-        <v>9.83</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F475" s="39" t="n">
         <v>0.15</v>
@@ -39517,7 +39521,7 @@
       </c>
       <c r="D476" s="13" t="n"/>
       <c r="E476" s="39" t="n">
-        <v>9.93</v>
+        <v>9.83</v>
       </c>
       <c r="F476" s="39" t="n">
         <v>0.13</v>
@@ -39527,7 +39531,7 @@
         <v/>
       </c>
       <c r="H476" s="39" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I476" s="39" t="inlineStr">
         <is>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>64.02</v>
+        <v>63.99</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1629,7 +1629,7 @@
         <v>19076</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1.06</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>59.49</v>
+        <v>59.84</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.75</v>
@@ -1949,7 +1949,7 @@
         <v>12372</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12181</v>
+        <v>12207</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="V6" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=424804</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441059</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>817</v>
+        <v>754.03</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>84.23999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>0.85</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>112.2</v>
+        <v>113</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.8158</v>
@@ -2271,7 +2271,7 @@
         <v>119096</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.449999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2443,7 +2443,7 @@
         <v>6030</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13119</v>
+        <v>13366</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="V17" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423991</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441441</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="39" t="n">
-        <v>57.04</v>
+        <v>58.9</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2897,7 +2897,7 @@
         <v>350</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>5346</v>
+        <v>5521</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>78</v>
+        <v>77.72</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>27.0817</v>
@@ -3379,7 +3379,7 @@
         <v>8258</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>62.5</v>
+        <v>62.65</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.73</v>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>82.7</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3621,7 +3621,7 @@
         <v>74419</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>93.98</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3707,7 +3707,7 @@
         <v>9279</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9291</v>
+        <v>9293</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>63.3</v>
+        <v>63.06</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3771,7 +3771,7 @@
         <v/>
       </c>
       <c r="H29" s="39" t="n">
-        <v>6.7</v>
+        <v>6.16</v>
       </c>
       <c r="I29" s="39" t="n">
         <v>73.48</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>80.19</v>
+        <v>80.63</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.78</v>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>73.47</v>
+        <v>69.52</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>0.8</v>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>99.89</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.72</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.08</v>
@@ -4157,7 +4157,7 @@
         <v/>
       </c>
       <c r="H34" s="39" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="I34" s="39" t="n">
         <v>8.92</v>
@@ -4175,7 +4175,7 @@
         <v>6805</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v/>
       </c>
       <c r="H36" s="39" t="n">
-        <v>6.465</v>
+        <v>5.96</v>
       </c>
       <c r="I36" s="39" t="n">
         <v>141.53</v>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.87</v>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>60.75</v>
+        <v>61.54</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.78</v>
@@ -4557,7 +4557,7 @@
         <v/>
       </c>
       <c r="H39" s="39" t="n">
-        <v>9.57</v>
+        <v>8.77</v>
       </c>
       <c r="I39" s="39" t="n">
         <v>94.54000000000001</v>
@@ -4579,7 +4579,7 @@
         <v>12364</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.065</v>
@@ -4729,7 +4729,7 @@
         <v/>
       </c>
       <c r="H41" s="39" t="n">
-        <v>0.8728</v>
+        <v>0.7978</v>
       </c>
       <c r="I41" s="39" t="n">
         <v>7.49</v>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>101.49</v>
+        <v>102</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -4963,7 +4963,7 @@
         <v/>
       </c>
       <c r="H44" s="39" t="n">
-        <v>9.07</v>
+        <v>8.44</v>
       </c>
       <c r="I44" s="39" t="n">
         <v>113.45</v>
@@ -4985,7 +4985,7 @@
         <v>1440</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>13705</v>
+        <v>13799</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>110.95</v>
+        <v>111</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.3489</v>
@@ -5071,7 +5071,7 @@
         <v>4031</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7142</v>
+        <v>7144</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1281</v>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>58.79</v>
+        <v>58.89</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>57.49</v>
+        <v>58.96</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5309,7 +5309,7 @@
         <v>1593</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3187021</v>
+        <v>3243009</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5373,7 +5373,7 @@
         <v/>
       </c>
       <c r="H49" s="39" t="n">
-        <v>10.4861</v>
+        <v>9.6149</v>
       </c>
       <c r="I49" s="39" t="n">
         <v>109.13</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>95.03</v>
+        <v>95.09</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.62</v>
@@ -5481,7 +5481,7 @@
         <v>112447</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3134</v>
+        <v>3140</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>52.47</v>
+        <v>52.89</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.46</v>
@@ -5545,7 +5545,7 @@
         <v/>
       </c>
       <c r="H51" s="39" t="n">
-        <v>5.72</v>
+        <v>5.22</v>
       </c>
       <c r="I51" s="39" t="n">
         <v>99.29000000000001</v>
@@ -5567,7 +5567,7 @@
         <v>157833</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9354</v>
+        <v>9548</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>96</v>
+        <v>98.5</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.41</v>
@@ -5631,7 +5631,7 @@
         <v/>
       </c>
       <c r="H52" s="39" t="n">
-        <v>7.99</v>
+        <v>7.42</v>
       </c>
       <c r="I52" s="39" t="n">
         <v>121.48</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="D55" s="13" t="n"/>
       <c r="E55" s="39" t="n">
-        <v>999.99</v>
+        <v>950</v>
       </c>
       <c r="F55" s="39" t="n">
         <v>107</v>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="D57" s="13" t="n"/>
       <c r="E57" s="39" t="n">
-        <v>125</v>
+        <v>163.5</v>
       </c>
       <c r="F57" s="39" t="n">
         <v>1.093</v>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>82.93000000000001</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6209,7 +6209,7 @@
         <v>43703</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6273,7 +6273,7 @@
         <v/>
       </c>
       <c r="H60" s="39" t="n">
-        <v>8.880000000000001</v>
+        <v>7.63</v>
       </c>
       <c r="I60" s="39" t="n">
         <v>95.27</v>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>93.62</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6373,7 +6373,7 @@
         <v>210289</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>3924</v>
+        <v>3935</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>84.43000000000001</v>
+        <v>84.69</v>
       </c>
       <c r="F62" s="39" t="n">
         <v>0.95</v>
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>103.95</v>
+        <v>103.6</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.42</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7167,7 +7167,7 @@
         <v>3679</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3099</v>
+        <v>3069</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="D73" s="13" t="n"/>
       <c r="E73" s="39" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F73" s="39" t="n">
         <v>0.4959</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="V73" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=424460</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441230</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>53.34</v>
+        <v>52.89</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.6449</v>
@@ -7379,7 +7379,7 @@
         <v/>
       </c>
       <c r="H74" s="39" t="n">
-        <v>6.366</v>
+        <v>5.8704</v>
       </c>
       <c r="I74" s="39" t="n">
         <v>78.66</v>
@@ -7401,7 +7401,7 @@
         <v>4888</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7518</v>
+        <v>7344</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>64.5</v>
+        <v>63</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7637,7 +7637,7 @@
         <v>1203</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>9634</v>
+        <v>9574</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>29.66</v>
+        <v>29.7</v>
       </c>
       <c r="F79" s="39" t="n">
         <v>0.1149</v>
@@ -7807,7 +7807,7 @@
         <v>1830</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1256</v>
+        <v>1268</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>56.6</v>
+        <v>56.56</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.34</v>
@@ -7871,7 +7871,7 @@
         <v/>
       </c>
       <c r="H80" s="39" t="n">
-        <v>6.77</v>
+        <v>6.17</v>
       </c>
       <c r="I80" s="39" t="n">
         <v>76.52</v>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>60.27</v>
+        <v>60.15</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.61</v>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>11.13</v>
+        <v>10.77</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8203,7 +8203,7 @@
         <v>3181</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>88.5</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>1</v>
@@ -8267,7 +8267,7 @@
         <v/>
       </c>
       <c r="H85" s="39" t="n">
-        <v>12.43</v>
+        <v>11.31</v>
       </c>
       <c r="I85" s="39" t="n">
         <v>94.53</v>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="D87" s="13" t="n"/>
       <c r="E87" s="39" t="n">
-        <v>75.5</v>
+        <v>75.45</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.75</v>
@@ -8433,7 +8433,7 @@
         <v>11491</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2753</v>
+        <v>2738</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>38.76</v>
+        <v>38.68</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4111</v>
@@ -8519,7 +8519,7 @@
         <v>4034</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D89" s="13" t="n"/>
       <c r="E89" s="39" t="n">
-        <v>75.56</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.83</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>67.48999999999999</v>
+        <v>67.42</v>
       </c>
       <c r="F90" s="39" t="n">
         <v>0.7302999999999999</v>
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>61</v>
+        <v>59.7</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8843,7 +8843,7 @@
         <v>619</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2213</v>
+        <v>2200</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="D93" s="13" t="n"/>
       <c r="E93" s="39" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>14.09</v>
+        <v>14.68</v>
       </c>
       <c r="F95" s="39" t="n">
         <v>0.1053</v>
@@ -9079,7 +9079,7 @@
         <v>581</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1602</v>
+        <v>1670</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>87</v>
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>58.89</v>
+        <v>56.8</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>0.9</v>
@@ -9143,7 +9143,7 @@
         <v/>
       </c>
       <c r="H96" s="39" t="n">
-        <v>13.03</v>
+        <v>11.72</v>
       </c>
       <c r="I96" s="39" t="n">
         <v>100.21</v>
@@ -9221,7 +9221,7 @@
         <v/>
       </c>
       <c r="H97" s="39" t="n">
-        <v>0.1032</v>
+        <v>0.0977</v>
       </c>
       <c r="I97" s="39" t="n">
         <v>0.65</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="D101" s="13" t="n"/>
       <c r="E101" s="39" t="n">
-        <v>103.6</v>
+        <v>101.98</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.85</v>
@@ -9623,7 +9623,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>81.5</v>
+        <v>87.37</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.45</v>
@@ -9633,7 +9633,7 @@
         <v/>
       </c>
       <c r="H102" s="39" t="n">
-        <v>7.29</v>
+        <v>6.69</v>
       </c>
       <c r="I102" s="39" t="n">
         <v>132.2</v>
@@ -9655,7 +9655,7 @@
         <v>356</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>7550</v>
+        <v>7414</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>875</v>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="V102" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=409673</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=440891</t>
         </is>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>63.15</v>
+        <v>63</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.7</v>
@@ -9719,7 +9719,7 @@
         <v/>
       </c>
       <c r="H103" s="39" t="n">
-        <v>8.970000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="I103" s="39" t="n">
         <v>88.09</v>
@@ -9787,7 +9787,7 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>179.98</v>
+        <v>189.99</v>
       </c>
       <c r="F104" s="39" t="n">
         <v>1.6703</v>
@@ -9819,7 +9819,7 @@
         <v>546</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>119195</v>
+        <v>132248</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>14030</v>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="V104" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=427521</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441044</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>19.43</v>
+        <v>20</v>
       </c>
       <c r="F105" s="39" t="n">
         <v>0.13</v>
@@ -9905,7 +9905,7 @@
         <v>5897</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>2944</v>
+        <v>2937</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="D108" s="13" t="n"/>
       <c r="E108" s="39" t="n">
-        <v>8.84</v>
+        <v>9</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10279,7 +10279,7 @@
         <v/>
       </c>
       <c r="H110" s="39" t="n">
-        <v>6.5525</v>
+        <v>6.3239</v>
       </c>
       <c r="I110" s="39" t="n">
         <v>137.05</v>
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>226</v>
+        <v>229.45</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.87</v>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="D113" s="13" t="n"/>
       <c r="E113" s="39" t="n">
-        <v>93.94</v>
+        <v>93.95</v>
       </c>
       <c r="F113" s="39" t="n">
         <v>0.75</v>
@@ -10545,7 +10545,7 @@
         <v>1105</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>4918</v>
+        <v>4920</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>334</v>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>145.98</v>
+        <v>144.5</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.6139</v>
@@ -10683,7 +10683,7 @@
         <v/>
       </c>
       <c r="H115" s="39" t="n">
-        <v>18.6176</v>
+        <v>17.0877</v>
       </c>
       <c r="I115" s="39" t="n">
         <v>217.6</v>
@@ -10705,7 +10705,7 @@
         <v>4776</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>321</v>
@@ -10835,7 +10835,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10867,7 +10867,7 @@
         <v>2755</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>94.2</v>
+        <v>93.61</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.74</v>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="H118" s="39" t="n">
-        <v>10.12</v>
+        <v>9.34</v>
       </c>
       <c r="I118" s="39" t="n">
         <v>99.15000000000001</v>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>105.9</v>
+        <v>109.5</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.8132</v>
@@ -11121,7 +11121,7 @@
         <v>3746</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>11857</v>
+        <v>11753</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>46.84</v>
+        <v>45.68</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.39</v>
@@ -11341,7 +11341,7 @@
         <v>15496</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2047</v>
+        <v>2029</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>433.5</v>
+        <v>434</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.25</v>
@@ -11427,7 +11427,7 @@
         <v>16984</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11481,7 +11481,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>139.31</v>
+        <v>143</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11513,7 +11513,7 @@
         <v>8018</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1831</v>
+        <v>1854</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -11809,7 +11809,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>94.8</v>
+        <v>95.45</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.15</v>
@@ -11903,7 +11903,7 @@
         <v/>
       </c>
       <c r="H130" s="39" t="n">
-        <v>14.342</v>
+        <v>13.002</v>
       </c>
       <c r="I130" s="39" t="n">
         <v>98.23</v>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>116.63</v>
+        <v>117.5</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.78</v>
@@ -11981,7 +11981,7 @@
         <v/>
       </c>
       <c r="H131" s="39" t="n">
-        <v>10.4</v>
+        <v>9.68</v>
       </c>
       <c r="I131" s="39" t="n">
         <v>160.36</v>
@@ -12003,7 +12003,7 @@
         <v>16767</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9150</v>
+        <v>9179</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1652.4</v>
+        <v>1606</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13</v>
@@ -12089,7 +12089,7 @@
         <v>806</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2144</v>
+        <v>2241</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="E133" s="39" t="n">
-        <v>56.07</v>
+        <v>50.13</v>
       </c>
       <c r="F133" s="39" t="n">
         <v>0.31</v>
@@ -12307,7 +12307,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>1.52</v>
@@ -12339,7 +12339,7 @@
         <v>987</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2119</v>
+        <v>2038</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12403,7 +12403,7 @@
         <v/>
       </c>
       <c r="H136" s="39" t="n">
-        <v>8.289999999999999</v>
+        <v>7.64</v>
       </c>
       <c r="I136" s="39" t="n">
         <v>170.63</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>89.06</v>
+        <v>89.14</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>0.62</v>
@@ -12759,7 +12759,7 @@
         <v>4004</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4337</v>
+        <v>4288</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12845,7 +12845,7 @@
         <v>27705</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4503</v>
+        <v>4509</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -12899,7 +12899,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="E143" s="39" t="n">
-        <v>66.84999999999999</v>
+        <v>66.98</v>
       </c>
       <c r="F143" s="39" t="n">
         <v>0.75</v>
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>88.52</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>100.48</v>
+        <v>100.45</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>0.95</v>
@@ -13251,7 +13251,7 @@
         <v>102139</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="D150" s="13" t="n"/>
       <c r="E150" s="39" t="n">
-        <v>95</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="F150" s="39" t="n">
         <v>0.7</v>
@@ -13557,7 +13557,7 @@
         <v/>
       </c>
       <c r="H150" s="39" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="I150" s="39" t="n">
         <v>93.51000000000001</v>
@@ -13575,7 +13575,7 @@
         <v>142</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="P150" s="13" t="n">
         <v>307</v>
@@ -13629,7 +13629,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>74</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13661,7 +13661,7 @@
         <v>26876</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>9871</v>
+        <v>9909</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.47</v>
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>83</v>
+        <v>83.47</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.2</v>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="V157" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=426797</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=440943</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>91.16</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6093</v>
@@ -14223,7 +14223,7 @@
         <v>1218</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8378</v>
+        <v>8409</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>834</v>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="D160" s="13" t="n"/>
       <c r="E160" s="39" t="n">
-        <v>78.61</v>
+        <v>80.98</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14507,7 +14507,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>236.99</v>
+        <v>237.96</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.6868</v>
@@ -14539,7 +14539,7 @@
         <v>3115</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8600</v>
+        <v>8450</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>58.9</v>
+        <v>56.76</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>0.7</v>
@@ -14683,7 +14683,7 @@
         <v/>
       </c>
       <c r="H164" s="39" t="n">
-        <v>14.87</v>
+        <v>13.47</v>
       </c>
       <c r="I164" s="39" t="n">
         <v>119.58</v>
@@ -14901,7 +14901,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>64.93000000000001</v>
+        <v>64.73</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -14979,7 +14979,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>178.88</v>
+        <v>180.96</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -15011,7 +15011,7 @@
         <v>90957</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3540</v>
+        <v>3549</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15065,7 +15065,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>101.82</v>
+        <v>101.97</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="E170" s="39" t="n">
-        <v>69.05</v>
+        <v>70</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="D171" s="13" t="n"/>
       <c r="E171" s="39" t="n">
-        <v>93</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>0.8542</v>
@@ -15373,7 +15373,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>159.42</v>
+        <v>159.24</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15405,7 +15405,7 @@
         <v>339878</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>224</v>
@@ -15459,7 +15459,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>242</v>
+        <v>242.95</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15491,7 +15491,7 @@
         <v>9312</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>33495</v>
+        <v>33368</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2562</v>
@@ -15545,7 +15545,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>108.86</v>
+        <v>111.31</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15577,7 +15577,7 @@
         <v>139049</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>6478</v>
+        <v>6588</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>115.05</v>
+        <v>115.14</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.85</v>
@@ -15739,7 +15739,7 @@
         <v>195452</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4188</v>
+        <v>4194</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15793,7 +15793,7 @@
         </is>
       </c>
       <c r="E178" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15825,7 +15825,7 @@
         <v>4136</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>1703</v>
+        <v>1722</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>25.39</v>
+        <v>24.9</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.11</v>
@@ -15985,7 +15985,7 @@
         <v>7912</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16039,7 +16039,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>55.99</v>
+        <v>56.17</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.42</v>
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>68</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.45</v>
@@ -16149,7 +16149,7 @@
         <v>395</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1552</v>
+        <v>1518</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>142</v>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="E183" s="39" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F183" s="39" t="n">
         <v>6.8</v>
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>74.75</v>
+        <v>74.86</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.9</v>
@@ -16359,7 +16359,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>76.87</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.9</v>
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>74.68000000000001</v>
+        <v>75.12</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.72</v>
@@ -16469,7 +16469,7 @@
         <v>24605</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>79.22</v>
+        <v>79.48</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.74</v>
@@ -16555,7 +16555,7 @@
         <v>149794</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8256</v>
+        <v>8304</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>102.37</v>
+        <v>103</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16719,7 +16719,7 @@
         <v>25607</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>308</v>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="D190" s="13" t="n"/>
       <c r="E190" s="39" t="n">
-        <v>77.5</v>
+        <v>69.83</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.26</v>
@@ -16797,7 +16797,7 @@
         <v>215</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16851,7 +16851,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>99.23</v>
+        <v>103.45</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.85</v>
@@ -16883,7 +16883,7 @@
         <v>756</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1064</v>
+        <v>1110</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="D193" s="13" t="n"/>
       <c r="E193" s="39" t="n">
-        <v>76.87</v>
+        <v>76.16</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>1</v>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="D195" s="13" t="n"/>
       <c r="E195" s="39" t="n">
-        <v>50</v>
+        <v>49.98</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.5019</v>
@@ -17245,7 +17245,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>81.89</v>
+        <v>80</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.9278</v>
@@ -17323,7 +17323,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>87.68000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>1.0168</v>
@@ -17479,7 +17479,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>73.19</v>
+        <v>73.45</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.58</v>
@@ -17861,7 +17861,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>59.51</v>
+        <v>59.04</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.62</v>
@@ -17893,7 +17893,7 @@
         <v>4107</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>6017</v>
+        <v>5986</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>97.22</v>
+        <v>95.43000000000001</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.4</v>
@@ -18025,7 +18025,7 @@
         </is>
       </c>
       <c r="E206" s="39" t="n">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F206" s="39" t="n">
         <v>0.17</v>
@@ -18103,7 +18103,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>79.8</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>1.14</v>
@@ -18113,7 +18113,7 @@
         <v/>
       </c>
       <c r="H207" s="39" t="n">
-        <v>7.8058</v>
+        <v>7.342</v>
       </c>
       <c r="I207" s="39" t="n">
         <v>88.58</v>
@@ -18135,7 +18135,7 @@
         <v>4190</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6900</v>
+        <v>6808</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="D208" s="13" t="n"/>
       <c r="E208" s="39" t="n">
-        <v>78.25</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18263,7 +18263,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>61.3</v>
+        <v>61.15</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.46</v>
@@ -18295,7 +18295,7 @@
         <v>87958</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>10769</v>
+        <v>10776</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>89.62</v>
+        <v>89.41</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>0.87</v>
@@ -18505,7 +18505,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>999.98</v>
+        <v>999.9</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>3.0467</v>
@@ -18583,7 +18583,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>76.5</v>
+        <v>75</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18661,7 +18661,7 @@
         </is>
       </c>
       <c r="E214" s="39" t="n">
-        <v>9.960000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="F214" s="39" t="n">
         <v>0.1959</v>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>7.68</v>
+        <v>7.63</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.075</v>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="D216" s="13" t="n"/>
       <c r="E216" s="39" t="n">
-        <v>82.45</v>
+        <v>83.55</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.2</v>
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>97.17</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1</v>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="V217" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425389</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441118</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>95.84999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>1.08</v>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="V218" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425386</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441114</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>89.98999999999999</v>
+        <v>90.31</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>0.91</v>
@@ -19099,7 +19099,7 @@
       </c>
       <c r="V219" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425388</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441117</t>
         </is>
       </c>
     </row>
@@ -19199,7 +19199,7 @@
         </is>
       </c>
       <c r="E221" s="39" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F221" s="39" t="n">
         <v>0.0377</v>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>137.9</v>
+        <v>139.1</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.95</v>
@@ -19363,7 +19363,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>84.64</v>
+        <v>84.66</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>0.87</v>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="V223" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425387</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441346</t>
         </is>
       </c>
     </row>
@@ -19441,7 +19441,7 @@
         </is>
       </c>
       <c r="E224" s="39" t="n">
-        <v>102.98</v>
+        <v>103.5</v>
       </c>
       <c r="F224" s="39" t="n">
         <v>0.91</v>
@@ -19473,7 +19473,7 @@
         <v>354</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="P224" s="13" t="n">
         <v>344</v>
@@ -19611,7 +19611,7 @@
         <v/>
       </c>
       <c r="H226" s="39" t="n">
-        <v>4.68</v>
+        <v>1.3</v>
       </c>
       <c r="I226" s="39" t="n">
         <v>2.89</v>
@@ -19679,7 +19679,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>68.45</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19711,7 +19711,7 @@
         <v>397</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>16209</v>
+        <v>16198</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19765,7 +19765,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>71.84999999999999</v>
+        <v>71.56</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.6</v>
@@ -19797,7 +19797,7 @@
         <v>14950</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="D229" s="13" t="n"/>
       <c r="E229" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="F229" s="39" t="n">
         <v>0.135</v>
@@ -20165,7 +20165,7 @@
         <v/>
       </c>
       <c r="H233" s="39" t="n">
-        <v>113.1455</v>
+        <v>102.272</v>
       </c>
       <c r="I233" s="39" t="n">
         <v>568.95</v>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>71.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.58</v>
@@ -20469,7 +20469,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>95.25</v>
+        <v>95.45</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.72</v>
@@ -20501,7 +20501,7 @@
         <v>68602</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20631,7 +20631,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>98.5</v>
+        <v>98.17</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20663,7 +20663,7 @@
         <v>111221</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3562</v>
+        <v>3542</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="D240" s="13" t="n"/>
       <c r="E240" s="39" t="n">
-        <v>9.27</v>
+        <v>9.4</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D241" s="13" t="n"/>
       <c r="E241" s="39" t="n">
-        <v>72.72</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="F241" s="39" t="n">
         <v>0.6</v>
@@ -20865,7 +20865,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>63</v>
+        <v>64.86</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.5431</v>
@@ -20875,7 +20875,7 @@
         <v/>
       </c>
       <c r="H242" s="39" t="n">
-        <v>7.5301</v>
+        <v>6.9136</v>
       </c>
       <c r="I242" s="39" t="n">
         <v>123.67</v>
@@ -20897,7 +20897,7 @@
         <v>4203</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -20951,7 +20951,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>87.54000000000001</v>
+        <v>86.87</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.95</v>
@@ -21029,7 +21029,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="D245" s="13" t="n"/>
       <c r="E245" s="39" t="n">
-        <v>107.77</v>
+        <v>108.51</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21181,7 +21181,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>55.3</v>
+        <v>55.61</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.57</v>
@@ -21333,7 +21333,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>88.75</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.1</v>
@@ -21415,7 +21415,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>78.67</v>
+        <v>78.62</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.86</v>
@@ -21493,7 +21493,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>54.7</v>
+        <v>54.72</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.54</v>
@@ -21503,7 +21503,7 @@
         <v/>
       </c>
       <c r="H250" s="39" t="n">
-        <v>6.6514</v>
+        <v>6.1014</v>
       </c>
       <c r="I250" s="39" t="n">
         <v>69.06</v>
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>59.73</v>
+        <v>58.97</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.8</v>
@@ -21603,7 +21603,7 @@
         <v>3011</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>7115</v>
+        <v>7027</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>698</v>
@@ -21817,7 +21817,7 @@
         <v/>
       </c>
       <c r="H254" s="39" t="n">
-        <v>4.71</v>
+        <v>4.11</v>
       </c>
       <c r="I254" s="39" t="n">
         <v>61.48</v>
@@ -21963,7 +21963,7 @@
         </is>
       </c>
       <c r="E256" s="39" t="n">
-        <v>98.87</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="F256" s="39" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="D260" s="13" t="n"/>
       <c r="E260" s="39" t="n">
-        <v>89</v>
+        <v>88.8</v>
       </c>
       <c r="F260" s="39" t="n">
         <v>1.1</v>
@@ -22349,7 +22349,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>59.5</v>
+        <v>59.89</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.6</v>
@@ -22663,7 +22663,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.35</v>
+        <v>10.3</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.12</v>
@@ -22745,7 +22745,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>70.20999999999999</v>
+        <v>71.95</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="E267" s="39" t="n">
-        <v>82.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1.02</v>
@@ -22833,7 +22833,7 @@
         <v/>
       </c>
       <c r="H267" s="39" t="n">
-        <v>15.1617</v>
+        <v>13.7617</v>
       </c>
       <c r="I267" s="39" t="n">
         <v>89.3</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="D268" s="13" t="n"/>
       <c r="E268" s="39" t="n">
-        <v>9.449999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.11</v>
@@ -22975,7 +22975,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>99.98999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>0.93</v>
@@ -23007,7 +23007,7 @@
         <v>3636</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23061,7 +23061,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>69.7</v>
+        <v>69</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.1</v>
@@ -23093,7 +23093,7 @@
         <v>1627</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3740</v>
+        <v>3735</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23225,7 +23225,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>162.01</v>
+        <v>165.45</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5142</v>
@@ -23257,7 +23257,7 @@
         <v>6593</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8711</v>
+        <v>8817</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23311,7 +23311,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>11.3</v>
+        <v>11.99</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0832</v>
@@ -23343,7 +23343,7 @@
         <v>2237</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>15270</v>
+        <v>15068</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23479,7 +23479,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>169.5</v>
+        <v>163.1</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>0.98</v>
@@ -23489,7 +23489,7 @@
         <v/>
       </c>
       <c r="H275" s="39" t="n">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="I275" s="39" t="n">
         <v>201.53</v>
@@ -23511,7 +23511,7 @@
         <v>3275</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>25267</v>
+        <v>25023</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1834</v>
@@ -23643,7 +23643,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>60.5</v>
+        <v>59.99</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>89.70999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23799,7 +23799,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>35.38</v>
+        <v>35.48</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23831,7 +23831,7 @@
         <v>5171</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>86</v>
@@ -23885,7 +23885,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>73.20999999999999</v>
+        <v>73.98</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>0.95</v>
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>12.25</v>
+        <v>12.48</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>63.01</v>
+        <v>62.68</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.22</v>
@@ -24167,7 +24167,7 @@
         <v>8170</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>16219</v>
+        <v>16152</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>62.39</v>
+        <v>59.56</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.6</v>
@@ -24253,7 +24253,7 @@
         <v>24053</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2001</v>
+        <v>1935</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="D287" s="13" t="n"/>
       <c r="E287" s="39" t="n">
-        <v>38.02</v>
+        <v>36</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.2325</v>
@@ -24539,7 +24539,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>83.25</v>
+        <v>82.92</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24617,7 +24617,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>68.51000000000001</v>
+        <v>68.66</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.75</v>
@@ -24649,7 +24649,7 @@
         <v>3296</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -24703,7 +24703,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>22.45</v>
+        <v>22</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.154</v>
@@ -25009,7 +25009,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>83.63</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1.05</v>
@@ -25087,7 +25087,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>50.99</v>
+        <v>50</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25119,7 +25119,7 @@
         <v>465</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11332</v>
+        <v>11223</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>107.87</v>
+        <v>103.09</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25373,7 +25373,7 @@
         <v>1014</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>1894</v>
+        <v>1826</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25613,7 +25613,7 @@
         <v>92898</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>10018</v>
+        <v>10077</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25667,7 +25667,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>40.96</v>
+        <v>41.05</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.42</v>
@@ -25699,7 +25699,7 @@
         <v>24161</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2437</v>
+        <v>2448</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25753,7 +25753,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>77.5</v>
+        <v>76.2</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.95</v>
@@ -26063,7 +26063,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26141,7 +26141,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>120</v>
+        <v>119.83</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26173,7 +26173,7 @@
         <v>12816</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2581</v>
+        <v>2586</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>46.81</v>
+        <v>46.78</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.49</v>
@@ -26391,7 +26391,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>81.68000000000001</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.05</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>90.43000000000001</v>
+        <v>89.47</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26547,7 +26547,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>59.96</v>
+        <v>61.59</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.4584</v>
@@ -26625,7 +26625,7 @@
         </is>
       </c>
       <c r="E314" s="39" t="n">
-        <v>91.98999999999999</v>
+        <v>92</v>
       </c>
       <c r="F314" s="39" t="n">
         <v>0.88</v>
@@ -26707,7 +26707,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>435</v>
+        <v>419.5</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26717,7 +26717,7 @@
         <v/>
       </c>
       <c r="H315" s="39" t="n">
-        <v>126.25</v>
+        <v>116.75</v>
       </c>
       <c r="I315" s="39" t="n">
         <v>771.13</v>
@@ -26735,7 +26735,7 @@
         <v>3610</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>2392</v>
+        <v>2353</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>712</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>32.8</v>
+        <v>33.07</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.32</v>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>63.04</v>
+        <v>64.55</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -27027,7 +27027,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>69.45999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.58</v>
@@ -27037,7 +27037,7 @@
         <v/>
       </c>
       <c r="H319" s="39" t="n">
-        <v>7.746</v>
+        <v>7.126</v>
       </c>
       <c r="I319" s="39" t="n">
         <v>105.41</v>
@@ -27059,7 +27059,7 @@
         <v>10585</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1541</v>
+        <v>1552</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27187,7 +27187,7 @@
       </c>
       <c r="D321" s="13" t="n"/>
       <c r="E321" s="39" t="n">
-        <v>44.82</v>
+        <v>44.8</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27197,7 +27197,7 @@
         <v/>
       </c>
       <c r="H321" s="39" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="I321" s="39" t="n">
         <v>78.56999999999999</v>
@@ -27263,7 +27263,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>86.65000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>0.95</v>
@@ -27341,7 +27341,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>50.5</v>
+        <v>51.79</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.4</v>
@@ -27373,7 +27373,7 @@
         <v>1229</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>7716</v>
+        <v>7954</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27503,7 +27503,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>83.44</v>
+        <v>84.55</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.05</v>
@@ -27581,7 +27581,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>94.48999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.2</v>
@@ -27737,7 +27737,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>90.84</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>0.95</v>
@@ -27769,7 +27769,7 @@
         <v>45948</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>7891</v>
+        <v>7906</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1113</v>
@@ -27823,7 +27823,7 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>8.99</v>
+        <v>9</v>
       </c>
       <c r="F329" s="39" t="n">
         <v>0.02</v>
@@ -27901,7 +27901,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.58</v>
+        <v>2.31</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>107.98</v>
+        <v>108.99</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.74</v>
@@ -28069,7 +28069,7 @@
         <v/>
       </c>
       <c r="H332" s="39" t="n">
-        <v>8.52</v>
+        <v>7.92</v>
       </c>
       <c r="I332" s="39" t="n">
         <v>208.3</v>
@@ -28091,7 +28091,7 @@
         <v>30084</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>9716</v>
+        <v>9764</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28223,7 +28223,7 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>23.9</v>
+        <v>21.5</v>
       </c>
       <c r="F334" s="39" t="n">
         <v>0.37</v>
@@ -28377,7 +28377,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>78.39</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>0.91</v>
@@ -28387,7 +28387,7 @@
         <v/>
       </c>
       <c r="H336" s="39" t="n">
-        <v>12.1625</v>
+        <v>10.7945</v>
       </c>
       <c r="I336" s="39" t="n">
         <v>95.33</v>
@@ -28455,7 +28455,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>50.14</v>
+        <v>50.24</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.54</v>
@@ -28465,7 +28465,7 @@
         <v/>
       </c>
       <c r="H337" s="39" t="n">
-        <v>6.0983</v>
+        <v>5.5965</v>
       </c>
       <c r="I337" s="39" t="n">
         <v>93.20999999999999</v>
@@ -28487,7 +28487,7 @@
         <v>76462</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5522</v>
+        <v>5524</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="D338" s="13" t="n"/>
       <c r="E338" s="39" t="n">
-        <v>64.95</v>
+        <v>68</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.7</v>
@@ -28693,7 +28693,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>55.75</v>
+        <v>53.79</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -28703,7 +28703,7 @@
         <v/>
       </c>
       <c r="H340" s="39" t="n">
-        <v>9.3779</v>
+        <v>8.677899999999999</v>
       </c>
       <c r="I340" s="39" t="n">
         <v>121.67</v>
@@ -28725,7 +28725,7 @@
         <v>7558</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>1061</v>
+        <v>1099</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28779,7 +28779,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>65.56999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.7</v>
@@ -28853,7 +28853,7 @@
       </c>
       <c r="D342" s="13" t="n"/>
       <c r="E342" s="39" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>0.9</v>
@@ -28931,7 +28931,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -29017,7 +29017,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>120</v>
+        <v>110.91</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.33</v>
@@ -29095,7 +29095,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>48.19</v>
+        <v>48.27</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29127,7 +29127,7 @@
         <v>11807</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29255,7 +29255,7 @@
       </c>
       <c r="D347" s="13" t="n"/>
       <c r="E347" s="39" t="n">
-        <v>97.45</v>
+        <v>96.89</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.2</v>
@@ -29333,7 +29333,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>78.06</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>1.05</v>
@@ -29489,7 +29489,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29499,7 +29499,7 @@
         <v/>
       </c>
       <c r="H350" s="39" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="I350" s="39" t="n">
         <v>81.62</v>
@@ -29567,7 +29567,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>93.59</v>
+        <v>92.12</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.2</v>
@@ -29645,7 +29645,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>80.7</v>
+        <v>81.3</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -29889,7 +29889,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>84.73</v>
+        <v>84.28</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.07</v>
@@ -30129,7 +30129,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>56</v>
+        <v>55.75</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.63</v>
@@ -30161,7 +30161,7 @@
         <v>36294</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2282</v>
+        <v>2262</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30291,7 +30291,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>4.96</v>
+        <v>5.09</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.047</v>
@@ -30301,7 +30301,7 @@
         <v/>
       </c>
       <c r="H360" s="39" t="n">
-        <v>0.2214</v>
+        <v>0.2077</v>
       </c>
       <c r="I360" s="39" t="n">
         <v>11.73</v>
@@ -30323,7 +30323,7 @@
         <v>5170</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4264</v>
+        <v>3808</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>794</v>
@@ -30377,7 +30377,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.83</v>
@@ -30409,7 +30409,7 @@
         <v>65478</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30537,7 +30537,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>60</v>
+        <v>60.09</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6904</v>
@@ -30547,7 +30547,7 @@
         <v/>
       </c>
       <c r="H363" s="39" t="n">
-        <v>7.9457</v>
+        <v>7.3178</v>
       </c>
       <c r="I363" s="39" t="n">
         <v>93.53</v>
@@ -30569,7 +30569,7 @@
         <v>4909</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>338</v>
@@ -30955,7 +30955,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>652</v>
+        <v>646.99</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.4</v>
@@ -30987,7 +30987,7 @@
         <v>2580</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>11473</v>
+        <v>11262</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1039</v>
@@ -31265,7 +31265,7 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>91.65000000000001</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1</v>
@@ -31419,7 +31419,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>83</v>
+        <v>82.83</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -31727,7 +31727,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>39.02</v>
+        <v>38.54</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31759,7 +31759,7 @@
         <v>31771</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4899</v>
+        <v>4827</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -31891,7 +31891,7 @@
       </c>
       <c r="D380" s="13" t="n"/>
       <c r="E380" s="39" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>0.91</v>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="D381" s="13" t="n"/>
       <c r="E381" s="39" t="n">
-        <v>6.53</v>
+        <v>6.5</v>
       </c>
       <c r="F381" s="39" t="n">
         <v>0.2</v>
@@ -31975,7 +31975,7 @@
         <v/>
       </c>
       <c r="H381" s="39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I381" s="39" t="n">
         <v>0.74</v>
@@ -32521,7 +32521,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>66.19</v>
+        <v>67.5</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.5</v>
@@ -32553,7 +32553,7 @@
         <v>10211</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>8752</v>
+        <v>8754</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>392</v>
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>110.74</v>
+        <v>109.46</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.31</v>
@@ -32931,7 +32931,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -32941,7 +32941,7 @@
         <v/>
       </c>
       <c r="H393" s="39" t="n">
-        <v>0.8764999999999999</v>
+        <v>0.8165</v>
       </c>
       <c r="I393" s="39" t="n">
         <v>13.94</v>
@@ -33345,7 +33345,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>101.33</v>
+        <v>101.79</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.85</v>
@@ -33377,7 +33377,7 @@
         <v>86220</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3426</v>
+        <v>3420</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33405,7 +33405,7 @@
       </c>
       <c r="V398" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=424805</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441071</t>
         </is>
       </c>
     </row>
@@ -33657,7 +33657,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>92.95</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.3</v>
@@ -33735,7 +33735,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>87.04000000000001</v>
+        <v>85.95</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>0.95</v>
@@ -33787,7 +33787,7 @@
       </c>
       <c r="V403" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=426677</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441262</t>
         </is>
       </c>
     </row>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>7.97</v>
+        <v>7.88</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.11</v>
@@ -33887,7 +33887,7 @@
       </c>
       <c r="D405" s="13" t="n"/>
       <c r="E405" s="39" t="n">
-        <v>69.8</v>
+        <v>69.72</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -34125,7 +34125,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>8.85</v>
+        <v>8.75</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.1</v>
@@ -34203,7 +34203,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>80.12</v>
+        <v>79.2</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>0.87</v>
@@ -34281,7 +34281,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.33</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.12</v>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.68</v>
+        <v>6.54</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34513,7 +34513,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>85.17</v>
+        <v>86.08</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.53</v>
@@ -34545,7 +34545,7 @@
         <v>157231</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34599,7 +34599,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>39</v>
+        <v>39.85</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.31</v>
@@ -34631,7 +34631,7 @@
         <v>123960</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>9945</v>
+        <v>10224</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34685,7 +34685,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>102.59</v>
+        <v>103.35</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.8</v>
@@ -34771,7 +34771,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34803,7 +34803,7 @@
         <v>14262</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -35087,7 +35087,7 @@
         </is>
       </c>
       <c r="E420" s="39" t="n">
-        <v>92.39</v>
+        <v>92.05</v>
       </c>
       <c r="F420" s="39" t="n">
         <v>0.61</v>
@@ -35119,7 +35119,7 @@
         <v>3168</v>
       </c>
       <c r="O420" s="13" t="n">
-        <v>13131</v>
+        <v>13076</v>
       </c>
       <c r="P420" s="13" t="n">
         <v>1340</v>
@@ -35173,7 +35173,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>85.23</v>
+        <v>85.27</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>1.1</v>
@@ -35261,7 +35261,7 @@
         <v/>
       </c>
       <c r="H422" s="39" t="n">
-        <v>2.5993</v>
+        <v>2.4742</v>
       </c>
       <c r="I422" s="39" t="n">
         <v>21.17</v>
@@ -35333,7 +35333,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>82.83</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.95</v>
@@ -35489,7 +35489,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>63.9</v>
+        <v>63.64</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.65</v>
@@ -35521,7 +35521,7 @@
         <v>2762</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35575,7 +35575,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>5.99</v>
+        <v>5.41</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.06</v>
@@ -35585,7 +35585,7 @@
         <v/>
       </c>
       <c r="H426" s="39" t="n">
-        <v>1.241</v>
+        <v>1.125</v>
       </c>
       <c r="I426" s="39" t="n">
         <v>10.47</v>
@@ -35653,7 +35653,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>88.5</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -35685,7 +35685,7 @@
         <v>6286</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36123,7 +36123,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>9</v>
+        <v>8.99</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36361,7 +36361,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.31</v>
+        <v>8.44</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.1</v>
@@ -36439,7 +36439,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>63.61</v>
+        <v>61.9</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.45</v>
@@ -36521,7 +36521,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>91.44</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>1.1</v>
@@ -36761,7 +36761,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>79.31</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>1</v>
@@ -36839,7 +36839,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>12.8</v>
+        <v>12.43</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.12</v>
@@ -36871,7 +36871,7 @@
         <v>27252</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1398</v>
+        <v>1374</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>103.2</v>
+        <v>106</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.1</v>
@@ -37007,7 +37007,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>30.5</v>
+        <v>30.97</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>68.7</v>
+        <v>69.47</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37123,7 +37123,7 @@
         <v>45591</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1908</v>
+        <v>1938</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37177,7 +37177,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37209,7 +37209,7 @@
         <v>306720</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37263,7 +37263,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.78</v>
@@ -37295,7 +37295,7 @@
         <v>304996</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>4953</v>
+        <v>5041</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37349,7 +37349,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>26.74</v>
+        <v>25.08</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.1</v>
@@ -37381,7 +37381,7 @@
         <v>67301</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>2704</v>
+        <v>2634</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>426</v>
@@ -37435,7 +37435,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.076</v>
@@ -37659,7 +37659,7 @@
       </c>
       <c r="D452" s="13" t="n"/>
       <c r="E452" s="39" t="n">
-        <v>1019.99</v>
+        <v>1020</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -37809,7 +37809,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>79.34</v>
+        <v>79.02</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>0.87</v>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>96.83</v>
+        <v>97.03</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.35</v>
@@ -38037,7 +38037,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.11</v>
@@ -38047,7 +38047,7 @@
         <v/>
       </c>
       <c r="H457" s="39" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="I457" s="39" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v/>
       </c>
       <c r="H458" s="39" t="n">
-        <v>20.5</v>
+        <v>16.52</v>
       </c>
       <c r="I458" s="39" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.13</v>
@@ -38275,7 +38275,7 @@
         <v/>
       </c>
       <c r="H460" s="39" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I460" s="39" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.24</v>
@@ -38429,7 +38429,7 @@
         <v/>
       </c>
       <c r="H462" s="39" t="n">
-        <v>15.83</v>
+        <v>15.65</v>
       </c>
       <c r="I462" s="39" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>36.75</v>
+        <v>36.04</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.47</v>
@@ -38571,7 +38571,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.13</v>
@@ -38647,7 +38647,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>104.2</v>
+        <v>104.79</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.08</v>
@@ -38723,7 +38723,7 @@
       </c>
       <c r="D466" s="13" t="n"/>
       <c r="E466" s="39" t="n">
-        <v>106.99</v>
+        <v>106</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.48</v>
@@ -38875,7 +38875,7 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>10.42</v>
+        <v>10.3</v>
       </c>
       <c r="F468" s="39" t="n">
         <v>0.15</v>
@@ -38951,7 +38951,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>10.66</v>
+        <v>10.89</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.17</v>
@@ -38961,7 +38961,7 @@
         <v/>
       </c>
       <c r="H469" s="39" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="I469" s="39" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>88.45</v>
+        <v>83.22</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.1</v>
@@ -39103,7 +39103,7 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.25</v>
+        <v>10.36</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.11</v>
@@ -39335,7 +39335,7 @@
       </c>
       <c r="D474" s="13" t="n"/>
       <c r="E474" s="39" t="n">
-        <v>103.24</v>
+        <v>102.78</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1</v>
@@ -39389,7 +39389,7 @@
       </c>
       <c r="V474" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425370</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=441264</t>
         </is>
       </c>
     </row>
@@ -39411,7 +39411,7 @@
       </c>
       <c r="D475" s="13" t="n"/>
       <c r="E475" s="39" t="n">
-        <v>9.83</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F475" s="39" t="n">
         <v>0.14</v>
@@ -39487,7 +39487,7 @@
       </c>
       <c r="D476" s="13" t="n"/>
       <c r="E476" s="39" t="n">
-        <v>9.77</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F476" s="39" t="n">
         <v>0.13</v>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>66.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1629,7 +1629,7 @@
         <v>18769</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4054</v>
+        <v>4107</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>92.37</v>
+        <v>92.3</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>45897</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>107089</v>
+        <v>106619</v>
       </c>
       <c r="P5" s="13" t="n">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="Q5" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>60.26</v>
+        <v>59.8</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.76</v>
@@ -1949,7 +1949,7 @@
         <v>12545</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12349</v>
+        <v>12290</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>762.08</v>
+        <v>774</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2035,7 +2035,7 @@
         <v>2490</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>1977</v>
+        <v>1938</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>172</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>82.92</v>
+        <v>82.98</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>0.85</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="V9" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429648</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447039</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>113.6</v>
+        <v>113.9</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.8158</v>
@@ -2271,7 +2271,7 @@
         <v>118972</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3619</v>
+        <v>3600</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="V10" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431736</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447032</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.65</v>
+        <v>8.4</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2443,7 +2443,7 @@
         <v>6480</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13244</v>
+        <v>12658</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>8.15</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.1101</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="39" t="n">
-        <v>59.24</v>
+        <v>56.1</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2897,7 +2897,7 @@
         <v>349</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>5554</v>
+        <v>5532</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -3065,7 +3065,7 @@
         <v>280</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>104</v>
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>78</v>
+        <v>78.95</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>1437.99</v>
+        <v>1415</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>27.0886</v>
@@ -3379,7 +3379,7 @@
         <v>8144</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>2013</v>
+        <v>1971</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>62.83</v>
+        <v>62</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="V25" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429599</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448015</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>85.61</v>
+        <v>87.19</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3621,7 +3621,7 @@
         <v>74353</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3480</v>
+        <v>3546</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>93.22</v>
+        <v>93.58</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3707,7 +3707,7 @@
         <v>9286</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9244</v>
+        <v>9207</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>64.75</v>
+        <v>66.69</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>83.81</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.78</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="V30" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431710</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=446970</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>70.64</v>
+        <v>70.17</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>0.86</v>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>6.95</v>
+        <v>6.87</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.09</v>
@@ -4175,7 +4175,7 @@
         <v>7061</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4301,10 +4301,10 @@
       </c>
       <c r="D36" s="13" t="n"/>
       <c r="E36" s="39" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="G36" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -4329,7 +4329,7 @@
         <v>154</v>
       </c>
       <c r="O36" s="13" t="n">
-        <v>43849</v>
+        <v>42543</v>
       </c>
       <c r="P36" s="13" t="n">
         <v>3032</v>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>74.5</v>
+        <v>72.98</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.87</v>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>62.19</v>
+        <v>62.73</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.76</v>
@@ -4579,7 +4579,7 @@
         <v>12481</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>6.42</v>
+        <v>6.47</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.065</v>
@@ -4985,7 +4985,7 @@
         <v>1432</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>14070</v>
+        <v>12938</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>111.35</v>
+        <v>111.46</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.464</v>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>60.8</v>
+        <v>61.75</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>61</v>
+        <v>61.98</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5309,7 +5309,7 @@
         <v>1574</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3381603</v>
+        <v>3408631</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="E49" s="39" t="n">
-        <v>92</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F49" s="39" t="n">
         <v>0.9167</v>
@@ -5395,7 +5395,7 @@
         <v>176</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>5301</v>
+        <v>5381</v>
       </c>
       <c r="P49" s="13" t="n">
         <v>639</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>98.16</v>
+        <v>100.8</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.62</v>
@@ -5481,7 +5481,7 @@
         <v>112035</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3208</v>
+        <v>3273</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>53.89</v>
+        <v>54.85</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.46</v>
@@ -5567,7 +5567,7 @@
         <v>156531</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9650</v>
+        <v>9788</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>93</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.64</v>
@@ -5653,7 +5653,7 @@
         <v>249</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>16216</v>
+        <v>15346</v>
       </c>
       <c r="P52" s="13" t="n">
         <v>1417</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="D55" s="13" t="n"/>
       <c r="E55" s="39" t="n">
-        <v>950.02</v>
+        <v>909</v>
       </c>
       <c r="F55" s="39" t="n">
         <v>107</v>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="D57" s="13" t="n"/>
       <c r="E57" s="39" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F57" s="39" t="n">
         <v>1.093</v>
@@ -6047,7 +6047,7 @@
         <v>137</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>1406</v>
+        <v>1530</v>
       </c>
       <c r="P57" s="13" t="n">
         <v>69</v>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>90.22</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6209,7 +6209,7 @@
         <v>43445</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1541</v>
+        <v>1500</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>94.36</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6373,7 +6373,7 @@
         <v>212356</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4104</v>
+        <v>4041</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>86.22</v>
+        <v>80.3</v>
       </c>
       <c r="F62" s="39" t="n">
         <v>0.95</v>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>104.62</v>
+        <v>104.16</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.44</v>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>36.11</v>
+        <v>36</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7173,7 +7173,7 @@
         <v>3538</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3081</v>
+        <v>3010</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="D73" s="13" t="n"/>
       <c r="E73" s="39" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="F73" s="39" t="n">
         <v>0.4959</v>
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>53.15</v>
+        <v>52</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.6516</v>
@@ -7407,7 +7407,7 @@
         <v>4840</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7680</v>
+        <v>7477</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>63</v>
+        <v>62.01</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7643,7 +7643,7 @@
         <v>1189</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>9410</v>
+        <v>9585</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>29.69</v>
+        <v>28.64</v>
       </c>
       <c r="F79" s="39" t="n">
         <v>0.1149</v>
@@ -7791,7 +7791,7 @@
         <v/>
       </c>
       <c r="H79" s="39" t="n">
-        <v>1.324</v>
+        <v>1.4025</v>
       </c>
       <c r="I79" s="39" t="n">
         <v>89.28</v>
@@ -7813,7 +7813,7 @@
         <v>1804</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>58.63</v>
+        <v>60</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="G80" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>76.31</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.76</v>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>63.49</v>
+        <v>63.5</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.61</v>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>10.94</v>
+        <v>10.85</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8209,7 +8209,7 @@
         <v>3093</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="V84" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430583</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447804</t>
         </is>
       </c>
     </row>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>86.93000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G85" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="D87" s="13" t="n"/>
       <c r="E87" s="39" t="n">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.75</v>
@@ -8439,7 +8439,7 @@
         <v>11434</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2754</v>
+        <v>2770</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>39.57</v>
+        <v>39.8</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4167</v>
@@ -8525,7 +8525,7 @@
         <v>3974</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3239</v>
+        <v>3262</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="V88" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431173</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=446727</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="D89" s="13" t="n"/>
       <c r="E89" s="39" t="n">
-        <v>75.2</v>
+        <v>75.84</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.83</v>
@@ -8653,10 +8653,10 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>68.7</v>
+        <v>69.58</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.7389</v>
       </c>
       <c r="G90" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8685,7 +8685,7 @@
         <v>13297</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2891</v>
+        <v>2929</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>392</v>
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>62.59</v>
+        <v>61.35</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>1.6997</v>
@@ -8849,7 +8849,7 @@
         <v>636</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="V92" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431222</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447993</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D93" s="13" t="n"/>
       <c r="E93" s="39" t="n">
-        <v>8.050000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1</v>
@@ -9085,7 +9085,7 @@
         <v>577</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>87</v>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>52.86</v>
+        <v>49.47</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>0.7</v>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="V96" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433032</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447713</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
         <v>1185</v>
       </c>
       <c r="O99" s="13" t="n">
-        <v>26630</v>
+        <v>25490</v>
       </c>
       <c r="P99" s="13" t="n">
         <v>160</v>
@@ -9465,7 +9465,7 @@
         </is>
       </c>
       <c r="E100" s="39" t="n">
-        <v>21.39</v>
+        <v>1199.95</v>
       </c>
       <c r="F100" s="39" t="n">
         <v>5.12</v>
@@ -9478,7 +9478,7 @@
         <v>67.0737</v>
       </c>
       <c r="I100" s="39" t="n">
-        <v>1199.53</v>
+        <v>1199.95</v>
       </c>
       <c r="J100" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -9497,7 +9497,7 @@
         <v>51</v>
       </c>
       <c r="O100" s="13" t="n">
-        <v>6567</v>
+        <v>6578</v>
       </c>
       <c r="P100" s="13" t="n">
         <v>575</v>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D101" s="13" t="n"/>
       <c r="E101" s="39" t="n">
-        <v>97.5</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.85</v>
@@ -9575,7 +9575,7 @@
         <v>141</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2737</v>
+        <v>2756</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>154</v>
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>88.98999999999999</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.85</v>
@@ -9661,7 +9661,7 @@
         <v>355</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>8239</v>
+        <v>7685</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>875</v>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>64</v>
+        <v>62.52</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.7</v>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>199.47</v>
+        <v>193</v>
       </c>
       <c r="F104" s="39" t="n">
         <v>1.7289</v>
@@ -9825,7 +9825,7 @@
         <v>540</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>125824</v>
+        <v>127825</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>14030</v>
@@ -9911,7 +9911,7 @@
         <v>5796</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>2911</v>
+        <v>2973</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="D108" s="13" t="n"/>
       <c r="E108" s="39" t="n">
-        <v>8.9</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10207,7 +10207,7 @@
         <v/>
       </c>
       <c r="H109" s="39" t="n">
-        <v>143.138</v>
+        <v>175.7541</v>
       </c>
       <c r="I109" s="39" t="n">
         <v>63065.97</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="V109" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432491</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447732</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
         <v>337</v>
       </c>
       <c r="O110" s="13" t="n">
-        <v>18246</v>
+        <v>18234</v>
       </c>
       <c r="P110" s="13" t="n">
         <v>1033</v>
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>219.35</v>
+        <v>223.85</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.87</v>
@@ -10473,7 +10473,7 @@
         <v>2489</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>80</v>
@@ -10551,7 +10551,7 @@
         <v>1073</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>4919</v>
+        <v>5007</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>334</v>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="V113" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430474</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447869</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>141.76</v>
+        <v>141.5</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.6219</v>
@@ -10711,7 +10711,7 @@
         <v>4770</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2399</v>
+        <v>2386</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>321</v>
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>746.66</v>
+        <v>799</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10873,7 +10873,7 @@
         <v>2715</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1267</v>
+        <v>1293</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>104.88</v>
+        <v>104.92</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.8132</v>
@@ -11127,7 +11127,7 @@
         <v>3712</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>11628</v>
+        <v>11738</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11315,7 +11315,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>47.05</v>
+        <v>47.77</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.39</v>
@@ -11347,7 +11347,7 @@
         <v>15291</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2040</v>
+        <v>2099</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>447.01</v>
+        <v>457.01</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.25</v>
@@ -11433,7 +11433,7 @@
         <v>16934</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>142.31</v>
+        <v>142.69</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11519,7 +11519,7 @@
         <v>7941</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1874</v>
+        <v>1896</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.2</v>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>122.88</v>
+        <v>122.95</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.85</v>
@@ -12009,7 +12009,7 @@
         <v>16519</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9693</v>
+        <v>9637</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12063,7 +12063,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13</v>
@@ -12095,7 +12095,7 @@
         <v>793</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="E133" s="39" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F133" s="39" t="n">
         <v>0.31</v>
@@ -12313,7 +12313,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>132.63</v>
+        <v>134.97</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>0.95</v>
@@ -12345,7 +12345,7 @@
         <v>990</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2111</v>
+        <v>2153</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12591,7 +12591,7 @@
         <v>57</v>
       </c>
       <c r="O138" s="13" t="n">
-        <v>2201</v>
+        <v>2177</v>
       </c>
       <c r="P138" s="13" t="n">
         <v>47</v>
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>91.20999999999999</v>
+        <v>94.95</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>0.82</v>
@@ -12765,7 +12765,7 @@
         <v>3962</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4444</v>
+        <v>4518</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="E141" s="39" t="n">
-        <v>8.25</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F141" s="39" t="n">
         <v>0.082</v>
@@ -12851,7 +12851,7 @@
         <v>30801</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4550</v>
+        <v>4600</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>8.279999999999999</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -13061,7 +13061,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>89.73999999999999</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>108.33</v>
+        <v>108.51</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>1</v>
@@ -13257,7 +13257,7 @@
         <v>102262</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1092</v>
+        <v>1122</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13473,7 +13473,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>5.23</v>
+        <v>5.4</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="D150" s="13" t="n"/>
       <c r="E150" s="39" t="n">
-        <v>94.8</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="F150" s="39" t="n">
         <v>0.7</v>
@@ -13581,7 +13581,7 @@
         <v>151</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>3977</v>
+        <v>4020</v>
       </c>
       <c r="P150" s="13" t="n">
         <v>307</v>
@@ -13635,7 +13635,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>76.11</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13667,7 +13667,7 @@
         <v>27116</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10119</v>
+        <v>10249</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -13955,7 +13955,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.43</v>
@@ -13987,7 +13987,7 @@
         <v>221</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>14275</v>
+        <v>14815</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1619</v>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="V155" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430395</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447022</t>
         </is>
       </c>
     </row>
@@ -14041,7 +14041,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>84.68000000000001</v>
+        <v>85.05</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.25</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="D157" s="13" t="n"/>
       <c r="E157" s="39" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F157" s="39" t="n">
         <v>0.5828</v>
@@ -14143,7 +14143,7 @@
         <v>46</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>7384</v>
+        <v>7555</v>
       </c>
       <c r="P157" s="13" t="n">
         <v>524</v>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6156</v>
@@ -14229,7 +14229,7 @@
         <v>1170</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8411</v>
+        <v>8429</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>834</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="D160" s="13" t="n"/>
       <c r="E160" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>233.34</v>
+        <v>230</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.6868</v>
@@ -14545,7 +14545,7 @@
         <v>3100</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8564</v>
+        <v>8344</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14679,7 +14679,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>53.09</v>
+        <v>50.17</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>0.5</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="D165" s="13" t="n"/>
       <c r="E165" s="39" t="n">
-        <v>104.53</v>
+        <v>105.72</v>
       </c>
       <c r="F165" s="39" t="n">
         <v>1.95</v>
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>67</v>
+        <v>66.59</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>194.86</v>
+        <v>196.95</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -15017,7 +15017,7 @@
         <v>90096</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3791</v>
+        <v>3873</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>101.8</v>
+        <v>102.13</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15149,7 +15149,7 @@
         </is>
       </c>
       <c r="E170" s="39" t="n">
-        <v>74.48</v>
+        <v>76</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="D171" s="13" t="n"/>
       <c r="E171" s="39" t="n">
-        <v>91.89</v>
+        <v>89.3</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>1.03</v>
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>162.3</v>
+        <v>162.19</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15411,7 +15411,7 @@
         <v>340959</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>224</v>
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>245.24</v>
+        <v>245.15</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15497,7 +15497,7 @@
         <v>10046</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>33611</v>
+        <v>33904</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2562</v>
@@ -15551,7 +15551,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>117.73</v>
+        <v>119.08</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15583,7 +15583,7 @@
         <v>138834</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>6981</v>
+        <v>7089</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15713,7 +15713,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>116.89</v>
+        <v>119.86</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.85</v>
@@ -15745,7 +15745,7 @@
         <v>196152</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4180</v>
+        <v>4259</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="E178" s="39" t="n">
-        <v>81.45</v>
+        <v>81.5</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15831,7 +15831,7 @@
         <v>4123</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>24.21</v>
+        <v>24.98</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.2</v>
@@ -15991,7 +15991,7 @@
         <v>7715</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>55.1</v>
+        <v>54.93</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.39</v>
@@ -16123,7 +16123,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>68.84</v>
+        <v>68</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.45</v>
@@ -16155,7 +16155,7 @@
         <v>390</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1545</v>
+        <v>1622</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>142</v>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="V183" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=405264</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447771</t>
         </is>
       </c>
     </row>
@@ -16287,7 +16287,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>74.98999999999999</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.9</v>
@@ -16365,7 +16365,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>76.06999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.95</v>
@@ -16443,7 +16443,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>78.36</v>
+        <v>78.8</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.72</v>
@@ -16475,7 +16475,7 @@
         <v>25101</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>83.08</v>
+        <v>82.87</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.74</v>
@@ -16561,7 +16561,7 @@
         <v>150576</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8615</v>
+        <v>8643</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>103</v>
+        <v>102.82</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16639,7 +16639,7 @@
         <v>189</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8544</v>
+        <v>8529</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>690</v>
@@ -16693,7 +16693,7 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>105.65</v>
+        <v>106.8</v>
       </c>
       <c r="F189" s="39" t="n">
         <v>0.6324</v>
@@ -16725,7 +16725,7 @@
         <v>25350</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4606</v>
+        <v>4613</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>308</v>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="D190" s="13" t="n"/>
       <c r="E190" s="39" t="n">
-        <v>70</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.26</v>
@@ -16803,7 +16803,7 @@
         <v>225</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1339</v>
+        <v>1291</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16857,7 +16857,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>102.97</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.86</v>
@@ -16889,7 +16889,7 @@
         <v>759</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -17021,10 +17021,10 @@
       </c>
       <c r="D193" s="13" t="n"/>
       <c r="E193" s="39" t="n">
-        <v>68.28</v>
+        <v>69</v>
       </c>
       <c r="F193" s="39" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G193" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="V193" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432586</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447988</t>
         </is>
       </c>
     </row>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="D195" s="13" t="n"/>
       <c r="E195" s="39" t="n">
-        <v>49.69</v>
+        <v>48.01</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.5589</v>
@@ -17251,10 +17251,10 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>78.48999999999999</v>
+        <v>78.13</v>
       </c>
       <c r="F196" s="39" t="n">
-        <v>0.9278</v>
+        <v>0.9112</v>
       </c>
       <c r="G196" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -17329,10 +17329,10 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="F197" s="39" t="n">
-        <v>1.0168</v>
+        <v>1.035</v>
       </c>
       <c r="G197" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>72.95</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>72.04000000000001</v>
+        <v>71.77</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>60.91</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.63</v>
@@ -17899,7 +17899,7 @@
         <v>4035</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>6188</v>
+        <v>6118</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -17953,7 +17953,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>92.73</v>
+        <v>93.25</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.4</v>
@@ -18109,7 +18109,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>77.70999999999999</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>0.59</v>
@@ -18141,7 +18141,7 @@
         <v>4173</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6719</v>
+        <v>6744</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="D208" s="13" t="n"/>
       <c r="E208" s="39" t="n">
-        <v>81.54000000000001</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18269,7 +18269,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>64.98999999999999</v>
+        <v>66</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.46</v>
@@ -18301,7 +18301,7 @@
         <v>89641</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11260</v>
+        <v>11546</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18433,7 +18433,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>93.36</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>1.35</v>
@@ -18589,7 +18589,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>75.8</v>
+        <v>77.98</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18745,7 +18745,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>7.73</v>
+        <v>7.85</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="V215" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429645</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447775</t>
         </is>
       </c>
     </row>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="D216" s="13" t="n"/>
       <c r="E216" s="39" t="n">
-        <v>83.01000000000001</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.25</v>
@@ -18871,7 +18871,7 @@
       </c>
       <c r="V216" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429647</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447776</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>96.91</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.22</v>
@@ -18975,7 +18975,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>97.81999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>1.3</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>91.42</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>1.05</v>
@@ -19205,7 +19205,7 @@
         </is>
       </c>
       <c r="E221" s="39" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F221" s="39" t="n">
         <v>0.0377</v>
@@ -19283,7 +19283,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>141.91</v>
+        <v>142.43</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.95</v>
@@ -19315,7 +19315,7 @@
         <v>246641</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>3960</v>
+        <v>3989</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>346</v>
@@ -19369,7 +19369,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>85.63</v>
+        <v>85.2</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>1.05</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="E224" s="39" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
       <c r="F224" s="39" t="n">
         <v>0.71</v>
@@ -19479,7 +19479,7 @@
         <v>349</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>4277</v>
+        <v>4074</v>
       </c>
       <c r="P224" s="13" t="n">
         <v>344</v>
@@ -19685,7 +19685,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>68.45</v>
+        <v>68.5</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19717,7 +19717,7 @@
         <v>425</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>16209</v>
+        <v>15559</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>72.95999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.6</v>
@@ -19803,7 +19803,7 @@
         <v>14762</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2444</v>
+        <v>2457</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="D229" s="13" t="n"/>
       <c r="E229" s="39" t="n">
-        <v>9.949999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F229" s="39" t="n">
         <v>0.15</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="O232" s="13" t="n">
-        <v>19451</v>
+        <v>19088</v>
       </c>
       <c r="P232" s="13" t="n">
         <v>8</v>
@@ -20389,7 +20389,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>71.14</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.58</v>
@@ -20421,7 +20421,7 @@
         <v>4264</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3547</v>
+        <v>3534</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>565</v>
@@ -20475,7 +20475,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>98.41</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.75</v>
@@ -20507,7 +20507,7 @@
         <v>69305</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2854</v>
+        <v>2918</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>100.11</v>
+        <v>100.84</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20669,7 +20669,7 @@
         <v>112311</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3613</v>
+        <v>3624</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20719,7 +20719,7 @@
       </c>
       <c r="D240" s="13" t="n"/>
       <c r="E240" s="39" t="n">
-        <v>9.69</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="D241" s="13" t="n"/>
       <c r="E241" s="39" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F241" s="39" t="n">
         <v>0.6</v>
@@ -20803,10 +20803,10 @@
         <v/>
       </c>
       <c r="H241" s="39" t="n">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="I241" s="39" t="n">
-        <v>90.37</v>
+        <v>91.09</v>
       </c>
       <c r="J241" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -20815,7 +20815,7 @@
       <c r="K241" s="14" t="n"/>
       <c r="L241" s="14" t="n"/>
       <c r="M241" s="13" t="n">
-        <v>6.54</v>
+        <v>6.88</v>
       </c>
       <c r="N241" s="13" t="n">
         <v>310</v>
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>64.38</v>
+        <v>65.36</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.7392</v>
@@ -20903,7 +20903,7 @@
         <v>4265</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -20957,7 +20957,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>86.29000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.95</v>
@@ -21035,7 +21035,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.449999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21109,7 +21109,7 @@
       </c>
       <c r="D245" s="13" t="n"/>
       <c r="E245" s="39" t="n">
-        <v>109.99</v>
+        <v>108</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21119,10 +21119,10 @@
         <v/>
       </c>
       <c r="H245" s="39" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="I245" s="39" t="n">
-        <v>100.97</v>
+        <v>100.96</v>
       </c>
       <c r="J245" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>56.42</v>
+        <v>55.18</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.31</v>
@@ -21339,7 +21339,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>88.2</v>
+        <v>88.48</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.11</v>
@@ -21367,7 +21367,7 @@
         <v>28286</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>77.15000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.86</v>
@@ -21499,7 +21499,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>56.15</v>
+        <v>56.59</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.54</v>
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>59.5</v>
+        <v>58.79</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.8</v>
@@ -21609,7 +21609,7 @@
         <v>3188</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>7011</v>
+        <v>6978</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>698</v>
@@ -22277,7 +22277,7 @@
       </c>
       <c r="D260" s="13" t="n"/>
       <c r="E260" s="39" t="n">
-        <v>88.39</v>
+        <v>88.37</v>
       </c>
       <c r="F260" s="39" t="n">
         <v>1.1</v>
@@ -22355,7 +22355,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>60.1</v>
+        <v>61.29</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.6</v>
@@ -22669,7 +22669,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.37</v>
+        <v>10.39</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.12</v>
@@ -22697,7 +22697,7 @@
         <v>808458</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>9881</v>
+        <v>9923</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>72.02</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22823,13 +22823,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D267" s="13" t="inlineStr">
-        <is>
-          <t>Nch Capital</t>
-        </is>
-      </c>
+      <c r="D267" s="13" t="n"/>
       <c r="E267" s="39" t="n">
-        <v>78.06999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1.03</v>
@@ -22981,7 +22977,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>100.45</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>0.93</v>
@@ -23013,7 +23009,7 @@
         <v>3519</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2795</v>
+        <v>2801</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23041,7 +23037,7 @@
       </c>
       <c r="V269" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430646</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447835</t>
         </is>
       </c>
     </row>
@@ -23067,7 +23063,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>69.16</v>
+        <v>69.59</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.14</v>
@@ -23099,7 +23095,7 @@
         <v>1584</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3732</v>
+        <v>3737</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23127,7 +23123,7 @@
       </c>
       <c r="V270" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430640</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447832</t>
         </is>
       </c>
     </row>
@@ -23231,7 +23227,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>163.99</v>
+        <v>166</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5366</v>
@@ -23263,7 +23259,7 @@
         <v>6572</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8770</v>
+        <v>8803</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23317,7 +23313,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>11.9</v>
+        <v>12.25</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0852</v>
@@ -23349,7 +23345,7 @@
         <v>2220</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>15658</v>
+        <v>16212</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23485,7 +23481,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>0.98</v>
@@ -23545,7 +23541,7 @@
       </c>
       <c r="V275" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430557</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447801</t>
         </is>
       </c>
     </row>
@@ -23649,7 +23645,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>59.95</v>
+        <v>60.19</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23727,7 +23723,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>91.36</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23805,7 +23801,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>35.94</v>
+        <v>35.77</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23837,7 +23833,7 @@
         <v>5102</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>86</v>
@@ -23891,7 +23887,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>73.54000000000001</v>
+        <v>71.92</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>0.95</v>
@@ -23923,7 +23919,7 @@
         <v>5834</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>1866</v>
+        <v>1774</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>152</v>
@@ -23977,7 +23973,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>12.33</v>
+        <v>11.89</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24141,7 +24137,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>63.99</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.27</v>
@@ -24173,7 +24169,7 @@
         <v>8002</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>16500</v>
+        <v>17040</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24227,7 +24223,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>61.59</v>
+        <v>63.55</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.6</v>
@@ -24259,7 +24255,7 @@
         <v>24022</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>1947</v>
+        <v>2021</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24467,7 +24463,7 @@
       </c>
       <c r="D287" s="13" t="n"/>
       <c r="E287" s="39" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.413</v>
@@ -24545,7 +24541,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>82.54000000000001</v>
+        <v>82.67</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24623,7 +24619,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>69.8</v>
+        <v>70.5</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.7</v>
@@ -24655,7 +24651,7 @@
         <v>3282</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -24709,7 +24705,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>22.25</v>
+        <v>22.2</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.1114</v>
@@ -25015,7 +25011,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>82.65000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1</v>
@@ -25093,7 +25089,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>50</v>
+        <v>49.99</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25125,7 +25121,7 @@
         <v>464</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11105</v>
+        <v>11106</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25179,7 +25175,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>1798.78</v>
+        <v>1749.3</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>17.3429</v>
@@ -25211,7 +25207,7 @@
         <v>3967</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1607</v>
+        <v>1660</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>232</v>
@@ -25347,7 +25343,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>98</v>
+        <v>91.61</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25379,7 +25375,7 @@
         <v>1008</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25587,7 +25583,7 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>91</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="F301" s="39" t="n">
         <v>0.61</v>
@@ -25619,7 +25615,7 @@
         <v>97542</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>10100</v>
+        <v>10109</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25673,7 +25669,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>42.21</v>
+        <v>42.16</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.42</v>
@@ -25705,7 +25701,7 @@
         <v>23900</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2505</v>
+        <v>2510</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25759,7 +25755,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>73.53</v>
+        <v>74.59</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.85</v>
@@ -26069,7 +26065,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26147,7 +26143,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>120.84</v>
+        <v>119.95</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26179,7 +26175,7 @@
         <v>12744</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2588</v>
+        <v>2601</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26233,7 +26229,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>48.13</v>
+        <v>49.81</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.49</v>
@@ -26397,7 +26393,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>81.23999999999999</v>
+        <v>80.84</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.05</v>
@@ -26475,7 +26471,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>92.29000000000001</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26553,7 +26549,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>64.05</v>
+        <v>68.75</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.46</v>
@@ -26663,7 +26659,7 @@
         <v>187</v>
       </c>
       <c r="O314" s="13" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P314" s="13" t="n">
         <v>34</v>
@@ -26713,7 +26709,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>428.34</v>
+        <v>430</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26741,7 +26737,7 @@
         <v>3635</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>2282</v>
+        <v>2364</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>712</v>
@@ -26769,7 +26765,7 @@
       </c>
       <c r="V315" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430572</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447799</t>
         </is>
       </c>
     </row>
@@ -26795,7 +26791,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>33.6</v>
+        <v>33.98</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.32</v>
@@ -26827,7 +26823,7 @@
         <v>9497</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2254</v>
+        <v>2274</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>393</v>
@@ -26881,7 +26877,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>67.06</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -27033,7 +27029,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>70.52</v>
+        <v>72.3</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.58</v>
@@ -27065,7 +27061,7 @@
         <v>10720</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1585</v>
+        <v>1567</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27122,7 +27118,7 @@
         <v>94794.81</v>
       </c>
       <c r="F320" s="39" t="n">
-        <v>3559.2705</v>
+        <v>2002.0897</v>
       </c>
       <c r="G320" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -27197,7 +27193,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>44.4</v>
+        <v>45.98</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27229,7 +27225,7 @@
         <v>92280</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>7746</v>
+        <v>8053</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>907</v>
@@ -27283,10 +27279,10 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>87.88</v>
+        <v>86.91</v>
       </c>
       <c r="F322" s="39" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G322" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -27361,7 +27357,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>51</v>
+        <v>52.02</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.4</v>
@@ -27393,7 +27389,7 @@
         <v>1227</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>7894</v>
+        <v>8435</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27523,7 +27519,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>83.29000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.05</v>
@@ -27601,10 +27597,10 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>92.29000000000001</v>
+        <v>93.45</v>
       </c>
       <c r="F326" s="39" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="G326" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -27757,7 +27753,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>91.36</v>
+        <v>91.58</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>0.95</v>
@@ -27789,10 +27785,10 @@
         <v>45897</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>7883</v>
+        <v>7853</v>
       </c>
       <c r="P328" s="13" t="n">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="Q328" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -27843,7 +27839,7 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>8.84</v>
+        <v>8.73</v>
       </c>
       <c r="F329" s="39" t="n">
         <v>0.01</v>
@@ -27921,7 +27917,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -28079,7 +28075,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>110</v>
+        <v>111.05</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.74</v>
@@ -28111,7 +28107,7 @@
         <v>29967</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>9886</v>
+        <v>10071</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28243,7 +28239,7 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>23.6</v>
+        <v>23.46</v>
       </c>
       <c r="F334" s="39" t="n">
         <v>0.39</v>
@@ -28397,7 +28393,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>77.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>1.2563</v>
@@ -28475,7 +28471,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>50.7</v>
+        <v>50.91</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.54</v>
@@ -28507,7 +28503,7 @@
         <v>75612</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5565</v>
+        <v>5589</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28557,7 +28553,7 @@
       </c>
       <c r="D338" s="13" t="n"/>
       <c r="E338" s="39" t="n">
-        <v>67.09</v>
+        <v>64.25</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.7</v>
@@ -28609,7 +28605,7 @@
       </c>
       <c r="V338" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429309</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=446559</t>
         </is>
       </c>
     </row>
@@ -28713,7 +28709,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>48.55</v>
+        <v>48.4</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -28745,7 +28741,7 @@
         <v>7506</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28799,7 +28795,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>65.7</v>
+        <v>68.45</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.7</v>
@@ -28873,7 +28869,7 @@
       </c>
       <c r="D342" s="13" t="n"/>
       <c r="E342" s="39" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>0.9</v>
@@ -28951,7 +28947,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -28983,7 +28979,7 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2821</v>
+        <v>2700</v>
       </c>
       <c r="P343" s="13" t="n">
         <v>160</v>
@@ -29037,7 +29033,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>119.08</v>
+        <v>114</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.74</v>
@@ -29115,7 +29111,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>48.32</v>
+        <v>48.51</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29147,7 +29143,7 @@
         <v>11649</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29175,7 +29171,7 @@
       </c>
       <c r="V345" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430552</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447805</t>
         </is>
       </c>
     </row>
@@ -29225,7 +29221,7 @@
         <v>75</v>
       </c>
       <c r="O346" s="13" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P346" s="13" t="n">
         <v>0</v>
@@ -29275,7 +29271,7 @@
       </c>
       <c r="D347" s="13" t="n"/>
       <c r="E347" s="39" t="n">
-        <v>96.38</v>
+        <v>96.16</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.25</v>
@@ -29353,7 +29349,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>78.45</v>
+        <v>78.63</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>1</v>
@@ -29509,7 +29505,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>72</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29587,7 +29583,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>86.58</v>
+        <v>88.98</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.2</v>
@@ -29665,7 +29661,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>84.67</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -29909,7 +29905,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>82.73999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.03</v>
@@ -29961,7 +29957,7 @@
       </c>
       <c r="V355" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429457</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447989</t>
         </is>
       </c>
     </row>
@@ -30019,7 +30015,7 @@
         <v>50</v>
       </c>
       <c r="O356" s="13" t="n">
-        <v>4720</v>
+        <v>4723</v>
       </c>
       <c r="P356" s="13" t="n">
         <v>0</v>
@@ -30149,7 +30145,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>56.83</v>
+        <v>57.24</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.62</v>
@@ -30181,7 +30177,7 @@
         <v>37996</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2336</v>
+        <v>2326</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30311,7 +30307,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>4.94</v>
+        <v>4.9</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.033</v>
@@ -30397,7 +30393,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>88.56999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.83</v>
@@ -30429,7 +30425,7 @@
         <v>64841</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1588</v>
+        <v>1622</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30557,7 +30553,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>59.86</v>
+        <v>60.15</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6904</v>
@@ -30567,7 +30563,7 @@
         <v/>
       </c>
       <c r="H363" s="39" t="n">
-        <v>8.698600000000001</v>
+        <v>8.0082</v>
       </c>
       <c r="I363" s="39" t="n">
         <v>93.39</v>
@@ -30589,7 +30585,7 @@
         <v>4927</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>338</v>
@@ -30833,7 +30829,7 @@
         <v>3</v>
       </c>
       <c r="O366" s="13" t="n">
-        <v>13433</v>
+        <v>13440</v>
       </c>
       <c r="P366" s="13" t="n">
         <v>1160</v>
@@ -30921,7 +30917,7 @@
         <v>29</v>
       </c>
       <c r="O367" s="13" t="n">
-        <v>3846</v>
+        <v>3806</v>
       </c>
       <c r="P367" s="13" t="n">
         <v>221</v>
@@ -30975,7 +30971,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>654.96</v>
+        <v>631.1</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.4</v>
@@ -31007,7 +31003,7 @@
         <v>2548</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>11535</v>
+        <v>11218</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1039</v>
@@ -31141,7 +31137,7 @@
         <v/>
       </c>
       <c r="H370" s="39" t="n">
-        <v>5.318</v>
+        <v>6.4167</v>
       </c>
       <c r="I370" s="39" t="n">
         <v>98.95999999999999</v>
@@ -31285,7 +31281,7 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>92.48</v>
+        <v>91.98</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1</v>
@@ -31439,7 +31435,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -31541,7 +31537,7 @@
         <v>52</v>
       </c>
       <c r="O375" s="13" t="n">
-        <v>8828</v>
+        <v>8796</v>
       </c>
       <c r="P375" s="13" t="n">
         <v>1205</v>
@@ -31747,7 +31743,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>38.76</v>
+        <v>39.02</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31779,7 +31775,7 @@
         <v>31286</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4821</v>
+        <v>4884</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -31911,7 +31907,7 @@
       </c>
       <c r="D380" s="13" t="n"/>
       <c r="E380" s="39" t="n">
-        <v>81.75</v>
+        <v>82</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>1</v>
@@ -32541,7 +32537,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>71.17</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.51</v>
@@ -32573,7 +32569,7 @@
         <v>10160</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>9327</v>
+        <v>9333</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>392</v>
@@ -32705,7 +32701,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>108.99</v>
+        <v>109.88</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.34</v>
@@ -32737,7 +32733,7 @@
         <v>102504</v>
       </c>
       <c r="O390" s="13" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P390" s="13" t="n">
         <v>2</v>
@@ -32879,7 +32875,7 @@
         <v/>
       </c>
       <c r="H392" s="39" t="n">
-        <v>29.22</v>
+        <v>29.49</v>
       </c>
       <c r="I392" s="39" t="n">
         <v>267.12</v>
@@ -32951,7 +32947,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -33225,7 +33221,7 @@
         <v>715</v>
       </c>
       <c r="O396" s="13" t="n">
-        <v>6238</v>
+        <v>6239</v>
       </c>
       <c r="P396" s="13" t="n">
         <v>546</v>
@@ -33279,7 +33275,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.92</v>
@@ -33311,7 +33307,7 @@
         <v>195</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>3556</v>
+        <v>3383</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>457</v>
@@ -33365,7 +33361,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>103.1</v>
+        <v>103.96</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.85</v>
@@ -33397,7 +33393,7 @@
         <v>89314</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3473</v>
+        <v>3505</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33503,7 +33499,7 @@
       </c>
       <c r="V399" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431330</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=446457</t>
         </is>
       </c>
     </row>
@@ -33683,7 +33679,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>91.34999999999999</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.33</v>
@@ -33761,7 +33757,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>86.3</v>
+        <v>86.84</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>1.2</v>
@@ -33839,7 +33835,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.11</v>
@@ -33917,7 +33913,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -33945,7 +33941,7 @@
         <v>3167</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2360</v>
+        <v>2380</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>125</v>
@@ -34161,7 +34157,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>8.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.1</v>
@@ -34239,7 +34235,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>80.15000000000001</v>
+        <v>81</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>0.87</v>
@@ -34317,7 +34313,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.33</v>
+        <v>9.4</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.12</v>
@@ -34471,7 +34467,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.76</v>
+        <v>6.85</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34549,7 +34545,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>90.63</v>
+        <v>93.39</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.65</v>
@@ -34581,7 +34577,7 @@
         <v>156636</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2319</v>
+        <v>2375</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34635,7 +34631,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>42.25</v>
+        <v>42.9</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.31</v>
@@ -34667,7 +34663,7 @@
         <v>122986</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>10740</v>
+        <v>11021</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34721,7 +34717,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>106.96</v>
+        <v>107</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.82</v>
@@ -34807,7 +34803,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>6.64</v>
+        <v>6.9</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34839,7 +34835,7 @@
         <v>14999</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2552</v>
+        <v>2653</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -35123,7 +35119,7 @@
         </is>
       </c>
       <c r="E420" s="39" t="n">
-        <v>93</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="F420" s="39" t="n">
         <v>0.1</v>
@@ -35155,7 +35151,7 @@
         <v>3144</v>
       </c>
       <c r="O420" s="13" t="n">
-        <v>13151</v>
+        <v>0</v>
       </c>
       <c r="P420" s="13" t="n">
         <v>1340</v>
@@ -35209,7 +35205,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>80.15000000000001</v>
+        <v>82.58</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>1.16</v>
@@ -35369,7 +35365,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>82.77</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.95</v>
@@ -35421,7 +35417,7 @@
       </c>
       <c r="V423" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=427462</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=446964</t>
         </is>
       </c>
     </row>
@@ -35525,7 +35521,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>62.71</v>
+        <v>63.55</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -35557,7 +35553,7 @@
         <v>2783</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1721</v>
+        <v>1736</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35611,7 +35607,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>4.84</v>
+        <v>4.47</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.03</v>
@@ -35689,7 +35685,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>92.98</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -35721,7 +35717,7 @@
         <v>6235</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36159,7 +36155,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>9.279999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36397,7 +36393,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.32</v>
+        <v>8.33</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.1</v>
@@ -36449,7 +36445,7 @@
       </c>
       <c r="V436" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=428893</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447633</t>
         </is>
       </c>
     </row>
@@ -36475,7 +36471,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>65.01000000000001</v>
+        <v>66.69</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.45</v>
@@ -36507,7 +36503,7 @@
         <v>1806</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1756</v>
+        <v>1705</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>155</v>
@@ -36557,7 +36553,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>91</v>
+        <v>91.03</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>0.92</v>
@@ -36570,7 +36566,7 @@
         <v>7.99</v>
       </c>
       <c r="I438" s="39" t="n">
-        <v>100.87</v>
+        <v>101.33</v>
       </c>
       <c r="J438" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -36579,7 +36575,7 @@
       <c r="K438" s="14" t="n"/>
       <c r="L438" s="14" t="n"/>
       <c r="M438" s="13" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="N438" s="13" t="n">
         <v>8</v>
@@ -36635,7 +36631,7 @@
         </is>
       </c>
       <c r="E439" s="39" t="n">
-        <v>34.89</v>
+        <v>34.9</v>
       </c>
       <c r="F439" s="39" t="n">
         <v>0.23</v>
@@ -36667,7 +36663,7 @@
         <v>201</v>
       </c>
       <c r="O439" s="13" t="n">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="P439" s="13" t="n">
         <v>119</v>
@@ -36849,7 +36845,7 @@
       </c>
       <c r="V441" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432173</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447870</t>
         </is>
       </c>
     </row>
@@ -36875,7 +36871,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>12.54</v>
+        <v>13.5</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.1</v>
@@ -36907,7 +36903,7 @@
         <v>26823</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1375</v>
+        <v>1421</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -36961,7 +36957,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>105.6</v>
+        <v>109.89</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.1</v>
@@ -36993,7 +36989,7 @@
         <v>1327</v>
       </c>
       <c r="O443" s="13" t="n">
-        <v>19721</v>
+        <v>20522</v>
       </c>
       <c r="P443" s="13" t="n">
         <v>1029</v>
@@ -37043,7 +37039,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>26.03</v>
+        <v>26.04</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37073,7 +37069,7 @@
         <v>1327</v>
       </c>
       <c r="O444" s="13" t="n">
-        <v>4859</v>
+        <v>4863</v>
       </c>
       <c r="P444" s="13" t="n">
         <v>1029</v>
@@ -37127,7 +37123,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>69.69</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37159,7 +37155,7 @@
         <v>44997</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1966</v>
+        <v>1947</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37213,7 +37209,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>96.70999999999999</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37245,7 +37241,7 @@
         <v>306888</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>2042</v>
+        <v>2067</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37299,7 +37295,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>99.41</v>
+        <v>99.62</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.78</v>
@@ -37312,7 +37308,7 @@
         <v>9</v>
       </c>
       <c r="I447" s="39" t="n">
-        <v>99.14</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J447" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -37325,13 +37321,13 @@
         <v>-0.008</v>
       </c>
       <c r="M447" s="13" t="n">
-        <v>5.57</v>
+        <v>3.41</v>
       </c>
       <c r="N447" s="13" t="n">
-        <v>304996</v>
+        <v>308245</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>5088</v>
+        <v>4889</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37385,7 +37381,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>24.04</v>
+        <v>23.49</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.1</v>
@@ -37417,7 +37413,7 @@
         <v>65320</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>2453</v>
+        <v>2558</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>426</v>
@@ -37471,7 +37467,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>6.86</v>
+        <v>7.03</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.076</v>
@@ -37651,7 +37647,7 @@
         <v>172</v>
       </c>
       <c r="O451" s="13" t="n">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="P451" s="13" t="n">
         <v>80</v>
@@ -37701,7 +37697,7 @@
       </c>
       <c r="D452" s="13" t="n"/>
       <c r="E452" s="39" t="n">
-        <v>1016.7</v>
+        <v>1017.01</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -37829,7 +37825,7 @@
       </c>
       <c r="V453" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=428999</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447902</t>
         </is>
       </c>
     </row>
@@ -37851,7 +37847,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>79.95999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>1.2</v>
@@ -38003,7 +37999,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>95.06999999999999</v>
+        <v>94.91</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.35</v>
@@ -38057,7 +38053,7 @@
       </c>
       <c r="V456" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433621</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447840</t>
         </is>
       </c>
     </row>
@@ -38079,7 +38075,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>8.73</v>
+        <v>8.74</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38155,7 +38151,7 @@
       </c>
       <c r="D458" s="13" t="n"/>
       <c r="E458" s="39" t="n">
-        <v>100.14</v>
+        <v>100.1</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>1.54</v>
@@ -38307,7 +38303,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>9.67</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.14</v>
@@ -38383,7 +38379,7 @@
       </c>
       <c r="D461" s="13" t="n"/>
       <c r="E461" s="39" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F461" s="39" t="inlineStr">
         <is>
@@ -38461,7 +38457,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>91.5</v>
+        <v>91.39</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.27</v>
@@ -38537,7 +38533,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>37.99</v>
+        <v>38.47</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.51</v>
@@ -38613,7 +38609,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>96.09</v>
+        <v>96.7</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.4</v>
@@ -38689,7 +38685,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>105.4</v>
+        <v>104.02</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.4</v>
@@ -38765,7 +38761,7 @@
       </c>
       <c r="D466" s="13" t="n"/>
       <c r="E466" s="39" t="n">
-        <v>106.7</v>
+        <v>106.68</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.68</v>
@@ -38819,7 +38815,7 @@
       </c>
       <c r="V466" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431438</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=447552</t>
         </is>
       </c>
     </row>
@@ -38917,7 +38913,7 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>10.5</v>
+        <v>10.29</v>
       </c>
       <c r="F468" s="39" t="n">
         <v>0.15</v>
@@ -38927,11 +38923,11 @@
         <v/>
       </c>
       <c r="H468" s="39" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="I468" s="39" t="inlineStr">
         <is>
-          <t>95,22</t>
+          <t>10,60</t>
         </is>
       </c>
       <c r="J468" s="41">
@@ -38993,7 +38989,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.15</v>
@@ -39069,7 +39065,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>87</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.12</v>
@@ -39145,7 +39141,7 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.21</v>
+        <v>10.26</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.09</v>
@@ -39221,7 +39217,7 @@
       </c>
       <c r="D472" s="13" t="n"/>
       <c r="E472" s="39" t="n">
-        <v>8.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.11</v>
@@ -39297,7 +39293,7 @@
       </c>
       <c r="D473" s="13" t="n"/>
       <c r="E473" s="39" t="n">
-        <v>100.49</v>
+        <v>100.5</v>
       </c>
       <c r="F473" s="39" t="n">
         <v>1.06</v>
@@ -39377,7 +39373,7 @@
       </c>
       <c r="D474" s="13" t="n"/>
       <c r="E474" s="39" t="n">
-        <v>100.69</v>
+        <v>100.95</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.5</v>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1629,7 +1629,7 @@
         <v>18769</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4107</v>
+        <v>4190</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1949,7 +1949,7 @@
         <v>12545</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12290</v>
+        <v>12225</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -2035,7 +2035,7 @@
         <v>2490</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>1938</v>
+        <v>1899</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>172</v>
@@ -2271,7 +2271,7 @@
         <v>118972</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3600</v>
+        <v>3626</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2443,7 +2443,7 @@
         <v>6480</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>12658</v>
+        <v>12951</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D18" s="13" t="n"/>
       <c r="E18" s="39" t="n">
-        <v>56.1</v>
+        <v>58</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2897,7 +2897,7 @@
         <v>349</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>5532</v>
+        <v>5483</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -3379,7 +3379,7 @@
         <v>8144</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3621,7 +3621,7 @@
         <v>74353</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3546</v>
+        <v>3538</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3707,7 +3707,7 @@
         <v>9286</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9207</v>
+        <v>9245</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -4175,7 +4175,7 @@
         <v>7061</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>12481</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4985,7 +4985,7 @@
         <v>1432</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>12938</v>
+        <v>12936</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5071,7 +5071,7 @@
         <v>4053</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7177</v>
+        <v>7175</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1281</v>
@@ -5309,7 +5309,7 @@
         <v>1574</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3408631</v>
+        <v>3463393</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5395,7 +5395,7 @@
         <v>176</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>5381</v>
+        <v>5346</v>
       </c>
       <c r="P49" s="13" t="n">
         <v>639</v>
@@ -5481,7 +5481,7 @@
         <v>112035</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3273</v>
+        <v>3345</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5567,7 +5567,7 @@
         <v>156531</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9788</v>
+        <v>9862</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5893,7 +5893,7 @@
         <v>259</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>7748</v>
+        <v>7414</v>
       </c>
       <c r="P55" s="13" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>158</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>1.093</v>
+        <v>1.1</v>
       </c>
       <c r="G57" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -6209,7 +6209,7 @@
         <v>43445</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1500</v>
+        <v>1515</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6373,7 +6373,7 @@
         <v>212356</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4041</v>
+        <v>4014</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6437,7 +6437,7 @@
         <v/>
       </c>
       <c r="H62" s="39" t="n">
-        <v>9.955</v>
+        <v>10.805</v>
       </c>
       <c r="I62" s="39" t="n">
         <v>117.41</v>
@@ -6597,7 +6597,7 @@
         <v/>
       </c>
       <c r="H64" s="39" t="n">
-        <v>2.85</v>
+        <v>3.57</v>
       </c>
       <c r="I64" s="39" t="n">
         <v>104.47</v>
@@ -7173,7 +7173,7 @@
         <v>3538</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3010</v>
+        <v>3064</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="D73" s="13" t="n"/>
       <c r="E73" s="39" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F73" s="39" t="n">
         <v>0.4959</v>
@@ -7307,10 +7307,10 @@
         <v/>
       </c>
       <c r="H73" s="39" t="n">
-        <v>11.4152</v>
+        <v>10.8308</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>97.09</v>
+        <v>97.22</v>
       </c>
       <c r="J73" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -7319,7 +7319,7 @@
       <c r="K73" s="14" t="n"/>
       <c r="L73" s="14" t="n"/>
       <c r="M73" s="13" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="N73" s="13" t="n">
         <v>314</v>
@@ -7407,7 +7407,7 @@
         <v>4840</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7477</v>
+        <v>7336</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7643,7 +7643,7 @@
         <v>1189</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>9585</v>
+        <v>9360</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7791,7 +7791,7 @@
         <v/>
       </c>
       <c r="H79" s="39" t="n">
-        <v>1.4025</v>
+        <v>1.3357</v>
       </c>
       <c r="I79" s="39" t="n">
         <v>89.28</v>
@@ -7813,7 +7813,7 @@
         <v>1804</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1254</v>
+        <v>1213</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7948,7 +7948,7 @@
         <v>75.09999999999999</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="G81" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="V82" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429835</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448071</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
         <v>3093</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8347,10 +8347,10 @@
         <v/>
       </c>
       <c r="H86" s="39" t="n">
-        <v>12.8491</v>
+        <v>13.8491</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>97.37</v>
+        <v>96.48</v>
       </c>
       <c r="J86" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -8359,7 +8359,7 @@
       <c r="K86" s="14" t="n"/>
       <c r="L86" s="14" t="n"/>
       <c r="M86" s="13" t="n">
-        <v>5.71</v>
+        <v>5.76</v>
       </c>
       <c r="N86" s="13" t="n">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>11434</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2770</v>
+        <v>2738</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8525,7 +8525,7 @@
         <v>3974</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3262</v>
+        <v>3247</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8685,7 +8685,7 @@
         <v>13297</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>392</v>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="V91" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429827</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448067</t>
         </is>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
         <v>636</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2219</v>
+        <v>2101</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -9468,7 +9468,7 @@
         <v>1199.95</v>
       </c>
       <c r="F100" s="39" t="n">
-        <v>5.12</v>
+        <v>5.511</v>
       </c>
       <c r="G100" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -9497,7 +9497,7 @@
         <v>51</v>
       </c>
       <c r="O100" s="13" t="n">
-        <v>6578</v>
+        <v>4561</v>
       </c>
       <c r="P100" s="13" t="n">
         <v>575</v>
@@ -9575,7 +9575,7 @@
         <v>141</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2756</v>
+        <v>2715</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>154</v>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>62.52</v>
+        <v>62.53</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.7</v>
@@ -9889,7 +9889,7 @@
         <v/>
       </c>
       <c r="H105" s="39" t="n">
-        <v>1.5669</v>
+        <v>1.6969</v>
       </c>
       <c r="I105" s="39" t="n">
         <v>61.26</v>
@@ -9911,7 +9911,7 @@
         <v>5796</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>762.38</v>
       </c>
       <c r="F107" s="39" t="n">
-        <v>0.47</v>
+        <v>6.25</v>
       </c>
       <c r="G107" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -10133,7 +10133,7 @@
         <v/>
       </c>
       <c r="H108" s="39" t="n">
-        <v>7.36</v>
+        <v>6.37</v>
       </c>
       <c r="I108" s="39" t="n">
         <v>9.869999999999999</v>
@@ -10473,7 +10473,7 @@
         <v>2489</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>80</v>
@@ -10551,7 +10551,7 @@
         <v>1073</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>334</v>
@@ -10611,7 +10611,7 @@
         <v/>
       </c>
       <c r="H114" s="39" t="n">
-        <v>6.47</v>
+        <v>6.9</v>
       </c>
       <c r="I114" s="39" t="n">
         <v>101.49</v>
@@ -10711,7 +10711,7 @@
         <v>4770</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2386</v>
+        <v>2391</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>321</v>
@@ -10873,7 +10873,7 @@
         <v>2715</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1293</v>
+        <v>1387</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>3712</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>11738</v>
+        <v>11744</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11347,7 +11347,7 @@
         <v>15291</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2099</v>
+        <v>2087</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11519,7 +11519,7 @@
         <v>7941</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1896</v>
+        <v>1878</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -12009,7 +12009,7 @@
         <v>16519</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9637</v>
+        <v>9633</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12073,7 +12073,7 @@
         <v/>
       </c>
       <c r="H132" s="39" t="n">
-        <v>141.5619</v>
+        <v>131.5619</v>
       </c>
       <c r="I132" s="39" t="n">
         <v>1829.95</v>
@@ -12095,7 +12095,7 @@
         <v>793</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2129</v>
+        <v>2100</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12181,7 +12181,7 @@
         <v>284</v>
       </c>
       <c r="O133" s="13" t="n">
-        <v>1535</v>
+        <v>1505</v>
       </c>
       <c r="P133" s="13" t="n">
         <v>155</v>
@@ -12345,7 +12345,7 @@
         <v>990</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2153</v>
+        <v>2191</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12765,7 +12765,7 @@
         <v>3962</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4518</v>
+        <v>4613</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12851,7 +12851,7 @@
         <v>30801</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4600</v>
+        <v>4628</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="V142" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=437012</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448189</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
         <v>102262</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13667,7 +13667,7 @@
         <v>27116</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10249</v>
+        <v>10132</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="V158" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434489</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448218</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
         <v>230</v>
       </c>
       <c r="F162" s="39" t="n">
-        <v>2.6868</v>
+        <v>2.6846</v>
       </c>
       <c r="G162" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -14545,7 +14545,7 @@
         <v>3100</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8344</v>
+        <v>8340</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="V164" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431747</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448328</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
         <v>90096</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3873</v>
+        <v>3905</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15411,7 +15411,7 @@
         <v>340959</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>224</v>
@@ -15497,7 +15497,7 @@
         <v>10046</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>33904</v>
+        <v>33936</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2562</v>
@@ -15583,7 +15583,7 @@
         <v>138834</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>7089</v>
+        <v>7118</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15745,7 +15745,7 @@
         <v>196152</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4259</v>
+        <v>4319</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15831,7 +15831,7 @@
         <v>4123</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>1702</v>
+        <v>1713</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -15991,7 +15991,7 @@
         <v>7715</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="V180" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430394</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448289</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
         <v>390</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1622</v>
+        <v>1553</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>142</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="V184" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431256</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448293</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
         <v>25101</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2030</v>
+        <v>2056</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16561,7 +16561,7 @@
         <v>150576</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8643</v>
+        <v>8671</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>102.82</v>
+        <v>102.31</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16639,7 +16639,7 @@
         <v>189</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8529</v>
+        <v>8487</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>690</v>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="V189" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=421179</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448381</t>
         </is>
       </c>
     </row>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="D190" s="13" t="n"/>
       <c r="E190" s="39" t="n">
-        <v>67.51000000000001</v>
+        <v>70</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.26</v>
@@ -16803,7 +16803,7 @@
         <v>225</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1291</v>
+        <v>1339</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16889,7 +16889,7 @@
         <v>759</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="D195" s="13" t="n"/>
       <c r="E195" s="39" t="n">
-        <v>48.01</v>
+        <v>49</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.5589</v>
@@ -17186,7 +17186,7 @@
         <v>8.503399999999999</v>
       </c>
       <c r="I195" s="39" t="n">
-        <v>54.16</v>
+        <v>49.12</v>
       </c>
       <c r="J195" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -17195,7 +17195,7 @@
       <c r="K195" s="14" t="n"/>
       <c r="L195" s="14" t="n"/>
       <c r="M195" s="13" t="n">
-        <v>11.9</v>
+        <v>20.12</v>
       </c>
       <c r="N195" s="13" t="n">
         <v>231</v>
@@ -17899,7 +17899,7 @@
         <v>4035</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>6118</v>
+        <v>6762</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -18141,7 +18141,7 @@
         <v>4173</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6744</v>
+        <v>6813</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18301,7 +18301,7 @@
         <v>89641</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11546</v>
+        <v>11602</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18677,7 +18677,7 @@
         <v/>
       </c>
       <c r="H214" s="39" t="n">
-        <v>2.4629</v>
+        <v>5.5164</v>
       </c>
       <c r="I214" s="39" t="n">
         <v>3.69</v>
@@ -19315,7 +19315,7 @@
         <v>246641</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>3989</v>
+        <v>3962</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>346</v>
@@ -19717,7 +19717,7 @@
         <v>425</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>15559</v>
+        <v>15571</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19803,7 +19803,7 @@
         <v>14762</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -20421,7 +20421,7 @@
         <v>4264</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3534</v>
+        <v>3542</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>565</v>
@@ -20507,7 +20507,7 @@
         <v>69305</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2918</v>
+        <v>2909</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20669,7 +20669,7 @@
         <v>112311</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3624</v>
+        <v>3653</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20903,7 +20903,7 @@
         <v>4265</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="V246" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431258</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448528</t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="V248" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431257</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448306</t>
         </is>
       </c>
     </row>
@@ -21609,7 +21609,7 @@
         <v>3188</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>6978</v>
+        <v>6955</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>698</v>
@@ -22287,7 +22287,7 @@
         <v/>
       </c>
       <c r="H260" s="39" t="n">
-        <v>15.05</v>
+        <v>14.65</v>
       </c>
       <c r="I260" s="39" t="n">
         <v>97.22</v>
@@ -22697,7 +22697,7 @@
         <v>808458</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>9923</v>
+        <v>9932</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -23009,7 +23009,7 @@
         <v>3519</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2801</v>
+        <v>2795</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23095,7 +23095,7 @@
         <v>1584</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23259,7 +23259,7 @@
         <v>6572</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8803</v>
+        <v>8922</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23345,7 +23345,7 @@
         <v>2220</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>16212</v>
+        <v>16550</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23513,7 +23513,7 @@
         <v>3106</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>25336</v>
+        <v>25783</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1834</v>
@@ -23833,7 +23833,7 @@
         <v>5102</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>86</v>
@@ -23919,7 +23919,7 @@
         <v>5834</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>152</v>
@@ -24169,7 +24169,7 @@
         <v>8002</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>17040</v>
+        <v>17295</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24255,7 +24255,7 @@
         <v>24022</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24651,7 +24651,7 @@
         <v>3282</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -25063,7 +25063,7 @@
       </c>
       <c r="V294" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=428824</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448177</t>
         </is>
       </c>
     </row>
@@ -25121,7 +25121,7 @@
         <v>464</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11106</v>
+        <v>11104</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25178,7 +25178,7 @@
         <v>1749.3</v>
       </c>
       <c r="F296" s="39" t="n">
-        <v>17.3429</v>
+        <v>25.5967</v>
       </c>
       <c r="G296" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -25207,7 +25207,7 @@
         <v>3967</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1660</v>
+        <v>1616</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>232</v>
@@ -25375,7 +25375,7 @@
         <v>1008</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>1730</v>
+        <v>1618</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25615,7 +25615,7 @@
         <v>97542</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>10109</v>
+        <v>10250</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25701,7 +25701,7 @@
         <v>23900</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25755,7 +25755,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>74.59</v>
+        <v>73.55</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.85</v>
@@ -26175,7 +26175,7 @@
         <v>12744</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2601</v>
+        <v>2581</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26823,7 +26823,7 @@
         <v>9497</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>393</v>
@@ -27061,7 +27061,7 @@
         <v>10720</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1567</v>
+        <v>1595</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27225,7 +27225,7 @@
         <v>92280</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>8053</v>
+        <v>8203</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>907</v>
@@ -27389,7 +27389,7 @@
         <v>1227</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>8435</v>
+        <v>8052</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27785,7 +27785,7 @@
         <v>45897</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>7853</v>
+        <v>7903</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1108</v>
@@ -28107,7 +28107,7 @@
         <v>29967</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>10071</v>
+        <v>9985</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28503,7 +28503,7 @@
         <v>75612</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5589</v>
+        <v>5633</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28741,7 +28741,7 @@
         <v>7506</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="V341" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431326</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448524</t>
         </is>
       </c>
     </row>
@@ -28979,7 +28979,7 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2700</v>
+        <v>2613</v>
       </c>
       <c r="P343" s="13" t="n">
         <v>160</v>
@@ -29143,7 +29143,7 @@
         <v>11649</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="D347" s="13" t="n"/>
       <c r="E347" s="39" t="n">
-        <v>96.16</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.25</v>
@@ -29401,7 +29401,7 @@
       </c>
       <c r="V348" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431532</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448291</t>
         </is>
       </c>
     </row>
@@ -30177,7 +30177,7 @@
         <v>37996</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2326</v>
+        <v>2351</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30339,7 +30339,7 @@
         <v>5159</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4250</v>
+        <v>4216</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>794</v>
@@ -30425,7 +30425,7 @@
         <v>64841</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30585,7 +30585,7 @@
         <v>4927</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2293</v>
+        <v>2300</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>338</v>
@@ -30800,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="F366" s="39" t="n">
-        <v>7.6222</v>
+        <v>7.0414</v>
       </c>
       <c r="G366" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -31003,7 +31003,7 @@
         <v>2548</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>11218</v>
+        <v>11097</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1039</v>
@@ -31775,7 +31775,7 @@
         <v>31286</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4884</v>
+        <v>4895</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -32569,7 +32569,7 @@
         <v>10160</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>9333</v>
+        <v>9289</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>392</v>
@@ -33192,7 +33192,7 @@
         <v>100</v>
       </c>
       <c r="F396" s="39" t="n">
-        <v>0.4724</v>
+        <v>0.4457</v>
       </c>
       <c r="G396" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -33393,7 +33393,7 @@
         <v>89314</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3505</v>
+        <v>3480</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33941,7 +33941,7 @@
         <v>3167</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>125</v>
@@ -34238,7 +34238,7 @@
         <v>81</v>
       </c>
       <c r="F409" s="39" t="n">
-        <v>0.87</v>
+        <v>1.1</v>
       </c>
       <c r="G409" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -34577,7 +34577,7 @@
         <v>156636</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2375</v>
+        <v>2413</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34663,7 +34663,7 @@
         <v>122986</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>11021</v>
+        <v>11008</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34749,7 +34749,7 @@
         <v>240425</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3240</v>
+        <v>3232</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>280</v>
@@ -34835,7 +34835,7 @@
         <v>14999</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2653</v>
+        <v>2684</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -35553,7 +35553,7 @@
         <v>2783</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35717,7 +35717,7 @@
         <v>6235</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36503,7 +36503,7 @@
         <v>1806</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1705</v>
+        <v>1806</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>155</v>
@@ -36663,7 +36663,7 @@
         <v>201</v>
       </c>
       <c r="O439" s="13" t="n">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="P439" s="13" t="n">
         <v>119</v>
@@ -36903,7 +36903,7 @@
         <v>26823</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1421</v>
+        <v>1485</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -37155,7 +37155,7 @@
         <v>44997</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37241,7 +37241,7 @@
         <v>306888</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37327,7 +37327,7 @@
         <v>308245</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>4889</v>
+        <v>4887</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37413,7 +37413,7 @@
         <v>65320</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>2558</v>
+        <v>2520</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>426</v>
@@ -37771,7 +37771,7 @@
       </c>
       <c r="D453" s="13" t="n"/>
       <c r="E453" s="39" t="n">
-        <v>10.86</v>
+        <v>10.76</v>
       </c>
       <c r="F453" s="39" t="n">
         <v>0.16</v>
@@ -37901,7 +37901,7 @@
       </c>
       <c r="V454" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429594</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448155</t>
         </is>
       </c>
     </row>
@@ -38002,7 +38002,7 @@
         <v>94.91</v>
       </c>
       <c r="F456" s="39" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="G456" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -38511,7 +38511,7 @@
       </c>
       <c r="V462" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=435281</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=448569</t>
         </is>
       </c>
     </row>
@@ -38533,7 +38533,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>38.47</v>
+        <v>38.45</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.51</v>
@@ -39452,7 +39452,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="F475" s="39" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G475" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>68.36</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
       <c r="H2" s="39" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="I2" s="39" t="n">
         <v>91.7</v>
@@ -1629,7 +1629,7 @@
         <v>18769</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4208</v>
+        <v>4212</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>92.23999999999999</v>
+        <v>92.45</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1.1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>60.29</v>
+        <v>60.22</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.76</v>
@@ -1927,7 +1927,7 @@
         <v/>
       </c>
       <c r="H6" s="39" t="n">
-        <v>8.92</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>94.25</v>
@@ -1949,7 +1949,7 @@
         <v>12545</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12325</v>
+        <v>12311</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>780</v>
+        <v>778.01</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2035,7 +2035,7 @@
         <v>2490</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>172</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="V7" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=424636</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450852</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>83.98999999999999</v>
+        <v>87.23</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>0.85</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>115.9</v>
+        <v>116.89</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.8158</v>
@@ -2271,7 +2271,7 @@
         <v>118972</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3693</v>
+        <v>3721</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2335,7 +2335,7 @@
         <v/>
       </c>
       <c r="H11" s="39" t="n">
-        <v>155.0101</v>
+        <v>156.9358</v>
       </c>
       <c r="I11" s="39" t="n">
         <v>3442.69</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.65</v>
+        <v>8.5</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2421,7 +2421,7 @@
         <v/>
       </c>
       <c r="H12" s="39" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I12" s="39" t="n">
         <v>9.99</v>
@@ -2443,7 +2443,7 @@
         <v>6480</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13336</v>
+        <v>13105</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.1101</v>
@@ -2805,7 +2805,7 @@
         <v/>
       </c>
       <c r="H17" s="39" t="n">
-        <v>1.4483</v>
+        <v>1.4301</v>
       </c>
       <c r="I17" s="39" t="n">
         <v>8.890000000000001</v>
@@ -2867,9 +2867,9 @@
           <t>Lajes Corporativas</t>
         </is>
       </c>
-      <c r="D18" s="13" t="n"/>
+      <c r="D18" s="13" t="inlineStr"/>
       <c r="E18" s="39" t="n">
-        <v>56.49</v>
+        <v>56.59</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2888,8 +2888,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
+      <c r="K18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M18" s="13" t="n">
         <v>3.58</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>349</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>5341</v>
+        <v>5350</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -3189,7 +3193,7 @@
           <t>Imóveis Comerciais - Outros</t>
         </is>
       </c>
-      <c r="D22" s="13" t="n"/>
+      <c r="D22" s="13" t="inlineStr"/>
       <c r="E22" s="39" t="n">
         <v>0</v>
       </c>
@@ -3210,8 +3214,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
+      <c r="K22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14" t="n">
+        <v>0.035</v>
+      </c>
       <c r="M22" s="13" t="n">
         <v>1.52</v>
       </c>
@@ -3269,7 +3277,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>77.94</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3279,7 +3287,7 @@
         <v/>
       </c>
       <c r="H23" s="39" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="I23" s="39" t="n">
         <v>96.17</v>
@@ -3347,7 +3355,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>1401</v>
+        <v>1427</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>27.0886</v>
@@ -3357,7 +3365,7 @@
         <v/>
       </c>
       <c r="H24" s="39" t="n">
-        <v>318.2739</v>
+        <v>320.5008</v>
       </c>
       <c r="I24" s="39" t="n">
         <v>2172.36</v>
@@ -3379,7 +3387,7 @@
         <v>8144</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>1969</v>
+        <v>1994</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3407,7 +3415,7 @@
       </c>
       <c r="V24" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429066</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450859</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3441,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>63.81</v>
+        <v>64.5</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -3443,7 +3451,7 @@
         <v/>
       </c>
       <c r="H25" s="39" t="n">
-        <v>8.880000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="I25" s="39" t="n">
         <v>75.38</v>
@@ -3521,7 +3529,7 @@
         <v/>
       </c>
       <c r="H26" s="39" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I26" s="39" t="n">
         <v>30.64</v>
@@ -3589,7 +3597,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>86.59999999999999</v>
+        <v>87.45</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3599,7 +3607,7 @@
         <v/>
       </c>
       <c r="H27" s="39" t="n">
-        <v>10.89</v>
+        <v>11.8</v>
       </c>
       <c r="I27" s="39" t="n">
         <v>100.8</v>
@@ -3621,7 +3629,7 @@
         <v>74353</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3514</v>
+        <v>3548</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3675,7 +3683,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>93.45</v>
+        <v>94.27</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3685,7 +3693,7 @@
         <v/>
       </c>
       <c r="H28" s="39" t="n">
-        <v>12.82</v>
+        <v>12.95</v>
       </c>
       <c r="I28" s="39" t="n">
         <v>108.01</v>
@@ -3707,7 +3715,7 @@
         <v>9286</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9232</v>
+        <v>9313</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -3761,7 +3769,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>66.55</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3839,7 +3847,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>84.43000000000001</v>
+        <v>85.09</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.78</v>
@@ -3849,7 +3857,7 @@
         <v/>
       </c>
       <c r="H30" s="39" t="n">
-        <v>9.029999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I30" s="39" t="n">
         <v>96.2</v>
@@ -3917,7 +3925,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>0.86</v>
@@ -3927,7 +3935,7 @@
         <v/>
       </c>
       <c r="H31" s="39" t="n">
-        <v>13.66</v>
+        <v>13.06</v>
       </c>
       <c r="I31" s="39" t="n">
         <v>98.73999999999999</v>
@@ -3989,7 +3997,7 @@
           <t>Fundo de Fundos</t>
         </is>
       </c>
-      <c r="D32" s="13" t="n"/>
+      <c r="D32" s="13" t="inlineStr"/>
       <c r="E32" s="39" t="n">
         <v>998</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v/>
       </c>
       <c r="H32" s="39" t="n">
-        <v>101.966</v>
+        <v>111.966</v>
       </c>
       <c r="I32" s="39" t="n">
         <v>973.11</v>
@@ -4069,7 +4077,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>98.53</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.68</v>
@@ -4079,7 +4087,7 @@
         <v/>
       </c>
       <c r="H33" s="39" t="n">
-        <v>9.85</v>
+        <v>9.75</v>
       </c>
       <c r="I33" s="39" t="n">
         <v>99.45999999999999</v>
@@ -4121,7 +4129,7 @@
       </c>
       <c r="V33" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436546</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452397</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4155,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.09</v>
@@ -4175,7 +4183,7 @@
         <v>7061</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4299,7 +4307,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D36" s="13" t="n"/>
+      <c r="D36" s="13" t="inlineStr"/>
       <c r="E36" s="39" t="n">
         <v>110</v>
       </c>
@@ -4320,8 +4328,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K36" s="14" t="n"/>
-      <c r="L36" s="14" t="n"/>
+      <c r="K36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M36" s="13" t="n">
         <v>4.16</v>
       </c>
@@ -4469,7 +4481,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>71.02</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.9</v>
@@ -4547,7 +4559,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>62.93</v>
+        <v>63.11</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.76</v>
@@ -4579,7 +4591,7 @@
         <v>12481</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4607,7 +4619,7 @@
       </c>
       <c r="V39" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436573</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450908</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4655,7 @@
         <v/>
       </c>
       <c r="H40" s="39" t="n">
-        <v>375.7343</v>
+        <v>428.22</v>
       </c>
       <c r="I40" s="39" t="n">
         <v>33524.07</v>
@@ -4791,7 +4803,7 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D42" s="13" t="n"/>
+      <c r="D42" s="13" t="inlineStr"/>
       <c r="E42" s="39" t="n">
         <v>101</v>
       </c>
@@ -4953,7 +4965,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>100.05</v>
+        <v>102.79</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>0.72</v>
@@ -4985,7 +4997,7 @@
         <v>1432</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>12422</v>
+        <v>12763</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5039,7 +5051,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>116.9</v>
+        <v>117.7</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.464</v>
@@ -5049,7 +5061,7 @@
         <v/>
       </c>
       <c r="H45" s="39" t="n">
-        <v>17.4118</v>
+        <v>17.5278</v>
       </c>
       <c r="I45" s="39" t="n">
         <v>91.59</v>
@@ -5071,7 +5083,7 @@
         <v>4053</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7525</v>
+        <v>7577</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1281</v>
@@ -5125,7 +5137,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>62.15</v>
+        <v>62.2</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5135,7 +5147,7 @@
         <v/>
       </c>
       <c r="H46" s="39" t="n">
-        <v>8.07</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I46" s="39" t="n">
         <v>70.68000000000001</v>
@@ -5197,7 +5209,7 @@
           <t>Misto</t>
         </is>
       </c>
-      <c r="D47" s="13" t="n"/>
+      <c r="D47" s="13" t="inlineStr"/>
       <c r="E47" s="39" t="n">
         <v>0</v>
       </c>
@@ -5218,8 +5230,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K47" s="14" t="n"/>
-      <c r="L47" s="14" t="n"/>
+      <c r="K47" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M47" s="13" t="n">
         <v>3.68</v>
       </c>
@@ -5277,7 +5293,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>60.74</v>
+        <v>57.4</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5309,7 +5325,7 @@
         <v>1574</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3394094</v>
+        <v>3207470</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5363,7 +5379,7 @@
         </is>
       </c>
       <c r="E49" s="39" t="n">
-        <v>91.11</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="F49" s="39" t="n">
         <v>0.9167</v>
@@ -5395,7 +5411,7 @@
         <v>176</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>5329</v>
+        <v>5634</v>
       </c>
       <c r="P49" s="13" t="n">
         <v>639</v>
@@ -5449,7 +5465,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>102.29</v>
+        <v>102.34</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.62</v>
@@ -5459,7 +5475,7 @@
         <v/>
       </c>
       <c r="H50" s="39" t="n">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="I50" s="39" t="n">
         <v>121.31</v>
@@ -5481,7 +5497,7 @@
         <v>112035</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3384</v>
+        <v>3396</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5535,7 +5551,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>54.69</v>
+        <v>55.85</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.46</v>
@@ -5567,7 +5583,7 @@
         <v>156531</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9835</v>
+        <v>10041</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5621,7 +5637,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>96.8</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.64</v>
@@ -5653,7 +5669,7 @@
         <v>249</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>16878</v>
+        <v>16876</v>
       </c>
       <c r="P52" s="13" t="n">
         <v>1417</v>
@@ -5797,7 +5813,7 @@
         <v/>
       </c>
       <c r="H54" s="39" t="n">
-        <v>76.25</v>
+        <v>112.5</v>
       </c>
       <c r="I54" s="39" t="n">
         <v>1127.89</v>
@@ -5863,9 +5879,9 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D55" s="13" t="n"/>
+      <c r="D55" s="13" t="inlineStr"/>
       <c r="E55" s="39" t="n">
-        <v>909</v>
+        <v>1149.99</v>
       </c>
       <c r="F55" s="39" t="n">
         <v>107</v>
@@ -5893,7 +5909,7 @@
         <v>259</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>7414</v>
+        <v>9379</v>
       </c>
       <c r="P55" s="13" t="n">
         <v>0</v>
@@ -6017,7 +6033,7 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D57" s="13" t="n"/>
+      <c r="D57" s="13" t="inlineStr"/>
       <c r="E57" s="39" t="n">
         <v>157</v>
       </c>
@@ -6038,8 +6054,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K57" s="14" t="n"/>
-      <c r="L57" s="14" t="n"/>
+      <c r="K57" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M57" s="13" t="n">
         <v>1.76</v>
       </c>
@@ -6177,7 +6197,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>87.44</v>
+        <v>89.63</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6209,7 +6229,7 @@
         <v>43445</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1446</v>
+        <v>1510</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6237,7 +6257,7 @@
       </c>
       <c r="V59" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436431</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452368</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6361,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>95.06999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6373,7 +6393,7 @@
         <v>212356</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4071</v>
+        <v>4097</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6427,10 +6447,10 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>76.51000000000001</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G62" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -6507,7 +6527,7 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D63" s="13" t="n"/>
+      <c r="D63" s="13" t="inlineStr"/>
       <c r="E63" s="39" t="n">
         <v>101</v>
       </c>
@@ -6519,7 +6539,7 @@
         <v/>
       </c>
       <c r="H63" s="39" t="n">
-        <v>10.16</v>
+        <v>10.25</v>
       </c>
       <c r="I63" s="39" t="n">
         <v>137.69</v>
@@ -6528,8 +6548,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K63" s="14" t="n"/>
-      <c r="L63" s="14" t="n"/>
+      <c r="K63" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M63" s="13" t="n">
         <v>0.78</v>
       </c>
@@ -6585,7 +6609,7 @@
           <t>Misto</t>
         </is>
       </c>
-      <c r="D64" s="13" t="n"/>
+      <c r="D64" s="13" t="inlineStr"/>
       <c r="E64" s="39" t="n">
         <v>0</v>
       </c>
@@ -6606,8 +6630,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K64" s="14" t="n"/>
-      <c r="L64" s="14" t="n"/>
+      <c r="K64" s="14" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L64" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M64" s="13" t="n">
         <v>0.04</v>
       </c>
@@ -6659,7 +6687,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D65" s="13" t="n"/>
+      <c r="D65" s="13" t="inlineStr"/>
       <c r="E65" s="39" t="n">
         <v>107</v>
       </c>
@@ -6671,7 +6699,7 @@
         <v/>
       </c>
       <c r="H65" s="39" t="n">
-        <v>5.8147</v>
+        <v>5.9647</v>
       </c>
       <c r="I65" s="39" t="n">
         <v>112.08</v>
@@ -6680,8 +6708,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K65" s="14" t="n"/>
-      <c r="L65" s="14" t="n"/>
+      <c r="K65" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M65" s="13" t="n">
         <v>1.35</v>
       </c>
@@ -6985,7 +7017,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>104.16</v>
+        <v>105.19</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.44</v>
@@ -6995,7 +7027,7 @@
         <v/>
       </c>
       <c r="H69" s="39" t="n">
-        <v>17.5</v>
+        <v>17.51</v>
       </c>
       <c r="I69" s="39" t="n">
         <v>104.66</v>
@@ -7063,7 +7095,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7141,7 +7173,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>36.09</v>
+        <v>35.86</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7151,7 +7183,7 @@
         <v/>
       </c>
       <c r="H71" s="39" t="n">
-        <v>5.94</v>
+        <v>5.57</v>
       </c>
       <c r="I71" s="39" t="n">
         <v>73.91</v>
@@ -7173,7 +7205,7 @@
         <v>3538</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3072</v>
+        <v>3052</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7221,9 +7253,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D72" s="13" t="n"/>
+      <c r="D72" s="13" t="inlineStr"/>
       <c r="E72" s="39" t="n">
-        <v>95.84</v>
+        <v>101</v>
       </c>
       <c r="F72" s="39" t="n">
         <v>0.85</v>
@@ -7275,7 +7307,7 @@
       </c>
       <c r="V72" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436338</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451864</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7327,12 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D73" s="13" t="n"/>
+      <c r="D73" s="13" t="inlineStr"/>
       <c r="E73" s="39" t="n">
-        <v>83</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>0.4959</v>
+        <v>0.6156</v>
       </c>
       <c r="G73" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7375,7 +7407,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>52.89</v>
+        <v>53.44</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.6516</v>
@@ -7407,7 +7439,7 @@
         <v>4840</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7461</v>
+        <v>7539</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7435,7 +7467,7 @@
       </c>
       <c r="V74" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=428937</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450857</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7487,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D75" s="13" t="n"/>
+      <c r="D75" s="13" t="inlineStr"/>
       <c r="E75" s="39" t="n">
         <v>0</v>
       </c>
@@ -7611,7 +7643,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7643,7 +7675,7 @@
         <v>1189</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>9208</v>
+        <v>9509</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7781,10 +7813,10 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>27.06</v>
+        <v>26.91</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>0.1149</v>
+        <v>0.0785</v>
       </c>
       <c r="G79" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7813,7 +7845,7 @@
         <v>1804</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7867,7 +7899,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>61</v>
+        <v>60.74</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.4</v>
@@ -7945,7 +7977,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>74.98999999999999</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.71</v>
@@ -7997,7 +8029,7 @@
       </c>
       <c r="V81" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434168</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450952</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8055,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>64.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.61</v>
@@ -8177,7 +8209,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>10.68</v>
+        <v>10.82</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8209,7 +8241,7 @@
         <v>3093</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8263,7 +8295,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>86.41</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>1.05</v>
@@ -8335,7 +8367,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D86" s="13" t="n"/>
+      <c r="D86" s="13" t="inlineStr"/>
       <c r="E86" s="39" t="n">
         <v>0</v>
       </c>
@@ -8409,9 +8441,9 @@
           <t>Agências de Bancos</t>
         </is>
       </c>
-      <c r="D87" s="13" t="n"/>
+      <c r="D87" s="13" t="inlineStr"/>
       <c r="E87" s="39" t="n">
-        <v>76.77</v>
+        <v>76.87</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.75</v>
@@ -8424,14 +8456,18 @@
         <v>9.300000000000001</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>114.82</v>
+        <v>114.71</v>
       </c>
       <c r="J87" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K87" s="14" t="n"/>
-      <c r="L87" s="14" t="n"/>
+      <c r="K87" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M87" s="13" t="n">
         <v>0.01</v>
       </c>
@@ -8439,7 +8475,7 @@
         <v>11434</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8493,7 +8529,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>40.13</v>
+        <v>40.83</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4167</v>
@@ -8503,7 +8539,7 @@
         <v/>
       </c>
       <c r="H88" s="39" t="n">
-        <v>4.6846</v>
+        <v>4.7215</v>
       </c>
       <c r="I88" s="39" t="n">
         <v>65.17</v>
@@ -8525,7 +8561,7 @@
         <v>3974</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3271</v>
+        <v>3331</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8573,7 +8609,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D89" s="13" t="n"/>
+      <c r="D89" s="13" t="inlineStr"/>
       <c r="E89" s="39" t="n">
         <v>75</v>
       </c>
@@ -8585,7 +8621,7 @@
         <v/>
       </c>
       <c r="H89" s="39" t="n">
-        <v>9.720000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="I89" s="39" t="n">
         <v>88.34</v>
@@ -8653,7 +8689,7 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>68.97</v>
+        <v>69.95</v>
       </c>
       <c r="F90" s="39" t="n">
         <v>0.7389</v>
@@ -8663,7 +8699,7 @@
         <v/>
       </c>
       <c r="H90" s="39" t="n">
-        <v>8.706799999999999</v>
+        <v>8.717000000000001</v>
       </c>
       <c r="I90" s="39" t="n">
         <v>99.43000000000001</v>
@@ -8685,7 +8721,7 @@
         <v>13297</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2880</v>
+        <v>2948</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>392</v>
@@ -8739,7 +8775,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>61.7</v>
+        <v>63.14</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8817,7 +8853,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>346.99</v>
+        <v>370</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>1.6997</v>
@@ -8827,7 +8863,7 @@
         <v/>
       </c>
       <c r="H92" s="39" t="n">
-        <v>9.303100000000001</v>
+        <v>10.7477</v>
       </c>
       <c r="I92" s="39" t="n">
         <v>466.63</v>
@@ -8849,7 +8885,7 @@
         <v>636</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2216</v>
+        <v>2363</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -8897,9 +8933,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D93" s="13" t="n"/>
+      <c r="D93" s="13" t="inlineStr"/>
       <c r="E93" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1</v>
@@ -8909,7 +8945,7 @@
         <v/>
       </c>
       <c r="H93" s="39" t="n">
-        <v>1.2968</v>
+        <v>1.2618</v>
       </c>
       <c r="I93" s="39" t="n">
         <v>9.609999999999999</v>
@@ -9053,7 +9089,7 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>14.8</v>
+        <v>14.12</v>
       </c>
       <c r="F95" s="39" t="n">
         <v>0.09660000000000001</v>
@@ -9063,7 +9099,7 @@
         <v/>
       </c>
       <c r="H95" s="39" t="n">
-        <v>0.5145999999999999</v>
+        <v>0.5948</v>
       </c>
       <c r="I95" s="39" t="n">
         <v>13.2</v>
@@ -9085,7 +9121,7 @@
         <v>577</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1683</v>
+        <v>1606</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>87</v>
@@ -9139,7 +9175,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>46.4</v>
+        <v>47.7</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>0.7</v>
@@ -9545,9 +9581,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D101" s="13" t="n"/>
+      <c r="D101" s="13" t="inlineStr"/>
       <c r="E101" s="39" t="n">
-        <v>97.98</v>
+        <v>97.5</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.85</v>
@@ -9566,8 +9602,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K101" s="14" t="n"/>
-      <c r="L101" s="14" t="n"/>
+      <c r="K101" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M101" s="13" t="n">
         <v>8.140000000000001</v>
       </c>
@@ -9575,7 +9615,7 @@
         <v>141</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2770</v>
+        <v>2756</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>154</v>
@@ -9793,7 +9833,7 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" s="39" t="n">
         <v>1.7289</v>
@@ -9803,7 +9843,7 @@
         <v/>
       </c>
       <c r="H104" s="39" t="n">
-        <v>20.1902</v>
+        <v>20.3466</v>
       </c>
       <c r="I104" s="39" t="n">
         <v>180.63</v>
@@ -9825,7 +9865,7 @@
         <v>540</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>131799</v>
+        <v>130475</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>14030</v>
@@ -9879,7 +9919,7 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>18.8</v>
+        <v>18.68</v>
       </c>
       <c r="F105" s="39" t="n">
         <v>0.13</v>
@@ -9911,7 +9951,7 @@
         <v>5796</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>2849</v>
+        <v>2831</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -9939,7 +9979,7 @@
       </c>
       <c r="V105" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=424626</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450855</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10091,7 @@
         <v/>
       </c>
       <c r="H107" s="39" t="n">
-        <v>102.86</v>
+        <v>104.13</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>1438.56</v>
@@ -10121,9 +10161,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D108" s="13" t="n"/>
+      <c r="D108" s="13" t="inlineStr"/>
       <c r="E108" s="39" t="n">
-        <v>8.49</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10195,7 +10235,7 @@
           <t>Varejo</t>
         </is>
       </c>
-      <c r="D109" s="13" t="n"/>
+      <c r="D109" s="13" t="inlineStr"/>
       <c r="E109" s="39" t="n">
         <v>76000</v>
       </c>
@@ -10275,7 +10315,7 @@
         </is>
       </c>
       <c r="E110" s="39" t="n">
-        <v>121</v>
+        <v>122.94</v>
       </c>
       <c r="F110" s="39" t="n">
         <v>0.7219</v>
@@ -10307,7 +10347,7 @@
         <v>337</v>
       </c>
       <c r="O110" s="13" t="n">
-        <v>17940</v>
+        <v>18228</v>
       </c>
       <c r="P110" s="13" t="n">
         <v>1033</v>
@@ -10441,7 +10481,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>222.41</v>
+        <v>222.9</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.87</v>
@@ -10451,7 +10491,7 @@
         <v/>
       </c>
       <c r="H112" s="39" t="n">
-        <v>21.92</v>
+        <v>21.96</v>
       </c>
       <c r="I112" s="39" t="n">
         <v>325.08</v>
@@ -10473,7 +10513,7 @@
         <v>2489</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>80</v>
@@ -10521,7 +10561,7 @@
           <t>Misto</t>
         </is>
       </c>
-      <c r="D113" s="13" t="n"/>
+      <c r="D113" s="13" t="inlineStr"/>
       <c r="E113" s="39" t="n">
         <v>93.95</v>
       </c>
@@ -10542,8 +10582,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K113" s="14" t="n"/>
-      <c r="L113" s="14" t="n"/>
+      <c r="K113" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M113" s="13" t="n">
         <v>11.81</v>
       </c>
@@ -10599,12 +10643,12 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D114" s="13" t="n"/>
+      <c r="D114" s="13" t="inlineStr"/>
       <c r="E114" s="39" t="n">
         <v>103.05</v>
       </c>
       <c r="F114" s="39" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G114" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -10653,7 +10697,7 @@
       </c>
       <c r="V114" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433310</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450762</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10723,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>141.99</v>
+        <v>142</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.6219</v>
@@ -10739,7 +10783,7 @@
       </c>
       <c r="V115" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=430265</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450853</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10885,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10873,7 +10917,7 @@
         <v>2715</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1313</v>
+        <v>1328</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -10901,7 +10945,7 @@
       </c>
       <c r="V117" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=428936</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450849</t>
         </is>
       </c>
     </row>
@@ -10927,7 +10971,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>93.7</v>
+        <v>93.69</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.83</v>
@@ -10959,7 +11003,7 @@
         <v>1187</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>22573</v>
+        <v>22571</v>
       </c>
       <c r="P118" s="13" t="n">
         <v>1793</v>
@@ -11095,7 +11139,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>105.5</v>
+        <v>104.7</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -11127,7 +11171,7 @@
         <v>3712</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>11808</v>
+        <v>11719</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11155,7 +11199,7 @@
       </c>
       <c r="V120" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429182</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450861</t>
         </is>
       </c>
     </row>
@@ -11315,7 +11359,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>48.36</v>
+        <v>49.52</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.39</v>
@@ -11325,7 +11369,7 @@
         <v/>
       </c>
       <c r="H123" s="39" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="I123" s="39" t="n">
         <v>76.31999999999999</v>
@@ -11347,7 +11391,7 @@
         <v>15291</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2113</v>
+        <v>2163</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11401,7 +11445,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>461</v>
+        <v>467.09</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.25</v>
@@ -11411,7 +11455,7 @@
         <v/>
       </c>
       <c r="H124" s="39" t="n">
-        <v>41.95</v>
+        <v>41.9</v>
       </c>
       <c r="I124" s="39" t="n">
         <v>460.69</v>
@@ -11433,7 +11477,7 @@
         <v>16934</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11487,7 +11531,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>144.5</v>
+        <v>148</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11497,7 +11541,7 @@
         <v/>
       </c>
       <c r="H125" s="39" t="n">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="I125" s="39" t="n">
         <v>186.54</v>
@@ -11519,7 +11563,7 @@
         <v>7941</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1902</v>
+        <v>1948</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -11583,7 +11627,7 @@
         <v/>
       </c>
       <c r="H126" s="39" t="n">
-        <v>3.5231</v>
+        <v>3.551</v>
       </c>
       <c r="I126" s="39" t="n">
         <v>41.5</v>
@@ -11899,7 +11943,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>94.02</v>
+        <v>94.09</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.2</v>
@@ -11977,7 +12021,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>125</v>
+        <v>124.81</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.85</v>
@@ -12009,7 +12053,7 @@
         <v>16519</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9794</v>
+        <v>9779</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12037,7 +12081,7 @@
       </c>
       <c r="V131" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434767</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452083</t>
         </is>
       </c>
     </row>
@@ -12063,7 +12107,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1583</v>
+        <v>1650</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13</v>
@@ -12073,7 +12117,7 @@
         <v/>
       </c>
       <c r="H132" s="39" t="n">
-        <v>131.5619</v>
+        <v>145.0619</v>
       </c>
       <c r="I132" s="39" t="n">
         <v>1829.95</v>
@@ -12083,10 +12127,10 @@
         <v/>
       </c>
       <c r="K132" s="14" t="n">
-        <v>0.049</v>
+        <v>0.013</v>
       </c>
       <c r="L132" s="14" t="n">
-        <v>0.05</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="M132" s="13" t="n">
         <v>2.55</v>
@@ -12095,7 +12139,7 @@
         <v>793</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2096</v>
+        <v>2185</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12149,7 +12193,7 @@
         </is>
       </c>
       <c r="E133" s="39" t="n">
-        <v>49.22</v>
+        <v>50.99</v>
       </c>
       <c r="F133" s="39" t="n">
         <v>0.31</v>
@@ -12181,7 +12225,7 @@
         <v>284</v>
       </c>
       <c r="O133" s="13" t="n">
-        <v>1481</v>
+        <v>1534</v>
       </c>
       <c r="P133" s="13" t="n">
         <v>155</v>
@@ -12313,7 +12357,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>0.95</v>
@@ -12323,7 +12367,7 @@
         <v/>
       </c>
       <c r="H135" s="39" t="n">
-        <v>18.71</v>
+        <v>18.03</v>
       </c>
       <c r="I135" s="39" t="n">
         <v>377.07</v>
@@ -12345,7 +12389,7 @@
         <v>990</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2176</v>
+        <v>2159</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12479,7 +12523,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D137" s="13" t="n"/>
+      <c r="D137" s="13" t="inlineStr"/>
       <c r="E137" s="39" t="n">
         <v>0</v>
       </c>
@@ -12569,7 +12613,7 @@
         <v/>
       </c>
       <c r="H138" s="39" t="n">
-        <v>222.0555</v>
+        <v>123.7521</v>
       </c>
       <c r="I138" s="39" t="n">
         <v>2875.56</v>
@@ -12733,7 +12777,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>0.82</v>
@@ -12743,7 +12787,7 @@
         <v/>
       </c>
       <c r="H140" s="39" t="n">
-        <v>9.484999999999999</v>
+        <v>9.785</v>
       </c>
       <c r="I140" s="39" t="n">
         <v>192.02</v>
@@ -12765,7 +12809,7 @@
         <v>3962</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4761</v>
+        <v>4810</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12819,7 +12863,7 @@
         </is>
       </c>
       <c r="E141" s="39" t="n">
-        <v>8.42</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F141" s="39" t="n">
         <v>0.082</v>
@@ -12851,7 +12895,7 @@
         <v>30801</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4672</v>
+        <v>4689</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -12905,7 +12949,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>8.359999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -12983,7 +13027,7 @@
         </is>
       </c>
       <c r="E143" s="39" t="n">
-        <v>65.44</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F143" s="39" t="n">
         <v>0.75</v>
@@ -13035,7 +13079,7 @@
       </c>
       <c r="V143" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433891</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452404</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13105,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>88.84</v>
+        <v>89.34</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13113,7 +13157,7 @@
       </c>
       <c r="V144" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=437527</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452408</t>
         </is>
       </c>
     </row>
@@ -13149,7 +13193,7 @@
         <v/>
       </c>
       <c r="H145" s="39" t="n">
-        <v>164.0798</v>
+        <v>164.8898</v>
       </c>
       <c r="I145" s="39" t="n">
         <v>1773.4</v>
@@ -13225,7 +13269,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>110</v>
+        <v>113.75</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>1</v>
@@ -13257,7 +13301,7 @@
         <v>102262</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1135</v>
+        <v>1174</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13473,7 +13517,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>5.36</v>
+        <v>5.51</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13551,7 +13595,7 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D150" s="13" t="n"/>
+      <c r="D150" s="13" t="inlineStr"/>
       <c r="E150" s="39" t="n">
         <v>99</v>
       </c>
@@ -13572,8 +13616,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K150" s="14" t="n"/>
-      <c r="L150" s="14" t="n"/>
+      <c r="K150" s="14" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L150" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M150" s="13" t="n">
         <v>4.17</v>
       </c>
@@ -13635,7 +13683,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>77.95999999999999</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13645,7 +13693,7 @@
         <v/>
       </c>
       <c r="H151" s="39" t="n">
-        <v>9.08</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I151" s="39" t="n">
         <v>94.91</v>
@@ -13667,7 +13715,7 @@
         <v>27116</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10269</v>
+        <v>10649</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -13727,7 +13775,7 @@
         <v/>
       </c>
       <c r="H152" s="39" t="n">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="I152" s="39" t="n">
         <v>108.84</v>
@@ -13955,7 +14003,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>60.8</v>
+        <v>61.2</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.43</v>
@@ -13965,7 +14013,7 @@
         <v/>
       </c>
       <c r="H155" s="39" t="n">
-        <v>6.36</v>
+        <v>6.25</v>
       </c>
       <c r="I155" s="39" t="n">
         <v>88.73</v>
@@ -13987,7 +14035,7 @@
         <v>221</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>14529</v>
+        <v>14624</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1619</v>
@@ -14041,7 +14089,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>85.09</v>
+        <v>84.53</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.25</v>
@@ -14051,7 +14099,7 @@
         <v/>
       </c>
       <c r="H156" s="39" t="n">
-        <v>13.9</v>
+        <v>13.92</v>
       </c>
       <c r="I156" s="39" t="n">
         <v>99.04000000000001</v>
@@ -14113,7 +14161,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D157" s="13" t="n"/>
+      <c r="D157" s="13" t="inlineStr"/>
       <c r="E157" s="39" t="n">
         <v>113.01</v>
       </c>
@@ -14125,7 +14173,7 @@
         <v/>
       </c>
       <c r="H157" s="39" t="n">
-        <v>6.0101</v>
+        <v>5.8454</v>
       </c>
       <c r="I157" s="39" t="n">
         <v>104.11</v>
@@ -14134,8 +14182,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K157" s="14" t="n"/>
-      <c r="L157" s="14" t="n"/>
+      <c r="K157" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M157" s="13" t="n">
         <v>3.87</v>
       </c>
@@ -14197,7 +14249,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>92.75</v>
+        <v>92.97</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6156</v>
@@ -14207,7 +14259,7 @@
         <v/>
       </c>
       <c r="H158" s="39" t="n">
-        <v>7.7305</v>
+        <v>7.6577</v>
       </c>
       <c r="I158" s="39" t="n">
         <v>112.25</v>
@@ -14229,7 +14281,7 @@
         <v>1170</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8526</v>
+        <v>8546</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>834</v>
@@ -14357,9 +14409,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D160" s="13" t="n"/>
+      <c r="D160" s="13" t="inlineStr"/>
       <c r="E160" s="39" t="n">
-        <v>81.39</v>
+        <v>82.95</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14369,7 +14421,7 @@
         <v/>
       </c>
       <c r="H160" s="39" t="n">
-        <v>11.5</v>
+        <v>11.625</v>
       </c>
       <c r="I160" s="39" t="n">
         <v>100.55</v>
@@ -14513,7 +14565,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>228.21</v>
+        <v>230.75</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.6846</v>
@@ -14545,7 +14597,7 @@
         <v>3100</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8232</v>
+        <v>8368</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14573,7 +14625,7 @@
       </c>
       <c r="V162" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429617</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450949</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14731,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>44.46</v>
+        <v>50</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>0.5</v>
@@ -14751,7 +14803,7 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D165" s="13" t="n"/>
+      <c r="D165" s="13" t="inlineStr"/>
       <c r="E165" s="39" t="n">
         <v>105.81</v>
       </c>
@@ -14907,7 +14959,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>67.48</v>
+        <v>66.84</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -14917,7 +14969,7 @@
         <v/>
       </c>
       <c r="H167" s="39" t="n">
-        <v>7.41</v>
+        <v>7.44</v>
       </c>
       <c r="I167" s="39" t="n">
         <v>75.22</v>
@@ -14985,7 +15037,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>196.34</v>
+        <v>197.5</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -14995,7 +15047,7 @@
         <v/>
       </c>
       <c r="H168" s="39" t="n">
-        <v>16.15</v>
+        <v>16.4</v>
       </c>
       <c r="I168" s="39" t="n">
         <v>218.96</v>
@@ -15017,7 +15069,7 @@
         <v>90096</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3886</v>
+        <v>3915</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15071,7 +15123,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>102.06</v>
+        <v>103.19</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15081,7 +15133,7 @@
         <v/>
       </c>
       <c r="H169" s="39" t="n">
-        <v>14.25</v>
+        <v>14.35</v>
       </c>
       <c r="I169" s="39" t="n">
         <v>101.71</v>
@@ -15143,13 +15195,9 @@
           <t>Fundo de Fundos</t>
         </is>
       </c>
-      <c r="D170" s="13" t="inlineStr">
-        <is>
-          <t>Cshg</t>
-        </is>
-      </c>
+      <c r="D170" s="13" t="n"/>
       <c r="E170" s="39" t="n">
-        <v>74</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15159,7 +15207,7 @@
         <v/>
       </c>
       <c r="H170" s="39" t="n">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="I170" s="39" t="n">
         <v>83.44</v>
@@ -15221,9 +15269,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D171" s="13" t="n"/>
+      <c r="D171" s="13" t="inlineStr"/>
       <c r="E171" s="39" t="n">
-        <v>89.45</v>
+        <v>99.39</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>1.03</v>
@@ -15233,7 +15281,7 @@
         <v/>
       </c>
       <c r="H171" s="39" t="n">
-        <v>12.2567</v>
+        <v>11.2667</v>
       </c>
       <c r="I171" s="39" t="n">
         <v>118.56</v>
@@ -15379,7 +15427,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>162</v>
+        <v>162.5</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15411,7 +15459,7 @@
         <v>340959</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3159</v>
+        <v>3168</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>224</v>
@@ -15475,7 +15523,7 @@
         <v/>
       </c>
       <c r="H174" s="39" t="n">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="I174" s="39" t="n">
         <v>299.27</v>
@@ -15551,7 +15599,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>120.5</v>
+        <v>126.51</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15583,7 +15631,7 @@
         <v>138834</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>7227</v>
+        <v>7562</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15631,7 +15679,7 @@
           <t>Imóveis Residenciais</t>
         </is>
       </c>
-      <c r="D176" s="13" t="n"/>
+      <c r="D176" s="13" t="inlineStr"/>
       <c r="E176" s="39" t="n">
         <v>0</v>
       </c>
@@ -15654,8 +15702,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K176" s="14" t="n"/>
-      <c r="L176" s="14" t="n"/>
+      <c r="K176" s="14" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="L176" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M176" s="13" t="n">
         <v>13.57</v>
       </c>
@@ -15713,7 +15765,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>121.75</v>
+        <v>122.89</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.85</v>
@@ -15723,7 +15775,7 @@
         <v/>
       </c>
       <c r="H177" s="39" t="n">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
       <c r="I177" s="39" t="n">
         <v>123.6</v>
@@ -15745,7 +15797,7 @@
         <v>196152</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4381</v>
+        <v>4428</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15793,13 +15845,9 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D178" s="13" t="inlineStr">
-        <is>
-          <t>Hedge Investments</t>
-        </is>
-      </c>
+      <c r="D178" s="13" t="n"/>
       <c r="E178" s="39" t="n">
-        <v>81.8</v>
+        <v>81.5</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15818,12 +15866,8 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K178" s="14" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="L178" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K178" s="14" t="n"/>
+      <c r="L178" s="14" t="n"/>
       <c r="M178" s="13" t="n">
         <v>1.76</v>
       </c>
@@ -15831,7 +15875,7 @@
         <v>4123</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -15963,7 +16007,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>24.96</v>
+        <v>25</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.2</v>
@@ -15973,7 +16017,7 @@
         <v/>
       </c>
       <c r="H180" s="39" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="I180" s="39" t="n">
         <v>89.95</v>
@@ -15991,7 +16035,7 @@
         <v>7715</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16045,7 +16089,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.39</v>
@@ -16055,7 +16099,7 @@
         <v/>
       </c>
       <c r="H181" s="39" t="n">
-        <v>6.0221</v>
+        <v>6.0421</v>
       </c>
       <c r="I181" s="39" t="n">
         <v>93.08</v>
@@ -16123,7 +16167,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>68.01000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.45</v>
@@ -16209,7 +16253,7 @@
         </is>
       </c>
       <c r="E183" s="39" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F183" s="39" t="n">
         <v>6.8</v>
@@ -16287,7 +16331,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>75.11</v>
+        <v>76.52</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.9</v>
@@ -16297,7 +16341,7 @@
         <v/>
       </c>
       <c r="H184" s="39" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I184" s="39" t="n">
         <v>90.12</v>
@@ -16365,7 +16409,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>80.39</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.95</v>
@@ -16375,7 +16419,7 @@
         <v/>
       </c>
       <c r="H185" s="39" t="n">
-        <v>11.8</v>
+        <v>11.75</v>
       </c>
       <c r="I185" s="39" t="n">
         <v>91.02</v>
@@ -16443,7 +16487,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>81.17</v>
+        <v>83.98</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.72</v>
@@ -16453,7 +16497,7 @@
         <v/>
       </c>
       <c r="H186" s="39" t="n">
-        <v>8.24</v>
+        <v>8.34</v>
       </c>
       <c r="I186" s="39" t="n">
         <v>104.46</v>
@@ -16475,7 +16519,7 @@
         <v>25101</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2119</v>
+        <v>2191</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16529,7 +16573,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>84.36</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.74</v>
@@ -16539,7 +16583,7 @@
         <v/>
       </c>
       <c r="H187" s="39" t="n">
-        <v>8.109999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="I187" s="39" t="n">
         <v>95.8</v>
@@ -16561,7 +16605,7 @@
         <v>150576</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8793</v>
+        <v>8924</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16611,7 +16655,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>103</v>
+        <v>102.4</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16621,7 +16665,7 @@
         <v/>
       </c>
       <c r="H188" s="39" t="n">
-        <v>7.35</v>
+        <v>7.42</v>
       </c>
       <c r="I188" s="39" t="n">
         <v>96.33</v>
@@ -16639,7 +16683,7 @@
         <v>189</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8544</v>
+        <v>8494</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>690</v>
@@ -16693,7 +16737,7 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>105.81</v>
+        <v>105</v>
       </c>
       <c r="F189" s="39" t="n">
         <v>0.6324</v>
@@ -16703,7 +16747,7 @@
         <v/>
       </c>
       <c r="H189" s="39" t="n">
-        <v>7.2064</v>
+        <v>9.102399999999999</v>
       </c>
       <c r="I189" s="39" t="n">
         <v>139.02</v>
@@ -16725,7 +16769,7 @@
         <v>25350</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4577</v>
+        <v>4535</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>308</v>
@@ -16773,9 +16817,9 @@
           <t>Hospitalar</t>
         </is>
       </c>
-      <c r="D190" s="13" t="n"/>
+      <c r="D190" s="13" t="inlineStr"/>
       <c r="E190" s="39" t="n">
-        <v>67.53</v>
+        <v>77.48</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.26</v>
@@ -16785,7 +16829,7 @@
         <v/>
       </c>
       <c r="H190" s="39" t="n">
-        <v>7.41</v>
+        <v>7.64</v>
       </c>
       <c r="I190" s="39" t="n">
         <v>101.94</v>
@@ -16803,7 +16847,7 @@
         <v>225</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1292</v>
+        <v>1482</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16857,7 +16901,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>100</v>
+        <v>101.99</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.86</v>
@@ -16867,7 +16911,7 @@
         <v/>
       </c>
       <c r="H191" s="39" t="n">
-        <v>10.97</v>
+        <v>10.95</v>
       </c>
       <c r="I191" s="39" t="n">
         <v>146.51</v>
@@ -16889,7 +16933,7 @@
         <v>759</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1072</v>
+        <v>1094</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -16953,7 +16997,7 @@
         <v/>
       </c>
       <c r="H192" s="39" t="n">
-        <v>87.3395</v>
+        <v>95.4033</v>
       </c>
       <c r="I192" s="39" t="n">
         <v>1110.69</v>
@@ -17019,9 +17063,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D193" s="13" t="n"/>
+      <c r="D193" s="13" t="inlineStr"/>
       <c r="E193" s="39" t="n">
-        <v>69.89</v>
+        <v>73</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>0.8</v>
@@ -17171,9 +17215,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D195" s="13" t="n"/>
+      <c r="D195" s="13" t="inlineStr"/>
       <c r="E195" s="39" t="n">
-        <v>48.81</v>
+        <v>48.89</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.5589</v>
@@ -17183,7 +17227,7 @@
         <v/>
       </c>
       <c r="H195" s="39" t="n">
-        <v>8.503399999999999</v>
+        <v>7.2073</v>
       </c>
       <c r="I195" s="39" t="n">
         <v>49.12</v>
@@ -17251,7 +17295,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>77.51000000000001</v>
+        <v>79</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.9112</v>
@@ -17329,7 +17373,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>86.5</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>1.035</v>
@@ -17407,7 +17451,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>73.97</v>
+        <v>74</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -17417,7 +17461,7 @@
         <v/>
       </c>
       <c r="H198" s="39" t="n">
-        <v>10.67</v>
+        <v>10.5</v>
       </c>
       <c r="I198" s="39" t="n">
         <v>74.67</v>
@@ -17459,7 +17503,7 @@
       </c>
       <c r="V198" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436561</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452378</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17529,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>71.73999999999999</v>
+        <v>71.78</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -17537,7 +17581,7 @@
       </c>
       <c r="V199" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436554</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452371</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17601,7 @@
           <t>Imóveis Comerciais - Outros</t>
         </is>
       </c>
-      <c r="D200" s="13" t="n"/>
+      <c r="D200" s="13" t="inlineStr"/>
       <c r="E200" s="39" t="n">
         <v>100</v>
       </c>
@@ -17578,8 +17622,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K200" s="14" t="n"/>
-      <c r="L200" s="14" t="n"/>
+      <c r="K200" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M200" s="13" t="n">
         <v>0.9</v>
       </c>
@@ -17635,7 +17683,7 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D201" s="13" t="n"/>
+      <c r="D201" s="13" t="inlineStr"/>
       <c r="E201" s="39" t="n">
         <v>92.01000000000001</v>
       </c>
@@ -17647,7 +17695,7 @@
         <v/>
       </c>
       <c r="H201" s="39" t="n">
-        <v>7.05</v>
+        <v>6.97</v>
       </c>
       <c r="I201" s="39" t="n">
         <v>77.3</v>
@@ -17867,7 +17915,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>63.02</v>
+        <v>64.94</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.63</v>
@@ -17899,7 +17947,7 @@
         <v>4035</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>6359</v>
+        <v>6553</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -17953,7 +18001,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>94.48999999999999</v>
+        <v>94</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.4</v>
@@ -17963,7 +18011,7 @@
         <v/>
       </c>
       <c r="H205" s="39" t="n">
-        <v>19.32</v>
+        <v>18.92</v>
       </c>
       <c r="I205" s="39" t="n">
         <v>98.41</v>
@@ -18031,7 +18079,7 @@
         </is>
       </c>
       <c r="E206" s="39" t="n">
-        <v>121</v>
+        <v>119.55</v>
       </c>
       <c r="F206" s="39" t="n">
         <v>0.17</v>
@@ -18083,7 +18131,7 @@
       </c>
       <c r="V206" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=408920</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451016</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18157,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>78.7</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>0.59</v>
@@ -18119,7 +18167,7 @@
         <v/>
       </c>
       <c r="H207" s="39" t="n">
-        <v>7.342</v>
+        <v>7.942</v>
       </c>
       <c r="I207" s="39" t="n">
         <v>88.52</v>
@@ -18129,10 +18177,10 @@
         <v/>
       </c>
       <c r="K207" s="14" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="L207" s="14" t="n">
-        <v>0.031</v>
+        <v>0.048</v>
       </c>
       <c r="M207" s="13" t="n">
         <v>0.8</v>
@@ -18141,7 +18189,7 @@
         <v>4173</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6805</v>
+        <v>6813</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18189,9 +18237,9 @@
           <t>Fundo de Fundos</t>
         </is>
       </c>
-      <c r="D208" s="13" t="n"/>
+      <c r="D208" s="13" t="inlineStr"/>
       <c r="E208" s="39" t="n">
-        <v>85.88</v>
+        <v>86.03</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18269,7 +18317,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>67.84999999999999</v>
+        <v>67.33</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.46</v>
@@ -18279,7 +18327,7 @@
         <v/>
       </c>
       <c r="H209" s="39" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="I209" s="39" t="n">
         <v>112.7</v>
@@ -18301,7 +18349,7 @@
         <v>89641</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11937</v>
+        <v>11836</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18433,7 +18481,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>91.53</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>1.35</v>
@@ -18443,7 +18491,7 @@
         <v/>
       </c>
       <c r="H211" s="39" t="n">
-        <v>11.46</v>
+        <v>11.42</v>
       </c>
       <c r="I211" s="39" t="n">
         <v>99.28</v>
@@ -18511,7 +18559,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>1049</v>
+        <v>999.98</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>3.0467</v>
@@ -18521,7 +18569,7 @@
         <v/>
       </c>
       <c r="H212" s="39" t="n">
-        <v>12.3357</v>
+        <v>6.8517</v>
       </c>
       <c r="I212" s="39" t="n">
         <v>940</v>
@@ -18589,7 +18637,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>77.38</v>
+        <v>78.7</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18599,7 +18647,7 @@
         <v/>
       </c>
       <c r="H213" s="39" t="n">
-        <v>8.5</v>
+        <v>8.57</v>
       </c>
       <c r="I213" s="39" t="n">
         <v>86.51000000000001</v>
@@ -18670,14 +18718,14 @@
         <v>9.82</v>
       </c>
       <c r="F214" s="39" t="n">
-        <v>0.1959</v>
+        <v>2.8952</v>
       </c>
       <c r="G214" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H214" s="39" t="n">
-        <v>5.5164</v>
+        <v>8.040900000000001</v>
       </c>
       <c r="I214" s="39" t="n">
         <v>3.69</v>
@@ -18745,7 +18793,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>7.75</v>
+        <v>7.87</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -18755,7 +18803,7 @@
         <v/>
       </c>
       <c r="H215" s="39" t="n">
-        <v>0.915</v>
+        <v>0.92</v>
       </c>
       <c r="I215" s="39" t="n">
         <v>8.17</v>
@@ -18817,9 +18865,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D216" s="13" t="n"/>
+      <c r="D216" s="13" t="inlineStr"/>
       <c r="E216" s="39" t="n">
-        <v>81.48999999999999</v>
+        <v>82.13</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.25</v>
@@ -18829,7 +18877,7 @@
         <v/>
       </c>
       <c r="H216" s="39" t="n">
-        <v>15.9</v>
+        <v>16.05</v>
       </c>
       <c r="I216" s="39" t="n">
         <v>96.58</v>
@@ -18897,7 +18945,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>97.14</v>
+        <v>96.98</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.22</v>
@@ -18907,7 +18955,7 @@
         <v/>
       </c>
       <c r="H217" s="39" t="n">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="I217" s="39" t="n">
         <v>100.81</v>
@@ -18975,7 +19023,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>98.25</v>
+        <v>99</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>1.3</v>
@@ -18985,7 +19033,7 @@
         <v/>
       </c>
       <c r="H218" s="39" t="n">
-        <v>12.89</v>
+        <v>12.54</v>
       </c>
       <c r="I218" s="39" t="n">
         <v>100.09</v>
@@ -19053,7 +19101,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>90.7</v>
+        <v>91.62</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>1.05</v>
@@ -19063,7 +19111,7 @@
         <v/>
       </c>
       <c r="H219" s="39" t="n">
-        <v>11.57</v>
+        <v>10.87</v>
       </c>
       <c r="I219" s="39" t="n">
         <v>95.7</v>
@@ -19125,7 +19173,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D220" s="13" t="n"/>
+      <c r="D220" s="13" t="inlineStr"/>
       <c r="E220" s="39" t="n">
         <v>0</v>
       </c>
@@ -19283,7 +19331,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.95</v>
@@ -19293,7 +19341,7 @@
         <v/>
       </c>
       <c r="H222" s="39" t="n">
-        <v>10.88</v>
+        <v>10.99</v>
       </c>
       <c r="I222" s="39" t="n">
         <v>159.97</v>
@@ -19315,7 +19363,7 @@
         <v>246641</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>4033</v>
+        <v>4061</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>346</v>
@@ -19369,7 +19417,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>85.56999999999999</v>
+        <v>85.89</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>1.05</v>
@@ -19379,7 +19427,7 @@
         <v/>
       </c>
       <c r="H223" s="39" t="n">
-        <v>10.86</v>
+        <v>10.67</v>
       </c>
       <c r="I223" s="39" t="n">
         <v>88.63</v>
@@ -19457,7 +19505,7 @@
         <v/>
       </c>
       <c r="H224" s="39" t="n">
-        <v>9.427199999999999</v>
+        <v>9.4472</v>
       </c>
       <c r="I224" s="39" t="n">
         <v>102.05</v>
@@ -19605,7 +19653,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D226" s="13" t="n"/>
+      <c r="D226" s="13" t="inlineStr"/>
       <c r="E226" s="39" t="n">
         <v>0</v>
       </c>
@@ -19685,7 +19733,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>68.5</v>
+        <v>65.75</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19717,7 +19765,7 @@
         <v>425</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>15571</v>
+        <v>14946</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19771,7 +19819,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>74.41</v>
+        <v>75.5</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.6</v>
@@ -19803,7 +19851,7 @@
         <v>14762</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2520</v>
+        <v>2537</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -19831,7 +19879,7 @@
       </c>
       <c r="V228" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436695</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452517</t>
         </is>
       </c>
     </row>
@@ -19851,7 +19899,7 @@
           <t>Imóveis Comerciais - Outros</t>
         </is>
       </c>
-      <c r="D229" s="13" t="n"/>
+      <c r="D229" s="13" t="inlineStr"/>
       <c r="E229" s="39" t="n">
         <v>9.699999999999999</v>
       </c>
@@ -19863,7 +19911,7 @@
         <v/>
       </c>
       <c r="H229" s="39" t="n">
-        <v>1.5403</v>
+        <v>1.6903</v>
       </c>
       <c r="I229" s="39" t="n">
         <v>10.17</v>
@@ -20159,7 +20207,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D233" s="13" t="n"/>
+      <c r="D233" s="13" t="inlineStr"/>
       <c r="E233" s="39" t="n">
         <v>0</v>
       </c>
@@ -20309,7 +20357,7 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D235" s="13" t="n"/>
+      <c r="D235" s="13" t="inlineStr"/>
       <c r="E235" s="39" t="n">
         <v>107.33</v>
       </c>
@@ -20321,7 +20369,7 @@
         <v/>
       </c>
       <c r="H235" s="39" t="n">
-        <v>8.91</v>
+        <v>8.94</v>
       </c>
       <c r="I235" s="39" t="n">
         <v>114.27</v>
@@ -20389,7 +20437,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>73</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.58</v>
@@ -20399,7 +20447,7 @@
         <v/>
       </c>
       <c r="H236" s="39" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="I236" s="39" t="n">
         <v>117.7</v>
@@ -20421,7 +20469,7 @@
         <v>4264</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>565</v>
@@ -20449,7 +20497,7 @@
       </c>
       <c r="V236" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=440785</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452394</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20523,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>101.39</v>
+        <v>102.37</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.75</v>
@@ -20485,7 +20533,7 @@
         <v/>
       </c>
       <c r="H237" s="39" t="n">
-        <v>8.93</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I237" s="39" t="n">
         <v>115.5</v>
@@ -20507,7 +20555,7 @@
         <v>69305</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2967</v>
+        <v>2997</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20637,7 +20685,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>103</v>
+        <v>104.32</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20647,7 +20695,7 @@
         <v/>
       </c>
       <c r="H239" s="39" t="n">
-        <v>9.16</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I239" s="39" t="n">
         <v>120.28</v>
@@ -20669,7 +20717,7 @@
         <v>112311</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3731</v>
+        <v>3779</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20717,9 +20765,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D240" s="13" t="n"/>
+      <c r="D240" s="13" t="inlineStr"/>
       <c r="E240" s="39" t="n">
-        <v>9.35</v>
+        <v>10</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20729,7 +20777,7 @@
         <v/>
       </c>
       <c r="H240" s="39" t="n">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="I240" s="39" t="n">
         <v>9.65</v>
@@ -20791,9 +20839,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D241" s="13" t="n"/>
+      <c r="D241" s="13" t="inlineStr"/>
       <c r="E241" s="39" t="n">
-        <v>75.31999999999999</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="F241" s="39" t="n">
         <v>0.6</v>
@@ -20871,7 +20919,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>63.4</v>
+        <v>65.8</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.7392</v>
@@ -20903,7 +20951,7 @@
         <v>4265</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1194</v>
+        <v>1239</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -20931,7 +20979,7 @@
       </c>
       <c r="V242" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429184</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450951</t>
         </is>
       </c>
     </row>
@@ -20957,7 +21005,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>84.28</v>
+        <v>85</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.95</v>
@@ -21035,7 +21083,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.109999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21107,9 +21155,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D245" s="13" t="n"/>
+      <c r="D245" s="13" t="inlineStr"/>
       <c r="E245" s="39" t="n">
-        <v>109.9</v>
+        <v>108</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21187,7 +21235,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>56.99</v>
+        <v>57.5</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.31</v>
@@ -21259,7 +21307,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D247" s="13" t="n"/>
+      <c r="D247" s="13" t="inlineStr"/>
       <c r="E247" s="39" t="n">
         <v>103.5</v>
       </c>
@@ -21271,7 +21319,7 @@
         <v/>
       </c>
       <c r="H247" s="39" t="n">
-        <v>7.67</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I247" s="39" t="n">
         <v>103.45</v>
@@ -21313,7 +21361,7 @@
       </c>
       <c r="V247" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433488</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452189</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21387,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>89.3</v>
+        <v>90.45</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.11</v>
@@ -21349,7 +21397,7 @@
         <v/>
       </c>
       <c r="H248" s="39" t="n">
-        <v>13.25</v>
+        <v>13.24</v>
       </c>
       <c r="I248" s="39" t="n">
         <v>103.33</v>
@@ -21367,7 +21415,7 @@
         <v>28286</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21421,7 +21469,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>77.8</v>
+        <v>79.62</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.9</v>
@@ -21499,7 +21547,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>57.13</v>
+        <v>57.86</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.54</v>
@@ -21577,7 +21625,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>59.28</v>
+        <v>59</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.8</v>
@@ -21609,7 +21657,7 @@
         <v>3188</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>7013</v>
+        <v>6980</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>698</v>
@@ -21657,7 +21705,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D252" s="13" t="n"/>
+      <c r="D252" s="13" t="inlineStr"/>
       <c r="E252" s="39" t="n">
         <v>101.5</v>
       </c>
@@ -21809,7 +21857,7 @@
       </c>
       <c r="D254" s="13" t="inlineStr">
         <is>
-          <t>Mogno Capital</t>
+          <t>Suno Gestora</t>
         </is>
       </c>
       <c r="E254" s="39" t="n">
@@ -21832,12 +21880,8 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K254" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L254" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K254" s="14" t="n"/>
+      <c r="L254" s="14" t="n"/>
       <c r="M254" s="13" t="n">
         <v>29.08</v>
       </c>
@@ -21889,7 +21933,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D255" s="13" t="n"/>
+      <c r="D255" s="13" t="inlineStr"/>
       <c r="E255" s="39" t="n">
         <v>0</v>
       </c>
@@ -21910,8 +21954,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K255" s="14" t="n"/>
-      <c r="L255" s="14" t="n"/>
+      <c r="K255" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M255" s="13" t="n">
         <v>18.81</v>
       </c>
@@ -22047,7 +22095,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D257" s="13" t="n"/>
+      <c r="D257" s="13" t="inlineStr"/>
       <c r="E257" s="39" t="n">
         <v>0</v>
       </c>
@@ -22275,9 +22323,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D260" s="13" t="n"/>
+      <c r="D260" s="13" t="inlineStr"/>
       <c r="E260" s="39" t="n">
-        <v>86</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="F260" s="39" t="n">
         <v>1.1</v>
@@ -22355,7 +22403,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>60.35</v>
+        <v>61.14</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.6</v>
@@ -22669,7 +22717,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.44</v>
+        <v>10.57</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.12</v>
@@ -22679,7 +22727,7 @@
         <v/>
       </c>
       <c r="H265" s="39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I265" s="39" t="n">
         <v>10.07</v>
@@ -22697,7 +22745,7 @@
         <v>808458</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>9990</v>
+        <v>10104</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22751,7 +22799,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>72.40000000000001</v>
+        <v>74.69</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22825,7 +22873,7 @@
       </c>
       <c r="D267" s="13" t="n"/>
       <c r="E267" s="39" t="n">
-        <v>75.98999999999999</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1.03</v>
@@ -22877,7 +22925,7 @@
       </c>
       <c r="V267" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433912</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451959</t>
         </is>
       </c>
     </row>
@@ -22897,9 +22945,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D268" s="13" t="n"/>
+      <c r="D268" s="13" t="inlineStr"/>
       <c r="E268" s="39" t="n">
-        <v>9.050000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.11</v>
@@ -22977,7 +23025,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>0.93</v>
@@ -22987,7 +23035,7 @@
         <v/>
       </c>
       <c r="H269" s="39" t="n">
-        <v>11.89</v>
+        <v>12.02</v>
       </c>
       <c r="I269" s="39" t="n">
         <v>120.42</v>
@@ -23009,7 +23057,7 @@
         <v>3519</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23063,7 +23111,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>73.48</v>
+        <v>70.02</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.14</v>
@@ -23073,7 +23121,7 @@
         <v/>
       </c>
       <c r="H270" s="39" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="I270" s="39" t="n">
         <v>68.83</v>
@@ -23095,7 +23143,7 @@
         <v>1584</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3945</v>
+        <v>3759</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23227,7 +23275,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>164.12</v>
+        <v>164.21</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5366</v>
@@ -23237,7 +23285,7 @@
         <v/>
       </c>
       <c r="H272" s="39" t="n">
-        <v>12.2063</v>
+        <v>13.7518</v>
       </c>
       <c r="I272" s="39" t="n">
         <v>199.18</v>
@@ -23259,7 +23307,7 @@
         <v>6572</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8821</v>
+        <v>8825</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23287,7 +23335,7 @@
       </c>
       <c r="V272" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429636</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450950</t>
         </is>
       </c>
     </row>
@@ -23313,7 +23361,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>12.44</v>
+        <v>11.2</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0852</v>
@@ -23323,7 +23371,7 @@
         <v/>
       </c>
       <c r="H273" s="39" t="n">
-        <v>0.968</v>
+        <v>0.9702</v>
       </c>
       <c r="I273" s="39" t="n">
         <v>13.97</v>
@@ -23345,7 +23393,7 @@
         <v>2220</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>16806</v>
+        <v>15131</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23645,7 +23693,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23723,7 +23771,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>91.94</v>
+        <v>93.59</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23733,7 +23781,7 @@
         <v/>
       </c>
       <c r="H278" s="39" t="n">
-        <v>15.37</v>
+        <v>15.32</v>
       </c>
       <c r="I278" s="39" t="n">
         <v>99.83</v>
@@ -23801,7 +23849,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>36.69</v>
+        <v>36.7</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23887,7 +23935,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>71.84999999999999</v>
+        <v>72.34</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>1</v>
@@ -23919,7 +23967,7 @@
         <v>5834</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>1756</v>
+        <v>1768</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>152</v>
@@ -23973,7 +24021,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24137,7 +24185,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.27</v>
@@ -24147,7 +24195,7 @@
         <v/>
       </c>
       <c r="H283" s="39" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="I283" s="39" t="n">
         <v>75.94</v>
@@ -24169,7 +24217,7 @@
         <v>8002</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>17298</v>
+        <v>17530</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24223,7 +24271,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>63.81</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.6</v>
@@ -24233,7 +24281,7 @@
         <v/>
       </c>
       <c r="H284" s="39" t="n">
-        <v>7</v>
+        <v>7.02</v>
       </c>
       <c r="I284" s="39" t="n">
         <v>97.98</v>
@@ -24255,7 +24303,7 @@
         <v>24022</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2045</v>
+        <v>2084</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24385,7 +24433,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D286" s="13" t="n"/>
+      <c r="D286" s="13" t="inlineStr"/>
       <c r="E286" s="39" t="n">
         <v>0</v>
       </c>
@@ -24461,9 +24509,9 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D287" s="13" t="n"/>
+      <c r="D287" s="13" t="inlineStr"/>
       <c r="E287" s="39" t="n">
-        <v>29.51</v>
+        <v>31.99</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.413</v>
@@ -24473,7 +24521,7 @@
         <v/>
       </c>
       <c r="H287" s="39" t="n">
-        <v>7.3903</v>
+        <v>7.7293</v>
       </c>
       <c r="I287" s="39" t="n">
         <v>76.31999999999999</v>
@@ -24541,7 +24589,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>82.7</v>
+        <v>83.5</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24551,7 +24599,7 @@
         <v/>
       </c>
       <c r="H288" s="39" t="n">
-        <v>12.95</v>
+        <v>12.85</v>
       </c>
       <c r="I288" s="39" t="n">
         <v>91.68000000000001</v>
@@ -24619,7 +24667,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>70.28</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.7</v>
@@ -24629,7 +24677,7 @@
         <v/>
       </c>
       <c r="H289" s="39" t="n">
-        <v>8.949999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I289" s="39" t="n">
         <v>106.21</v>
@@ -24651,7 +24699,7 @@
         <v>3282</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -24705,7 +24753,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>22.1</v>
+        <v>21.69</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.1114</v>
@@ -24715,7 +24763,7 @@
         <v/>
       </c>
       <c r="H290" s="39" t="n">
-        <v>2.0261</v>
+        <v>1.8875</v>
       </c>
       <c r="I290" s="39" t="n">
         <v>31.46</v>
@@ -24779,7 +24827,7 @@
       </c>
       <c r="D291" s="13" t="n"/>
       <c r="E291" s="39" t="n">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="F291" s="39" t="inlineStr">
         <is>
@@ -25011,7 +25059,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.27</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1</v>
@@ -25021,7 +25069,7 @@
         <v/>
       </c>
       <c r="H294" s="39" t="n">
-        <v>14.28</v>
+        <v>13.87</v>
       </c>
       <c r="I294" s="39" t="n">
         <v>98.11</v>
@@ -25089,7 +25137,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25099,7 +25147,7 @@
         <v/>
       </c>
       <c r="H295" s="39" t="n">
-        <v>5.12</v>
+        <v>5.16</v>
       </c>
       <c r="I295" s="39" t="n">
         <v>57.3</v>
@@ -25121,7 +25169,7 @@
         <v>464</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11106</v>
+        <v>11217</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25175,7 +25223,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>1703.31</v>
+        <v>1728.28</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>25.5967</v>
@@ -25185,7 +25233,7 @@
         <v/>
       </c>
       <c r="H296" s="39" t="n">
-        <v>194.9805</v>
+        <v>196.3895</v>
       </c>
       <c r="I296" s="39" t="n">
         <v>3122.64</v>
@@ -25207,7 +25255,7 @@
         <v>3967</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1574</v>
+        <v>1597</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>232</v>
@@ -25235,7 +25283,7 @@
       </c>
       <c r="V296" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=429181</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450913</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25391,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25375,7 +25423,7 @@
         <v>1008</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>1617</v>
+        <v>1554</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25583,7 +25631,7 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>94.5</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="F301" s="39" t="n">
         <v>0.61</v>
@@ -25593,10 +25641,10 @@
         <v/>
       </c>
       <c r="H301" s="39" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="I301" s="39" t="n">
-        <v>102.2</v>
+        <v>102.18</v>
       </c>
       <c r="J301" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -25612,10 +25660,10 @@
         <v>1.4</v>
       </c>
       <c r="N301" s="13" t="n">
-        <v>97542</v>
+        <v>97544</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>10471</v>
+        <v>10722</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25669,7 +25717,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>42.7</v>
+        <v>43.36</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.42</v>
@@ -25701,7 +25749,7 @@
         <v>23900</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2541</v>
+        <v>2580</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25729,7 +25777,7 @@
       </c>
       <c r="V302" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450431</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451844</t>
         </is>
       </c>
     </row>
@@ -25755,7 +25803,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>74.2</v>
+        <v>74.98</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.85</v>
@@ -25765,7 +25813,7 @@
         <v/>
       </c>
       <c r="H303" s="39" t="n">
-        <v>12.085</v>
+        <v>11.85</v>
       </c>
       <c r="I303" s="39" t="n">
         <v>92.77</v>
@@ -25839,7 +25887,7 @@
         <v/>
       </c>
       <c r="H304" s="39" t="n">
-        <v>3.43</v>
+        <v>2.77</v>
       </c>
       <c r="I304" s="39" t="n">
         <v>89.61</v>
@@ -26143,7 +26191,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>119.99</v>
+        <v>120.05</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26153,7 +26201,7 @@
         <v/>
       </c>
       <c r="H308" s="39" t="n">
-        <v>14.62</v>
+        <v>14.74</v>
       </c>
       <c r="I308" s="39" t="n">
         <v>144.24</v>
@@ -26175,7 +26223,7 @@
         <v>12744</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26229,7 +26277,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>49.85</v>
+        <v>50.48</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.49</v>
@@ -26239,7 +26287,7 @@
         <v/>
       </c>
       <c r="H309" s="39" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="I309" s="39" t="n">
         <v>61.32</v>
@@ -26393,7 +26441,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>81.38</v>
+        <v>82.09</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.05</v>
@@ -26403,7 +26451,7 @@
         <v/>
       </c>
       <c r="H311" s="39" t="n">
-        <v>14.05</v>
+        <v>13.95</v>
       </c>
       <c r="I311" s="39" t="n">
         <v>92.89</v>
@@ -26471,7 +26519,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>91.44</v>
+        <v>91.83</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26481,7 +26529,7 @@
         <v/>
       </c>
       <c r="H312" s="39" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="I312" s="39" t="n">
         <v>94.84</v>
@@ -26549,7 +26597,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>70</v>
+        <v>68.52</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.46</v>
@@ -26559,7 +26607,7 @@
         <v/>
       </c>
       <c r="H313" s="39" t="n">
-        <v>1.1584</v>
+        <v>1.5217</v>
       </c>
       <c r="I313" s="39" t="n">
         <v>94.02</v>
@@ -26687,7 +26735,7 @@
       </c>
       <c r="V314" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436357</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451857</t>
         </is>
       </c>
     </row>
@@ -26709,7 +26757,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>434.5</v>
+        <v>450</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26737,7 +26785,7 @@
         <v>3635</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>2389</v>
+        <v>2474</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>712</v>
@@ -26791,7 +26839,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>34.9</v>
+        <v>34.31</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.32</v>
@@ -26801,7 +26849,7 @@
         <v/>
       </c>
       <c r="H316" s="39" t="n">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="I316" s="39" t="n">
         <v>65.98999999999999</v>
@@ -26823,7 +26871,7 @@
         <v>9497</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2341</v>
+        <v>2301</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>393</v>
@@ -26851,7 +26899,7 @@
       </c>
       <c r="V316" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=435160</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450785</t>
         </is>
       </c>
     </row>
@@ -26877,7 +26925,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>65.75</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -26949,7 +26997,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D318" s="13" t="n"/>
+      <c r="D318" s="13" t="inlineStr"/>
       <c r="E318" s="39" t="n">
         <v>995</v>
       </c>
@@ -27029,7 +27077,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>73.2</v>
+        <v>74.08</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.58</v>
@@ -27061,7 +27109,7 @@
         <v>10720</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1599</v>
+        <v>1634</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27089,7 +27137,7 @@
       </c>
       <c r="V319" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431325</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450918</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27241,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>45.34</v>
+        <v>49.45</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27225,7 +27273,7 @@
         <v>92280</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>8098</v>
+        <v>8822</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>907</v>
@@ -27279,7 +27327,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>88.98</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>1</v>
@@ -27357,7 +27405,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>50.99</v>
+        <v>51.17</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.4</v>
@@ -27367,7 +27415,7 @@
         <v/>
       </c>
       <c r="H323" s="39" t="n">
-        <v>5.35</v>
+        <v>5.31</v>
       </c>
       <c r="I323" s="39" t="n">
         <v>94.19</v>
@@ -27389,7 +27437,7 @@
         <v>1227</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>7892</v>
+        <v>7920</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27519,7 +27567,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>82.58</v>
+        <v>83.2</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.17</v>
@@ -27571,7 +27619,7 @@
       </c>
       <c r="V325" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433983</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450765</t>
         </is>
       </c>
     </row>
@@ -27597,7 +27645,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>92.29000000000001</v>
+        <v>93</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.25</v>
@@ -27685,7 +27733,7 @@
         <v/>
       </c>
       <c r="H327" s="39" t="n">
-        <v>316.5918</v>
+        <v>339.5905</v>
       </c>
       <c r="I327" s="39" t="n">
         <v>889.55</v>
@@ -27753,7 +27801,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>94.04000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>0.95</v>
@@ -27763,7 +27811,7 @@
         <v/>
       </c>
       <c r="H328" s="39" t="n">
-        <v>12.09</v>
+        <v>12.12</v>
       </c>
       <c r="I328" s="39" t="n">
         <v>108.06</v>
@@ -27785,7 +27833,7 @@
         <v>45897</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>8104</v>
+        <v>8137</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1108</v>
@@ -27839,7 +27887,7 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>8.44</v>
+        <v>8.5</v>
       </c>
       <c r="F329" s="39" t="n">
         <v>0.01</v>
@@ -27849,7 +27897,7 @@
         <v/>
       </c>
       <c r="H329" s="39" t="n">
-        <v>0.2776</v>
+        <v>0.2475</v>
       </c>
       <c r="I329" s="39" t="n">
         <v>17.37</v>
@@ -27997,7 +28045,7 @@
         </is>
       </c>
       <c r="E331" s="39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F331" s="39" t="n">
         <v>1.2312</v>
@@ -28075,7 +28123,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>119.61</v>
+        <v>119.92</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.74</v>
@@ -28107,7 +28155,7 @@
         <v>29967</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>10754</v>
+        <v>10783</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28239,17 +28287,17 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>23.65</v>
+        <v>23.5</v>
       </c>
       <c r="F334" s="39" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="G334" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H334" s="39" t="n">
-        <v>5.88</v>
+        <v>5.66</v>
       </c>
       <c r="I334" s="39" t="n">
         <v>25.76</v>
@@ -28393,7 +28441,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>79.03</v>
+        <v>82.84</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>1.2563</v>
@@ -28471,7 +28519,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>50.11</v>
+        <v>51.37</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.54</v>
@@ -28503,7 +28551,7 @@
         <v>75612</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5532</v>
+        <v>5683</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28551,9 +28599,9 @@
           <t>Fundo de Fundos</t>
         </is>
       </c>
-      <c r="D338" s="13" t="n"/>
+      <c r="D338" s="13" t="inlineStr"/>
       <c r="E338" s="39" t="n">
-        <v>61.5</v>
+        <v>62.01</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.7</v>
@@ -28709,7 +28757,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>46.55</v>
+        <v>49.38</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -28741,7 +28789,7 @@
         <v>7506</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>891</v>
+        <v>946</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28795,7 +28843,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>67.54000000000001</v>
+        <v>69.84</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.7</v>
@@ -28805,7 +28853,7 @@
         <v/>
       </c>
       <c r="H341" s="39" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="I341" s="39" t="n">
         <v>75.68000000000001</v>
@@ -28867,9 +28915,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D342" s="13" t="n"/>
+      <c r="D342" s="13" t="inlineStr"/>
       <c r="E342" s="39" t="n">
-        <v>96.5</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>0.9</v>
@@ -28879,7 +28927,7 @@
         <v/>
       </c>
       <c r="H342" s="39" t="n">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="I342" s="39" t="n">
         <v>94.86</v>
@@ -29033,7 +29081,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.74</v>
@@ -29043,7 +29091,7 @@
         <v/>
       </c>
       <c r="H344" s="39" t="n">
-        <v>24.97</v>
+        <v>21.36</v>
       </c>
       <c r="I344" s="39" t="n">
         <v>197.95</v>
@@ -29111,7 +29159,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>50</v>
+        <v>50.85</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29121,7 +29169,7 @@
         <v/>
       </c>
       <c r="H345" s="39" t="n">
-        <v>5.07</v>
+        <v>5.11</v>
       </c>
       <c r="I345" s="39" t="n">
         <v>86.53</v>
@@ -29143,7 +29191,7 @@
         <v>11649</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2443</v>
+        <v>2484</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29191,9 +29239,9 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D346" s="13" t="n"/>
+      <c r="D346" s="13" t="inlineStr"/>
       <c r="E346" s="39" t="n">
-        <v>759.99</v>
+        <v>760</v>
       </c>
       <c r="F346" s="39" t="n">
         <v>6.452</v>
@@ -29212,8 +29260,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K346" s="14" t="n"/>
-      <c r="L346" s="14" t="n"/>
+      <c r="K346" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M346" s="13" t="n">
         <v>7.41</v>
       </c>
@@ -29269,19 +29321,19 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D347" s="13" t="n"/>
+      <c r="D347" s="13" t="inlineStr"/>
       <c r="E347" s="39" t="n">
-        <v>94.98</v>
+        <v>94.37</v>
       </c>
       <c r="F347" s="39" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G347" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H347" s="39" t="n">
-        <v>14.338</v>
+        <v>14.438</v>
       </c>
       <c r="I347" s="39" t="n">
         <v>101.62</v>
@@ -29349,7 +29401,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>78.78</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>1</v>
@@ -29359,7 +29411,7 @@
         <v/>
       </c>
       <c r="H348" s="39" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="I348" s="39" t="n">
         <v>91.51000000000001</v>
@@ -29505,7 +29557,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>73.41</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29583,7 +29635,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>83.62</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.11</v>
@@ -29661,7 +29713,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>84</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -29671,7 +29723,7 @@
         <v/>
       </c>
       <c r="H352" s="39" t="n">
-        <v>13.41</v>
+        <v>13.01</v>
       </c>
       <c r="I352" s="39" t="n">
         <v>95.59999999999999</v>
@@ -29905,7 +29957,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.03</v>
@@ -29915,7 +29967,7 @@
         <v/>
       </c>
       <c r="H355" s="39" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="I355" s="39" t="n">
         <v>97.55</v>
@@ -30145,7 +30197,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>57.75</v>
+        <v>58.93</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.62</v>
@@ -30177,7 +30229,7 @@
         <v>37996</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2379</v>
+        <v>2420</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30307,7 +30359,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>4.93</v>
+        <v>4.94</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.033</v>
@@ -30339,7 +30391,7 @@
         <v>5159</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4259</v>
+        <v>4250</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>794</v>
@@ -30393,7 +30445,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>93.02</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.83</v>
@@ -30403,7 +30455,7 @@
         <v/>
       </c>
       <c r="H361" s="39" t="n">
-        <v>9.51</v>
+        <v>9.58</v>
       </c>
       <c r="I361" s="39" t="n">
         <v>96.93000000000001</v>
@@ -30425,7 +30477,7 @@
         <v>64841</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30473,9 +30525,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D362" s="13" t="n"/>
+      <c r="D362" s="13" t="inlineStr"/>
       <c r="E362" s="39" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F362" s="39" t="n">
         <v>1.44</v>
@@ -30485,7 +30537,7 @@
         <v/>
       </c>
       <c r="H362" s="39" t="n">
-        <v>13.37</v>
+        <v>12.48</v>
       </c>
       <c r="I362" s="39" t="n">
         <v>81.73</v>
@@ -30553,7 +30605,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>59.95</v>
+        <v>59.99</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6904</v>
@@ -30585,7 +30637,7 @@
         <v>4927</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>338</v>
@@ -30715,7 +30767,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D365" s="13" t="n"/>
+      <c r="D365" s="13" t="inlineStr"/>
       <c r="E365" s="39" t="n">
         <v>0</v>
       </c>
@@ -30945,7 +30997,7 @@
       </c>
       <c r="V367" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=404760</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450915</t>
         </is>
       </c>
     </row>
@@ -30971,7 +31023,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.4</v>
@@ -30981,7 +31033,7 @@
         <v/>
       </c>
       <c r="H368" s="39" t="n">
-        <v>42.35</v>
+        <v>43.2</v>
       </c>
       <c r="I368" s="39" t="n">
         <v>895.88</v>
@@ -31003,7 +31055,7 @@
         <v>2548</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>10919</v>
+        <v>10902</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1039</v>
@@ -31051,7 +31103,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D369" s="13" t="n"/>
+      <c r="D369" s="13" t="inlineStr"/>
       <c r="E369" s="39" t="n">
         <v>0</v>
       </c>
@@ -31063,7 +31115,7 @@
         <v/>
       </c>
       <c r="H369" s="39" t="n">
-        <v>6.87</v>
+        <v>7.8</v>
       </c>
       <c r="I369" s="39" t="n">
         <v>94.56</v>
@@ -31125,7 +31177,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D370" s="13" t="n"/>
+      <c r="D370" s="13" t="inlineStr"/>
       <c r="E370" s="39" t="n">
         <v>100.04</v>
       </c>
@@ -31179,7 +31231,7 @@
       </c>
       <c r="V370" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433784</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451862</t>
         </is>
       </c>
     </row>
@@ -31201,7 +31253,7 @@
       </c>
       <c r="D371" s="13" t="n"/>
       <c r="E371" s="39" t="n">
-        <v>93.79000000000001</v>
+        <v>89.59</v>
       </c>
       <c r="F371" s="39" t="inlineStr">
         <is>
@@ -31281,7 +31333,7 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>92.04000000000001</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1.05</v>
@@ -31435,7 +31487,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>83.14</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -31507,7 +31559,7 @@
           <t>Imóveis Comerciais - Outros</t>
         </is>
       </c>
-      <c r="D375" s="13" t="n"/>
+      <c r="D375" s="13" t="inlineStr"/>
       <c r="E375" s="39" t="n">
         <v>1128.06</v>
       </c>
@@ -31519,7 +31571,7 @@
         <v/>
       </c>
       <c r="H375" s="39" t="n">
-        <v>93.825</v>
+        <v>86.66889999999999</v>
       </c>
       <c r="I375" s="39" t="n">
         <v>919</v>
@@ -31528,8 +31580,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K375" s="14" t="n"/>
-      <c r="L375" s="14" t="n"/>
+      <c r="K375" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M375" s="13" t="n">
         <v>0.01</v>
       </c>
@@ -31601,7 +31657,7 @@
         <v/>
       </c>
       <c r="H376" s="39" t="n">
-        <v>58.5601</v>
+        <v>61.1283</v>
       </c>
       <c r="I376" s="39" t="n">
         <v>1007.34</v>
@@ -31663,7 +31719,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D377" s="13" t="n"/>
+      <c r="D377" s="13" t="inlineStr"/>
       <c r="E377" s="39" t="n">
         <v>99</v>
       </c>
@@ -31743,7 +31799,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>38.59</v>
+        <v>38.94</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31753,7 +31809,7 @@
         <v/>
       </c>
       <c r="H378" s="39" t="n">
-        <v>4.9</v>
+        <v>4.92</v>
       </c>
       <c r="I378" s="39" t="n">
         <v>55.89</v>
@@ -31775,7 +31831,7 @@
         <v>31286</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4841</v>
+        <v>4884</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -31839,7 +31895,7 @@
         <v/>
       </c>
       <c r="H379" s="39" t="n">
-        <v>8.130000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="I379" s="39" t="n">
         <v>116.31</v>
@@ -31905,9 +31961,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D380" s="13" t="n"/>
+      <c r="D380" s="13" t="inlineStr"/>
       <c r="E380" s="39" t="n">
-        <v>81.02</v>
+        <v>81.97</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>1</v>
@@ -31979,9 +32035,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D381" s="13" t="n"/>
+      <c r="D381" s="13" t="inlineStr"/>
       <c r="E381" s="39" t="n">
-        <v>7.07</v>
+        <v>6</v>
       </c>
       <c r="F381" s="39" t="n">
         <v>0.2</v>
@@ -32069,7 +32125,7 @@
         <v/>
       </c>
       <c r="H382" s="39" t="n">
-        <v>9.1</v>
+        <v>9.17</v>
       </c>
       <c r="I382" s="39" t="n">
         <v>163.9</v>
@@ -32227,7 +32283,7 @@
       </c>
       <c r="D384" s="13" t="n"/>
       <c r="E384" s="39" t="n">
-        <v>133.58</v>
+        <v>130.62</v>
       </c>
       <c r="F384" s="39" t="inlineStr">
         <is>
@@ -32537,7 +32593,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>71.84999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.51</v>
@@ -32547,7 +32603,7 @@
         <v/>
       </c>
       <c r="H388" s="39" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="I388" s="39" t="n">
         <v>95.53</v>
@@ -32569,7 +32625,7 @@
         <v>10160</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>9399</v>
+        <v>9601</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>392</v>
@@ -32701,7 +32757,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>111.43</v>
+        <v>112.4</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.34</v>
@@ -32711,7 +32767,7 @@
         <v/>
       </c>
       <c r="H390" s="39" t="n">
-        <v>17.6</v>
+        <v>17.51</v>
       </c>
       <c r="I390" s="39" t="n">
         <v>128.44</v>
@@ -32807,7 +32863,7 @@
         <v/>
       </c>
       <c r="K391" s="14" t="n">
-        <v>0.098</v>
+        <v>0.174</v>
       </c>
       <c r="L391" s="14" t="n">
         <v>0</v>
@@ -32863,12 +32919,12 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D392" s="13" t="n"/>
+      <c r="D392" s="13" t="inlineStr"/>
       <c r="E392" s="39" t="n">
         <v>262.5</v>
       </c>
       <c r="F392" s="39" t="n">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="G392" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -32884,8 +32940,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K392" s="14" t="n"/>
-      <c r="L392" s="14" t="n"/>
+      <c r="K392" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M392" s="13" t="n">
         <v>0.08</v>
       </c>
@@ -32947,7 +33007,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -33189,7 +33249,7 @@
         </is>
       </c>
       <c r="E396" s="39" t="n">
-        <v>100.9</v>
+        <v>104.98</v>
       </c>
       <c r="F396" s="39" t="n">
         <v>0.4457</v>
@@ -33221,7 +33281,7 @@
         <v>715</v>
       </c>
       <c r="O396" s="13" t="n">
-        <v>6295</v>
+        <v>6550</v>
       </c>
       <c r="P396" s="13" t="n">
         <v>546</v>
@@ -33275,7 +33335,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>117.1</v>
+        <v>116</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.92</v>
@@ -33285,7 +33345,7 @@
         <v/>
       </c>
       <c r="H397" s="39" t="n">
-        <v>11</v>
+        <v>11.07</v>
       </c>
       <c r="I397" s="39" t="n">
         <v>115.11</v>
@@ -33307,7 +33367,7 @@
         <v>195</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>3415</v>
+        <v>3383</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>457</v>
@@ -33361,7 +33421,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>103.58</v>
+        <v>104.68</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.85</v>
@@ -33371,7 +33431,7 @@
         <v/>
       </c>
       <c r="H398" s="39" t="n">
-        <v>10.7</v>
+        <v>10.75</v>
       </c>
       <c r="I398" s="39" t="n">
         <v>103.43</v>
@@ -33393,7 +33453,7 @@
         <v>89314</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3469</v>
+        <v>3504</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33441,7 +33501,7 @@
           <t>Lajes Corporativas</t>
         </is>
       </c>
-      <c r="D399" s="13" t="n"/>
+      <c r="D399" s="13" t="inlineStr"/>
       <c r="E399" s="39" t="n">
         <v>100</v>
       </c>
@@ -33453,7 +33513,7 @@
         <v/>
       </c>
       <c r="H399" s="39" t="n">
-        <v>10.99</v>
+        <v>11.07</v>
       </c>
       <c r="I399" s="39" t="n">
         <v>97.81</v>
@@ -33462,8 +33522,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K399" s="14" t="n"/>
-      <c r="L399" s="14" t="n"/>
+      <c r="K399" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M399" s="13" t="n">
         <v>3.09</v>
       </c>
@@ -33679,7 +33743,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>89.88</v>
+        <v>93</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.33</v>
@@ -33689,7 +33753,7 @@
         <v/>
       </c>
       <c r="H402" s="39" t="n">
-        <v>17.16</v>
+        <v>16.64</v>
       </c>
       <c r="I402" s="39" t="n">
         <v>100.44</v>
@@ -33731,7 +33795,7 @@
       </c>
       <c r="V402" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=425391</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452130</t>
         </is>
       </c>
     </row>
@@ -33757,7 +33821,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>1.2</v>
@@ -33767,7 +33831,7 @@
         <v/>
       </c>
       <c r="H403" s="39" t="n">
-        <v>11.3</v>
+        <v>10.91</v>
       </c>
       <c r="I403" s="39" t="n">
         <v>95.31999999999999</v>
@@ -33835,7 +33899,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.11</v>
@@ -33845,7 +33909,7 @@
         <v/>
       </c>
       <c r="H404" s="39" t="n">
-        <v>1.235</v>
+        <v>1.355</v>
       </c>
       <c r="I404" s="39" t="n">
         <v>9.529999999999999</v>
@@ -33913,7 +33977,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>72.5</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -33923,7 +33987,7 @@
         <v/>
       </c>
       <c r="H405" s="39" t="n">
-        <v>8.039999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="I405" s="39" t="n">
         <v>128.31</v>
@@ -33941,7 +34005,7 @@
         <v>3167</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2379</v>
+        <v>2397</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>125</v>
@@ -34081,7 +34145,7 @@
         <v/>
       </c>
       <c r="H407" s="39" t="n">
-        <v>33.6943</v>
+        <v>33.6543</v>
       </c>
       <c r="I407" s="39" t="n">
         <v>360.02</v>
@@ -34157,7 +34221,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>8.91</v>
+        <v>8.98</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.1</v>
@@ -34167,7 +34231,7 @@
         <v/>
       </c>
       <c r="H408" s="39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I408" s="39" t="n">
         <v>9.15</v>
@@ -34235,7 +34299,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>1.1</v>
@@ -34313,7 +34377,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.19</v>
+        <v>9.32</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.12</v>
@@ -34385,7 +34449,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D411" s="13" t="n"/>
+      <c r="D411" s="13" t="inlineStr"/>
       <c r="E411" s="39" t="n">
         <v>0</v>
       </c>
@@ -34467,7 +34531,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.71</v>
+        <v>6.9</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34477,7 +34541,7 @@
         <v/>
       </c>
       <c r="H412" s="33" t="n">
-        <v>0.74</v>
+        <v>0.745</v>
       </c>
       <c r="I412" s="33" t="n">
         <v>8.44</v>
@@ -34545,7 +34609,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>92</v>
+        <v>94.3</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.65</v>
@@ -34555,7 +34619,7 @@
         <v/>
       </c>
       <c r="H413" s="39" t="n">
-        <v>8.26</v>
+        <v>8.23</v>
       </c>
       <c r="I413" s="39" t="n">
         <v>111.83</v>
@@ -34577,7 +34641,7 @@
         <v>156636</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2377</v>
+        <v>2436</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34631,7 +34695,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>42.64</v>
+        <v>42.73</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.31</v>
@@ -34641,7 +34705,7 @@
         <v/>
       </c>
       <c r="H414" s="39" t="n">
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="I414" s="39" t="n">
         <v>54.45</v>
@@ -34663,7 +34727,7 @@
         <v>122986</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>10906</v>
+        <v>10965</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34717,7 +34781,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>107.12</v>
+        <v>107.84</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.82</v>
@@ -34727,7 +34791,7 @@
         <v/>
       </c>
       <c r="H415" s="39" t="n">
-        <v>9.07</v>
+        <v>9.19</v>
       </c>
       <c r="I415" s="39" t="n">
         <v>123.88</v>
@@ -34749,7 +34813,7 @@
         <v>240425</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3236</v>
+        <v>3257</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>280</v>
@@ -34803,7 +34867,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>7.27</v>
+        <v>7.33</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34813,7 +34877,7 @@
         <v/>
       </c>
       <c r="H416" s="39" t="n">
-        <v>0.868</v>
+        <v>0.864</v>
       </c>
       <c r="I416" s="39" t="n">
         <v>9.140000000000001</v>
@@ -34835,7 +34899,7 @@
         <v>14999</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2840</v>
+        <v>2851</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -34883,7 +34947,7 @@
           <t>Papéis</t>
         </is>
       </c>
-      <c r="D417" s="13" t="n"/>
+      <c r="D417" s="13" t="inlineStr"/>
       <c r="E417" s="39" t="n">
         <v>0</v>
       </c>
@@ -34895,7 +34959,7 @@
         <v/>
       </c>
       <c r="H417" s="39" t="n">
-        <v>12.0444</v>
+        <v>12.1644</v>
       </c>
       <c r="I417" s="39" t="n">
         <v>136.36</v>
@@ -34904,8 +34968,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K417" s="14" t="n"/>
-      <c r="L417" s="14" t="n"/>
+      <c r="K417" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M417" s="13" t="n">
         <v>1.29</v>
       </c>
@@ -34957,7 +35025,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D418" s="13" t="n"/>
+      <c r="D418" s="13" t="inlineStr"/>
       <c r="E418" s="39" t="n">
         <v>0</v>
       </c>
@@ -35119,7 +35187,7 @@
         </is>
       </c>
       <c r="E420" s="39" t="n">
-        <v>97.05</v>
+        <v>98</v>
       </c>
       <c r="F420" s="39" t="n">
         <v>0.1</v>
@@ -35129,7 +35197,7 @@
         <v/>
       </c>
       <c r="H420" s="39" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="I420" s="39" t="n">
         <v>105.11</v>
@@ -35179,7 +35247,7 @@
       </c>
       <c r="V420" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434671</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452136</t>
         </is>
       </c>
     </row>
@@ -35205,17 +35273,17 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>82.70999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="F421" s="39" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="G421" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H421" s="39" t="n">
-        <v>12.99</v>
+        <v>13.9</v>
       </c>
       <c r="I421" s="39" t="n">
         <v>93.94</v>
@@ -35293,7 +35361,7 @@
         <v/>
       </c>
       <c r="H422" s="39" t="n">
-        <v>2.4742</v>
+        <v>2.6366</v>
       </c>
       <c r="I422" s="39" t="n">
         <v>21.43</v>
@@ -35365,7 +35433,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>82.44</v>
+        <v>84</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.95</v>
@@ -35375,7 +35443,7 @@
         <v/>
       </c>
       <c r="H423" s="39" t="n">
-        <v>12.56</v>
+        <v>12.31</v>
       </c>
       <c r="I423" s="39" t="n">
         <v>92.23</v>
@@ -35446,14 +35514,14 @@
         <v>3.49</v>
       </c>
       <c r="F424" s="39" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="G424" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H424" s="39" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="I424" s="39" t="n">
         <v>40.54</v>
@@ -35521,7 +35589,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>64</v>
+        <v>66.5</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -35531,7 +35599,7 @@
         <v/>
       </c>
       <c r="H425" s="39" t="n">
-        <v>7.39</v>
+        <v>7.47</v>
       </c>
       <c r="I425" s="39" t="n">
         <v>100.29</v>
@@ -35553,7 +35621,7 @@
         <v>2783</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1749</v>
+        <v>1818</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35607,7 +35675,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>4</v>
+        <v>4.43</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.03</v>
@@ -35685,7 +35753,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>91.17</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -35695,7 +35763,7 @@
         <v/>
       </c>
       <c r="H427" s="39" t="n">
-        <v>10.11</v>
+        <v>11.04</v>
       </c>
       <c r="I427" s="39" t="n">
         <v>100.94</v>
@@ -35717,7 +35785,7 @@
         <v>6235</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36243,7 +36311,7 @@
         <v/>
       </c>
       <c r="H434" s="39" t="n">
-        <v>4.7923</v>
+        <v>4.024</v>
       </c>
       <c r="I434" s="39" t="n">
         <v>98.03</v>
@@ -36313,7 +36381,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D435" s="13" t="n"/>
+      <c r="D435" s="13" t="inlineStr"/>
       <c r="E435" s="39" t="n">
         <v>1001</v>
       </c>
@@ -36393,7 +36461,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.32</v>
+        <v>8.44</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.1</v>
@@ -36403,7 +36471,7 @@
         <v/>
       </c>
       <c r="H436" s="39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I436" s="39" t="n">
         <v>9.98</v>
@@ -36471,7 +36539,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>61.13</v>
+        <v>61.99</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.45</v>
@@ -36481,7 +36549,7 @@
         <v/>
       </c>
       <c r="H437" s="39" t="n">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="I437" s="39" t="n">
         <v>87.66</v>
@@ -36503,7 +36571,7 @@
         <v>1806</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1656</v>
+        <v>1679</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>155</v>
@@ -36553,7 +36621,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>91.04000000000001</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>0.92</v>
@@ -36631,7 +36699,7 @@
         </is>
       </c>
       <c r="E439" s="39" t="n">
-        <v>34.85</v>
+        <v>34.79</v>
       </c>
       <c r="F439" s="39" t="n">
         <v>0.21</v>
@@ -36663,7 +36731,7 @@
         <v>201</v>
       </c>
       <c r="O439" s="13" t="n">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="P439" s="13" t="n">
         <v>119</v>
@@ -36793,7 +36861,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>80.55</v>
+        <v>79.7</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>0.95</v>
@@ -36803,7 +36871,7 @@
         <v/>
       </c>
       <c r="H441" s="39" t="n">
-        <v>11.21</v>
+        <v>10.9</v>
       </c>
       <c r="I441" s="39" t="n">
         <v>90.98999999999999</v>
@@ -36871,7 +36939,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>13.72</v>
+        <v>14</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.1</v>
@@ -36881,7 +36949,7 @@
         <v/>
       </c>
       <c r="H442" s="39" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="I442" s="39" t="n">
         <v>43.22</v>
@@ -36903,7 +36971,7 @@
         <v>26823</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1509</v>
+        <v>1540</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -36957,7 +37025,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>109.98</v>
+        <v>110</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.1</v>
@@ -36967,7 +37035,7 @@
         <v/>
       </c>
       <c r="H443" s="39" t="n">
-        <v>11.8</v>
+        <v>13.35</v>
       </c>
       <c r="I443" s="39" t="n">
         <v>98.45999999999999</v>
@@ -36989,7 +37057,7 @@
         <v>1327</v>
       </c>
       <c r="O443" s="13" t="n">
-        <v>20539</v>
+        <v>20543</v>
       </c>
       <c r="P443" s="13" t="n">
         <v>1029</v>
@@ -37039,7 +37107,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>30.89</v>
+        <v>30.5</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37069,7 +37137,7 @@
         <v>1327</v>
       </c>
       <c r="O444" s="13" t="n">
-        <v>5769</v>
+        <v>5696</v>
       </c>
       <c r="P444" s="13" t="n">
         <v>1029</v>
@@ -37123,7 +37191,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>70.48</v>
+        <v>73</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37155,7 +37223,7 @@
         <v>44997</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>1964</v>
+        <v>2035</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37209,7 +37277,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37219,7 +37287,7 @@
         <v/>
       </c>
       <c r="H446" s="39" t="n">
-        <v>8.66</v>
+        <v>8.74</v>
       </c>
       <c r="I446" s="39" t="n">
         <v>113.42</v>
@@ -37241,7 +37309,7 @@
         <v>306888</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>2133</v>
+        <v>2138</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37295,7 +37363,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>100</v>
+        <v>103.15</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.8</v>
@@ -37327,7 +37395,7 @@
         <v>308245</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>4906</v>
+        <v>5060</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37381,7 +37449,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>23.3</v>
+        <v>23.16</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.1</v>
@@ -37391,7 +37459,7 @@
         <v/>
       </c>
       <c r="H448" s="39" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I448" s="39" t="n">
         <v>69.41</v>
@@ -37413,7 +37481,7 @@
         <v>65320</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>2499</v>
+        <v>2484</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>426</v>
@@ -37467,7 +37535,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.076</v>
@@ -37477,7 +37545,7 @@
         <v/>
       </c>
       <c r="H449" s="39" t="n">
-        <v>0.887</v>
+        <v>0.895</v>
       </c>
       <c r="I449" s="39" t="n">
         <v>7.94</v>
@@ -37539,7 +37607,7 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D450" s="13" t="n"/>
+      <c r="D450" s="13" t="inlineStr"/>
       <c r="E450" s="39" t="n">
         <v>100</v>
       </c>
@@ -37551,7 +37619,7 @@
         <v/>
       </c>
       <c r="H450" s="39" t="n">
-        <v>1.9883</v>
+        <v>2.1291</v>
       </c>
       <c r="I450" s="39" t="n">
         <v>98.95</v>
@@ -37560,8 +37628,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K450" s="14" t="n"/>
-      <c r="L450" s="14" t="n"/>
+      <c r="K450" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L450" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M450" s="13" t="n">
         <v>13.16</v>
       </c>
@@ -37617,7 +37689,7 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D451" s="13" t="n"/>
+      <c r="D451" s="13" t="inlineStr"/>
       <c r="E451" s="39" t="n">
         <v>126</v>
       </c>
@@ -37629,7 +37701,7 @@
         <v/>
       </c>
       <c r="H451" s="39" t="n">
-        <v>6.688</v>
+        <v>7.788</v>
       </c>
       <c r="I451" s="39" t="n">
         <v>127.3</v>
@@ -37638,8 +37710,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K451" s="14" t="n"/>
-      <c r="L451" s="14" t="n"/>
+      <c r="K451" s="14" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L451" s="14" t="n">
+        <v>0.01</v>
+      </c>
       <c r="M451" s="13" t="n">
         <v>6</v>
       </c>
@@ -37695,9 +37771,9 @@
           <t>Fundo de Desenvolvimento</t>
         </is>
       </c>
-      <c r="D452" s="13" t="n"/>
+      <c r="D452" s="13" t="inlineStr"/>
       <c r="E452" s="39" t="n">
-        <v>1040</v>
+        <v>1069.99</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -37771,7 +37847,7 @@
       </c>
       <c r="D453" s="13" t="n"/>
       <c r="E453" s="39" t="n">
-        <v>10.86</v>
+        <v>10.74</v>
       </c>
       <c r="F453" s="39" t="n">
         <v>0.16</v>
@@ -37847,7 +37923,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>1.2</v>
@@ -37857,7 +37933,7 @@
         <v/>
       </c>
       <c r="H454" s="39" t="n">
-        <v>10.01</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I454" s="39" t="inlineStr">
         <is>
@@ -37999,7 +38075,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>94.89</v>
+        <v>94.5</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.45</v>
@@ -38075,7 +38151,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>8.76</v>
+        <v>8.75</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38151,7 +38227,7 @@
       </c>
       <c r="D458" s="13" t="n"/>
       <c r="E458" s="39" t="n">
-        <v>100.08</v>
+        <v>100.8</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>1.54</v>
@@ -38205,7 +38281,7 @@
       </c>
       <c r="V458" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432213</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=450847</t>
         </is>
       </c>
     </row>
@@ -38303,7 +38379,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>9.59</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.14</v>
@@ -38379,7 +38455,7 @@
       </c>
       <c r="D461" s="13" t="n"/>
       <c r="E461" s="39" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F461" s="39" t="inlineStr">
         <is>
@@ -38457,7 +38533,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>91.53</v>
+        <v>91.52</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.27</v>
@@ -38533,7 +38609,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>36.3</v>
+        <v>34.71</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.51</v>
@@ -38609,7 +38685,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>96.11</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.4</v>
@@ -38619,7 +38695,7 @@
         <v/>
       </c>
       <c r="H464" s="39" t="n">
-        <v>14.44</v>
+        <v>13.19</v>
       </c>
       <c r="I464" s="39" t="inlineStr">
         <is>
@@ -38685,7 +38761,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>105.5</v>
+        <v>106.08</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.4</v>
@@ -38695,7 +38771,7 @@
         <v/>
       </c>
       <c r="H465" s="39" t="n">
-        <v>15.96</v>
+        <v>14.79</v>
       </c>
       <c r="I465" s="39" t="inlineStr">
         <is>
@@ -38761,7 +38837,7 @@
       </c>
       <c r="D466" s="13" t="n"/>
       <c r="E466" s="39" t="n">
-        <v>108.41</v>
+        <v>107.99</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.68</v>
@@ -38771,7 +38847,7 @@
         <v/>
       </c>
       <c r="H466" s="39" t="n">
-        <v>18.84</v>
+        <v>17.89</v>
       </c>
       <c r="I466" s="39" t="inlineStr">
         <is>
@@ -38913,10 +38989,10 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="F468" s="39" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G468" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -38989,7 +39065,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>9.67</v>
+        <v>9.59</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.15</v>
@@ -39065,7 +39141,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>84</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.12</v>
@@ -39141,7 +39217,7 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.12</v>
+        <v>10.27</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.09</v>
@@ -39151,7 +39227,7 @@
         <v/>
       </c>
       <c r="H471" s="39" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="I471" s="39" t="inlineStr">
         <is>
@@ -39217,7 +39293,7 @@
       </c>
       <c r="D472" s="13" t="n"/>
       <c r="E472" s="39" t="n">
-        <v>8.68</v>
+        <v>9.07</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.11</v>
@@ -39227,7 +39303,7 @@
         <v/>
       </c>
       <c r="H472" s="39" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="I472" s="39" t="inlineStr">
         <is>
@@ -39293,7 +39369,7 @@
       </c>
       <c r="D473" s="13" t="n"/>
       <c r="E473" s="39" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="F473" s="39" t="n">
         <v>1.2</v>
@@ -39351,7 +39427,7 @@
       </c>
       <c r="V473" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=440601</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=451103</t>
         </is>
       </c>
     </row>
@@ -39371,9 +39447,9 @@
           <t>Indefinido</t>
         </is>
       </c>
-      <c r="D474" s="13" t="n"/>
+      <c r="D474" s="13" t="inlineStr"/>
       <c r="E474" s="39" t="n">
-        <v>100.74</v>
+        <v>100.5</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.5</v>
@@ -39525,7 +39601,7 @@
       </c>
       <c r="D476" s="13" t="n"/>
       <c r="E476" s="39" t="n">
-        <v>9.859999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="F476" s="39" t="n">
         <v>0.15</v>
@@ -39535,7 +39611,7 @@
         <v/>
       </c>
       <c r="H476" s="39" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="I476" s="39" t="inlineStr">
         <is>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>68.36</v>
+        <v>66</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1629,7 +1629,7 @@
         <v>18769</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4212</v>
+        <v>4127</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>1294</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="V2" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436328</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455089</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>92.45</v>
+        <v>93.95</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1.1</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="V4" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433029</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453468</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>60.22</v>
+        <v>59.8</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.76</v>
@@ -1949,7 +1949,7 @@
         <v>12545</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>12311</v>
+        <v>12246</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2261</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>778.01</v>
+        <v>755</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2035,7 +2035,7 @@
         <v>2490</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>172</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>87.23</v>
+        <v>88.56</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>0.85</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>116.89</v>
+        <v>115.5</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.8158</v>
@@ -2271,7 +2271,7 @@
         <v>118972</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>3721</v>
+        <v>3693</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>289</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2443,7 +2443,7 @@
         <v>6480</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>13105</v>
+        <v>13383</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1001</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="39" t="n">
-        <v>100.14</v>
+        <v>99.75</v>
       </c>
       <c r="J13" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2517,7 +2517,7 @@
       <c r="K13" s="14" t="n"/>
       <c r="L13" s="14" t="n"/>
       <c r="M13" s="13" t="n">
-        <v>100.04</v>
+        <v>100.43</v>
       </c>
       <c r="N13" s="13" t="n">
         <v>116</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>988.3</v>
+        <v>986.86</v>
       </c>
       <c r="J14" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -2597,7 +2597,7 @@
       <c r="K14" s="14" t="n"/>
       <c r="L14" s="14" t="n"/>
       <c r="M14" s="13" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="N14" s="13" t="n">
         <v>56</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>8.279999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.1101</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr"/>
       <c r="E18" s="39" t="n">
-        <v>56.59</v>
+        <v>56.85</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2901,7 +2901,7 @@
         <v>349</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>5350</v>
+        <v>5379</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>734</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="V18" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=439639</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455015</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>77.84999999999999</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="F23" s="39" t="n">
         <v>0.9</v>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>1427</v>
+        <v>1395</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>27.0886</v>
@@ -3387,7 +3387,7 @@
         <v>8144</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>1994</v>
+        <v>1949</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>532</v>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>64.5</v>
+        <v>65.14</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>87.45</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3629,7 +3629,7 @@
         <v>74353</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3548</v>
+        <v>3525</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>465</v>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>94.27</v>
+        <v>93.33</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>0.99</v>
@@ -3715,7 +3715,7 @@
         <v>9286</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>9313</v>
+        <v>9216</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1449</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>67.79000000000001</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>85.09</v>
+        <v>86.25</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.78</v>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>68.41</v>
+        <v>67.77</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>0.86</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>98.48999999999999</v>
+        <v>93</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.68</v>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>6.9</v>
+        <v>7.04</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.09</v>
@@ -4183,7 +4183,7 @@
         <v>7061</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="D36" s="13" t="inlineStr"/>
       <c r="E36" s="39" t="n">
-        <v>110</v>
+        <v>109.46</v>
       </c>
       <c r="F36" s="39" t="n">
         <v>0.57</v>
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>72.40000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>0.9</v>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>63.11</v>
+        <v>64.33</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.76</v>
@@ -4591,7 +4591,7 @@
         <v>12481</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>57</v>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>6.39</v>
+        <v>6.53</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.065</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>102.79</v>
+        <v>103</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>0.72</v>
@@ -4997,7 +4997,7 @@
         <v>1432</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>12763</v>
+        <v>12789</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1263</v>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>117.7</v>
+        <v>112.54</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.464</v>
@@ -5083,7 +5083,7 @@
         <v>4053</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7577</v>
+        <v>7371</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1281</v>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>62.2</v>
+        <v>61.15</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>57.4</v>
+        <v>58.02</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5325,7 +5325,7 @@
         <v>1574</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3207470</v>
+        <v>3239310</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>673200</v>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>102.34</v>
+        <v>102.04</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.62</v>
@@ -5497,7 +5497,7 @@
         <v>112035</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3396</v>
+        <v>3390</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>317</v>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>55.85</v>
+        <v>55.93</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.46</v>
@@ -5583,7 +5583,7 @@
         <v>156531</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>10041</v>
+        <v>9984</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>1197</v>
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>96.79000000000001</v>
+        <v>86</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.64</v>
@@ -5669,7 +5669,7 @@
         <v>249</v>
       </c>
       <c r="O52" s="13" t="n">
-        <v>16876</v>
+        <v>15867</v>
       </c>
       <c r="P52" s="13" t="n">
         <v>1417</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>76.98999999999999</v>
+        <v>76.91</v>
       </c>
       <c r="J53" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -5747,7 +5747,7 @@
       <c r="K53" s="14" t="n"/>
       <c r="L53" s="14" t="n"/>
       <c r="M53" s="13" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N53" s="13" t="n">
         <v>11</v>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>89.63</v>
+        <v>92.5</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.83</v>
@@ -6229,7 +6229,7 @@
         <v>43445</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1510</v>
+        <v>1520</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>156</v>
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>96.3</v>
+        <v>95.03</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.74</v>
@@ -6393,7 +6393,7 @@
         <v>212356</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4097</v>
+        <v>4023</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>186</v>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>77.84999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F62" s="39" t="n">
         <v>0.85</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="V62" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=438761</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454550</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>105.19</v>
+        <v>104.5</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.44</v>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>35.86</v>
+        <v>35.97</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7205,7 +7205,7 @@
         <v>3538</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>3052</v>
+        <v>3012</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>262</v>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="D73" s="13" t="inlineStr"/>
       <c r="E73" s="39" t="n">
-        <v>83.95999999999999</v>
+        <v>85</v>
       </c>
       <c r="F73" s="39" t="n">
         <v>0.6156</v>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>53.44</v>
+        <v>54.91</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.6516</v>
@@ -7439,7 +7439,7 @@
         <v>4840</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>7539</v>
+        <v>7590</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>998</v>
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.33</v>
@@ -7675,7 +7675,7 @@
         <v>1189</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>9509</v>
+        <v>9208</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>404</v>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>26.91</v>
+        <v>26.7</v>
       </c>
       <c r="F79" s="39" t="n">
         <v>0.0785</v>
@@ -7845,7 +7845,7 @@
         <v>1804</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>60.74</v>
+        <v>62.36</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.4</v>
@@ -7912,7 +7912,7 @@
         <v>6.57</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>76.02</v>
+        <v>76.27</v>
       </c>
       <c r="J80" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>75.54000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.71</v>
@@ -8055,7 +8055,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.61</v>
@@ -8065,7 +8065,7 @@
         <v/>
       </c>
       <c r="H82" s="39" t="n">
-        <v>7.34</v>
+        <v>7.38</v>
       </c>
       <c r="I82" s="39" t="n">
         <v>80.59999999999999</v>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>10.82</v>
+        <v>10.78</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8241,7 +8241,7 @@
         <v>3093</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>87.45999999999999</v>
+        <v>87.36</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>1.05</v>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D87" s="13" t="inlineStr"/>
       <c r="E87" s="39" t="n">
-        <v>76.87</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.75</v>
@@ -8475,7 +8475,7 @@
         <v>11434</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>2787</v>
+        <v>2760</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>326</v>
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>40.83</v>
+        <v>39.7</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4167</v>
@@ -8561,7 +8561,7 @@
         <v>3974</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3331</v>
+        <v>3226</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>425</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D89" s="13" t="inlineStr"/>
       <c r="E89" s="39" t="n">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.83</v>
@@ -8689,7 +8689,7 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>69.95</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F90" s="39" t="n">
         <v>0.7389</v>
@@ -8721,7 +8721,7 @@
         <v>13297</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>2948</v>
+        <v>2988</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>392</v>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>63.14</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -8785,7 +8785,7 @@
         <v/>
       </c>
       <c r="H91" s="39" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
       <c r="I91" s="39" t="n">
         <v>78.79000000000001</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>370</v>
+        <v>348.9</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>1.6997</v>
@@ -8885,7 +8885,7 @@
         <v>636</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2363</v>
+        <v>2235</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>312</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D93" s="13" t="inlineStr"/>
       <c r="E93" s="39" t="n">
-        <v>8.32</v>
+        <v>8.31</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1</v>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>14.12</v>
+        <v>13.71</v>
       </c>
       <c r="F95" s="39" t="n">
         <v>0.09660000000000001</v>
@@ -9121,7 +9121,7 @@
         <v>577</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>1606</v>
+        <v>1649</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>87</v>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>0.7</v>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D101" s="13" t="inlineStr"/>
       <c r="E101" s="39" t="n">
-        <v>97.5</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.85</v>
@@ -9615,7 +9615,7 @@
         <v>141</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>154</v>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>87.16</v>
+        <v>79.25</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.85</v>
@@ -9701,7 +9701,7 @@
         <v>355</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>8069</v>
+        <v>7328</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>875</v>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>63</v>
+        <v>65.2</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.7</v>
@@ -9833,7 +9833,7 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>197</v>
+        <v>192.01</v>
       </c>
       <c r="F104" s="39" t="n">
         <v>1.7289</v>
@@ -9865,7 +9865,7 @@
         <v>540</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>130475</v>
+        <v>131998</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>14030</v>
@@ -9919,7 +9919,7 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>18.68</v>
+        <v>18.44</v>
       </c>
       <c r="F105" s="39" t="n">
         <v>0.13</v>
@@ -9951,7 +9951,7 @@
         <v>5796</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>420</v>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10084,14 +10084,14 @@
         <v>762.38</v>
       </c>
       <c r="F107" s="39" t="n">
-        <v>6.25</v>
+        <v>2</v>
       </c>
       <c r="G107" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H107" s="39" t="n">
-        <v>104.13</v>
+        <v>104.89</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>1438.56</v>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D108" s="13" t="inlineStr"/>
       <c r="E108" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10481,7 +10481,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>222.9</v>
+        <v>220</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.87</v>
@@ -10513,7 +10513,7 @@
         <v>2489</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>80</v>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="D113" s="13" t="inlineStr"/>
       <c r="E113" s="39" t="n">
-        <v>93.95</v>
+        <v>93.94</v>
       </c>
       <c r="F113" s="39" t="n">
         <v>0.75</v>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>142</v>
+        <v>142.02</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.6219</v>
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="E117" s="39" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F117" s="39" t="n">
         <v>9.16</v>
@@ -10917,7 +10917,7 @@
         <v>2715</v>
       </c>
       <c r="O117" s="13" t="n">
-        <v>1328</v>
+        <v>1379</v>
       </c>
       <c r="P117" s="13" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>93.69</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.83</v>
@@ -11003,7 +11003,7 @@
         <v>1187</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>22571</v>
+        <v>22525</v>
       </c>
       <c r="P118" s="13" t="n">
         <v>1793</v>
@@ -11139,7 +11139,7 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>104.7</v>
+        <v>106</v>
       </c>
       <c r="F120" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -11171,7 +11171,7 @@
         <v>3712</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>11719</v>
+        <v>11842</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1183</v>
@@ -11359,7 +11359,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>49.52</v>
+        <v>50.55</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.39</v>
@@ -11391,7 +11391,7 @@
         <v>15291</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2163</v>
+        <v>2226</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>221</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>467.09</v>
+        <v>452.2</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.25</v>
@@ -11477,7 +11477,7 @@
         <v>16934</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>148</v>
+        <v>145.09</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.35</v>
@@ -11563,7 +11563,7 @@
         <v>7941</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>1948</v>
+        <v>1974</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>248</v>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="V127" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434769</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455249</t>
         </is>
       </c>
     </row>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="39" t="n">
-        <v>74.53</v>
+        <v>74.97</v>
       </c>
       <c r="J128" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -11803,7 +11803,7 @@
       <c r="K128" s="14" t="n"/>
       <c r="L128" s="14" t="n"/>
       <c r="M128" s="13" t="n">
-        <v>16.62</v>
+        <v>16.5</v>
       </c>
       <c r="N128" s="13" t="n">
         <v>24</v>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>94.09</v>
+        <v>93.5</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>1.2</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>124.81</v>
+        <v>124.96</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.85</v>
@@ -12053,7 +12053,7 @@
         <v>16519</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>9779</v>
+        <v>9704</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>912</v>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1650</v>
+        <v>1587.41</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13</v>
@@ -12139,7 +12139,7 @@
         <v>793</v>
       </c>
       <c r="O132" s="13" t="n">
-        <v>2185</v>
+        <v>2102</v>
       </c>
       <c r="P132" s="13" t="n">
         <v>182</v>
@@ -12193,7 +12193,7 @@
         </is>
       </c>
       <c r="E133" s="39" t="n">
-        <v>50.99</v>
+        <v>49.2</v>
       </c>
       <c r="F133" s="39" t="n">
         <v>0.31</v>
@@ -12225,7 +12225,7 @@
         <v>284</v>
       </c>
       <c r="O133" s="13" t="n">
-        <v>1534</v>
+        <v>1481</v>
       </c>
       <c r="P133" s="13" t="n">
         <v>155</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>133</v>
+        <v>134.8</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>0.95</v>
@@ -12389,7 +12389,7 @@
         <v>990</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2159</v>
+        <v>2192</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>453</v>
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="E136" s="39" t="n">
-        <v>68.68000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="F136" s="39" t="n">
         <v>0.76</v>
@@ -12475,7 +12475,7 @@
         <v>68</v>
       </c>
       <c r="O136" s="13" t="n">
-        <v>7739</v>
+        <v>7831</v>
       </c>
       <c r="P136" s="13" t="n">
         <v>1096</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="V136" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436351</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455254</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>0.82</v>
@@ -12809,7 +12809,7 @@
         <v>3962</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>4810</v>
+        <v>4674</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>874</v>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="V140" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=437127</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453858</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="E141" s="39" t="n">
-        <v>8.470000000000001</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F141" s="39" t="n">
         <v>0.082</v>
@@ -12895,7 +12895,7 @@
         <v>30801</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>4689</v>
+        <v>4650</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>489</v>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="E143" s="39" t="n">
-        <v>65.15000000000001</v>
+        <v>64.95</v>
       </c>
       <c r="F143" s="39" t="n">
         <v>0.75</v>
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>89.34</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1.1</v>
@@ -13269,7 +13269,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>113.75</v>
+        <v>111.7</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>1</v>
@@ -13279,7 +13279,7 @@
         <v/>
       </c>
       <c r="H146" s="39" t="n">
-        <v>11.5</v>
+        <v>11.62</v>
       </c>
       <c r="I146" s="39" t="n">
         <v>125.22</v>
@@ -13301,7 +13301,7 @@
         <v>102262</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1174</v>
+        <v>1132</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>112</v>
@@ -13517,7 +13517,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>5.51</v>
+        <v>5.53</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="D150" s="13" t="inlineStr"/>
       <c r="E150" s="39" t="n">
-        <v>99</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F150" s="39" t="n">
         <v>0.7</v>
@@ -13629,7 +13629,7 @@
         <v>151</v>
       </c>
       <c r="O150" s="13" t="n">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="P150" s="13" t="n">
         <v>307</v>
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>79.98999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13715,7 +13715,7 @@
         <v>27116</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>10649</v>
+        <v>10496</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1309</v>
@@ -14003,7 +14003,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>61.2</v>
+        <v>60</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.43</v>
@@ -14035,7 +14035,7 @@
         <v>221</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>14624</v>
+        <v>14338</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1619</v>
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>84.53</v>
+        <v>83.13</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.25</v>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="V156" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434542</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455173</t>
         </is>
       </c>
     </row>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="D157" s="13" t="inlineStr"/>
       <c r="E157" s="39" t="n">
-        <v>113.01</v>
+        <v>112.45</v>
       </c>
       <c r="F157" s="39" t="n">
         <v>0.5828</v>
@@ -14195,7 +14195,7 @@
         <v>46</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>7555</v>
+        <v>7518</v>
       </c>
       <c r="P157" s="13" t="n">
         <v>524</v>
@@ -14249,7 +14249,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>92.97</v>
+        <v>92</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.6156</v>
@@ -14281,7 +14281,7 @@
         <v>1170</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8546</v>
+        <v>8457</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>834</v>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="D160" s="13" t="inlineStr"/>
       <c r="E160" s="39" t="n">
-        <v>82.95</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1</v>
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>230.75</v>
+        <v>225.04</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.6846</v>
@@ -14597,7 +14597,7 @@
         <v>3100</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>8368</v>
+        <v>8190</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1179</v>
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>0.5</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="D165" s="13" t="inlineStr"/>
       <c r="E165" s="39" t="n">
-        <v>105.81</v>
+        <v>106.09</v>
       </c>
       <c r="F165" s="39" t="n">
         <v>1.95</v>
@@ -14959,7 +14959,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>66.84</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -15037,7 +15037,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>197.5</v>
+        <v>198.01</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.4</v>
@@ -15069,7 +15069,7 @@
         <v>90096</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>3915</v>
+        <v>3924</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>320</v>
@@ -15123,7 +15123,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>103.19</v>
+        <v>102.42</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.2</v>
@@ -15195,9 +15195,13 @@
           <t>Fundo de Fundos</t>
         </is>
       </c>
-      <c r="D170" s="13" t="n"/>
+      <c r="D170" s="13" t="inlineStr">
+        <is>
+          <t>Cshg</t>
+        </is>
+      </c>
       <c r="E170" s="39" t="n">
-        <v>73.48999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15271,7 +15275,7 @@
       </c>
       <c r="D171" s="13" t="inlineStr"/>
       <c r="E171" s="39" t="n">
-        <v>99.39</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>1.03</v>
@@ -15281,7 +15285,7 @@
         <v/>
       </c>
       <c r="H171" s="39" t="n">
-        <v>11.2667</v>
+        <v>12.3067</v>
       </c>
       <c r="I171" s="39" t="n">
         <v>118.56</v>
@@ -15323,7 +15327,7 @@
       </c>
       <c r="V171" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432556</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453845</t>
         </is>
       </c>
     </row>
@@ -15427,7 +15431,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>162.5</v>
+        <v>163.5</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15513,7 +15517,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>245</v>
+        <v>249.5</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15545,7 +15549,7 @@
         <v>10046</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>33916</v>
+        <v>34466</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2562</v>
@@ -15599,7 +15603,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>126.51</v>
+        <v>121</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15631,7 +15635,7 @@
         <v>138834</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>7562</v>
+        <v>7271</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>541</v>
@@ -15765,7 +15769,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>122.89</v>
+        <v>122.51</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.85</v>
@@ -15797,7 +15801,7 @@
         <v>196152</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>390</v>
@@ -15845,9 +15849,13 @@
           <t>Imóveis Industriais e Logísticos</t>
         </is>
       </c>
-      <c r="D178" s="13" t="n"/>
+      <c r="D178" s="13" t="inlineStr">
+        <is>
+          <t>Hedge Investments</t>
+        </is>
+      </c>
       <c r="E178" s="39" t="n">
-        <v>81.5</v>
+        <v>81.75</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -15866,8 +15874,12 @@
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
-      <c r="K178" s="14" t="n"/>
-      <c r="L178" s="14" t="n"/>
+      <c r="K178" s="14" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L178" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="M178" s="13" t="n">
         <v>1.76</v>
       </c>
@@ -16007,7 +16019,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>25</v>
+        <v>23.66</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.2</v>
@@ -16035,7 +16047,7 @@
         <v>7715</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2150</v>
+        <v>2135</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>496</v>
@@ -16089,7 +16101,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.39</v>
@@ -16141,7 +16153,7 @@
       </c>
       <c r="V181" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=423642</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455164</t>
         </is>
       </c>
     </row>
@@ -16167,7 +16179,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>68.02</v>
+        <v>70.25</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.45</v>
@@ -16199,7 +16211,7 @@
         <v>390</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>142</v>
@@ -16331,7 +16343,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>76.52</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.9</v>
@@ -16409,7 +16421,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>80.39</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.95</v>
@@ -16487,7 +16499,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>83.98</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.72</v>
@@ -16519,7 +16531,7 @@
         <v>25101</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2191</v>
+        <v>2150</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>193</v>
@@ -16573,7 +16585,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>85.29000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.74</v>
@@ -16605,7 +16617,7 @@
         <v>150576</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>8924</v>
+        <v>8892</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>702</v>
@@ -16655,7 +16667,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>102.4</v>
+        <v>101.77</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.63</v>
@@ -16683,7 +16695,7 @@
         <v>189</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8494</v>
+        <v>8442</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>690</v>
@@ -16737,7 +16749,7 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>105</v>
+        <v>106.9</v>
       </c>
       <c r="F189" s="39" t="n">
         <v>0.6324</v>
@@ -16769,7 +16781,7 @@
         <v>25350</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>4535</v>
+        <v>4546</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>308</v>
@@ -16819,7 +16831,7 @@
       </c>
       <c r="D190" s="13" t="inlineStr"/>
       <c r="E190" s="39" t="n">
-        <v>77.48</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.26</v>
@@ -16847,7 +16859,7 @@
         <v>225</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>1482</v>
+        <v>1503</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -16901,7 +16913,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>101.99</v>
+        <v>100</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.86</v>
@@ -16933,7 +16945,7 @@
         <v>759</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>138</v>
@@ -16961,7 +16973,7 @@
       </c>
       <c r="V191" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436322</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453848</t>
         </is>
       </c>
     </row>
@@ -17065,7 +17077,7 @@
       </c>
       <c r="D193" s="13" t="inlineStr"/>
       <c r="E193" s="39" t="n">
-        <v>73</v>
+        <v>73.5</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>0.8</v>
@@ -17217,7 +17229,7 @@
       </c>
       <c r="D195" s="13" t="inlineStr"/>
       <c r="E195" s="39" t="n">
-        <v>48.89</v>
+        <v>45.97</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.5589</v>
@@ -17227,7 +17239,7 @@
         <v/>
       </c>
       <c r="H195" s="39" t="n">
-        <v>7.2073</v>
+        <v>7.8084</v>
       </c>
       <c r="I195" s="39" t="n">
         <v>49.12</v>
@@ -17295,7 +17307,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>79</v>
+        <v>84.09</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.9112</v>
@@ -17373,7 +17385,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>85.20999999999999</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>1.035</v>
@@ -17451,7 +17463,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>74</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.8100000000000001</v>
@@ -17529,7 +17541,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>71.78</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -17915,7 +17927,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>64.94</v>
+        <v>65.61</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.63</v>
@@ -17947,7 +17959,7 @@
         <v>4035</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>6553</v>
+        <v>6609</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1259</v>
@@ -17975,7 +17987,7 @@
       </c>
       <c r="V204" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=438937</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454478</t>
         </is>
       </c>
     </row>
@@ -18001,7 +18013,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>94</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.4</v>
@@ -18079,7 +18091,7 @@
         </is>
       </c>
       <c r="E206" s="39" t="n">
-        <v>119.55</v>
+        <v>110</v>
       </c>
       <c r="F206" s="39" t="n">
         <v>0.17</v>
@@ -18157,7 +18169,7 @@
         </is>
       </c>
       <c r="E207" s="39" t="n">
-        <v>78.79000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="F207" s="39" t="n">
         <v>0.59</v>
@@ -18189,7 +18201,7 @@
         <v>4173</v>
       </c>
       <c r="O207" s="13" t="n">
-        <v>6813</v>
+        <v>6796</v>
       </c>
       <c r="P207" s="13" t="n">
         <v>692</v>
@@ -18239,7 +18251,7 @@
       </c>
       <c r="D208" s="13" t="inlineStr"/>
       <c r="E208" s="39" t="n">
-        <v>86.03</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18317,7 +18329,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>67.33</v>
+        <v>68.86</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.46</v>
@@ -18349,7 +18361,7 @@
         <v>89641</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>11836</v>
+        <v>11585</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1193</v>
@@ -18481,7 +18493,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>93.26000000000001</v>
+        <v>92.59</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>1.35</v>
@@ -18559,7 +18571,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>999.98</v>
+        <v>1000</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>3.0467</v>
@@ -18637,7 +18649,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>78.7</v>
+        <v>77.5</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.72</v>
@@ -18689,7 +18701,7 @@
       </c>
       <c r="V213" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=439930</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455311</t>
         </is>
       </c>
     </row>
@@ -18793,7 +18805,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>7.87</v>
+        <v>7.8</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -18867,7 +18879,7 @@
       </c>
       <c r="D216" s="13" t="inlineStr"/>
       <c r="E216" s="39" t="n">
-        <v>82.13</v>
+        <v>82.69</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.25</v>
@@ -18945,7 +18957,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>96.98</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.22</v>
@@ -19023,7 +19035,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>99</v>
+        <v>98.44</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>1.3</v>
@@ -19101,7 +19113,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>91.62</v>
+        <v>89.97</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>1.05</v>
@@ -19331,7 +19343,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.95</v>
@@ -19363,7 +19375,7 @@
         <v>246641</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>4061</v>
+        <v>4113</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>346</v>
@@ -19391,7 +19403,7 @@
       </c>
       <c r="V222" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=439926</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455312</t>
         </is>
       </c>
     </row>
@@ -19417,7 +19429,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>85.89</v>
+        <v>85.06</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>1.05</v>
@@ -19495,7 +19507,7 @@
         </is>
       </c>
       <c r="E224" s="39" t="n">
-        <v>100.69</v>
+        <v>100</v>
       </c>
       <c r="F224" s="39" t="n">
         <v>0.71</v>
@@ -19527,7 +19539,7 @@
         <v>349</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>4102</v>
+        <v>4097</v>
       </c>
       <c r="P224" s="13" t="n">
         <v>344</v>
@@ -19733,7 +19745,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>65.75</v>
+        <v>65</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19765,7 +19777,7 @@
         <v>425</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>14946</v>
+        <v>15002</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>3</v>
@@ -19819,7 +19831,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>75.5</v>
+        <v>75.45</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.6</v>
@@ -19851,7 +19863,7 @@
         <v>14762</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>2537</v>
+        <v>2517</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>385</v>
@@ -20437,7 +20449,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>72.98999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.58</v>
@@ -20469,7 +20481,7 @@
         <v>4264</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>3621</v>
+        <v>3572</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>565</v>
@@ -20523,7 +20535,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>102.37</v>
+        <v>106</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.75</v>
@@ -20555,7 +20567,7 @@
         <v>69305</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>292</v>
@@ -20685,7 +20697,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>104.32</v>
+        <v>103.2</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.78</v>
@@ -20717,7 +20729,7 @@
         <v>112311</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>3779</v>
+        <v>3726</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>499</v>
@@ -20745,7 +20757,7 @@
       </c>
       <c r="V239" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=438549</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454272</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20779,7 @@
       </c>
       <c r="D240" s="13" t="inlineStr"/>
       <c r="E240" s="39" t="n">
-        <v>10</v>
+        <v>9.76</v>
       </c>
       <c r="F240" s="39" t="n">
         <v>0.11</v>
@@ -20919,7 +20931,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>65.8</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.7392</v>
@@ -20951,7 +20963,7 @@
         <v>4265</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>184</v>
@@ -21005,7 +21017,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>85</v>
+        <v>87.03</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.95</v>
@@ -21057,7 +21069,7 @@
       </c>
       <c r="V243" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434527</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452676</t>
         </is>
       </c>
     </row>
@@ -21083,7 +21095,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>8.18</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.1</v>
@@ -21157,7 +21169,7 @@
       </c>
       <c r="D245" s="13" t="inlineStr"/>
       <c r="E245" s="39" t="n">
-        <v>108</v>
+        <v>110.7</v>
       </c>
       <c r="F245" s="39" t="n">
         <v>1.4</v>
@@ -21209,7 +21221,7 @@
       </c>
       <c r="V245" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434519</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=452682</t>
         </is>
       </c>
     </row>
@@ -21235,7 +21247,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.31</v>
@@ -21387,7 +21399,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>90.45</v>
+        <v>89</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.11</v>
@@ -21415,7 +21427,7 @@
         <v>28286</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21469,7 +21481,7 @@
         </is>
       </c>
       <c r="E249" s="39" t="n">
-        <v>79.62</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="F249" s="39" t="n">
         <v>0.9</v>
@@ -21547,7 +21559,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>57.86</v>
+        <v>58.59</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.54</v>
@@ -21625,7 +21637,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>59</v>
+        <v>58.91</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.8</v>
@@ -21657,7 +21669,7 @@
         <v>3188</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>6980</v>
+        <v>6977</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>698</v>
@@ -22325,7 +22337,7 @@
       </c>
       <c r="D260" s="13" t="inlineStr"/>
       <c r="E260" s="39" t="n">
-        <v>84.70999999999999</v>
+        <v>85.61</v>
       </c>
       <c r="F260" s="39" t="n">
         <v>1.1</v>
@@ -22403,7 +22415,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>61.14</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.6</v>
@@ -22717,7 +22729,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.57</v>
+        <v>10.49</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.12</v>
@@ -22745,7 +22757,7 @@
         <v>808458</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>10104</v>
+        <v>10037</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22799,7 +22811,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>74.69</v>
+        <v>74</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>0.85</v>
@@ -22873,7 +22885,7 @@
       </c>
       <c r="D267" s="13" t="n"/>
       <c r="E267" s="39" t="n">
-        <v>77.70999999999999</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>1.03</v>
@@ -22947,7 +22959,7 @@
       </c>
       <c r="D268" s="13" t="inlineStr"/>
       <c r="E268" s="39" t="n">
-        <v>8.51</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.11</v>
@@ -23057,7 +23069,7 @@
         <v>3519</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>462</v>
@@ -23111,7 +23123,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>70.02</v>
+        <v>67.08</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.14</v>
@@ -23143,7 +23155,7 @@
         <v>1584</v>
       </c>
       <c r="O270" s="13" t="n">
-        <v>3759</v>
+        <v>3601</v>
       </c>
       <c r="P270" s="13" t="n">
         <v>290</v>
@@ -23275,7 +23287,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>164.21</v>
+        <v>165</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5366</v>
@@ -23307,7 +23319,7 @@
         <v>6572</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>8825</v>
+        <v>8836</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1031</v>
@@ -23361,7 +23373,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>11.2</v>
+        <v>12.05</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.0852</v>
@@ -23393,7 +23405,7 @@
         <v>2220</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>15131</v>
+        <v>16212</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2054</v>
@@ -23529,7 +23541,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>178.45</v>
+        <v>179</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>0.98</v>
@@ -23561,7 +23573,7 @@
         <v>3106</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>26596</v>
+        <v>26678</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1834</v>
@@ -23693,7 +23705,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>60.5</v>
+        <v>62.03</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.7</v>
@@ -23771,7 +23783,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>93.59</v>
+        <v>94.2</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.25</v>
@@ -23849,7 +23861,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>36.7</v>
+        <v>36.55</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.41</v>
@@ -23881,7 +23893,7 @@
         <v>5102</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>86</v>
@@ -23935,7 +23947,7 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>72.34</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="F280" s="39" t="n">
         <v>1</v>
@@ -23967,7 +23979,7 @@
         <v>5834</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>1768</v>
+        <v>1810</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>152</v>
@@ -24021,7 +24033,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24185,7 +24197,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>67.90000000000001</v>
+        <v>68.55</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.27</v>
@@ -24217,7 +24229,7 @@
         <v>8002</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>17530</v>
+        <v>17556</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1102</v>
@@ -24271,7 +24283,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>65.04000000000001</v>
+        <v>62.26</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.6</v>
@@ -24303,7 +24315,7 @@
         <v>24022</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2084</v>
+        <v>2013</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>261</v>
@@ -24511,7 +24523,7 @@
       </c>
       <c r="D287" s="13" t="inlineStr"/>
       <c r="E287" s="39" t="n">
-        <v>31.99</v>
+        <v>32.3</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.413</v>
@@ -24589,7 +24601,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1</v>
@@ -24667,7 +24679,7 @@
         </is>
       </c>
       <c r="E289" s="39" t="n">
-        <v>70.95999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="F289" s="39" t="n">
         <v>0.7</v>
@@ -24699,7 +24711,7 @@
         <v>3282</v>
       </c>
       <c r="O289" s="13" t="n">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="P289" s="13" t="n">
         <v>165</v>
@@ -24727,7 +24739,7 @@
       </c>
       <c r="V289" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=438942</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454277</t>
         </is>
       </c>
     </row>
@@ -24753,7 +24765,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>21.69</v>
+        <v>20.71</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.1114</v>
@@ -24827,7 +24839,7 @@
       </c>
       <c r="D291" s="13" t="n"/>
       <c r="E291" s="39" t="n">
-        <v>1219</v>
+        <v>1211.99</v>
       </c>
       <c r="F291" s="39" t="inlineStr">
         <is>
@@ -25059,7 +25071,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>83.27</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1</v>
@@ -25137,7 +25149,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>50.5</v>
+        <v>49.97</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25169,7 +25181,7 @@
         <v>464</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>11217</v>
+        <v>11100</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1088</v>
@@ -25223,7 +25235,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>1728.28</v>
+        <v>1660</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>25.5967</v>
@@ -25255,7 +25267,7 @@
         <v>3967</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1597</v>
+        <v>1506</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>232</v>
@@ -25391,7 +25403,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>88</v>
+        <v>96.33</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25423,7 +25435,7 @@
         <v>1008</v>
       </c>
       <c r="O298" s="13" t="n">
-        <v>1554</v>
+        <v>1701</v>
       </c>
       <c r="P298" s="13" t="n">
         <v>276</v>
@@ -25631,7 +25643,7 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>96.15000000000001</v>
+        <v>92.92</v>
       </c>
       <c r="F301" s="39" t="n">
         <v>0.61</v>
@@ -25663,7 +25675,7 @@
         <v>97544</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>10722</v>
+        <v>10371</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>804</v>
@@ -25717,7 +25729,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>43.36</v>
+        <v>43</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.42</v>
@@ -25727,7 +25739,7 @@
         <v/>
       </c>
       <c r="H302" s="39" t="n">
-        <v>4.9</v>
+        <v>4.93</v>
       </c>
       <c r="I302" s="39" t="n">
         <v>55.84</v>
@@ -25749,7 +25761,7 @@
         <v>23900</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>2580</v>
+        <v>2525</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>329</v>
@@ -25803,7 +25815,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>74.98</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.85</v>
@@ -26113,7 +26125,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26165,7 +26177,7 @@
       </c>
       <c r="V307" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432471</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455274</t>
         </is>
       </c>
     </row>
@@ -26191,7 +26203,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>120.05</v>
+        <v>119.17</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.26</v>
@@ -26223,7 +26235,7 @@
         <v>12744</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>2583</v>
+        <v>2561</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>287</v>
@@ -26277,7 +26289,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>50.48</v>
+        <v>50.4</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.49</v>
@@ -26441,7 +26453,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>82.09</v>
+        <v>81.3</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.05</v>
@@ -26519,7 +26531,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>91.83</v>
+        <v>91.78</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26597,7 +26609,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>68.52</v>
+        <v>72.28</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.46</v>
@@ -26649,7 +26661,7 @@
       </c>
       <c r="V313" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=435241</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453857</t>
         </is>
       </c>
     </row>
@@ -26685,7 +26697,7 @@
         <v/>
       </c>
       <c r="H314" s="39" t="n">
-        <v>10.24</v>
+        <v>10.32</v>
       </c>
       <c r="I314" s="39" t="n">
         <v>97.11</v>
@@ -26757,7 +26769,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>8.25</v>
@@ -26785,7 +26797,7 @@
         <v>3635</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>2474</v>
+        <v>2529</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>712</v>
@@ -26839,7 +26851,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>34.31</v>
+        <v>33.32</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.32</v>
@@ -26871,7 +26883,7 @@
         <v>9497</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2301</v>
+        <v>2230</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>393</v>
@@ -26925,7 +26937,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>67.59999999999999</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -27077,7 +27089,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>74.08</v>
+        <v>75.75</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.58</v>
@@ -27109,7 +27121,7 @@
         <v>10720</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>195</v>
@@ -27241,7 +27253,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>49.45</v>
+        <v>47.85</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27273,7 +27285,7 @@
         <v>92280</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>8822</v>
+        <v>8653</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>907</v>
@@ -27301,7 +27313,7 @@
       </c>
       <c r="V321" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=440061</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453867</t>
         </is>
       </c>
     </row>
@@ -27327,7 +27339,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>88.98</v>
+        <v>90.95</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>1</v>
@@ -27379,7 +27391,7 @@
       </c>
       <c r="V322" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=432585</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453853</t>
         </is>
       </c>
     </row>
@@ -27405,7 +27417,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>51.17</v>
+        <v>51.19</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.4</v>
@@ -27437,7 +27449,7 @@
         <v>1227</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>7920</v>
+        <v>7785</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>792</v>
@@ -27567,7 +27579,7 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>83.2</v>
+        <v>84</v>
       </c>
       <c r="F325" s="39" t="n">
         <v>1.17</v>
@@ -27645,7 +27657,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>93</v>
+        <v>92.61</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.25</v>
@@ -27697,7 +27709,7 @@
       </c>
       <c r="V326" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433550</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453631</t>
         </is>
       </c>
     </row>
@@ -27775,7 +27787,7 @@
       </c>
       <c r="V327" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=435505</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453546</t>
         </is>
       </c>
     </row>
@@ -27801,7 +27813,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>94.29000000000001</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>0.95</v>
@@ -27833,7 +27845,7 @@
         <v>45897</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>8137</v>
+        <v>8095</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1108</v>
@@ -27965,7 +27977,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -28123,7 +28135,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>119.92</v>
+        <v>119</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.74</v>
@@ -28155,7 +28167,7 @@
         <v>29967</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>10783</v>
+        <v>10418</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>971</v>
@@ -28287,7 +28299,7 @@
         </is>
       </c>
       <c r="E334" s="39" t="n">
-        <v>23.5</v>
+        <v>23.29</v>
       </c>
       <c r="F334" s="39" t="n">
         <v>0.31</v>
@@ -28339,7 +28351,7 @@
       </c>
       <c r="V334" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431818</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455118</t>
         </is>
       </c>
     </row>
@@ -28441,7 +28453,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>82.84</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>1.2563</v>
@@ -28519,7 +28531,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>51.37</v>
+        <v>51.01</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.54</v>
@@ -28551,7 +28563,7 @@
         <v>75612</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5683</v>
+        <v>5644</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>690</v>
@@ -28601,7 +28613,7 @@
       </c>
       <c r="D338" s="13" t="inlineStr"/>
       <c r="E338" s="39" t="n">
-        <v>62.01</v>
+        <v>63</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.7</v>
@@ -28757,7 +28769,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>49.38</v>
+        <v>47.01</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -28789,7 +28801,7 @@
         <v>7506</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>946</v>
+        <v>911</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>185</v>
@@ -28843,7 +28855,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>69.84</v>
+        <v>69.36</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.7</v>
@@ -28917,7 +28929,7 @@
       </c>
       <c r="D342" s="13" t="inlineStr"/>
       <c r="E342" s="39" t="n">
-        <v>97.65000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>0.9</v>
@@ -28995,7 +29007,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -29027,7 +29039,7 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2665</v>
+        <v>2907</v>
       </c>
       <c r="P343" s="13" t="n">
         <v>160</v>
@@ -29081,7 +29093,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>113</v>
+        <v>111.9</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>0.74</v>
@@ -29133,7 +29145,7 @@
       </c>
       <c r="V344" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=431822</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455117</t>
         </is>
       </c>
     </row>
@@ -29159,7 +29171,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>50.85</v>
+        <v>51</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.43</v>
@@ -29191,7 +29203,7 @@
         <v>11649</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>295</v>
@@ -29323,7 +29335,7 @@
       </c>
       <c r="D347" s="13" t="inlineStr"/>
       <c r="E347" s="39" t="n">
-        <v>94.37</v>
+        <v>93.31</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1.3</v>
@@ -29401,7 +29413,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>80.43000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>1</v>
@@ -29531,7 +29543,7 @@
       </c>
       <c r="V349" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=435154</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453549</t>
         </is>
       </c>
     </row>
@@ -29557,7 +29569,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>75.86</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29635,7 +29647,7 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>92.95999999999999</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="F351" s="39" t="n">
         <v>1.11</v>
@@ -29713,7 +29725,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>85.06999999999999</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -29957,7 +29969,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>80.77</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1.03</v>
@@ -30197,7 +30209,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>58.93</v>
+        <v>57.25</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.62</v>
@@ -30229,7 +30241,7 @@
         <v>37996</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2420</v>
+        <v>2356</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30359,7 +30371,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>4.94</v>
+        <v>4.93</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.033</v>
@@ -30391,7 +30403,7 @@
         <v>5159</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4250</v>
+        <v>4276</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>794</v>
@@ -30419,7 +30431,7 @@
       </c>
       <c r="V360" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=434766</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455251</t>
         </is>
       </c>
     </row>
@@ -30445,7 +30457,7 @@
         </is>
       </c>
       <c r="E361" s="39" t="n">
-        <v>93.98999999999999</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="F361" s="39" t="n">
         <v>0.83</v>
@@ -30477,7 +30489,7 @@
         <v>64841</v>
       </c>
       <c r="O361" s="13" t="n">
-        <v>1706</v>
+        <v>1676</v>
       </c>
       <c r="P361" s="13" t="n">
         <v>222</v>
@@ -30527,7 +30539,7 @@
       </c>
       <c r="D362" s="13" t="inlineStr"/>
       <c r="E362" s="39" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F362" s="39" t="n">
         <v>1.44</v>
@@ -30605,7 +30617,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>59.99</v>
+        <v>60</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.6904</v>
@@ -30862,7 +30874,7 @@
         <v>85.1617</v>
       </c>
       <c r="I366" s="39" t="n">
-        <v>1289.69</v>
+        <v>1290.01</v>
       </c>
       <c r="J366" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -30881,7 +30893,7 @@
         <v>3</v>
       </c>
       <c r="O366" s="13" t="n">
-        <v>13440</v>
+        <v>13436</v>
       </c>
       <c r="P366" s="13" t="n">
         <v>1160</v>
@@ -30935,7 +30947,7 @@
         </is>
       </c>
       <c r="E367" s="39" t="n">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="F367" s="39" t="inlineStr">
         <is>
@@ -30969,7 +30981,7 @@
         <v>29</v>
       </c>
       <c r="O367" s="13" t="n">
-        <v>3806</v>
+        <v>3780</v>
       </c>
       <c r="P367" s="13" t="n">
         <v>221</v>
@@ -31023,7 +31035,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>620</v>
+        <v>618.5</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>3.4</v>
@@ -31083,7 +31095,7 @@
       </c>
       <c r="V368" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=436336</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455085</t>
         </is>
       </c>
     </row>
@@ -31179,7 +31191,7 @@
       </c>
       <c r="D370" s="13" t="inlineStr"/>
       <c r="E370" s="39" t="n">
-        <v>100.04</v>
+        <v>100</v>
       </c>
       <c r="F370" s="39" t="n">
         <v>1.0986</v>
@@ -31253,7 +31265,7 @@
       </c>
       <c r="D371" s="13" t="n"/>
       <c r="E371" s="39" t="n">
-        <v>89.59</v>
+        <v>93.72</v>
       </c>
       <c r="F371" s="39" t="inlineStr">
         <is>
@@ -31333,7 +31345,7 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>93.48999999999999</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="F372" s="39" t="n">
         <v>1.05</v>
@@ -31487,7 +31499,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -31799,7 +31811,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>38.94</v>
+        <v>38.62</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -31831,7 +31843,7 @@
         <v>31286</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>4884</v>
+        <v>4866</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1052</v>
@@ -31859,7 +31871,7 @@
       </c>
       <c r="V378" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=438131</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454275</t>
         </is>
       </c>
     </row>
@@ -31963,7 +31975,7 @@
       </c>
       <c r="D380" s="13" t="inlineStr"/>
       <c r="E380" s="39" t="n">
-        <v>81.97</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>1</v>
@@ -32283,7 +32295,7 @@
       </c>
       <c r="D384" s="13" t="n"/>
       <c r="E384" s="39" t="n">
-        <v>130.62</v>
+        <v>130.78</v>
       </c>
       <c r="F384" s="39" t="inlineStr">
         <is>
@@ -32593,7 +32605,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>73.40000000000001</v>
+        <v>74.27</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.51</v>
@@ -32757,7 +32769,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>112.4</v>
+        <v>115.08</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.34</v>
@@ -32789,7 +32801,7 @@
         <v>102504</v>
       </c>
       <c r="O390" s="13" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P390" s="13" t="n">
         <v>2</v>
@@ -32817,7 +32829,7 @@
       </c>
       <c r="V390" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433982</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453870</t>
         </is>
       </c>
     </row>
@@ -32921,7 +32933,7 @@
       </c>
       <c r="D392" s="13" t="inlineStr"/>
       <c r="E392" s="39" t="n">
-        <v>262.5</v>
+        <v>262</v>
       </c>
       <c r="F392" s="39" t="n">
         <v>2.49</v>
@@ -33001,13 +33013,9 @@
           <t>Misto</t>
         </is>
       </c>
-      <c r="D393" s="13" t="inlineStr">
-        <is>
-          <t>Hectare Capital</t>
-        </is>
-      </c>
+      <c r="D393" s="13" t="n"/>
       <c r="E393" s="39" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -33249,7 +33257,7 @@
         </is>
       </c>
       <c r="E396" s="39" t="n">
-        <v>104.98</v>
+        <v>104.73</v>
       </c>
       <c r="F396" s="39" t="n">
         <v>0.4457</v>
@@ -33281,7 +33289,7 @@
         <v>715</v>
       </c>
       <c r="O396" s="13" t="n">
-        <v>6550</v>
+        <v>6551</v>
       </c>
       <c r="P396" s="13" t="n">
         <v>546</v>
@@ -33335,7 +33343,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.92</v>
@@ -33367,7 +33375,7 @@
         <v>195</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>3383</v>
+        <v>3558</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>457</v>
@@ -33421,7 +33429,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>104.68</v>
+        <v>103.96</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.85</v>
@@ -33453,7 +33461,7 @@
         <v>89314</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3504</v>
+        <v>3478</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>359</v>
@@ -33743,7 +33751,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.33</v>
@@ -33821,7 +33829,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>86.56999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>1.2</v>
@@ -33899,7 +33907,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>7.71</v>
+        <v>7.89</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.11</v>
@@ -33977,7 +33985,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>73.04000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.67</v>
@@ -34005,7 +34013,7 @@
         <v>3167</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>125</v>
@@ -34221,7 +34229,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>8.98</v>
+        <v>8.99</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.1</v>
@@ -34299,7 +34307,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>83.5</v>
+        <v>85.06</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>1.1</v>
@@ -34377,7 +34385,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.32</v>
+        <v>9.49</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.12</v>
@@ -34531,7 +34539,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.065</v>
@@ -34609,7 +34617,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>94.3</v>
+        <v>96.47</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.65</v>
@@ -34641,7 +34649,7 @@
         <v>156636</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2436</v>
+        <v>2495</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>247</v>
@@ -34695,7 +34703,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>42.73</v>
+        <v>40.62</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.31</v>
@@ -34727,7 +34735,7 @@
         <v>122986</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>10965</v>
+        <v>10393</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1135</v>
@@ -34781,7 +34789,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>107.84</v>
+        <v>107.05</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.82</v>
@@ -34813,7 +34821,7 @@
         <v>240425</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3257</v>
+        <v>3237</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>280</v>
@@ -34867,7 +34875,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>7.33</v>
+        <v>7.22</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -34899,7 +34907,7 @@
         <v>14999</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>2851</v>
+        <v>2816</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>308</v>
@@ -35273,7 +35281,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>82.5</v>
+        <v>82.55</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>1.13</v>
@@ -35325,7 +35333,7 @@
       </c>
       <c r="V421" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=427584</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455121</t>
         </is>
       </c>
     </row>
@@ -35433,7 +35441,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>84</v>
+        <v>83.37</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.95</v>
@@ -35589,7 +35597,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>66.5</v>
+        <v>69.98</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -35621,7 +35629,7 @@
         <v>2783</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>1818</v>
+        <v>1905</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>353</v>
@@ -35675,7 +35683,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.03</v>
@@ -35753,7 +35761,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>92.98999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -35785,7 +35793,7 @@
         <v>6235</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>96</v>
@@ -36223,7 +36231,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>9.300000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36461,7 +36469,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>8.44</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.1</v>
@@ -36539,7 +36547,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>61.99</v>
+        <v>59</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.45</v>
@@ -36571,7 +36579,7 @@
         <v>1806</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1679</v>
+        <v>1631</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>155</v>
@@ -36621,7 +36629,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>90.15000000000001</v>
+        <v>90.02</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>0.92</v>
@@ -36861,7 +36869,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>79.7</v>
+        <v>81.69</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>0.95</v>
@@ -36939,7 +36947,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>14</v>
+        <v>13.56</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.1</v>
@@ -36971,7 +36979,7 @@
         <v>26823</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -37025,7 +37033,7 @@
         </is>
       </c>
       <c r="E443" s="39" t="n">
-        <v>110</v>
+        <v>110.47</v>
       </c>
       <c r="F443" s="39" t="n">
         <v>1.1</v>
@@ -37057,7 +37065,7 @@
         <v>1327</v>
       </c>
       <c r="O443" s="13" t="n">
-        <v>20543</v>
+        <v>19984</v>
       </c>
       <c r="P443" s="13" t="n">
         <v>1029</v>
@@ -37107,7 +37115,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>30.5</v>
+        <v>28</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37137,7 +37145,7 @@
         <v>1327</v>
       </c>
       <c r="O444" s="13" t="n">
-        <v>5696</v>
+        <v>4904</v>
       </c>
       <c r="P444" s="13" t="n">
         <v>1029</v>
@@ -37191,7 +37199,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>73</v>
+        <v>73.78</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37223,7 +37231,7 @@
         <v>44997</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>201</v>
@@ -37277,7 +37285,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.74</v>
@@ -37309,7 +37317,7 @@
         <v>306888</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>2138</v>
+        <v>2116</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>179</v>
@@ -37363,7 +37371,7 @@
         </is>
       </c>
       <c r="E447" s="39" t="n">
-        <v>103.15</v>
+        <v>101.63</v>
       </c>
       <c r="F447" s="39" t="n">
         <v>0.8</v>
@@ -37395,7 +37403,7 @@
         <v>308245</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>5060</v>
+        <v>5016</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>365</v>
@@ -37449,7 +37457,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>23.16</v>
+        <v>23.05</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.1</v>
@@ -37669,7 +37677,7 @@
       </c>
       <c r="V450" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=439841</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=454728</t>
         </is>
       </c>
     </row>
@@ -37773,7 +37781,7 @@
       </c>
       <c r="D452" s="13" t="inlineStr"/>
       <c r="E452" s="39" t="n">
-        <v>1069.99</v>
+        <v>1080</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -37847,7 +37855,7 @@
       </c>
       <c r="D453" s="13" t="n"/>
       <c r="E453" s="39" t="n">
-        <v>10.74</v>
+        <v>10.89</v>
       </c>
       <c r="F453" s="39" t="n">
         <v>0.16</v>
@@ -37923,7 +37931,7 @@
       </c>
       <c r="D454" s="13" t="n"/>
       <c r="E454" s="39" t="n">
-        <v>79.84999999999999</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>1.2</v>
@@ -37933,7 +37941,7 @@
         <v/>
       </c>
       <c r="H454" s="39" t="n">
-        <v>9.460000000000001</v>
+        <v>10.48</v>
       </c>
       <c r="I454" s="39" t="inlineStr">
         <is>
@@ -38075,7 +38083,7 @@
       </c>
       <c r="D456" s="13" t="n"/>
       <c r="E456" s="39" t="n">
-        <v>94.5</v>
+        <v>96.05</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.45</v>
@@ -38151,7 +38159,7 @@
       </c>
       <c r="D457" s="13" t="n"/>
       <c r="E457" s="39" t="n">
-        <v>8.75</v>
+        <v>8.9</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38227,7 +38235,7 @@
       </c>
       <c r="D458" s="13" t="n"/>
       <c r="E458" s="39" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>1.54</v>
@@ -38379,7 +38387,7 @@
       </c>
       <c r="D460" s="13" t="n"/>
       <c r="E460" s="39" t="n">
-        <v>9.609999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.14</v>
@@ -38455,7 +38463,7 @@
       </c>
       <c r="D461" s="13" t="n"/>
       <c r="E461" s="39" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F461" s="39" t="inlineStr">
         <is>
@@ -38467,7 +38475,7 @@
         <v/>
       </c>
       <c r="H461" s="39" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I461" s="39" t="inlineStr">
         <is>
@@ -38533,7 +38541,7 @@
       </c>
       <c r="D462" s="13" t="n"/>
       <c r="E462" s="39" t="n">
-        <v>91.52</v>
+        <v>92.48</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.27</v>
@@ -38609,7 +38617,7 @@
       </c>
       <c r="D463" s="13" t="n"/>
       <c r="E463" s="39" t="n">
-        <v>34.71</v>
+        <v>37.79</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.51</v>
@@ -38619,7 +38627,7 @@
         <v/>
       </c>
       <c r="H463" s="39" t="n">
-        <v>6</v>
+        <v>6.46</v>
       </c>
       <c r="I463" s="39" t="inlineStr">
         <is>
@@ -38685,7 +38693,7 @@
       </c>
       <c r="D464" s="13" t="n"/>
       <c r="E464" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>94.75</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.4</v>
@@ -38695,7 +38703,7 @@
         <v/>
       </c>
       <c r="H464" s="39" t="n">
-        <v>13.19</v>
+        <v>14.36</v>
       </c>
       <c r="I464" s="39" t="inlineStr">
         <is>
@@ -38761,7 +38769,7 @@
       </c>
       <c r="D465" s="13" t="n"/>
       <c r="E465" s="39" t="n">
-        <v>106.08</v>
+        <v>104.7</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.4</v>
@@ -38771,7 +38779,7 @@
         <v/>
       </c>
       <c r="H465" s="39" t="n">
-        <v>14.79</v>
+        <v>15.92</v>
       </c>
       <c r="I465" s="39" t="inlineStr">
         <is>
@@ -38837,7 +38845,7 @@
       </c>
       <c r="D466" s="13" t="n"/>
       <c r="E466" s="39" t="n">
-        <v>107.99</v>
+        <v>106.9</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.68</v>
@@ -38847,7 +38855,7 @@
         <v/>
       </c>
       <c r="H466" s="39" t="n">
-        <v>17.89</v>
+        <v>19.64</v>
       </c>
       <c r="I466" s="39" t="inlineStr">
         <is>
@@ -38989,7 +38997,7 @@
       </c>
       <c r="D468" s="13" t="n"/>
       <c r="E468" s="39" t="n">
-        <v>10.3</v>
+        <v>10.32</v>
       </c>
       <c r="F468" s="39" t="n">
         <v>0.14</v>
@@ -39043,7 +39051,7 @@
       </c>
       <c r="V468" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=433754</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=453345</t>
         </is>
       </c>
     </row>
@@ -39065,7 +39073,7 @@
       </c>
       <c r="D469" s="13" t="n"/>
       <c r="E469" s="39" t="n">
-        <v>9.59</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.15</v>
@@ -39141,7 +39149,7 @@
       </c>
       <c r="D470" s="13" t="n"/>
       <c r="E470" s="39" t="n">
-        <v>85.79000000000001</v>
+        <v>84</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.12</v>
@@ -39151,7 +39159,7 @@
         <v/>
       </c>
       <c r="H470" s="39" t="n">
-        <v>8.51</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I470" s="39" t="inlineStr">
         <is>
@@ -39217,7 +39225,7 @@
       </c>
       <c r="D471" s="13" t="n"/>
       <c r="E471" s="39" t="n">
-        <v>10.27</v>
+        <v>10.15</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.09</v>
@@ -39227,7 +39235,7 @@
         <v/>
       </c>
       <c r="H471" s="39" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="I471" s="39" t="inlineStr">
         <is>
@@ -39293,7 +39301,7 @@
       </c>
       <c r="D472" s="13" t="n"/>
       <c r="E472" s="39" t="n">
-        <v>9.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.11</v>
@@ -39303,7 +39311,7 @@
         <v/>
       </c>
       <c r="H472" s="39" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="I472" s="39" t="inlineStr">
         <is>
@@ -39449,7 +39457,7 @@
       </c>
       <c r="D474" s="13" t="inlineStr"/>
       <c r="E474" s="39" t="n">
-        <v>100.5</v>
+        <v>99.72</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.5</v>
@@ -39459,7 +39467,7 @@
         <v/>
       </c>
       <c r="H474" s="39" t="n">
-        <v>13.8</v>
+        <v>14.99</v>
       </c>
       <c r="I474" s="39" t="inlineStr">
         <is>
@@ -39525,7 +39533,7 @@
       </c>
       <c r="D475" s="13" t="n"/>
       <c r="E475" s="39" t="n">
-        <v>9.42</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F475" s="39" t="n">
         <v>0.15</v>
@@ -39579,7 +39587,7 @@
       </c>
       <c r="V475" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=449389</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=455266</t>
         </is>
       </c>
     </row>
@@ -39601,7 +39609,7 @@
       </c>
       <c r="D476" s="13" t="n"/>
       <c r="E476" s="39" t="n">
-        <v>9.93</v>
+        <v>9.82</v>
       </c>
       <c r="F476" s="39" t="n">
         <v>0.15</v>
@@ -39611,7 +39619,7 @@
         <v/>
       </c>
       <c r="H476" s="39" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="I476" s="39" t="inlineStr">
         <is>

--- a/fiis_thales_st.xlsx
+++ b/fiis_thales_st.xlsx
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E2" s="39" t="n">
-        <v>70.65000000000001</v>
+        <v>69</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>0.5</v>
@@ -1629,7 +1629,7 @@
         <v>17906</v>
       </c>
       <c r="O2" s="13" t="n">
-        <v>4752</v>
+        <v>4588</v>
       </c>
       <c r="P2" s="13" t="n">
         <v>938</v>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="E4" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F4" s="39" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="G4" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="E6" s="39" t="n">
-        <v>71.98999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>0.76</v>
@@ -1949,7 +1949,7 @@
         <v>15088</v>
       </c>
       <c r="O6" s="13" t="n">
-        <v>14721</v>
+        <v>14290</v>
       </c>
       <c r="P6" s="13" t="n">
         <v>2233</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E7" s="39" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3711</v>
@@ -2035,7 +2035,7 @@
         <v>2367</v>
       </c>
       <c r="O7" s="13" t="n">
-        <v>4825</v>
+        <v>4889</v>
       </c>
       <c r="P7" s="13" t="n">
         <v>480</v>
@@ -2161,10 +2161,10 @@
       </c>
       <c r="D9" s="13" t="n"/>
       <c r="E9" s="39" t="n">
-        <v>92.34999999999999</v>
+        <v>91.92</v>
       </c>
       <c r="F9" s="39" t="n">
-        <v>0.85</v>
+        <v>0.709</v>
       </c>
       <c r="G9" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E10" s="39" t="n">
-        <v>115.76</v>
+        <v>114.5</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>0.825</v>
@@ -2271,7 +2271,7 @@
         <v>139441</v>
       </c>
       <c r="O10" s="13" t="n">
-        <v>7298</v>
+        <v>7206</v>
       </c>
       <c r="P10" s="13" t="n">
         <v>558</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="V10" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=493611</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510815</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>9010</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>875</v>
+        <v>1057</v>
       </c>
       <c r="Q11" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="E12" s="39" t="n">
-        <v>9.94</v>
+        <v>9.93</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>0.1</v>
@@ -2443,7 +2443,7 @@
         <v>8563</v>
       </c>
       <c r="O12" s="13" t="n">
-        <v>17663</v>
+        <v>17680</v>
       </c>
       <c r="P12" s="13" t="n">
         <v>1258</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="V12" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=503974</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511173</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="D13" s="13" t="n"/>
       <c r="E13" s="39" t="n">
-        <v>118.75</v>
+        <v>106</v>
       </c>
       <c r="F13" s="39" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E17" s="39" t="n">
-        <v>9.01</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F17" s="39" t="n">
         <v>0.1</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E18" s="39" t="n">
-        <v>48.93</v>
+        <v>48.51</v>
       </c>
       <c r="F18" s="39" t="n">
         <v>0.77</v>
@@ -2905,7 +2905,7 @@
         <v>495</v>
       </c>
       <c r="O18" s="13" t="n">
-        <v>4563</v>
+        <v>4599</v>
       </c>
       <c r="P18" s="13" t="n">
         <v>748</v>
@@ -2979,7 +2979,7 @@
         <v/>
       </c>
       <c r="K19" s="14" t="n">
-        <v>0.8440000000000001</v>
+        <v>0.275</v>
       </c>
       <c r="L19" s="14" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="E20" s="39" t="n">
-        <v>57.86</v>
+        <v>55.9</v>
       </c>
       <c r="F20" s="39" t="n">
         <v>0.05</v>
@@ -3073,7 +3073,7 @@
         <v>278</v>
       </c>
       <c r="O20" s="13" t="n">
-        <v>2956</v>
+        <v>2861</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>72</v>
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="E23" s="39" t="n">
-        <v>87.5</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G23" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="V23" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494921</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510832</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="E24" s="39" t="n">
-        <v>1019.95</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="39" t="n">
         <v>6.2091</v>
@@ -3395,7 +3395,7 @@
         <v>8141</v>
       </c>
       <c r="O24" s="13" t="n">
-        <v>1442</v>
+        <v>1415</v>
       </c>
       <c r="P24" s="13" t="n">
         <v>465</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="E25" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>75.45</v>
       </c>
       <c r="F25" s="39" t="n">
         <v>0.7</v>
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="E27" s="39" t="n">
-        <v>97.5</v>
+        <v>97.64</v>
       </c>
       <c r="F27" s="39" t="n">
         <v>0.9</v>
@@ -3637,7 +3637,7 @@
         <v>74552</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3964</v>
+        <v>3972</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>463</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="E28" s="39" t="n">
-        <v>115</v>
+        <v>116.65</v>
       </c>
       <c r="F28" s="39" t="n">
         <v>1.13</v>
@@ -3723,7 +3723,7 @@
         <v>9608</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>11356</v>
+        <v>11474</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>1442</v>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="E29" s="39" t="n">
-        <v>73.45</v>
+        <v>70.39</v>
       </c>
       <c r="F29" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="V29" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=487005</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510819</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="E30" s="39" t="n">
-        <v>103.15</v>
+        <v>103.54</v>
       </c>
       <c r="F30" s="39" t="n">
         <v>0.8</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E31" s="39" t="n">
-        <v>71.31999999999999</v>
+        <v>69.64</v>
       </c>
       <c r="F31" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="V31" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494957</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510784</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="E33" s="39" t="n">
-        <v>97.91</v>
+        <v>96.09</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.66</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E34" s="39" t="n">
-        <v>7.7</v>
+        <v>7.44</v>
       </c>
       <c r="F34" s="39" t="n">
         <v>0.08</v>
@@ -4199,7 +4199,7 @@
         <v>8730</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="P34" s="13" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="E36" s="39" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F36" s="39" t="n">
         <v>0.57</v>
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="E38" s="39" t="n">
-        <v>82.73</v>
+        <v>83.5</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="G38" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="E39" s="39" t="n">
-        <v>66.12</v>
+        <v>61.13</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>0.7</v>
@@ -4609,7 +4609,7 @@
         <v>13661</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="P39" s="13" t="n">
         <v>39</v>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="E40" s="39" t="n">
-        <v>20538</v>
+        <v>19000</v>
       </c>
       <c r="F40" s="39" t="n">
         <v>100</v>
@@ -4695,7 +4695,7 @@
         <v>93</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>9995</v>
+        <v>9247</v>
       </c>
       <c r="P40" s="13" t="n">
         <v>584</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="E41" s="39" t="n">
-        <v>7.37</v>
+        <v>7.38</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>0.06</v>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="E42" s="39" t="n">
-        <v>93.23999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F42" s="39" t="n">
         <v>1.03</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="E44" s="39" t="n">
-        <v>105.19</v>
+        <v>106.39</v>
       </c>
       <c r="F44" s="39" t="n">
         <v>0.76</v>
@@ -5019,7 +5019,7 @@
         <v>1505</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>12167</v>
+        <v>12171</v>
       </c>
       <c r="P44" s="13" t="n">
         <v>1311</v>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E45" s="39" t="n">
-        <v>120.84</v>
+        <v>121.98</v>
       </c>
       <c r="F45" s="39" t="n">
         <v>1.5288</v>
@@ -5105,7 +5105,7 @@
         <v>4627</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>7790</v>
+        <v>7877</v>
       </c>
       <c r="P45" s="13" t="n">
         <v>1345</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="V45" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=493315</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511719</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="E46" s="39" t="n">
-        <v>73.05</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="F46" s="39" t="n">
         <v>0.62</v>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="E48" s="39" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="F48" s="39" t="n">
         <v>0.2705</v>
@@ -5351,7 +5351,7 @@
         <v>1512</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>3523</v>
+        <v>3621</v>
       </c>
       <c r="P48" s="13" t="n">
         <v>711</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="E50" s="39" t="n">
-        <v>122.66</v>
+        <v>124.08</v>
       </c>
       <c r="F50" s="39" t="n">
         <v>0.87</v>
@@ -5523,7 +5523,7 @@
         <v>113767</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>3787</v>
+        <v>3850</v>
       </c>
       <c r="P50" s="13" t="n">
         <v>340</v>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="E51" s="39" t="n">
-        <v>64.69</v>
+        <v>60.88</v>
       </c>
       <c r="F51" s="39" t="n">
         <v>0.45</v>
@@ -5609,7 +5609,7 @@
         <v>155212</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>48984</v>
+        <v>45387</v>
       </c>
       <c r="P51" s="13" t="n">
         <v>5203</v>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="E52" s="39" t="n">
-        <v>104.99</v>
+        <v>104.6</v>
       </c>
       <c r="F52" s="39" t="n">
         <v>0.57</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>3643.2</v>
+        <v>995.8</v>
       </c>
       <c r="J56" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E57" s="39" t="n">
-        <v>149.5</v>
+        <v>147.95</v>
       </c>
       <c r="F57" s="39" t="n">
         <v>1.425</v>
@@ -6097,7 +6097,7 @@
         <v>275</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="P57" s="13" t="n">
         <v>94</v>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="E59" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F59" s="39" t="n">
         <v>0.73</v>
@@ -6259,7 +6259,7 @@
         <v>44569</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>1606</v>
+        <v>1568</v>
       </c>
       <c r="P59" s="13" t="n">
         <v>164</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="V59" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495272</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511992</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         </is>
       </c>
       <c r="E61" s="39" t="n">
-        <v>103.34</v>
+        <v>103.08</v>
       </c>
       <c r="F61" s="39" t="n">
         <v>0.76</v>
@@ -6423,7 +6423,7 @@
         <v>224480</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4054</v>
+        <v>4085</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>249</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="V61" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=487469</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510850</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="E62" s="39" t="n">
-        <v>75.78</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="F62" s="39" t="n">
         <v>0.5600000000000001</v>
@@ -6487,7 +6487,7 @@
         <v/>
       </c>
       <c r="H62" s="39" t="n">
-        <v>9.685</v>
+        <v>9.545</v>
       </c>
       <c r="I62" s="39" t="n">
         <v>119.02</v>
@@ -6659,7 +6659,7 @@
         <v/>
       </c>
       <c r="H64" s="39" t="n">
-        <v>5.73</v>
+        <v>6.46</v>
       </c>
       <c r="I64" s="39" t="n">
         <v>122.02</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>20.49</v>
+        <v>13.04</v>
       </c>
       <c r="G66" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="E68" s="39" t="n">
-        <v>17.01</v>
+        <v>17</v>
       </c>
       <c r="F68" s="39" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="E69" s="39" t="n">
-        <v>106.44</v>
+        <v>106.8</v>
       </c>
       <c r="F69" s="39" t="n">
         <v>1.42</v>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="E70" s="39" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="F70" s="39" t="n">
         <v>0.008399999999999999</v>
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="E71" s="39" t="n">
-        <v>34.64</v>
+        <v>32.66</v>
       </c>
       <c r="F71" s="39" t="n">
         <v>0.12</v>
@@ -7249,7 +7249,7 @@
         <v>3382</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>2993</v>
+        <v>2858</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>303</v>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="E72" s="39" t="n">
-        <v>105.85</v>
+        <v>108</v>
       </c>
       <c r="F72" s="39" t="n">
         <v>0.9</v>
@@ -7335,7 +7335,7 @@
         <v>148</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>8110</v>
+        <v>7962</v>
       </c>
       <c r="P72" s="13" t="n">
         <v>133</v>
@@ -7389,10 +7389,10 @@
         </is>
       </c>
       <c r="E73" s="39" t="n">
-        <v>90.01000000000001</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>1.65</v>
+        <v>1.0757</v>
       </c>
       <c r="G73" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E74" s="39" t="n">
-        <v>51.79</v>
+        <v>51.6</v>
       </c>
       <c r="F74" s="39" t="n">
         <v>0.6482</v>
@@ -7499,7 +7499,7 @@
         <v>4856</v>
       </c>
       <c r="O74" s="13" t="n">
-        <v>5753</v>
+        <v>5886</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>918</v>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="E77" s="39" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="39" t="n">
         <v>0.08</v>
@@ -7743,7 +7743,7 @@
         <v>1145</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>10150</v>
+        <v>10304</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>568</v>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="V77" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=492895</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511493</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
         </is>
       </c>
       <c r="E79" s="39" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F79" s="39" t="n">
         <v>0.0868</v>
@@ -7891,7 +7891,7 @@
         <v/>
       </c>
       <c r="H79" s="39" t="n">
-        <v>1.2879</v>
+        <v>1.2655</v>
       </c>
       <c r="I79" s="39" t="n">
         <v>90.76000000000001</v>
@@ -7913,7 +7913,7 @@
         <v>1728</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>180</v>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="E80" s="39" t="n">
-        <v>77.59</v>
+        <v>78.73</v>
       </c>
       <c r="F80" s="39" t="n">
         <v>0.7</v>
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="E81" s="39" t="n">
-        <v>87.55</v>
+        <v>86.45</v>
       </c>
       <c r="F81" s="39" t="n">
         <v>0.89</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="E82" s="39" t="n">
-        <v>80.84999999999999</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="F82" s="39" t="n">
         <v>0.63</v>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="V82" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496486</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511366</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="E84" s="39" t="n">
-        <v>12.54</v>
+        <v>12.44</v>
       </c>
       <c r="F84" s="39" t="n">
         <v>0.01</v>
@@ -8309,7 +8309,7 @@
         <v>2933</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>936</v>
+        <v>908</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>6</v>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="E85" s="39" t="n">
-        <v>92.91</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="F85" s="39" t="n">
         <v>0.85</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="G86" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="E87" s="39" t="n">
-        <v>83.2</v>
+        <v>85.81</v>
       </c>
       <c r="F87" s="39" t="n">
         <v>0.71</v>
@@ -8551,7 +8551,7 @@
         <v>11823</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>3026</v>
+        <v>3122</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>358</v>
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="E88" s="39" t="n">
-        <v>43.47</v>
+        <v>43.1</v>
       </c>
       <c r="F88" s="39" t="n">
         <v>0.4082</v>
@@ -8637,7 +8637,7 @@
         <v>3799</v>
       </c>
       <c r="O88" s="13" t="n">
-        <v>3486</v>
+        <v>3465</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>443</v>
@@ -8691,7 +8691,7 @@
         </is>
       </c>
       <c r="E89" s="39" t="n">
-        <v>89.98999999999999</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="F89" s="39" t="n">
         <v>0.85</v>
@@ -8769,7 +8769,7 @@
         </is>
       </c>
       <c r="E90" s="39" t="n">
-        <v>80.48999999999999</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F90" s="39" t="n">
         <v>0.7403</v>
@@ -8801,7 +8801,7 @@
         <v>13830</v>
       </c>
       <c r="O90" s="13" t="n">
-        <v>3412</v>
+        <v>3452</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>402</v>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="E91" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="F91" s="39" t="n">
         <v>0.57</v>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="V91" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496484</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511351</t>
         </is>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
         </is>
       </c>
       <c r="E92" s="39" t="n">
-        <v>305</v>
+        <v>294.01</v>
       </c>
       <c r="F92" s="39" t="n">
         <v>2.0167</v>
@@ -8965,7 +8965,7 @@
         <v>764</v>
       </c>
       <c r="O92" s="13" t="n">
-        <v>2191</v>
+        <v>2112</v>
       </c>
       <c r="P92" s="13" t="n">
         <v>321</v>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="E93" s="39" t="n">
-        <v>9.35</v>
+        <v>9.49</v>
       </c>
       <c r="F93" s="39" t="n">
         <v>0.1</v>
@@ -9173,7 +9173,7 @@
         </is>
       </c>
       <c r="E95" s="39" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="F95" s="39" t="n">
         <v>0.0717</v>
@@ -9205,7 +9205,7 @@
         <v>581</v>
       </c>
       <c r="O95" s="13" t="n">
-        <v>2221</v>
+        <v>1993</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>100</v>
@@ -9259,7 +9259,7 @@
         </is>
       </c>
       <c r="E96" s="39" t="n">
-        <v>48.62</v>
+        <v>45.91</v>
       </c>
       <c r="F96" s="39" t="n">
         <v>0.5</v>
@@ -9534,7 +9534,7 @@
         <v>25683</v>
       </c>
       <c r="P99" s="13" t="n">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="Q99" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -9588,7 +9588,7 @@
         <v>1200.69</v>
       </c>
       <c r="F100" s="39" t="n">
-        <v>10.1286</v>
+        <v>8.2104</v>
       </c>
       <c r="G100" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E101" s="39" t="n">
-        <v>96.14</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="F101" s="39" t="n">
         <v>0.8</v>
@@ -9703,7 +9703,7 @@
         <v>146</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>2706</v>
+        <v>2683</v>
       </c>
       <c r="P101" s="13" t="n">
         <v>233</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="V101" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=493549</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511192</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
         </is>
       </c>
       <c r="E102" s="39" t="n">
-        <v>95</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="F102" s="39" t="n">
         <v>0.77</v>
@@ -9789,7 +9789,7 @@
         <v>353</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>8686</v>
+        <v>8736</v>
       </c>
       <c r="P102" s="13" t="n">
         <v>1062</v>
@@ -9843,7 +9843,7 @@
         </is>
       </c>
       <c r="E103" s="39" t="n">
-        <v>84.5</v>
+        <v>85.39</v>
       </c>
       <c r="F103" s="39" t="n">
         <v>0.8</v>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="V103" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494773</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510836</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E104" s="39" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F104" s="39" t="n">
         <v>1.766</v>
@@ -9953,7 +9953,7 @@
         <v>543</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>127102</v>
+        <v>130412</v>
       </c>
       <c r="P104" s="13" t="n">
         <v>14741</v>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="V104" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=493317</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511720</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="E105" s="39" t="n">
-        <v>21.82</v>
+        <v>20.05</v>
       </c>
       <c r="F105" s="39" t="n">
         <v>0.0684</v>
@@ -10017,7 +10017,7 @@
         <v/>
       </c>
       <c r="H105" s="39" t="n">
-        <v>1.3793</v>
+        <v>1.3559</v>
       </c>
       <c r="I105" s="39" t="n">
         <v>61.24</v>
@@ -10039,7 +10039,7 @@
         <v>5571</v>
       </c>
       <c r="O105" s="13" t="n">
-        <v>3309</v>
+        <v>3107</v>
       </c>
       <c r="P105" s="13" t="n">
         <v>332</v>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="V105" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=480686</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511242</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="D106" s="13" t="n"/>
       <c r="E106" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="F106" s="39" t="inlineStr">
         <is>
@@ -10172,14 +10172,14 @@
         <v>762.38</v>
       </c>
       <c r="F107" s="39" t="n">
-        <v>0.41</v>
+        <v>6.6</v>
       </c>
       <c r="G107" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
       <c r="H107" s="39" t="n">
-        <v>106.17</v>
+        <v>105.22</v>
       </c>
       <c r="I107" s="39" t="n">
         <v>1439.57</v>
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="E108" s="39" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F108" s="39" t="n">
         <v>0.11</v>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="V108" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494808</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511210</t>
         </is>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="V109" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495615</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510818</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="E112" s="39" t="n">
-        <v>244.99</v>
+        <v>241.01</v>
       </c>
       <c r="F112" s="39" t="n">
         <v>1.85</v>
@@ -10609,7 +10609,7 @@
         <v>2437</v>
       </c>
       <c r="O112" s="13" t="n">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="P112" s="13" t="n">
         <v>83</v>
@@ -10695,7 +10695,7 @@
         <v>1047</v>
       </c>
       <c r="O113" s="13" t="n">
-        <v>5640</v>
+        <v>5666</v>
       </c>
       <c r="P113" s="13" t="n">
         <v>429</v>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="V113" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=490334</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511987</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
         <v>88</v>
       </c>
       <c r="F114" s="39" t="n">
-        <v>1.04</v>
+        <v>1.0519</v>
       </c>
       <c r="G114" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="E115" s="39" t="n">
-        <v>168.51</v>
+        <v>170.01</v>
       </c>
       <c r="F115" s="39" t="n">
         <v>1.48</v>
@@ -10859,7 +10859,7 @@
         <v>4690</v>
       </c>
       <c r="O115" s="13" t="n">
-        <v>2889</v>
+        <v>2872</v>
       </c>
       <c r="P115" s="13" t="n">
         <v>336</v>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="E118" s="39" t="n">
-        <v>94.16</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="F118" s="39" t="n">
         <v>0.84</v>
@@ -11107,7 +11107,7 @@
         <v>1935</v>
       </c>
       <c r="O118" s="13" t="n">
-        <v>23202</v>
+        <v>23228</v>
       </c>
       <c r="P118" s="13" t="n">
         <v>2096</v>
@@ -11243,10 +11243,10 @@
         </is>
       </c>
       <c r="E120" s="39" t="n">
-        <v>117.17</v>
+        <v>116.5</v>
       </c>
       <c r="F120" s="39" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="G120" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -11275,7 +11275,7 @@
         <v>3634</v>
       </c>
       <c r="O120" s="13" t="n">
-        <v>13203</v>
+        <v>13093</v>
       </c>
       <c r="P120" s="13" t="n">
         <v>1168</v>
@@ -11463,7 +11463,7 @@
         </is>
       </c>
       <c r="E123" s="39" t="n">
-        <v>62.68</v>
+        <v>63.15</v>
       </c>
       <c r="F123" s="39" t="n">
         <v>0.45</v>
@@ -11495,7 +11495,7 @@
         <v>15034</v>
       </c>
       <c r="O123" s="13" t="n">
-        <v>2758</v>
+        <v>2766</v>
       </c>
       <c r="P123" s="13" t="n">
         <v>239</v>
@@ -11549,7 +11549,7 @@
         </is>
       </c>
       <c r="E124" s="39" t="n">
-        <v>507.01</v>
+        <v>524.0599999999999</v>
       </c>
       <c r="F124" s="39" t="n">
         <v>3.7</v>
@@ -11581,7 +11581,7 @@
         <v>16764</v>
       </c>
       <c r="O124" s="13" t="n">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="P124" s="13" t="n">
         <v>59</v>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="E125" s="39" t="n">
-        <v>175.06</v>
+        <v>176.96</v>
       </c>
       <c r="F125" s="39" t="n">
         <v>1.44</v>
@@ -11667,7 +11667,7 @@
         <v>7747</v>
       </c>
       <c r="O125" s="13" t="n">
-        <v>2337</v>
+        <v>2364</v>
       </c>
       <c r="P125" s="13" t="n">
         <v>256</v>
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="E129" s="39" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="F129" s="39" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="E130" s="39" t="n">
-        <v>95.23999999999999</v>
+        <v>95.94</v>
       </c>
       <c r="F130" s="39" t="n">
         <v>0.9</v>
@@ -12125,7 +12125,7 @@
         </is>
       </c>
       <c r="E131" s="39" t="n">
-        <v>142.81</v>
+        <v>141.87</v>
       </c>
       <c r="F131" s="39" t="n">
         <v>0.9399999999999999</v>
@@ -12157,7 +12157,7 @@
         <v>15624</v>
       </c>
       <c r="O131" s="13" t="n">
-        <v>11322</v>
+        <v>11214</v>
       </c>
       <c r="P131" s="13" t="n">
         <v>1029</v>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="V131" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=493125</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511976</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
         </is>
       </c>
       <c r="E132" s="39" t="n">
-        <v>1985.34</v>
+        <v>1984.99</v>
       </c>
       <c r="F132" s="39" t="n">
         <v>13.5</v>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="V133" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=488142</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=503749</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="E135" s="39" t="n">
-        <v>181.73</v>
+        <v>199.89</v>
       </c>
       <c r="F135" s="39" t="n">
         <v>5.67</v>
@@ -12493,7 +12493,7 @@
         <v>954</v>
       </c>
       <c r="O135" s="13" t="n">
-        <v>2963</v>
+        <v>3270</v>
       </c>
       <c r="P135" s="13" t="n">
         <v>428</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="E140" s="39" t="n">
-        <v>125.63</v>
+        <v>127</v>
       </c>
       <c r="F140" s="39" t="n">
         <v>1.14</v>
@@ -12917,7 +12917,7 @@
         <v>3885</v>
       </c>
       <c r="O140" s="13" t="n">
-        <v>6207</v>
+        <v>6062</v>
       </c>
       <c r="P140" s="13" t="n">
         <v>895</v>
@@ -13003,7 +13003,7 @@
         <v>64921</v>
       </c>
       <c r="O141" s="13" t="n">
-        <v>5118</v>
+        <v>5090</v>
       </c>
       <c r="P141" s="13" t="n">
         <v>496</v>
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="E142" s="39" t="n">
-        <v>9.26</v>
+        <v>9.08</v>
       </c>
       <c r="F142" s="39" t="n">
         <v>0.1</v>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="V142" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495638</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511971</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="E144" s="39" t="n">
-        <v>88.89</v>
+        <v>88.39</v>
       </c>
       <c r="F144" s="39" t="n">
         <v>1</v>
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="E146" s="39" t="n">
-        <v>117.51</v>
+        <v>117</v>
       </c>
       <c r="F146" s="39" t="n">
         <v>0.95</v>
@@ -13409,7 +13409,7 @@
         <v>105282</v>
       </c>
       <c r="O146" s="13" t="n">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="P146" s="13" t="n">
         <v>116</v>
@@ -13625,7 +13625,7 @@
         </is>
       </c>
       <c r="E149" s="39" t="n">
-        <v>7.64</v>
+        <v>7.9</v>
       </c>
       <c r="F149" s="39" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="E151" s="39" t="n">
-        <v>85.26000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F151" s="39" t="n">
         <v>0.79</v>
@@ -13827,7 +13827,7 @@
         <v>29125</v>
       </c>
       <c r="O151" s="13" t="n">
-        <v>11470</v>
+        <v>11603</v>
       </c>
       <c r="P151" s="13" t="n">
         <v>1353</v>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="D152" s="13" t="n"/>
       <c r="E152" s="39" t="n">
-        <v>103.3</v>
+        <v>105</v>
       </c>
       <c r="F152" s="39" t="n">
         <v>0.7</v>
@@ -13905,7 +13905,7 @@
         <v>19</v>
       </c>
       <c r="O152" s="13" t="n">
-        <v>20411</v>
+        <v>20747</v>
       </c>
       <c r="P152" s="13" t="n">
         <v>3114</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="39" t="n">
-        <v>83.56</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="J154" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -14063,7 +14063,7 @@
       <c r="K154" s="14" t="n"/>
       <c r="L154" s="14" t="n"/>
       <c r="M154" s="13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N154" s="13" t="n">
         <v>1</v>
@@ -14119,7 +14119,7 @@
         </is>
       </c>
       <c r="E155" s="39" t="n">
-        <v>63.4</v>
+        <v>63.5</v>
       </c>
       <c r="F155" s="39" t="n">
         <v>0.29</v>
@@ -14151,7 +14151,7 @@
         <v>319</v>
       </c>
       <c r="O155" s="13" t="n">
-        <v>15789</v>
+        <v>15814</v>
       </c>
       <c r="P155" s="13" t="n">
         <v>1477</v>
@@ -14205,7 +14205,7 @@
         </is>
       </c>
       <c r="E156" s="39" t="n">
-        <v>97</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="F156" s="39" t="n">
         <v>1.2</v>
@@ -14283,7 +14283,7 @@
         </is>
       </c>
       <c r="E157" s="39" t="n">
-        <v>119.97</v>
+        <v>115.29</v>
       </c>
       <c r="F157" s="39" t="n">
         <v>0.6437</v>
@@ -14315,7 +14315,7 @@
         <v>39</v>
       </c>
       <c r="O157" s="13" t="n">
-        <v>8246</v>
+        <v>7925</v>
       </c>
       <c r="P157" s="13" t="n">
         <v>691</v>
@@ -14369,7 +14369,7 @@
         </is>
       </c>
       <c r="E158" s="39" t="n">
-        <v>95.69</v>
+        <v>92.88</v>
       </c>
       <c r="F158" s="39" t="n">
         <v>0.5355</v>
@@ -14401,7 +14401,7 @@
         <v>1049</v>
       </c>
       <c r="O158" s="13" t="n">
-        <v>8813</v>
+        <v>8564</v>
       </c>
       <c r="P158" s="13" t="n">
         <v>815</v>
@@ -14535,7 +14535,7 @@
         </is>
       </c>
       <c r="E160" s="39" t="n">
-        <v>80.87</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="F160" s="39" t="n">
         <v>1.05</v>
@@ -14689,7 +14689,7 @@
         </is>
       </c>
       <c r="E162" s="39" t="n">
-        <v>301.99</v>
+        <v>291</v>
       </c>
       <c r="F162" s="39" t="n">
         <v>2.5947</v>
@@ -14721,7 +14721,7 @@
         <v>3186</v>
       </c>
       <c r="O162" s="13" t="n">
-        <v>10944</v>
+        <v>10821</v>
       </c>
       <c r="P162" s="13" t="n">
         <v>1198</v>
@@ -14775,7 +14775,7 @@
         </is>
       </c>
       <c r="E163" s="39" t="n">
-        <v>53.2</v>
+        <v>53.19</v>
       </c>
       <c r="F163" s="39" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="E164" s="39" t="n">
-        <v>46.9</v>
+        <v>44.63</v>
       </c>
       <c r="F164" s="39" t="n">
         <v>0.5</v>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="V164" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495270</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512490</t>
         </is>
       </c>
     </row>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="V165" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494777</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511494</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
         </is>
       </c>
       <c r="E167" s="39" t="n">
-        <v>82.81</v>
+        <v>80.7</v>
       </c>
       <c r="F167" s="39" t="n">
         <v>0.63</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="E168" s="39" t="n">
-        <v>226.21</v>
+        <v>228.5</v>
       </c>
       <c r="F168" s="39" t="n">
         <v>1.55</v>
@@ -15197,7 +15197,7 @@
         <v>91091</v>
       </c>
       <c r="O168" s="13" t="n">
-        <v>5014</v>
+        <v>5050</v>
       </c>
       <c r="P168" s="13" t="n">
         <v>342</v>
@@ -15251,7 +15251,7 @@
         </is>
       </c>
       <c r="E169" s="39" t="n">
-        <v>105.67</v>
+        <v>107.36</v>
       </c>
       <c r="F169" s="39" t="n">
         <v>1.1</v>
@@ -15329,7 +15329,7 @@
         </is>
       </c>
       <c r="E170" s="39" t="n">
-        <v>87.11</v>
+        <v>88.25</v>
       </c>
       <c r="F170" s="39" t="n">
         <v>0.65</v>
@@ -15407,7 +15407,7 @@
         </is>
       </c>
       <c r="E171" s="39" t="n">
-        <v>105</v>
+        <v>105.01</v>
       </c>
       <c r="F171" s="39" t="n">
         <v>1</v>
@@ -15563,7 +15563,7 @@
         </is>
       </c>
       <c r="E173" s="39" t="n">
-        <v>160.87</v>
+        <v>161.06</v>
       </c>
       <c r="F173" s="39" t="n">
         <v>1.1</v>
@@ -15595,7 +15595,7 @@
         <v>378902</v>
       </c>
       <c r="O173" s="13" t="n">
-        <v>3909</v>
+        <v>3904</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>194</v>
@@ -15649,7 +15649,7 @@
         </is>
       </c>
       <c r="E174" s="39" t="n">
-        <v>287.46</v>
+        <v>283.73</v>
       </c>
       <c r="F174" s="39" t="n">
         <v>1.6</v>
@@ -15681,7 +15681,7 @@
         <v>15267</v>
       </c>
       <c r="O174" s="13" t="n">
-        <v>40312</v>
+        <v>39612</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>2775</v>
@@ -15735,7 +15735,7 @@
         </is>
       </c>
       <c r="E175" s="39" t="n">
-        <v>139.01</v>
+        <v>136.48</v>
       </c>
       <c r="F175" s="39" t="n">
         <v>0.78</v>
@@ -15767,7 +15767,7 @@
         <v>145405</v>
       </c>
       <c r="O175" s="13" t="n">
-        <v>8748</v>
+        <v>8528</v>
       </c>
       <c r="P175" s="13" t="n">
         <v>635</v>
@@ -15905,7 +15905,7 @@
         </is>
       </c>
       <c r="E177" s="39" t="n">
-        <v>131.39</v>
+        <v>133.59</v>
       </c>
       <c r="F177" s="39" t="n">
         <v>0.85</v>
@@ -15937,7 +15937,7 @@
         <v>202697</v>
       </c>
       <c r="O177" s="13" t="n">
-        <v>4508</v>
+        <v>4578</v>
       </c>
       <c r="P177" s="13" t="n">
         <v>383</v>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="E178" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F178" s="39" t="n">
         <v>0.65</v>
@@ -16023,7 +16023,7 @@
         <v>4311</v>
       </c>
       <c r="O178" s="13" t="n">
-        <v>2062</v>
+        <v>1971</v>
       </c>
       <c r="P178" s="13" t="n">
         <v>204</v>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="D180" s="13" t="n"/>
       <c r="E180" s="39" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F180" s="39" t="n">
         <v>0.2</v>
@@ -16183,7 +16183,7 @@
         <v>7682</v>
       </c>
       <c r="O180" s="13" t="n">
-        <v>2105</v>
+        <v>2063</v>
       </c>
       <c r="P180" s="13" t="n">
         <v>476</v>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="V180" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494775</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511216</t>
         </is>
       </c>
     </row>
@@ -16237,7 +16237,7 @@
         </is>
       </c>
       <c r="E181" s="39" t="n">
-        <v>65.98999999999999</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F181" s="39" t="n">
         <v>0.47</v>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="E182" s="39" t="n">
-        <v>83.98999999999999</v>
+        <v>83</v>
       </c>
       <c r="F182" s="39" t="n">
         <v>0.53</v>
@@ -16347,7 +16347,7 @@
         <v>427</v>
       </c>
       <c r="O182" s="13" t="n">
-        <v>1891</v>
+        <v>1914</v>
       </c>
       <c r="P182" s="13" t="n">
         <v>156</v>
@@ -16401,7 +16401,7 @@
         </is>
       </c>
       <c r="E183" s="39" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="F183" s="39" t="n">
         <v>6.8</v>
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="E184" s="39" t="n">
-        <v>84.2</v>
+        <v>84.5</v>
       </c>
       <c r="F184" s="39" t="n">
         <v>0.85</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="E185" s="39" t="n">
-        <v>87.98</v>
+        <v>86.02</v>
       </c>
       <c r="F185" s="39" t="n">
         <v>0.8</v>
@@ -16635,7 +16635,7 @@
         </is>
       </c>
       <c r="E186" s="39" t="n">
-        <v>97.95999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>0.73</v>
@@ -16667,7 +16667,7 @@
         <v>31288</v>
       </c>
       <c r="O186" s="13" t="n">
-        <v>2827</v>
+        <v>2755</v>
       </c>
       <c r="P186" s="13" t="n">
         <v>239</v>
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E187" s="39" t="n">
-        <v>95.73</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="F187" s="39" t="n">
         <v>0.74</v>
@@ -16753,7 +16753,7 @@
         <v>160995</v>
       </c>
       <c r="O187" s="13" t="n">
-        <v>10237</v>
+        <v>10081</v>
       </c>
       <c r="P187" s="13" t="n">
         <v>815</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="D188" s="13" t="n"/>
       <c r="E188" s="39" t="n">
-        <v>103.81</v>
+        <v>103.98</v>
       </c>
       <c r="F188" s="39" t="n">
         <v>0.6</v>
@@ -16831,7 +16831,7 @@
         <v>207</v>
       </c>
       <c r="O188" s="13" t="n">
-        <v>8561</v>
+        <v>8641</v>
       </c>
       <c r="P188" s="13" t="n">
         <v>707</v>
@@ -16885,7 +16885,7 @@
         </is>
       </c>
       <c r="E189" s="39" t="n">
-        <v>140.34</v>
+        <v>137.04</v>
       </c>
       <c r="F189" s="39" t="n">
         <v>1.8723</v>
@@ -16917,7 +16917,7 @@
         <v>27124</v>
       </c>
       <c r="O189" s="13" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P189" s="13" t="n">
         <v>24</v>
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E190" s="39" t="n">
-        <v>81.5</v>
+        <v>90</v>
       </c>
       <c r="F190" s="39" t="n">
         <v>0.32</v>
@@ -16999,7 +16999,7 @@
         <v>235</v>
       </c>
       <c r="O190" s="13" t="n">
-        <v>2043</v>
+        <v>2256</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -17053,7 +17053,7 @@
         </is>
       </c>
       <c r="E191" s="39" t="n">
-        <v>107.11</v>
+        <v>114</v>
       </c>
       <c r="F191" s="39" t="n">
         <v>0.92</v>
@@ -17085,7 +17085,7 @@
         <v>770</v>
       </c>
       <c r="O191" s="13" t="n">
-        <v>1223</v>
+        <v>1249</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>144</v>
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E193" s="39" t="n">
-        <v>76.91</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F193" s="39" t="n">
         <v>0.9908</v>
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="E195" s="39" t="n">
-        <v>37.03</v>
+        <v>36.02</v>
       </c>
       <c r="F195" s="39" t="n">
         <v>0.3981</v>
@@ -17455,7 +17455,7 @@
         </is>
       </c>
       <c r="E196" s="39" t="n">
-        <v>82.59</v>
+        <v>81.62</v>
       </c>
       <c r="F196" s="39" t="n">
         <v>0.8087</v>
@@ -17507,7 +17507,7 @@
       </c>
       <c r="V196" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495620</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511193</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="E197" s="39" t="n">
-        <v>94.18000000000001</v>
+        <v>93.34</v>
       </c>
       <c r="F197" s="39" t="n">
         <v>0.8591</v>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="V197" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496279</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511170</t>
         </is>
       </c>
     </row>
@@ -17611,7 +17611,7 @@
         </is>
       </c>
       <c r="E198" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>79.97</v>
       </c>
       <c r="F198" s="39" t="n">
         <v>0.79</v>
@@ -17689,7 +17689,7 @@
         </is>
       </c>
       <c r="E199" s="39" t="n">
-        <v>79.25</v>
+        <v>80.25</v>
       </c>
       <c r="F199" s="39" t="n">
         <v>0.66</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="E201" s="39" t="n">
-        <v>92.01000000000001</v>
+        <v>87</v>
       </c>
       <c r="F201" s="39" t="n">
         <v>0.54</v>
@@ -18083,7 +18083,7 @@
         </is>
       </c>
       <c r="E204" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="F204" s="39" t="n">
         <v>0.62</v>
@@ -18115,7 +18115,7 @@
         <v>3896</v>
       </c>
       <c r="O204" s="13" t="n">
-        <v>8032</v>
+        <v>7587</v>
       </c>
       <c r="P204" s="13" t="n">
         <v>1273</v>
@@ -18169,7 +18169,7 @@
         </is>
       </c>
       <c r="E205" s="39" t="n">
-        <v>101.5</v>
+        <v>103.45</v>
       </c>
       <c r="F205" s="39" t="n">
         <v>1.25</v>
@@ -18411,7 +18411,7 @@
         </is>
       </c>
       <c r="E208" s="39" t="n">
-        <v>98.01000000000001</v>
+        <v>98.42</v>
       </c>
       <c r="F208" s="39" t="n">
         <v>0.93</v>
@@ -18489,7 +18489,7 @@
         </is>
       </c>
       <c r="E209" s="39" t="n">
-        <v>76.53</v>
+        <v>75.77</v>
       </c>
       <c r="F209" s="39" t="n">
         <v>0.46</v>
@@ -18521,7 +18521,7 @@
         <v>101092</v>
       </c>
       <c r="O209" s="13" t="n">
-        <v>13495</v>
+        <v>13370</v>
       </c>
       <c r="P209" s="13" t="n">
         <v>1124</v>
@@ -18653,7 +18653,7 @@
         </is>
       </c>
       <c r="E211" s="39" t="n">
-        <v>96.5</v>
+        <v>98.03</v>
       </c>
       <c r="F211" s="39" t="n">
         <v>0.9</v>
@@ -18731,7 +18731,7 @@
         </is>
       </c>
       <c r="E212" s="39" t="n">
-        <v>1035.37</v>
+        <v>1029.03</v>
       </c>
       <c r="F212" s="39" t="n">
         <v>0.7447</v>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="V212" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=487688</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511530</t>
         </is>
       </c>
     </row>
@@ -18809,7 +18809,7 @@
         </is>
       </c>
       <c r="E213" s="39" t="n">
-        <v>97.8</v>
+        <v>96.91</v>
       </c>
       <c r="F213" s="39" t="n">
         <v>0.75</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="E215" s="39" t="n">
-        <v>8.630000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="F215" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -19045,7 +19045,7 @@
         </is>
       </c>
       <c r="E216" s="39" t="n">
-        <v>91.33</v>
+        <v>93.5</v>
       </c>
       <c r="F216" s="39" t="n">
         <v>1.2</v>
@@ -19123,7 +19123,7 @@
         </is>
       </c>
       <c r="E217" s="39" t="n">
-        <v>99.2</v>
+        <v>99.19</v>
       </c>
       <c r="F217" s="39" t="n">
         <v>1.15</v>
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="E218" s="39" t="n">
-        <v>100.89</v>
+        <v>100.99</v>
       </c>
       <c r="F218" s="39" t="n">
         <v>0.85</v>
@@ -19279,7 +19279,7 @@
         </is>
       </c>
       <c r="E219" s="39" t="n">
-        <v>92.67</v>
+        <v>92.25</v>
       </c>
       <c r="F219" s="39" t="n">
         <v>0.52</v>
@@ -19435,7 +19435,7 @@
         </is>
       </c>
       <c r="E221" s="39" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F221" s="39" t="n">
         <v>0.0377</v>
@@ -19487,7 +19487,7 @@
       </c>
       <c r="V221" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=487689</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510822</t>
         </is>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
         </is>
       </c>
       <c r="E222" s="39" t="n">
-        <v>158.06</v>
+        <v>158.98</v>
       </c>
       <c r="F222" s="39" t="n">
         <v>0.95</v>
@@ -19545,7 +19545,7 @@
         <v>255595</v>
       </c>
       <c r="O222" s="13" t="n">
-        <v>5055</v>
+        <v>5020</v>
       </c>
       <c r="P222" s="13" t="n">
         <v>409</v>
@@ -19599,7 +19599,7 @@
         </is>
       </c>
       <c r="E223" s="39" t="n">
-        <v>90.62</v>
+        <v>89.97</v>
       </c>
       <c r="F223" s="39" t="n">
         <v>0.7</v>
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="E224" s="39" t="n">
-        <v>101.9</v>
+        <v>103.4</v>
       </c>
       <c r="F224" s="39" t="n">
         <v>0.63</v>
@@ -19709,7 +19709,7 @@
         <v>378</v>
       </c>
       <c r="O224" s="13" t="n">
-        <v>4185</v>
+        <v>4246</v>
       </c>
       <c r="P224" s="13" t="n">
         <v>398</v>
@@ -19923,7 +19923,7 @@
         </is>
       </c>
       <c r="E227" s="39" t="n">
-        <v>50.32</v>
+        <v>46.04</v>
       </c>
       <c r="F227" s="39" t="n">
         <v>3.6681</v>
@@ -19955,7 +19955,7 @@
         <v>480</v>
       </c>
       <c r="O227" s="13" t="n">
-        <v>15724</v>
+        <v>14390</v>
       </c>
       <c r="P227" s="13" t="n">
         <v>2</v>
@@ -20009,7 +20009,7 @@
         </is>
       </c>
       <c r="E228" s="39" t="n">
-        <v>86.31999999999999</v>
+        <v>87</v>
       </c>
       <c r="F228" s="39" t="n">
         <v>0.64</v>
@@ -20041,7 +20041,7 @@
         <v>14855</v>
       </c>
       <c r="O228" s="13" t="n">
-        <v>3054</v>
+        <v>2954</v>
       </c>
       <c r="P228" s="13" t="n">
         <v>401</v>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="V228" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496600</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512130</t>
         </is>
       </c>
     </row>
@@ -20095,7 +20095,7 @@
         </is>
       </c>
       <c r="E229" s="39" t="n">
-        <v>10.16</v>
+        <v>10.22</v>
       </c>
       <c r="F229" s="39" t="n">
         <v>0.12</v>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="V229" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494792</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511189</t>
         </is>
       </c>
     </row>
@@ -20563,7 +20563,7 @@
         </is>
       </c>
       <c r="E235" s="39" t="n">
-        <v>101.3</v>
+        <v>102</v>
       </c>
       <c r="F235" s="39" t="n">
         <v>0.8</v>
@@ -20641,7 +20641,7 @@
         </is>
       </c>
       <c r="E236" s="39" t="n">
-        <v>93.8</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="F236" s="39" t="n">
         <v>0.6</v>
@@ -20673,7 +20673,7 @@
         <v>4103</v>
       </c>
       <c r="O236" s="13" t="n">
-        <v>4215</v>
+        <v>4169</v>
       </c>
       <c r="P236" s="13" t="n">
         <v>586</v>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="V236" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496573</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512081</t>
         </is>
       </c>
     </row>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="E237" s="39" t="n">
-        <v>117.45</v>
+        <v>117.08</v>
       </c>
       <c r="F237" s="39" t="n">
         <v>0.79</v>
@@ -20759,7 +20759,7 @@
         <v>76188</v>
       </c>
       <c r="O237" s="13" t="n">
-        <v>3468</v>
+        <v>3456</v>
       </c>
       <c r="P237" s="13" t="n">
         <v>308</v>
@@ -20889,7 +20889,7 @@
         </is>
       </c>
       <c r="E239" s="39" t="n">
-        <v>119</v>
+        <v>118.55</v>
       </c>
       <c r="F239" s="39" t="n">
         <v>0.8</v>
@@ -20921,7 +20921,7 @@
         <v>124481</v>
       </c>
       <c r="O239" s="13" t="n">
-        <v>4343</v>
+        <v>4361</v>
       </c>
       <c r="P239" s="13" t="n">
         <v>601</v>
@@ -20975,10 +20975,10 @@
         </is>
       </c>
       <c r="E240" s="39" t="n">
-        <v>9.529999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="F240" s="39" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G240" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -21027,7 +21027,7 @@
       </c>
       <c r="V240" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494778</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511196</t>
         </is>
       </c>
     </row>
@@ -21131,7 +21131,7 @@
         </is>
       </c>
       <c r="E242" s="39" t="n">
-        <v>74.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F242" s="39" t="n">
         <v>0.7098</v>
@@ -21163,7 +21163,7 @@
         <v>4407</v>
       </c>
       <c r="O242" s="13" t="n">
-        <v>1343</v>
+        <v>1310</v>
       </c>
       <c r="P242" s="13" t="n">
         <v>183</v>
@@ -21217,7 +21217,7 @@
         </is>
       </c>
       <c r="E243" s="39" t="n">
-        <v>95.66</v>
+        <v>93.45</v>
       </c>
       <c r="F243" s="39" t="n">
         <v>0.9</v>
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="E244" s="39" t="n">
-        <v>9.23</v>
+        <v>9.24</v>
       </c>
       <c r="F244" s="39" t="n">
         <v>0.09</v>
@@ -21373,10 +21373,10 @@
         </is>
       </c>
       <c r="E245" s="39" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="F245" s="39" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G245" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -21451,7 +21451,7 @@
         </is>
       </c>
       <c r="E246" s="39" t="n">
-        <v>68.25</v>
+        <v>67.36</v>
       </c>
       <c r="F246" s="39" t="n">
         <v>0.57</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="E248" s="39" t="n">
-        <v>95.05</v>
+        <v>95.11</v>
       </c>
       <c r="F248" s="39" t="n">
         <v>1.07</v>
@@ -21635,7 +21635,7 @@
         <v>29188</v>
       </c>
       <c r="O248" s="13" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P248" s="13" t="n">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="E250" s="39" t="n">
-        <v>69.45</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F250" s="39" t="n">
         <v>0.55</v>
@@ -21845,7 +21845,7 @@
         </is>
       </c>
       <c r="E251" s="39" t="n">
-        <v>64.8</v>
+        <v>64.89</v>
       </c>
       <c r="F251" s="39" t="n">
         <v>0.6</v>
@@ -21877,7 +21877,7 @@
         <v>4309</v>
       </c>
       <c r="O251" s="13" t="n">
-        <v>8152</v>
+        <v>8121</v>
       </c>
       <c r="P251" s="13" t="n">
         <v>1115</v>
@@ -22225,7 +22225,7 @@
         </is>
       </c>
       <c r="E256" s="39" t="n">
-        <v>104.8</v>
+        <v>102</v>
       </c>
       <c r="F256" s="39" t="inlineStr">
         <is>
@@ -22539,10 +22539,10 @@
         </is>
       </c>
       <c r="E260" s="39" t="n">
-        <v>92.20999999999999</v>
+        <v>91.47</v>
       </c>
       <c r="F260" s="39" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="G260" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -22617,7 +22617,7 @@
         </is>
       </c>
       <c r="E261" s="39" t="n">
-        <v>76.2</v>
+        <v>76.23</v>
       </c>
       <c r="F261" s="39" t="n">
         <v>0.6</v>
@@ -22931,7 +22931,7 @@
         </is>
       </c>
       <c r="E265" s="39" t="n">
-        <v>10.66</v>
+        <v>10.77</v>
       </c>
       <c r="F265" s="39" t="n">
         <v>0.12</v>
@@ -22959,7 +22959,7 @@
         <v>908249</v>
       </c>
       <c r="O265" s="13" t="n">
-        <v>101424</v>
+        <v>103243</v>
       </c>
       <c r="P265" s="13" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="V265" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510085</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511580</t>
         </is>
       </c>
     </row>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="E266" s="39" t="n">
-        <v>90.97</v>
+        <v>91.25</v>
       </c>
       <c r="F266" s="39" t="n">
         <v>1</v>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="V266" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495720</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510847</t>
         </is>
       </c>
     </row>
@@ -23091,7 +23091,7 @@
         </is>
       </c>
       <c r="E267" s="39" t="n">
-        <v>82.5</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="F267" s="39" t="n">
         <v>0.85</v>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="V267" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496274</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512471</t>
         </is>
       </c>
     </row>
@@ -23169,7 +23169,7 @@
         </is>
       </c>
       <c r="E268" s="39" t="n">
-        <v>9.18</v>
+        <v>8.85</v>
       </c>
       <c r="F268" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -23247,7 +23247,7 @@
         </is>
       </c>
       <c r="E269" s="39" t="n">
-        <v>113.76</v>
+        <v>113.49</v>
       </c>
       <c r="F269" s="39" t="n">
         <v>0.95</v>
@@ -23279,7 +23279,7 @@
         <v>3676</v>
       </c>
       <c r="O269" s="13" t="n">
-        <v>3243</v>
+        <v>3254</v>
       </c>
       <c r="P269" s="13" t="n">
         <v>478</v>
@@ -23333,7 +23333,7 @@
         </is>
       </c>
       <c r="E270" s="39" t="n">
-        <v>71.51000000000001</v>
+        <v>73</v>
       </c>
       <c r="F270" s="39" t="n">
         <v>0.2</v>
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="E272" s="39" t="n">
-        <v>192.69</v>
+        <v>195.03</v>
       </c>
       <c r="F272" s="39" t="n">
         <v>1.5613</v>
@@ -23529,7 +23529,7 @@
         <v>6428</v>
       </c>
       <c r="O272" s="13" t="n">
-        <v>10302</v>
+        <v>10515</v>
       </c>
       <c r="P272" s="13" t="n">
         <v>1093</v>
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="E273" s="39" t="n">
-        <v>10.65</v>
+        <v>10.97</v>
       </c>
       <c r="F273" s="39" t="n">
         <v>0.08359999999999999</v>
@@ -23615,7 +23615,7 @@
         <v>2247</v>
       </c>
       <c r="O273" s="13" t="n">
-        <v>14361</v>
+        <v>14685</v>
       </c>
       <c r="P273" s="13" t="n">
         <v>2137</v>
@@ -23751,7 +23751,7 @@
         </is>
       </c>
       <c r="E275" s="39" t="n">
-        <v>200.5</v>
+        <v>199.9</v>
       </c>
       <c r="F275" s="39" t="n">
         <v>1.02</v>
@@ -23783,7 +23783,7 @@
         <v>2783</v>
       </c>
       <c r="O275" s="13" t="n">
-        <v>30019</v>
+        <v>29843</v>
       </c>
       <c r="P275" s="13" t="n">
         <v>1909</v>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="V275" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=492867</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510791</t>
         </is>
       </c>
     </row>
@@ -23915,7 +23915,7 @@
         </is>
       </c>
       <c r="E277" s="39" t="n">
-        <v>73.33</v>
+        <v>73.8</v>
       </c>
       <c r="F277" s="39" t="n">
         <v>0.72</v>
@@ -23967,7 +23967,7 @@
       </c>
       <c r="V277" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494938</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510897</t>
         </is>
       </c>
     </row>
@@ -23993,7 +23993,7 @@
         </is>
       </c>
       <c r="E278" s="39" t="n">
-        <v>100.84</v>
+        <v>101.4</v>
       </c>
       <c r="F278" s="39" t="n">
         <v>1.2</v>
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E279" s="39" t="n">
-        <v>41.35</v>
+        <v>41.03</v>
       </c>
       <c r="F279" s="39" t="n">
         <v>0.42</v>
@@ -24103,7 +24103,7 @@
         <v>5079</v>
       </c>
       <c r="O279" s="13" t="n">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="P279" s="13" t="n">
         <v>146</v>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="V279" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494937</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510903</t>
         </is>
       </c>
     </row>
@@ -24157,10 +24157,10 @@
         </is>
       </c>
       <c r="E280" s="39" t="n">
-        <v>82.34999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="F280" s="39" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G280" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -24189,7 +24189,7 @@
         <v>6287</v>
       </c>
       <c r="O280" s="13" t="n">
-        <v>3169</v>
+        <v>3143</v>
       </c>
       <c r="P280" s="13" t="n">
         <v>181</v>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="V280" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494935</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510899</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
         </is>
       </c>
       <c r="E281" s="39" t="n">
-        <v>24.21</v>
+        <v>23.43</v>
       </c>
       <c r="F281" s="39" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>13.6233</v>
       </c>
       <c r="I282" s="39" t="n">
-        <v>173.93</v>
+        <v>166.72</v>
       </c>
       <c r="J282" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="M282" s="13" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="N282" s="13" t="n">
         <v>56</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="E283" s="39" t="n">
-        <v>69.53</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F283" s="39" t="n">
         <v>0.34</v>
@@ -24439,7 +24439,7 @@
         <v>7384</v>
       </c>
       <c r="O283" s="13" t="n">
-        <v>18540</v>
+        <v>18727</v>
       </c>
       <c r="P283" s="13" t="n">
         <v>1112</v>
@@ -24493,7 +24493,7 @@
         </is>
       </c>
       <c r="E284" s="39" t="n">
-        <v>75.98999999999999</v>
+        <v>74.45</v>
       </c>
       <c r="F284" s="39" t="n">
         <v>0.6</v>
@@ -24525,7 +24525,7 @@
         <v>24601</v>
       </c>
       <c r="O284" s="13" t="n">
-        <v>2412</v>
+        <v>2388</v>
       </c>
       <c r="P284" s="13" t="n">
         <v>265</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="E287" s="39" t="n">
-        <v>45.48</v>
+        <v>44.01</v>
       </c>
       <c r="F287" s="39" t="n">
         <v>0.369</v>
@@ -24819,7 +24819,7 @@
         </is>
       </c>
       <c r="E288" s="39" t="n">
-        <v>91.3</v>
+        <v>91.87</v>
       </c>
       <c r="F288" s="39" t="n">
         <v>1.05</v>
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="E290" s="39" t="n">
-        <v>18.01</v>
+        <v>18.49</v>
       </c>
       <c r="F290" s="39" t="n">
         <v>0.1618</v>
@@ -25259,7 +25259,7 @@
         </is>
       </c>
       <c r="E294" s="39" t="n">
-        <v>89.94</v>
+        <v>89.62</v>
       </c>
       <c r="F294" s="39" t="n">
         <v>1</v>
@@ -25311,7 +25311,7 @@
       </c>
       <c r="V294" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=490938</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510728</t>
         </is>
       </c>
     </row>
@@ -25337,7 +25337,7 @@
         </is>
       </c>
       <c r="E295" s="39" t="n">
-        <v>56.95</v>
+        <v>55.52</v>
       </c>
       <c r="F295" s="39" t="n">
         <v>0.44</v>
@@ -25369,7 +25369,7 @@
         <v>483</v>
       </c>
       <c r="O295" s="13" t="n">
-        <v>12468</v>
+        <v>12874</v>
       </c>
       <c r="P295" s="13" t="n">
         <v>1124</v>
@@ -25397,7 +25397,7 @@
       </c>
       <c r="V295" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=498344</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511215</t>
         </is>
       </c>
     </row>
@@ -25423,7 +25423,7 @@
         </is>
       </c>
       <c r="E296" s="39" t="n">
-        <v>1957</v>
+        <v>1916.01</v>
       </c>
       <c r="F296" s="39" t="n">
         <v>17.1518</v>
@@ -25455,7 +25455,7 @@
         <v>4091</v>
       </c>
       <c r="O296" s="13" t="n">
-        <v>1823</v>
+        <v>1774</v>
       </c>
       <c r="P296" s="13" t="n">
         <v>241</v>
@@ -25509,7 +25509,7 @@
         </is>
       </c>
       <c r="E297" s="39" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="F297" s="39" t="n">
         <v>0.1717</v>
@@ -25537,7 +25537,7 @@
         <v>762</v>
       </c>
       <c r="O297" s="13" t="n">
-        <v>8818</v>
+        <v>9424</v>
       </c>
       <c r="P297" s="13" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         </is>
       </c>
       <c r="E298" s="39" t="n">
-        <v>84.01000000000001</v>
+        <v>83</v>
       </c>
       <c r="F298" s="39" t="n">
         <v>1.62</v>
@@ -25831,7 +25831,7 @@
         </is>
       </c>
       <c r="E301" s="39" t="n">
-        <v>102.56</v>
+        <v>103.38</v>
       </c>
       <c r="F301" s="39" t="n">
         <v>0.72</v>
@@ -25863,7 +25863,7 @@
         <v>113597</v>
       </c>
       <c r="O301" s="13" t="n">
-        <v>19136</v>
+        <v>19205</v>
       </c>
       <c r="P301" s="13" t="n">
         <v>1352</v>
@@ -25917,7 +25917,7 @@
         </is>
       </c>
       <c r="E302" s="39" t="n">
-        <v>49.66</v>
+        <v>49.47</v>
       </c>
       <c r="F302" s="39" t="n">
         <v>0.52</v>
@@ -25949,7 +25949,7 @@
         <v>23175</v>
       </c>
       <c r="O302" s="13" t="n">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P302" s="13" t="n">
         <v>204</v>
@@ -26003,7 +26003,7 @@
         </is>
       </c>
       <c r="E303" s="39" t="n">
-        <v>79.01000000000001</v>
+        <v>79.02</v>
       </c>
       <c r="F303" s="39" t="n">
         <v>0.8</v>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="E307" s="39" t="n">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="F307" s="39" t="n">
         <v>2.3541</v>
@@ -26391,7 +26391,7 @@
         </is>
       </c>
       <c r="E308" s="39" t="n">
-        <v>137.93</v>
+        <v>140.21</v>
       </c>
       <c r="F308" s="39" t="n">
         <v>1.43</v>
@@ -26423,7 +26423,7 @@
         <v>12956</v>
       </c>
       <c r="O308" s="13" t="n">
-        <v>3375</v>
+        <v>3448</v>
       </c>
       <c r="P308" s="13" t="n">
         <v>365</v>
@@ -26477,7 +26477,7 @@
         </is>
       </c>
       <c r="E309" s="39" t="n">
-        <v>62.08</v>
+        <v>61.98</v>
       </c>
       <c r="F309" s="39" t="n">
         <v>0.5</v>
@@ -26641,7 +26641,7 @@
         </is>
       </c>
       <c r="E311" s="39" t="n">
-        <v>89.53</v>
+        <v>89.73</v>
       </c>
       <c r="F311" s="39" t="n">
         <v>1.05</v>
@@ -26719,7 +26719,7 @@
         </is>
       </c>
       <c r="E312" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>96.45</v>
       </c>
       <c r="F312" s="39" t="n">
         <v>1.2</v>
@@ -26797,7 +26797,7 @@
         </is>
       </c>
       <c r="E313" s="39" t="n">
-        <v>85.44</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F313" s="39" t="n">
         <v>0.051</v>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="E314" s="39" t="n">
-        <v>101.9</v>
+        <v>100.51</v>
       </c>
       <c r="F314" s="39" t="n">
         <v>0.95</v>
@@ -26957,7 +26957,7 @@
       </c>
       <c r="D315" s="13" t="n"/>
       <c r="E315" s="39" t="n">
-        <v>314.98</v>
+        <v>307</v>
       </c>
       <c r="F315" s="39" t="n">
         <v>2.4</v>
@@ -26985,7 +26985,7 @@
         <v>3769</v>
       </c>
       <c r="O315" s="13" t="n">
-        <v>1601</v>
+        <v>1508</v>
       </c>
       <c r="P315" s="13" t="n">
         <v>659</v>
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="E316" s="39" t="n">
-        <v>36.95</v>
+        <v>37.7</v>
       </c>
       <c r="F316" s="39" t="n">
         <v>0.34</v>
@@ -27071,7 +27071,7 @@
         <v>9221</v>
       </c>
       <c r="O316" s="13" t="n">
-        <v>2470</v>
+        <v>2540</v>
       </c>
       <c r="P316" s="13" t="n">
         <v>344</v>
@@ -27125,7 +27125,7 @@
         </is>
       </c>
       <c r="E317" s="39" t="n">
-        <v>85.53</v>
+        <v>84.5</v>
       </c>
       <c r="F317" s="39" t="n">
         <v>0.63</v>
@@ -27177,7 +27177,7 @@
       </c>
       <c r="V317" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494902</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511046</t>
         </is>
       </c>
     </row>
@@ -27281,7 +27281,7 @@
         </is>
       </c>
       <c r="E319" s="39" t="n">
-        <v>91.12</v>
+        <v>90.81</v>
       </c>
       <c r="F319" s="39" t="n">
         <v>0.65</v>
@@ -27313,7 +27313,7 @@
         <v>12055</v>
       </c>
       <c r="O319" s="13" t="n">
-        <v>1885</v>
+        <v>1862</v>
       </c>
       <c r="P319" s="13" t="n">
         <v>183</v>
@@ -27445,7 +27445,7 @@
         </is>
       </c>
       <c r="E321" s="39" t="n">
-        <v>57.96</v>
+        <v>57.37</v>
       </c>
       <c r="F321" s="39" t="n">
         <v>0.27</v>
@@ -27477,7 +27477,7 @@
         <v>90730</v>
       </c>
       <c r="O321" s="13" t="n">
-        <v>9218</v>
+        <v>9157</v>
       </c>
       <c r="P321" s="13" t="n">
         <v>640</v>
@@ -27531,7 +27531,7 @@
         </is>
       </c>
       <c r="E322" s="39" t="n">
-        <v>90.06</v>
+        <v>89.8</v>
       </c>
       <c r="F322" s="39" t="n">
         <v>0.7</v>
@@ -27583,7 +27583,7 @@
       </c>
       <c r="V322" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=501735</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512474</t>
         </is>
       </c>
     </row>
@@ -27609,7 +27609,7 @@
         </is>
       </c>
       <c r="E323" s="39" t="n">
-        <v>55.2</v>
+        <v>55.84</v>
       </c>
       <c r="F323" s="39" t="n">
         <v>0.4</v>
@@ -27641,7 +27641,7 @@
         <v>1237</v>
       </c>
       <c r="O323" s="13" t="n">
-        <v>9042</v>
+        <v>8927</v>
       </c>
       <c r="P323" s="13" t="n">
         <v>837</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="E325" s="39" t="n">
-        <v>92.75</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="F325" s="39" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="G325" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -27849,7 +27849,7 @@
         </is>
       </c>
       <c r="E326" s="39" t="n">
-        <v>100.64</v>
+        <v>100</v>
       </c>
       <c r="F326" s="39" t="n">
         <v>1.2</v>
@@ -27901,7 +27901,7 @@
       </c>
       <c r="V326" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=501739</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512475</t>
         </is>
       </c>
     </row>
@@ -28005,7 +28005,7 @@
         </is>
       </c>
       <c r="E328" s="39" t="n">
-        <v>109.74</v>
+        <v>112.36</v>
       </c>
       <c r="F328" s="39" t="n">
         <v>1</v>
@@ -28037,7 +28037,7 @@
         <v>45957</v>
       </c>
       <c r="O328" s="13" t="n">
-        <v>9510</v>
+        <v>9724</v>
       </c>
       <c r="P328" s="13" t="n">
         <v>1107</v>
@@ -28091,7 +28091,7 @@
         </is>
       </c>
       <c r="E329" s="39" t="n">
-        <v>8.35</v>
+        <v>8.31</v>
       </c>
       <c r="F329" s="39" t="n">
         <v>0.02</v>
@@ -28169,7 +28169,7 @@
         </is>
       </c>
       <c r="E330" s="39" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="F330" s="39" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         </is>
       </c>
       <c r="E331" s="39" t="n">
-        <v>85.01000000000001</v>
+        <v>83</v>
       </c>
       <c r="F331" s="39" t="n">
         <v>1.2312</v>
@@ -28331,7 +28331,7 @@
         </is>
       </c>
       <c r="E332" s="39" t="n">
-        <v>149.99</v>
+        <v>149</v>
       </c>
       <c r="F332" s="39" t="n">
         <v>0.76</v>
@@ -28363,7 +28363,7 @@
         <v>28753</v>
       </c>
       <c r="O332" s="13" t="n">
-        <v>13659</v>
+        <v>13421</v>
       </c>
       <c r="P332" s="13" t="n">
         <v>1010</v>
@@ -28484,44 +28484,24 @@
           <t>FII</t>
         </is>
       </c>
-      <c r="C334" s="13" t="inlineStr">
-        <is>
-          <t>Papéis</t>
-        </is>
-      </c>
-      <c r="D334" s="13" t="inlineStr">
-        <is>
-          <t>Votorantim Asset</t>
-        </is>
-      </c>
-      <c r="E334" s="39" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="F334" s="39" t="n">
-        <v>0.78</v>
-      </c>
+      <c r="C334" s="13" t="n"/>
+      <c r="D334" s="13" t="n"/>
+      <c r="E334" s="39" t="n"/>
+      <c r="F334" s="39" t="n"/>
       <c r="G334" s="14">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
-      <c r="H334" s="39" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="I334" s="39" t="n">
-        <v>22.34</v>
-      </c>
+      <c r="H334" s="39" t="n"/>
+      <c r="I334" s="39" t="n"/>
       <c r="J334" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
       <c r="K334" s="14" t="n"/>
       <c r="L334" s="14" t="n"/>
-      <c r="M334" s="13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N334" s="13" t="n">
-        <v>3141</v>
-      </c>
+      <c r="M334" s="13" t="n"/>
+      <c r="N334" s="13" t="n"/>
       <c r="O334" s="13" t="n"/>
       <c r="P334" s="13" t="n"/>
       <c r="Q334" s="30">
@@ -28547,7 +28527,7 @@
       </c>
       <c r="V334" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=499850</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -28649,7 +28629,7 @@
         </is>
       </c>
       <c r="E336" s="39" t="n">
-        <v>87.56</v>
+        <v>88.12</v>
       </c>
       <c r="F336" s="39" t="n">
         <v>0.7131999999999999</v>
@@ -28677,7 +28657,7 @@
         <v>188828</v>
       </c>
       <c r="O336" s="13" t="n">
-        <v>41195</v>
+        <v>42356</v>
       </c>
       <c r="P336" s="13" t="n">
         <v>0</v>
@@ -28731,7 +28711,7 @@
         </is>
       </c>
       <c r="E337" s="39" t="n">
-        <v>50.49</v>
+        <v>49.33</v>
       </c>
       <c r="F337" s="39" t="n">
         <v>0.4</v>
@@ -28763,7 +28743,7 @@
         <v>73494</v>
       </c>
       <c r="O337" s="13" t="n">
-        <v>5637</v>
+        <v>5516</v>
       </c>
       <c r="P337" s="13" t="n">
         <v>752</v>
@@ -28817,7 +28797,7 @@
         </is>
       </c>
       <c r="E338" s="39" t="n">
-        <v>69</v>
+        <v>68.45</v>
       </c>
       <c r="F338" s="39" t="n">
         <v>0.6</v>
@@ -28973,7 +28953,7 @@
         </is>
       </c>
       <c r="E340" s="39" t="n">
-        <v>59.07</v>
+        <v>56.87</v>
       </c>
       <c r="F340" s="39" t="n">
         <v>0.7</v>
@@ -29005,7 +28985,7 @@
         <v>6988</v>
       </c>
       <c r="O340" s="13" t="n">
-        <v>1122</v>
+        <v>1086</v>
       </c>
       <c r="P340" s="13" t="n">
         <v>186</v>
@@ -29059,7 +29039,7 @@
         </is>
       </c>
       <c r="E341" s="39" t="n">
-        <v>80.09</v>
+        <v>80.45</v>
       </c>
       <c r="F341" s="39" t="n">
         <v>0.75</v>
@@ -29111,7 +29091,7 @@
       </c>
       <c r="V341" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494980</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510811</t>
         </is>
       </c>
     </row>
@@ -29137,7 +29117,7 @@
         </is>
       </c>
       <c r="E342" s="39" t="n">
-        <v>111.7</v>
+        <v>110.68</v>
       </c>
       <c r="F342" s="39" t="n">
         <v>1.35</v>
@@ -29215,7 +29195,7 @@
         </is>
       </c>
       <c r="E343" s="39" t="n">
-        <v>48</v>
+        <v>51.37</v>
       </c>
       <c r="F343" s="39" t="n">
         <v>0.26</v>
@@ -29247,10 +29227,10 @@
         <v>1185</v>
       </c>
       <c r="O343" s="13" t="n">
-        <v>2808</v>
+        <v>3159</v>
       </c>
       <c r="P343" s="13" t="n">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="Q343" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
@@ -29301,7 +29281,7 @@
         </is>
       </c>
       <c r="E344" s="39" t="n">
-        <v>144.08</v>
+        <v>132.61</v>
       </c>
       <c r="F344" s="39" t="n">
         <v>1.3</v>
@@ -29379,7 +29359,7 @@
         </is>
       </c>
       <c r="E345" s="39" t="n">
-        <v>47.91</v>
+        <v>47.2</v>
       </c>
       <c r="F345" s="39" t="n">
         <v>0.36</v>
@@ -29411,7 +29391,7 @@
         <v>11168</v>
       </c>
       <c r="O345" s="13" t="n">
-        <v>2323</v>
+        <v>2312</v>
       </c>
       <c r="P345" s="13" t="n">
         <v>303</v>
@@ -29551,7 +29531,7 @@
         </is>
       </c>
       <c r="E347" s="39" t="n">
-        <v>98.75</v>
+        <v>98.63</v>
       </c>
       <c r="F347" s="39" t="n">
         <v>1</v>
@@ -29629,7 +29609,7 @@
         </is>
       </c>
       <c r="E348" s="39" t="n">
-        <v>82.29000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="F348" s="39" t="n">
         <v>0.95</v>
@@ -29681,7 +29661,7 @@
       </c>
       <c r="V348" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494982</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511207</t>
         </is>
       </c>
     </row>
@@ -29785,7 +29765,7 @@
         </is>
       </c>
       <c r="E350" s="39" t="n">
-        <v>84.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F350" s="39" t="n">
         <v>0.75</v>
@@ -29863,10 +29843,10 @@
         </is>
       </c>
       <c r="E351" s="39" t="n">
-        <v>91.55</v>
+        <v>92.14</v>
       </c>
       <c r="F351" s="39" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="G351" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -29915,7 +29895,7 @@
       </c>
       <c r="V351" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=497525</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512478</t>
         </is>
       </c>
     </row>
@@ -29941,7 +29921,7 @@
         </is>
       </c>
       <c r="E352" s="39" t="n">
-        <v>97.72</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="F352" s="39" t="n">
         <v>0.85</v>
@@ -30001,7 +29981,7 @@
       </c>
       <c r="V352" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=492085</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510779</t>
         </is>
       </c>
     </row>
@@ -30185,7 +30165,7 @@
         </is>
       </c>
       <c r="E355" s="39" t="n">
-        <v>87.34999999999999</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="F355" s="39" t="n">
         <v>1</v>
@@ -30425,7 +30405,7 @@
         </is>
       </c>
       <c r="E358" s="39" t="n">
-        <v>57.77</v>
+        <v>55.21</v>
       </c>
       <c r="F358" s="39" t="n">
         <v>0.5</v>
@@ -30457,7 +30437,7 @@
         <v>44982</v>
       </c>
       <c r="O358" s="13" t="n">
-        <v>2394</v>
+        <v>2319</v>
       </c>
       <c r="P358" s="13" t="n">
         <v>279</v>
@@ -30587,7 +30567,7 @@
         </is>
       </c>
       <c r="E360" s="39" t="n">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="F360" s="39" t="n">
         <v>0.022</v>
@@ -30619,7 +30599,7 @@
         <v>4521</v>
       </c>
       <c r="O360" s="13" t="n">
-        <v>4363</v>
+        <v>4319</v>
       </c>
       <c r="P360" s="13" t="n">
         <v>751</v>
@@ -30662,46 +30642,26 @@
           <t>FII</t>
         </is>
       </c>
-      <c r="C361" s="13" t="inlineStr">
-        <is>
-          <t>Imóveis Industriais e Logísticos</t>
-        </is>
-      </c>
+      <c r="C361" s="13" t="n"/>
       <c r="D361" s="13" t="n"/>
-      <c r="E361" s="39" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F361" s="39" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="E361" s="39" t="n"/>
+      <c r="F361" s="39" t="n"/>
       <c r="G361" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
         <v/>
       </c>
-      <c r="H361" s="39" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="I361" s="39" t="n">
-        <v>95.70999999999999</v>
-      </c>
+      <c r="H361" s="39" t="n"/>
+      <c r="I361" s="39" t="n"/>
       <c r="J361" s="41">
         <f>Tabela1[[#This Row],[Preço atual]]/Tabela1[[#This Row],[VP]]</f>
         <v/>
       </c>
       <c r="K361" s="14" t="n"/>
       <c r="L361" s="14" t="n"/>
-      <c r="M361" s="13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N361" s="13" t="n">
-        <v>63292</v>
-      </c>
-      <c r="O361" s="13" t="n">
-        <v>1765</v>
-      </c>
-      <c r="P361" s="13" t="n">
-        <v>237</v>
-      </c>
+      <c r="M361" s="13" t="n"/>
+      <c r="N361" s="13" t="n"/>
+      <c r="O361" s="13" t="n"/>
+      <c r="P361" s="13" t="n"/>
       <c r="Q361" s="30">
         <f>Tabela1[[#This Row],[Divid.]]</f>
         <v/>
@@ -30725,7 +30685,7 @@
       </c>
       <c r="V361" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=504768</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -30829,7 +30789,7 @@
         </is>
       </c>
       <c r="E363" s="39" t="n">
-        <v>66.92</v>
+        <v>65.61</v>
       </c>
       <c r="F363" s="39" t="n">
         <v>0.7144</v>
@@ -30861,7 +30821,7 @@
         <v>5487</v>
       </c>
       <c r="O363" s="13" t="n">
-        <v>2562</v>
+        <v>2549</v>
       </c>
       <c r="P363" s="13" t="n">
         <v>344</v>
@@ -31251,7 +31211,7 @@
         </is>
       </c>
       <c r="E368" s="39" t="n">
-        <v>791.97</v>
+        <v>798.01</v>
       </c>
       <c r="F368" s="39" t="n">
         <v>4.2</v>
@@ -31283,7 +31243,7 @@
         <v>2536</v>
       </c>
       <c r="O368" s="13" t="n">
-        <v>13601</v>
+        <v>13887</v>
       </c>
       <c r="P368" s="13" t="n">
         <v>1123</v>
@@ -31418,7 +31378,7 @@
         <v>100</v>
       </c>
       <c r="F370" s="39" t="n">
-        <v>1.0608</v>
+        <v>1.4414</v>
       </c>
       <c r="G370" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -31467,7 +31427,7 @@
       </c>
       <c r="V370" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496772</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511639</t>
         </is>
       </c>
     </row>
@@ -31489,7 +31449,7 @@
       </c>
       <c r="D371" s="13" t="n"/>
       <c r="E371" s="39" t="n">
-        <v>94.98999999999999</v>
+        <v>78</v>
       </c>
       <c r="F371" s="39" t="inlineStr">
         <is>
@@ -31569,10 +31529,10 @@
         </is>
       </c>
       <c r="E372" s="39" t="n">
-        <v>99.67</v>
+        <v>98.8</v>
       </c>
       <c r="F372" s="39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G372" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -31723,7 +31683,7 @@
         </is>
       </c>
       <c r="E374" s="39" t="n">
-        <v>89.86</v>
+        <v>89.95</v>
       </c>
       <c r="F374" s="39" t="n">
         <v>0.65</v>
@@ -32043,7 +32003,7 @@
         </is>
       </c>
       <c r="E378" s="39" t="n">
-        <v>41.61</v>
+        <v>41.34</v>
       </c>
       <c r="F378" s="39" t="n">
         <v>0.42</v>
@@ -32075,7 +32035,7 @@
         <v>28409</v>
       </c>
       <c r="O378" s="13" t="n">
-        <v>5201</v>
+        <v>5238</v>
       </c>
       <c r="P378" s="13" t="n">
         <v>1095</v>
@@ -32211,7 +32171,7 @@
         </is>
       </c>
       <c r="E380" s="39" t="n">
-        <v>97.3</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="F380" s="39" t="n">
         <v>1.22</v>
@@ -32847,7 +32807,7 @@
         </is>
       </c>
       <c r="E388" s="39" t="n">
-        <v>89.75</v>
+        <v>88.97</v>
       </c>
       <c r="F388" s="39" t="n">
         <v>0.58</v>
@@ -32879,7 +32839,7 @@
         <v>12146</v>
       </c>
       <c r="O388" s="13" t="n">
-        <v>11098</v>
+        <v>10988</v>
       </c>
       <c r="P388" s="13" t="n">
         <v>941</v>
@@ -33011,7 +32971,7 @@
         </is>
       </c>
       <c r="E390" s="39" t="n">
-        <v>122.5</v>
+        <v>122.99</v>
       </c>
       <c r="F390" s="39" t="n">
         <v>1.4</v>
@@ -33071,7 +33031,7 @@
       </c>
       <c r="V390" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=496773</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512033</t>
         </is>
       </c>
     </row>
@@ -33179,10 +33139,10 @@
         </is>
       </c>
       <c r="E392" s="39" t="n">
-        <v>264.78</v>
+        <v>262.16</v>
       </c>
       <c r="F392" s="39" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="G392" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -33211,7 +33171,7 @@
         <v>76</v>
       </c>
       <c r="O392" s="13" t="n">
-        <v>7865</v>
+        <v>7787</v>
       </c>
       <c r="P392" s="13" t="n">
         <v>904</v>
@@ -33265,7 +33225,7 @@
         </is>
       </c>
       <c r="E393" s="39" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="F393" s="39" t="n">
         <v>0.05</v>
@@ -33507,7 +33467,7 @@
         </is>
       </c>
       <c r="E396" s="39" t="n">
-        <v>123</v>
+        <v>123.5</v>
       </c>
       <c r="F396" s="39" t="n">
         <v>0.42</v>
@@ -33539,7 +33499,7 @@
         <v>697</v>
       </c>
       <c r="O396" s="13" t="n">
-        <v>7676</v>
+        <v>7613</v>
       </c>
       <c r="P396" s="13" t="n">
         <v>560</v>
@@ -33567,7 +33527,7 @@
       </c>
       <c r="V396" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510106</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511166</t>
         </is>
       </c>
     </row>
@@ -33593,7 +33553,7 @@
         </is>
       </c>
       <c r="E397" s="39" t="n">
-        <v>135.43</v>
+        <v>134.33</v>
       </c>
       <c r="F397" s="39" t="n">
         <v>0.92</v>
@@ -33625,7 +33585,7 @@
         <v>193</v>
       </c>
       <c r="O397" s="13" t="n">
-        <v>4156</v>
+        <v>4122</v>
       </c>
       <c r="P397" s="13" t="n">
         <v>481</v>
@@ -33679,7 +33639,7 @@
         </is>
       </c>
       <c r="E398" s="39" t="n">
-        <v>112.8</v>
+        <v>112.92</v>
       </c>
       <c r="F398" s="39" t="n">
         <v>0.9</v>
@@ -33711,7 +33671,7 @@
         <v>103828</v>
       </c>
       <c r="O398" s="13" t="n">
-        <v>3091</v>
+        <v>3080</v>
       </c>
       <c r="P398" s="13" t="n">
         <v>304</v>
@@ -33765,7 +33725,7 @@
         </is>
       </c>
       <c r="E399" s="39" t="n">
-        <v>115.14</v>
+        <v>102</v>
       </c>
       <c r="F399" s="39" t="n">
         <v>0.92</v>
@@ -33797,7 +33757,7 @@
         <v>29</v>
       </c>
       <c r="O399" s="13" t="n">
-        <v>3092</v>
+        <v>2739</v>
       </c>
       <c r="P399" s="13" t="n">
         <v>230</v>
@@ -34005,7 +33965,7 @@
         </is>
       </c>
       <c r="E402" s="39" t="n">
-        <v>97.45999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F402" s="39" t="n">
         <v>1.13</v>
@@ -34083,7 +34043,7 @@
         </is>
       </c>
       <c r="E403" s="39" t="n">
-        <v>89.67</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F403" s="39" t="n">
         <v>0.7</v>
@@ -34161,7 +34121,7 @@
         </is>
       </c>
       <c r="E404" s="39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F404" s="39" t="n">
         <v>0.1</v>
@@ -34239,7 +34199,7 @@
         </is>
       </c>
       <c r="E405" s="39" t="n">
-        <v>75.87</v>
+        <v>77.81</v>
       </c>
       <c r="F405" s="39" t="n">
         <v>0.6899999999999999</v>
@@ -34267,7 +34227,7 @@
         <v>3753</v>
       </c>
       <c r="O405" s="13" t="n">
-        <v>2550</v>
+        <v>2579</v>
       </c>
       <c r="P405" s="13" t="n">
         <v>14</v>
@@ -34483,7 +34443,7 @@
         </is>
       </c>
       <c r="E408" s="39" t="n">
-        <v>9.49</v>
+        <v>9.52</v>
       </c>
       <c r="F408" s="39" t="n">
         <v>0.12</v>
@@ -34561,7 +34521,7 @@
         </is>
       </c>
       <c r="E409" s="39" t="n">
-        <v>90.79000000000001</v>
+        <v>88.83</v>
       </c>
       <c r="F409" s="39" t="n">
         <v>0.85</v>
@@ -34639,7 +34599,7 @@
         </is>
       </c>
       <c r="E410" s="39" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F410" s="39" t="n">
         <v>0.12</v>
@@ -34797,7 +34757,7 @@
         </is>
       </c>
       <c r="E412" s="33" t="n">
-        <v>8.65</v>
+        <v>8.42</v>
       </c>
       <c r="F412" s="33" t="n">
         <v>0.07000000000000001</v>
@@ -34875,7 +34835,7 @@
         </is>
       </c>
       <c r="E413" s="39" t="n">
-        <v>109.53</v>
+        <v>104.87</v>
       </c>
       <c r="F413" s="39" t="n">
         <v>0.7</v>
@@ -34907,7 +34867,7 @@
         <v>161673</v>
       </c>
       <c r="O413" s="13" t="n">
-        <v>2854</v>
+        <v>2795</v>
       </c>
       <c r="P413" s="13" t="n">
         <v>250</v>
@@ -34961,7 +34921,7 @@
         </is>
       </c>
       <c r="E414" s="39" t="n">
-        <v>9.279999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="F414" s="39" t="n">
         <v>0.062</v>
@@ -34993,7 +34953,7 @@
         <v>123487</v>
       </c>
       <c r="O414" s="13" t="n">
-        <v>2387</v>
+        <v>2338</v>
       </c>
       <c r="P414" s="13" t="n">
         <v>1186</v>
@@ -35047,7 +35007,7 @@
         </is>
       </c>
       <c r="E415" s="39" t="n">
-        <v>120.41</v>
+        <v>118.97</v>
       </c>
       <c r="F415" s="39" t="n">
         <v>0.85</v>
@@ -35079,7 +35039,7 @@
         <v>259421</v>
       </c>
       <c r="O415" s="13" t="n">
-        <v>3860</v>
+        <v>3888</v>
       </c>
       <c r="P415" s="13" t="n">
         <v>314</v>
@@ -35133,7 +35093,7 @@
         </is>
       </c>
       <c r="E416" s="39" t="n">
-        <v>8.359999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F416" s="39" t="n">
         <v>0.07199999999999999</v>
@@ -35165,7 +35125,7 @@
         <v>39226</v>
       </c>
       <c r="O416" s="13" t="n">
-        <v>3415</v>
+        <v>3324</v>
       </c>
       <c r="P416" s="13" t="n">
         <v>312</v>
@@ -35539,7 +35499,7 @@
         </is>
       </c>
       <c r="E421" s="39" t="n">
-        <v>84.23</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="F421" s="39" t="n">
         <v>0.7</v>
@@ -35699,7 +35659,7 @@
         </is>
       </c>
       <c r="E423" s="39" t="n">
-        <v>90.28</v>
+        <v>90.19</v>
       </c>
       <c r="F423" s="39" t="n">
         <v>0.7</v>
@@ -35855,7 +35815,7 @@
         </is>
       </c>
       <c r="E425" s="39" t="n">
-        <v>79.48999999999999</v>
+        <v>77</v>
       </c>
       <c r="F425" s="39" t="n">
         <v>0.72</v>
@@ -35887,7 +35847,7 @@
         <v>3276</v>
       </c>
       <c r="O425" s="13" t="n">
-        <v>2193</v>
+        <v>2141</v>
       </c>
       <c r="P425" s="13" t="n">
         <v>377</v>
@@ -35941,7 +35901,7 @@
         </is>
       </c>
       <c r="E426" s="39" t="n">
-        <v>3.89</v>
+        <v>3.64</v>
       </c>
       <c r="F426" s="39" t="n">
         <v>0.03</v>
@@ -36019,7 +35979,7 @@
         </is>
       </c>
       <c r="E427" s="39" t="n">
-        <v>95.61</v>
+        <v>98</v>
       </c>
       <c r="F427" s="39" t="n">
         <v>0.88</v>
@@ -36051,7 +36011,7 @@
         <v>6064</v>
       </c>
       <c r="O427" s="13" t="n">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="P427" s="13" t="n">
         <v>98</v>
@@ -36489,7 +36449,7 @@
       </c>
       <c r="D433" s="13" t="n"/>
       <c r="E433" s="39" t="n">
-        <v>12.49</v>
+        <v>12.75</v>
       </c>
       <c r="F433" s="39" t="n">
         <v>0.3233</v>
@@ -36731,7 +36691,7 @@
         </is>
       </c>
       <c r="E436" s="39" t="n">
-        <v>9.75</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F436" s="39" t="n">
         <v>0.11</v>
@@ -36783,7 +36743,7 @@
       </c>
       <c r="V436" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=508156</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512246</t>
         </is>
       </c>
     </row>
@@ -36809,7 +36769,7 @@
         </is>
       </c>
       <c r="E437" s="39" t="n">
-        <v>72.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="F437" s="39" t="n">
         <v>0.43</v>
@@ -36841,7 +36801,7 @@
         <v>1873</v>
       </c>
       <c r="O437" s="13" t="n">
-        <v>1993</v>
+        <v>1943</v>
       </c>
       <c r="P437" s="13" t="n">
         <v>179</v>
@@ -36891,7 +36851,7 @@
       </c>
       <c r="D438" s="13" t="n"/>
       <c r="E438" s="39" t="n">
-        <v>85.66</v>
+        <v>85.27</v>
       </c>
       <c r="F438" s="39" t="n">
         <v>0.7885</v>
@@ -36972,7 +36932,7 @@
         <v>36.05</v>
       </c>
       <c r="F439" s="39" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="G439" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -37029,7 +36989,7 @@
       </c>
       <c r="V439" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494939</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510910</t>
         </is>
       </c>
     </row>
@@ -37131,7 +37091,7 @@
         </is>
       </c>
       <c r="E441" s="39" t="n">
-        <v>87.8</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="F441" s="39" t="n">
         <v>1</v>
@@ -37209,7 +37169,7 @@
         </is>
       </c>
       <c r="E442" s="39" t="n">
-        <v>12.5</v>
+        <v>12.18</v>
       </c>
       <c r="F442" s="39" t="n">
         <v>0.07000000000000001</v>
@@ -37241,7 +37201,7 @@
         <v>25373</v>
       </c>
       <c r="O442" s="13" t="n">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="P442" s="13" t="n">
         <v>0</v>
@@ -37269,7 +37229,7 @@
       </c>
       <c r="V442" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495613</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512148</t>
         </is>
       </c>
     </row>
@@ -37355,7 +37315,7 @@
       </c>
       <c r="V443" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495589</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511983</t>
         </is>
       </c>
     </row>
@@ -37377,7 +37337,7 @@
       </c>
       <c r="D444" s="13" t="n"/>
       <c r="E444" s="39" t="n">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="F444" s="39" t="inlineStr">
         <is>
@@ -37435,7 +37395,7 @@
       </c>
       <c r="V444" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495589</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511983</t>
         </is>
       </c>
     </row>
@@ -37461,7 +37421,7 @@
         </is>
       </c>
       <c r="E445" s="39" t="n">
-        <v>83.16</v>
+        <v>81.7</v>
       </c>
       <c r="F445" s="39" t="n">
         <v>0.65</v>
@@ -37493,7 +37453,7 @@
         <v>44856</v>
       </c>
       <c r="O445" s="13" t="n">
-        <v>2329</v>
+        <v>2310</v>
       </c>
       <c r="P445" s="13" t="n">
         <v>213</v>
@@ -37521,7 +37481,7 @@
       </c>
       <c r="V445" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=495655</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512020</t>
         </is>
       </c>
     </row>
@@ -37547,7 +37507,7 @@
         </is>
       </c>
       <c r="E446" s="39" t="n">
-        <v>113.45</v>
+        <v>112.84</v>
       </c>
       <c r="F446" s="39" t="n">
         <v>0.78</v>
@@ -37579,7 +37539,7 @@
         <v>312017</v>
       </c>
       <c r="O446" s="13" t="n">
-        <v>2491</v>
+        <v>2478</v>
       </c>
       <c r="P446" s="13" t="n">
         <v>190</v>
@@ -37636,7 +37596,7 @@
         <v>108.4</v>
       </c>
       <c r="F447" s="39" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="G447" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -37665,7 +37625,7 @@
         <v>336875</v>
       </c>
       <c r="O447" s="13" t="n">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="P447" s="13" t="n">
         <v>408</v>
@@ -37719,7 +37679,7 @@
         </is>
       </c>
       <c r="E448" s="39" t="n">
-        <v>22.64</v>
+        <v>22.51</v>
       </c>
       <c r="F448" s="39" t="n">
         <v>0.1</v>
@@ -37751,7 +37711,7 @@
         <v>61991</v>
       </c>
       <c r="O448" s="13" t="n">
-        <v>2405</v>
+        <v>2388</v>
       </c>
       <c r="P448" s="13" t="n">
         <v>439</v>
@@ -37805,7 +37765,7 @@
         </is>
       </c>
       <c r="E449" s="39" t="n">
-        <v>8.66</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F449" s="39" t="n">
         <v>0.075</v>
@@ -37857,7 +37817,7 @@
       </c>
       <c r="V449" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510308</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511442</t>
         </is>
       </c>
     </row>
@@ -37969,7 +37929,7 @@
         </is>
       </c>
       <c r="E451" s="39" t="n">
-        <v>127.8</v>
+        <v>127.63</v>
       </c>
       <c r="F451" s="39" t="n">
         <v>1.12</v>
@@ -38001,7 +37961,7 @@
         <v>3311</v>
       </c>
       <c r="O451" s="13" t="n">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="P451" s="13" t="n">
         <v>140</v>
@@ -38029,7 +37989,7 @@
       </c>
       <c r="V451" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494077</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511585</t>
         </is>
       </c>
     </row>
@@ -38055,7 +38015,7 @@
         </is>
       </c>
       <c r="E452" s="39" t="n">
-        <v>998.97</v>
+        <v>860</v>
       </c>
       <c r="F452" s="39" t="n">
         <v>3.305</v>
@@ -38133,7 +38093,7 @@
         </is>
       </c>
       <c r="E453" s="39" t="n">
-        <v>10.59</v>
+        <v>10.7</v>
       </c>
       <c r="F453" s="39" t="n">
         <v>0.12</v>
@@ -38213,7 +38173,7 @@
         </is>
       </c>
       <c r="E454" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="F454" s="39" t="n">
         <v>1.01</v>
@@ -38369,7 +38329,7 @@
         </is>
       </c>
       <c r="E456" s="39" t="n">
-        <v>96.3</v>
+        <v>96.64</v>
       </c>
       <c r="F456" s="39" t="n">
         <v>1.2</v>
@@ -38423,7 +38383,7 @@
       </c>
       <c r="V456" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=494798</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511587</t>
         </is>
       </c>
     </row>
@@ -38449,7 +38409,7 @@
         </is>
       </c>
       <c r="E457" s="39" t="n">
-        <v>9.19</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F457" s="39" t="n">
         <v>0.12</v>
@@ -38529,7 +38489,7 @@
         </is>
       </c>
       <c r="E458" s="39" t="n">
-        <v>98.7</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="F458" s="39" t="n">
         <v>1.4</v>
@@ -38685,7 +38645,7 @@
         </is>
       </c>
       <c r="E460" s="39" t="n">
-        <v>9.99</v>
+        <v>9.98</v>
       </c>
       <c r="F460" s="39" t="n">
         <v>0.13</v>
@@ -38761,7 +38721,7 @@
       </c>
       <c r="D461" s="13" t="n"/>
       <c r="E461" s="39" t="n">
-        <v>120.87</v>
+        <v>118.5</v>
       </c>
       <c r="F461" s="39" t="n">
         <v>2.26</v>
@@ -38845,7 +38805,7 @@
         </is>
       </c>
       <c r="E462" s="39" t="n">
-        <v>92.55</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F462" s="39" t="n">
         <v>1.1</v>
@@ -38925,7 +38885,7 @@
         </is>
       </c>
       <c r="E463" s="39" t="n">
-        <v>26.23</v>
+        <v>24.85</v>
       </c>
       <c r="F463" s="39" t="n">
         <v>0.24</v>
@@ -39005,7 +38965,7 @@
         </is>
       </c>
       <c r="E464" s="39" t="n">
-        <v>99.04000000000001</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="F464" s="39" t="n">
         <v>1.28</v>
@@ -39085,7 +39045,7 @@
         </is>
       </c>
       <c r="E465" s="39" t="n">
-        <v>107.42</v>
+        <v>105.78</v>
       </c>
       <c r="F465" s="39" t="n">
         <v>1.11</v>
@@ -39165,7 +39125,7 @@
         </is>
       </c>
       <c r="E466" s="39" t="n">
-        <v>107.48</v>
+        <v>105.3</v>
       </c>
       <c r="F466" s="39" t="n">
         <v>1.26</v>
@@ -39219,7 +39179,7 @@
       </c>
       <c r="V466" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=492977</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510781</t>
         </is>
       </c>
     </row>
@@ -39324,7 +39284,7 @@
         <v>10.97</v>
       </c>
       <c r="F468" s="39" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G468" s="40">
         <f>Tabela1[[#This Row],[Divid.]]*12/Tabela1[[#This Row],[Preço atual]]</f>
@@ -39401,7 +39361,7 @@
         </is>
       </c>
       <c r="E469" s="39" t="n">
-        <v>9.550000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F469" s="39" t="n">
         <v>0.13</v>
@@ -39481,7 +39441,7 @@
         </is>
       </c>
       <c r="E470" s="39" t="n">
-        <v>91.77</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="F470" s="39" t="n">
         <v>1.13</v>
@@ -39561,7 +39521,7 @@
         </is>
       </c>
       <c r="E471" s="39" t="n">
-        <v>10.5</v>
+        <v>10.44</v>
       </c>
       <c r="F471" s="39" t="n">
         <v>0.13</v>
@@ -39641,7 +39601,7 @@
         </is>
       </c>
       <c r="E472" s="39" t="n">
-        <v>9.73</v>
+        <v>9.59</v>
       </c>
       <c r="F472" s="39" t="n">
         <v>0.14</v>
@@ -39695,7 +39655,7 @@
       </c>
       <c r="V472" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=492357</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=510730</t>
         </is>
       </c>
     </row>
@@ -39721,7 +39681,7 @@
         </is>
       </c>
       <c r="E473" s="39" t="n">
-        <v>10.22</v>
+        <v>10.4</v>
       </c>
       <c r="F473" s="39" t="n">
         <v>0.12</v>
@@ -39755,7 +39715,7 @@
         <v>46570</v>
       </c>
       <c r="O473" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P473" s="13" t="n">
         <v>7</v>
@@ -39809,7 +39769,7 @@
         </is>
       </c>
       <c r="E474" s="39" t="n">
-        <v>95.72</v>
+        <v>95.75</v>
       </c>
       <c r="F474" s="39" t="n">
         <v>1.19</v>
@@ -39889,7 +39849,7 @@
         </is>
       </c>
       <c r="E475" s="39" t="n">
-        <v>9.529999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="F475" s="39" t="n">
         <v>0.13</v>
@@ -39943,7 +39903,7 @@
       </c>
       <c r="V475" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=491926</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=512111</t>
         </is>
       </c>
     </row>
@@ -39969,7 +39929,7 @@
         </is>
       </c>
       <c r="E476" s="39" t="n">
-        <v>9.460000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="F476" s="39" t="n">
         <v>0.12</v>
@@ -40023,7 +39983,7 @@
       </c>
       <c r="V476" s="38" t="inlineStr">
         <is>
-          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=508246</t>
+          <t>https://fnet.bmfbovespa.com.br/fnet/publico/downloadDocumento?id=511994</t>
         </is>
       </c>
     </row>
